--- a/Data/2018-07-01_HS_datasheet.xlsx
+++ b/Data/2018-07-01_HS_datasheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="72">
   <si>
     <t>cohort</t>
   </si>
@@ -144,30 +144,6 @@
     <t>19:37</t>
   </si>
   <si>
-    <t>150:42</t>
-  </si>
-  <si>
-    <t>114:10</t>
-  </si>
-  <si>
-    <t>132:17</t>
-  </si>
-  <si>
-    <t>155:41</t>
-  </si>
-  <si>
-    <t>111:12</t>
-  </si>
-  <si>
-    <t>141:12</t>
-  </si>
-  <si>
-    <t>133:20</t>
-  </si>
-  <si>
-    <t>142:10</t>
-  </si>
-  <si>
     <t>16:48</t>
   </si>
   <si>
@@ -244,6 +220,21 @@
   </si>
   <si>
     <t>132:41</t>
+  </si>
+  <si>
+    <t>20:42</t>
+  </si>
+  <si>
+    <t>2:17</t>
+  </si>
+  <si>
+    <t>11:12</t>
+  </si>
+  <si>
+    <t>3:20</t>
+  </si>
+  <si>
+    <t>12:10</t>
   </si>
 </sst>
 </file>
@@ -616,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -837,6 +828,9 @@
       <c r="G9">
         <v>38.4</v>
       </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
       <c r="I9" s="1">
         <v>41820</v>
       </c>
@@ -978,6 +972,9 @@
       <c r="E15" t="s">
         <v>13</v>
       </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
       <c r="I15" s="1">
         <v>41820</v>
       </c>
@@ -999,7 +996,10 @@
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>41</v>
+        <v>67</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
       </c>
       <c r="I16" s="1">
         <v>41820</v>
@@ -1021,8 +1021,8 @@
       <c r="E17" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>42</v>
+      <c r="H17">
+        <v>0</v>
       </c>
       <c r="I17" s="1">
         <v>41820</v>
@@ -1045,7 +1045,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>43</v>
+        <v>68</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
       </c>
       <c r="I18" s="1">
         <v>41820</v>
@@ -1068,7 +1071,10 @@
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
       </c>
       <c r="I19" s="1">
         <v>41820</v>
@@ -1090,8 +1096,8 @@
       <c r="E20" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>45</v>
+      <c r="H20">
+        <v>0</v>
       </c>
       <c r="I20" s="1">
         <v>41820</v>
@@ -1114,7 +1120,10 @@
         <v>11</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
       </c>
       <c r="I21" s="1">
         <v>41820</v>
@@ -1136,6 +1145,9 @@
       <c r="E22" t="s">
         <v>11</v>
       </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
       <c r="I22" s="1">
         <v>41820</v>
       </c>
@@ -1156,6 +1168,9 @@
       <c r="E23" t="s">
         <v>13</v>
       </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
       <c r="I23" s="1">
         <v>41820</v>
       </c>
@@ -1177,7 +1192,10 @@
         <v>11</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
       </c>
       <c r="I24" s="1">
         <v>41820</v>
@@ -1199,6 +1217,9 @@
       <c r="E25" t="s">
         <v>11</v>
       </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
       <c r="I25" s="1">
         <v>41820</v>
       </c>
@@ -1219,6 +1240,9 @@
       <c r="E26" t="s">
         <v>11</v>
       </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
       <c r="I26" s="1">
         <v>41820</v>
       </c>
@@ -1240,7 +1264,10 @@
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
       </c>
       <c r="I27" s="1">
         <v>41820</v>
@@ -1263,7 +1290,10 @@
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
       </c>
       <c r="I28" s="1">
         <v>41820</v>
@@ -1286,7 +1316,10 @@
         <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
       </c>
       <c r="I29" s="1">
         <v>41820</v>
@@ -1309,7 +1342,10 @@
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
       </c>
       <c r="I30" s="1">
         <v>41820</v>
@@ -1332,7 +1368,10 @@
         <v>13</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
       </c>
       <c r="I31" s="1">
         <v>41820</v>
@@ -1355,7 +1394,10 @@
         <v>13</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
       </c>
       <c r="I32" s="1">
         <v>41820</v>
@@ -1378,7 +1420,10 @@
         <v>13</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
       </c>
       <c r="I33" s="1">
         <v>41820</v>
@@ -1401,7 +1446,7 @@
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I34" s="1">
         <v>41820</v>
@@ -1424,7 +1469,10 @@
         <v>13</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
       </c>
       <c r="I35" s="1">
         <v>41820</v>
@@ -1447,7 +1495,7 @@
         <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I36" s="1">
         <v>41820</v>
@@ -1470,7 +1518,7 @@
         <v>11</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I37" s="1">
         <v>41820</v>
@@ -1493,7 +1541,10 @@
         <v>13</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
       </c>
       <c r="I38" s="1">
         <v>41820</v>
@@ -1516,7 +1567,7 @@
         <v>13</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I39" s="1">
         <v>41820</v>
@@ -1539,7 +1590,10 @@
         <v>13</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
       </c>
       <c r="I40" s="1">
         <v>41820</v>
@@ -1562,7 +1616,10 @@
         <v>11</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
       </c>
       <c r="I41" s="1">
         <v>41820</v>
@@ -1585,10 +1642,13 @@
         <v>13</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G42">
         <v>37.200000000000003</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
       </c>
       <c r="I42" s="1">
         <v>41820</v>
@@ -1611,10 +1671,13 @@
         <v>13</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G43">
         <v>39.299999999999997</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
       </c>
       <c r="I43" s="1">
         <v>41820</v>
@@ -1637,10 +1700,13 @@
         <v>13</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G44">
         <v>37.5</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
       </c>
       <c r="I44" s="1">
         <v>41820</v>
@@ -1663,10 +1729,13 @@
         <v>13</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G45">
         <v>38.4</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
       </c>
       <c r="I45" s="1">
         <v>41820</v>
@@ -1689,10 +1758,13 @@
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G46">
         <v>39.6</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
       </c>
       <c r="I46" s="1">
         <v>41820</v>
@@ -1715,7 +1787,7 @@
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I47" s="1">
         <v>41820</v>
@@ -1738,10 +1810,13 @@
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G48">
         <v>38.299999999999997</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
       </c>
       <c r="I48" s="1">
         <v>41820</v>
@@ -1764,7 +1839,10 @@
         <v>13</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
       </c>
       <c r="I49" s="1">
         <v>41820</v>
@@ -1787,7 +1865,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I50" s="1">
         <v>41820</v>
@@ -1810,10 +1888,13 @@
         <v>11</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G51">
         <v>39.6</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
       </c>
       <c r="I51" s="1">
         <v>41820</v>
@@ -1836,7 +1917,7 @@
         <v>13</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I52" s="1">
         <v>41820</v>
@@ -1859,10 +1940,13 @@
         <v>13</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G53">
         <v>37.4</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
       </c>
       <c r="I53" s="1">
         <v>41820</v>

--- a/Data/2018-07-01_HS_datasheet.xlsx
+++ b/Data/2018-07-01_HS_datasheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="98">
   <si>
     <t>cohort</t>
   </si>
@@ -236,6 +236,84 @@
   <si>
     <t>12:10</t>
   </si>
+  <si>
+    <t>13:25</t>
+  </si>
+  <si>
+    <t>5:20</t>
+  </si>
+  <si>
+    <t>26:10</t>
+  </si>
+  <si>
+    <t>14:12</t>
+  </si>
+  <si>
+    <t>6:44</t>
+  </si>
+  <si>
+    <t>13:34</t>
+  </si>
+  <si>
+    <t>27:02</t>
+  </si>
+  <si>
+    <t>1:37</t>
+  </si>
+  <si>
+    <t>4:45</t>
+  </si>
+  <si>
+    <t>23:14</t>
+  </si>
+  <si>
+    <t>3:06</t>
+  </si>
+  <si>
+    <t>7:46</t>
+  </si>
+  <si>
+    <t>1:02</t>
+  </si>
+  <si>
+    <t>18:04</t>
+  </si>
+  <si>
+    <t>23:22</t>
+  </si>
+  <si>
+    <t>22:15</t>
+  </si>
+  <si>
+    <t>14:34</t>
+  </si>
+  <si>
+    <t>4:30</t>
+  </si>
+  <si>
+    <t>6:51</t>
+  </si>
+  <si>
+    <t>20:45</t>
+  </si>
+  <si>
+    <t>15:18</t>
+  </si>
+  <si>
+    <t>24:00</t>
+  </si>
+  <si>
+    <t>10:19</t>
+  </si>
+  <si>
+    <t>24:46</t>
+  </si>
+  <si>
+    <t>3:45</t>
+  </si>
+  <si>
+    <t>0:00</t>
+  </si>
 </sst>
 </file>
 
@@ -270,10 +348,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I521"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1968,6 +2047,9 @@
       <c r="E54" t="s">
         <v>13</v>
       </c>
+      <c r="G54" s="3">
+        <v>41.6</v>
+      </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
@@ -1985,6 +2067,9 @@
       <c r="E55" t="s">
         <v>11</v>
       </c>
+      <c r="G55" s="3">
+        <v>41</v>
+      </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
@@ -2002,6 +2087,9 @@
       <c r="E56" t="s">
         <v>13</v>
       </c>
+      <c r="G56" s="3">
+        <v>41</v>
+      </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
@@ -2019,6 +2107,9 @@
       <c r="E57" t="s">
         <v>13</v>
       </c>
+      <c r="G57" s="3">
+        <v>41.2</v>
+      </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
@@ -2036,6 +2127,9 @@
       <c r="E58" t="s">
         <v>11</v>
       </c>
+      <c r="G58" s="3">
+        <v>39.799999999999997</v>
+      </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
@@ -2053,6 +2147,9 @@
       <c r="E59" t="s">
         <v>11</v>
       </c>
+      <c r="G59" s="3">
+        <v>41.6</v>
+      </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
@@ -2070,6 +2167,9 @@
       <c r="E60" t="s">
         <v>11</v>
       </c>
+      <c r="G60" s="3">
+        <v>41</v>
+      </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
@@ -2087,6 +2187,9 @@
       <c r="E61" t="s">
         <v>11</v>
       </c>
+      <c r="G61" s="3">
+        <v>39</v>
+      </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
@@ -2104,6 +2207,9 @@
       <c r="E62" t="s">
         <v>13</v>
       </c>
+      <c r="G62" s="3">
+        <v>41</v>
+      </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
@@ -2121,6 +2227,9 @@
       <c r="E63" t="s">
         <v>11</v>
       </c>
+      <c r="G63" s="3">
+        <v>41.6</v>
+      </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
@@ -2138,8 +2247,11 @@
       <c r="E64" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="G64" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>2</v>
       </c>
@@ -2155,8 +2267,11 @@
       <c r="E65" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="G65" s="3">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>2</v>
       </c>
@@ -2172,8 +2287,11 @@
       <c r="E66" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="G66" s="3">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>2</v>
       </c>
@@ -2189,8 +2307,11 @@
       <c r="E67" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>2</v>
       </c>
@@ -2206,8 +2327,11 @@
       <c r="E68" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>2</v>
       </c>
@@ -2223,8 +2347,11 @@
       <c r="E69" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>2</v>
       </c>
@@ -2240,8 +2367,11 @@
       <c r="E70" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>2</v>
       </c>
@@ -2257,8 +2387,11 @@
       <c r="E71" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>2</v>
       </c>
@@ -2274,8 +2407,11 @@
       <c r="E72" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>2</v>
       </c>
@@ -2291,8 +2427,11 @@
       <c r="E73" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>2</v>
       </c>
@@ -2308,8 +2447,11 @@
       <c r="E74" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>2</v>
       </c>
@@ -2325,8 +2467,11 @@
       <c r="E75" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>2</v>
       </c>
@@ -2342,8 +2487,11 @@
       <c r="E76" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>2</v>
       </c>
@@ -2359,8 +2507,11 @@
       <c r="E77" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>2</v>
       </c>
@@ -2376,8 +2527,11 @@
       <c r="E78" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>2</v>
       </c>
@@ -2393,8 +2547,11 @@
       <c r="E79" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>2</v>
       </c>
@@ -2410,8 +2567,11 @@
       <c r="E80" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>2</v>
       </c>
@@ -2427,8 +2587,11 @@
       <c r="E81" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>2</v>
       </c>
@@ -2444,8 +2607,11 @@
       <c r="E82" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>2</v>
       </c>
@@ -2461,8 +2627,11 @@
       <c r="E83" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>2</v>
       </c>
@@ -2478,8 +2647,11 @@
       <c r="E84" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>2</v>
       </c>
@@ -2495,8 +2667,11 @@
       <c r="E85" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>2</v>
       </c>
@@ -2512,8 +2687,11 @@
       <c r="E86" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>2</v>
       </c>
@@ -2529,8 +2707,11 @@
       <c r="E87" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>2</v>
       </c>
@@ -2546,8 +2727,11 @@
       <c r="E88" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>2</v>
       </c>
@@ -2563,8 +2747,11 @@
       <c r="E89" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>2</v>
       </c>
@@ -2580,8 +2767,11 @@
       <c r="E90" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>2</v>
       </c>
@@ -2597,8 +2787,11 @@
       <c r="E91" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>2</v>
       </c>
@@ -2614,8 +2807,11 @@
       <c r="E92" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>2</v>
       </c>
@@ -2631,8 +2827,11 @@
       <c r="E93" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="G93">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>2</v>
       </c>
@@ -2648,8 +2847,11 @@
       <c r="E94" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="G94">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>2</v>
       </c>
@@ -2665,8 +2867,11 @@
       <c r="E95" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="G95">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>2</v>
       </c>
@@ -2682,8 +2887,11 @@
       <c r="E96" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="G96">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>2</v>
       </c>
@@ -2699,8 +2907,11 @@
       <c r="E97" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="G97">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>2</v>
       </c>
@@ -2716,8 +2927,11 @@
       <c r="E98" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="G98">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>2</v>
       </c>
@@ -2733,8 +2947,11 @@
       <c r="E99" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="G99">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>2</v>
       </c>
@@ -2750,8 +2967,11 @@
       <c r="E100" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="G100">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>2</v>
       </c>
@@ -2767,8 +2987,11 @@
       <c r="E101" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="G101">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>2</v>
       </c>
@@ -2784,8 +3007,11 @@
       <c r="E102" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="G102">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>2</v>
       </c>
@@ -2801,8 +3027,11 @@
       <c r="E103" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="G103">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>2</v>
       </c>
@@ -2818,8 +3047,11 @@
       <c r="E104" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="G104">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>2</v>
       </c>
@@ -2836,7 +3068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>3</v>
       </c>
@@ -2853,7 +3085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>3</v>
       </c>
@@ -2870,7 +3102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>3</v>
       </c>
@@ -2887,7 +3119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>3</v>
       </c>
@@ -2904,7 +3136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>3</v>
       </c>
@@ -2921,7 +3153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>3</v>
       </c>
@@ -2938,7 +3170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>3</v>
       </c>

--- a/Data/2018-07-01_HS_datasheet.xlsx
+++ b/Data/2018-07-01_HS_datasheet.xlsx
@@ -319,6 +319,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -350,9 +353,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,13 +689,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView tabSelected="1" topLeftCell="B78" workbookViewId="0">
+      <selection activeCell="N94" sqref="N94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="6" max="6" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -711,7 +715,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -720,7 +724,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -740,10 +744,10 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -763,10 +767,10 @@
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -786,10 +790,10 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -809,10 +813,10 @@
       <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -832,10 +836,10 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -855,10 +859,10 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -878,10 +882,10 @@
       <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -901,7 +905,7 @@
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G9">
@@ -910,7 +914,7 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -930,13 +934,13 @@
       <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G10">
         <v>38.4</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -956,10 +960,10 @@
       <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -979,10 +983,10 @@
       <c r="E12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1002,10 +1006,10 @@
       <c r="E13" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1025,13 +1029,13 @@
       <c r="E14" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G14">
         <v>38.200000000000003</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1054,7 +1058,7 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1074,13 +1078,13 @@
       <c r="E16" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1103,7 +1107,7 @@
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1123,13 +1127,13 @@
       <c r="E18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>68</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1149,13 +1153,13 @@
       <c r="E19" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1178,7 +1182,7 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1198,13 +1202,13 @@
       <c r="E21" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1227,7 +1231,7 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1250,7 +1254,7 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1270,13 +1274,13 @@
       <c r="E24" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>70</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1299,7 +1303,7 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1322,7 +1326,7 @@
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1342,13 +1346,13 @@
       <c r="E27" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="1" t="s">
         <v>71</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1368,13 +1372,13 @@
       <c r="E28" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1394,13 +1398,13 @@
       <c r="E29" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1420,13 +1424,13 @@
       <c r="E30" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1446,13 +1450,13 @@
       <c r="E31" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1472,13 +1476,13 @@
       <c r="E32" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1498,13 +1502,13 @@
       <c r="E33" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1524,10 +1528,10 @@
       <c r="E34" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1547,13 +1551,13 @@
       <c r="E35" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1573,10 +1577,10 @@
       <c r="E36" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1596,10 +1600,10 @@
       <c r="E37" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1619,13 +1623,13 @@
       <c r="E38" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1645,10 +1649,10 @@
       <c r="E39" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1668,13 +1672,13 @@
       <c r="E40" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1694,13 +1698,13 @@
       <c r="E41" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1720,7 +1724,7 @@
       <c r="E42" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G42">
@@ -1729,7 +1733,7 @@
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1749,7 +1753,7 @@
       <c r="E43" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G43">
@@ -1758,7 +1762,7 @@
       <c r="H43">
         <v>0</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1778,7 +1782,7 @@
       <c r="E44" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G44">
@@ -1787,7 +1791,7 @@
       <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1807,7 +1811,7 @@
       <c r="E45" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G45">
@@ -1816,7 +1820,7 @@
       <c r="H45">
         <v>0</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1836,7 +1840,7 @@
       <c r="E46" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G46">
@@ -1845,7 +1849,7 @@
       <c r="H46">
         <v>0</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1865,10 +1869,10 @@
       <c r="E47" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1888,7 +1892,7 @@
       <c r="E48" t="s">
         <v>11</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G48">
@@ -1897,7 +1901,7 @@
       <c r="H48">
         <v>0</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1917,13 +1921,13 @@
       <c r="E49" t="s">
         <v>13</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1943,10 +1947,10 @@
       <c r="E50" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1966,7 +1970,7 @@
       <c r="E51" t="s">
         <v>11</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="1" t="s">
         <v>64</v>
       </c>
       <c r="G51">
@@ -1975,7 +1979,7 @@
       <c r="H51">
         <v>0</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -1995,10 +1999,10 @@
       <c r="E52" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -2018,7 +2022,7 @@
       <c r="E53" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="1" t="s">
         <v>66</v>
       </c>
       <c r="G53">
@@ -2027,7 +2031,7 @@
       <c r="H53">
         <v>0</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53" s="3">
         <v>41820</v>
       </c>
     </row>
@@ -2047,8 +2051,11 @@
       <c r="E54" t="s">
         <v>13</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="2">
         <v>41.6</v>
+      </c>
+      <c r="I54" s="3">
+        <v>41821</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2067,8 +2074,11 @@
       <c r="E55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="2">
         <v>41</v>
+      </c>
+      <c r="I55" s="3">
+        <v>41821</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2087,8 +2097,11 @@
       <c r="E56" t="s">
         <v>13</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="2">
         <v>41</v>
+      </c>
+      <c r="I56" s="3">
+        <v>41821</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2107,8 +2120,14 @@
       <c r="E57" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="2">
         <v>41.2</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>41821</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2127,8 +2146,11 @@
       <c r="E58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="2">
         <v>39.799999999999997</v>
+      </c>
+      <c r="I58" s="3">
+        <v>41821</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2147,8 +2169,11 @@
       <c r="E59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="2">
         <v>41.6</v>
+      </c>
+      <c r="I59" s="3">
+        <v>41821</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2167,8 +2192,11 @@
       <c r="E60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="2">
         <v>41</v>
+      </c>
+      <c r="I60" s="3">
+        <v>41821</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2187,8 +2215,11 @@
       <c r="E61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="2">
         <v>39</v>
+      </c>
+      <c r="I61" s="3">
+        <v>41821</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2207,8 +2238,11 @@
       <c r="E62" t="s">
         <v>13</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="2">
         <v>41</v>
+      </c>
+      <c r="I62" s="3">
+        <v>41821</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2227,8 +2261,11 @@
       <c r="E63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63" s="2">
         <v>41.6</v>
+      </c>
+      <c r="I63" s="3">
+        <v>41821</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2247,11 +2284,14 @@
       <c r="E64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G64" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="I64" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>2</v>
       </c>
@@ -2267,11 +2307,14 @@
       <c r="E65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G65" s="2">
         <v>40.4</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="I65" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>2</v>
       </c>
@@ -2287,11 +2330,14 @@
       <c r="E66" t="s">
         <v>13</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="2">
         <v>37.1</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="I66" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>2</v>
       </c>
@@ -2307,11 +2353,14 @@
       <c r="E67" t="s">
         <v>13</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="I67" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>2</v>
       </c>
@@ -2327,11 +2376,14 @@
       <c r="E68" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="I68" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>2</v>
       </c>
@@ -2347,11 +2399,14 @@
       <c r="E69" t="s">
         <v>11</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="I69" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>2</v>
       </c>
@@ -2367,11 +2422,14 @@
       <c r="E70" t="s">
         <v>11</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="I70" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>2</v>
       </c>
@@ -2387,11 +2445,14 @@
       <c r="E71" t="s">
         <v>13</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="I71" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>2</v>
       </c>
@@ -2407,11 +2468,14 @@
       <c r="E72" t="s">
         <v>13</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="I72" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>2</v>
       </c>
@@ -2427,11 +2491,14 @@
       <c r="E73" t="s">
         <v>13</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="I73" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>2</v>
       </c>
@@ -2447,11 +2514,14 @@
       <c r="E74" t="s">
         <v>13</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F74" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="I74" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>2</v>
       </c>
@@ -2467,11 +2537,14 @@
       <c r="E75" t="s">
         <v>11</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F75" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="I75" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>2</v>
       </c>
@@ -2487,11 +2560,14 @@
       <c r="E76" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="I76" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>2</v>
       </c>
@@ -2507,11 +2583,17 @@
       <c r="E77" t="s">
         <v>13</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F77" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>2</v>
       </c>
@@ -2527,11 +2609,14 @@
       <c r="E78" t="s">
         <v>13</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F78" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="I78" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>2</v>
       </c>
@@ -2547,11 +2632,14 @@
       <c r="E79" t="s">
         <v>11</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="F79" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="I79" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>2</v>
       </c>
@@ -2567,11 +2655,14 @@
       <c r="E80" t="s">
         <v>11</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F80" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="I80" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>2</v>
       </c>
@@ -2587,11 +2678,17 @@
       <c r="E81" t="s">
         <v>13</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F81" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>2</v>
       </c>
@@ -2607,11 +2704,17 @@
       <c r="E82" t="s">
         <v>13</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F82" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>2</v>
       </c>
@@ -2627,11 +2730,17 @@
       <c r="E83" t="s">
         <v>11</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="F83" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>2</v>
       </c>
@@ -2647,11 +2756,14 @@
       <c r="E84" t="s">
         <v>13</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="F84" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="I84" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>2</v>
       </c>
@@ -2667,11 +2779,14 @@
       <c r="E85" t="s">
         <v>13</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="F85" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="I85" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>2</v>
       </c>
@@ -2687,11 +2802,14 @@
       <c r="E86" t="s">
         <v>13</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="F86" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="I86" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>2</v>
       </c>
@@ -2707,11 +2825,14 @@
       <c r="E87" t="s">
         <v>11</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="F87" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="I87" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>2</v>
       </c>
@@ -2727,11 +2848,14 @@
       <c r="E88" t="s">
         <v>11</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="F88" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="I88" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89">
         <v>2</v>
       </c>
@@ -2747,11 +2871,14 @@
       <c r="E89" t="s">
         <v>13</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="F89" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="I89" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90">
         <v>2</v>
       </c>
@@ -2767,11 +2894,17 @@
       <c r="E90" t="s">
         <v>13</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="F90" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91">
         <v>2</v>
       </c>
@@ -2787,11 +2920,14 @@
       <c r="E91" t="s">
         <v>13</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="F91" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="I91" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92">
         <v>2</v>
       </c>
@@ -2807,11 +2943,14 @@
       <c r="E92" t="s">
         <v>13</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="F92" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="I92" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93">
         <v>2</v>
       </c>
@@ -2830,8 +2969,14 @@
       <c r="G93">
         <v>39.299999999999997</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94">
         <v>2</v>
       </c>
@@ -2850,8 +2995,11 @@
       <c r="G94">
         <v>38.1</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="I94" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95">
         <v>2</v>
       </c>
@@ -2870,8 +3018,14 @@
       <c r="G95">
         <v>38.9</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96">
         <v>2</v>
       </c>
@@ -2890,8 +3044,11 @@
       <c r="G96">
         <v>39</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="I96" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97">
         <v>2</v>
       </c>
@@ -2910,8 +3067,11 @@
       <c r="G97">
         <v>37.6</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="I97" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98">
         <v>2</v>
       </c>
@@ -2930,8 +3090,11 @@
       <c r="G98">
         <v>39.5</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="I98" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99">
         <v>2</v>
       </c>
@@ -2950,8 +3113,11 @@
       <c r="G99">
         <v>37.200000000000003</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="I99" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100">
         <v>2</v>
       </c>
@@ -2970,8 +3136,11 @@
       <c r="G100">
         <v>38.700000000000003</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="I100" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101">
         <v>2</v>
       </c>
@@ -2990,8 +3159,11 @@
       <c r="G101">
         <v>39.4</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="I101" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102">
         <v>2</v>
       </c>
@@ -3010,8 +3182,11 @@
       <c r="G102">
         <v>37.1</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="I102" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103">
         <v>2</v>
       </c>
@@ -3030,8 +3205,11 @@
       <c r="G103">
         <v>39.1</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="I103" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104">
         <v>2</v>
       </c>
@@ -3050,8 +3228,11 @@
       <c r="G104">
         <v>37</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="I104" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105">
         <v>2</v>
       </c>
@@ -3068,7 +3249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:9">
       <c r="A106">
         <v>3</v>
       </c>
@@ -3085,7 +3266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:9">
       <c r="A107">
         <v>3</v>
       </c>
@@ -3102,7 +3283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:9">
       <c r="A108">
         <v>3</v>
       </c>
@@ -3119,7 +3300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:9">
       <c r="A109">
         <v>3</v>
       </c>
@@ -3136,7 +3317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:9">
       <c r="A110">
         <v>3</v>
       </c>
@@ -3153,7 +3334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:9">
       <c r="A111">
         <v>3</v>
       </c>
@@ -3170,7 +3351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:9">
       <c r="A112">
         <v>3</v>
       </c>

--- a/Data/2018-07-01_HS_datasheet.xlsx
+++ b/Data/2018-07-01_HS_datasheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="121">
   <si>
     <t>cohort</t>
   </si>
@@ -313,6 +313,75 @@
   </si>
   <si>
     <t>0:00</t>
+  </si>
+  <si>
+    <t>12:43</t>
+  </si>
+  <si>
+    <t>13:38</t>
+  </si>
+  <si>
+    <t>10:24</t>
+  </si>
+  <si>
+    <t>14:53</t>
+  </si>
+  <si>
+    <t>0:20</t>
+  </si>
+  <si>
+    <t>0:49</t>
+  </si>
+  <si>
+    <t>18:58</t>
+  </si>
+  <si>
+    <t>2:01</t>
+  </si>
+  <si>
+    <t>21:03</t>
+  </si>
+  <si>
+    <t>19:16</t>
+  </si>
+  <si>
+    <t>20:03</t>
+  </si>
+  <si>
+    <t>9:05</t>
+  </si>
+  <si>
+    <t>21:28</t>
+  </si>
+  <si>
+    <t>18:12</t>
+  </si>
+  <si>
+    <t>3:08</t>
+  </si>
+  <si>
+    <t>4:40</t>
+  </si>
+  <si>
+    <t>12:50</t>
+  </si>
+  <si>
+    <t>0:29</t>
+  </si>
+  <si>
+    <t>14:40</t>
+  </si>
+  <si>
+    <t>6:30</t>
+  </si>
+  <si>
+    <t>2:51</t>
+  </si>
+  <si>
+    <t>11:10</t>
+  </si>
+  <si>
+    <t>0:10</t>
   </si>
 </sst>
 </file>
@@ -320,7 +389,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -355,7 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B78" workbookViewId="0">
-      <selection activeCell="N94" sqref="N94"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="K125" sqref="K125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2287,6 +2356,9 @@
       <c r="G64" s="2">
         <v>41</v>
       </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
       <c r="I64" s="3">
         <v>41821</v>
       </c>
@@ -3088,7 +3160,7 @@
         <v>13</v>
       </c>
       <c r="G98">
-        <v>39.5</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="I98" s="3">
         <v>41821</v>
@@ -3111,7 +3183,7 @@
         <v>13</v>
       </c>
       <c r="G99">
-        <v>37.200000000000003</v>
+        <v>39.5</v>
       </c>
       <c r="I99" s="3">
         <v>41821</v>
@@ -3134,7 +3206,7 @@
         <v>11</v>
       </c>
       <c r="G100">
-        <v>38.700000000000003</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="I100" s="3">
         <v>41821</v>
@@ -3157,7 +3229,7 @@
         <v>11</v>
       </c>
       <c r="G101">
-        <v>39.4</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="I101" s="3">
         <v>41821</v>
@@ -3180,7 +3252,7 @@
         <v>11</v>
       </c>
       <c r="G102">
-        <v>37.1</v>
+        <v>39.4</v>
       </c>
       <c r="I102" s="3">
         <v>41821</v>
@@ -3203,7 +3275,7 @@
         <v>11</v>
       </c>
       <c r="G103">
-        <v>39.1</v>
+        <v>37.1</v>
       </c>
       <c r="I103" s="3">
         <v>41821</v>
@@ -3226,7 +3298,7 @@
         <v>11</v>
       </c>
       <c r="G104">
-        <v>37</v>
+        <v>39.1</v>
       </c>
       <c r="I104" s="3">
         <v>41821</v>
@@ -3248,6 +3320,12 @@
       <c r="E105" t="s">
         <v>11</v>
       </c>
+      <c r="G105">
+        <v>37</v>
+      </c>
+      <c r="I105" s="3">
+        <v>41821</v>
+      </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106">
@@ -3265,6 +3343,12 @@
       <c r="E106" t="s">
         <v>13</v>
       </c>
+      <c r="G106">
+        <v>41.3</v>
+      </c>
+      <c r="I106" s="3">
+        <v>41825</v>
+      </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107">
@@ -3282,6 +3366,12 @@
       <c r="E107" t="s">
         <v>13</v>
       </c>
+      <c r="G107">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="I107" s="3">
+        <v>41825</v>
+      </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108">
@@ -3299,6 +3389,12 @@
       <c r="E108" t="s">
         <v>13</v>
       </c>
+      <c r="G108">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="I108" s="3">
+        <v>41825</v>
+      </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109">
@@ -3316,6 +3412,12 @@
       <c r="E109" t="s">
         <v>11</v>
       </c>
+      <c r="G109">
+        <v>41.3</v>
+      </c>
+      <c r="I109" s="3">
+        <v>41825</v>
+      </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110">
@@ -3333,6 +3435,12 @@
       <c r="E110" t="s">
         <v>13</v>
       </c>
+      <c r="G110">
+        <v>41.3</v>
+      </c>
+      <c r="I110" s="3">
+        <v>41825</v>
+      </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111">
@@ -3350,6 +3458,12 @@
       <c r="E111" t="s">
         <v>11</v>
       </c>
+      <c r="G111">
+        <v>41.3</v>
+      </c>
+      <c r="I111" s="3">
+        <v>41825</v>
+      </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112">
@@ -3367,8 +3481,14 @@
       <c r="E112" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="G112">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="I112" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113">
         <v>3</v>
       </c>
@@ -3384,8 +3504,14 @@
       <c r="E113" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="G113">
+        <v>41.3</v>
+      </c>
+      <c r="I113" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114">
         <v>3</v>
       </c>
@@ -3401,8 +3527,14 @@
       <c r="E114" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="G114">
+        <v>41.3</v>
+      </c>
+      <c r="I114" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115">
         <v>3</v>
       </c>
@@ -3418,8 +3550,14 @@
       <c r="E115" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="G115">
+        <v>41.4</v>
+      </c>
+      <c r="I115" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116">
         <v>3</v>
       </c>
@@ -3435,8 +3573,14 @@
       <c r="E116" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="G116">
+        <v>39.9</v>
+      </c>
+      <c r="I116" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117">
         <v>3</v>
       </c>
@@ -3452,8 +3596,17 @@
       <c r="E117" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="G117">
+        <v>41.3</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118">
         <v>3</v>
       </c>
@@ -3469,8 +3622,14 @@
       <c r="E118" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="G118">
+        <v>38.1</v>
+      </c>
+      <c r="I118" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119">
         <v>3</v>
       </c>
@@ -3486,8 +3645,14 @@
       <c r="E119" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="F119" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I119" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120">
         <v>3</v>
       </c>
@@ -3503,8 +3668,14 @@
       <c r="E120" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="F120" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I120" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121">
         <v>3</v>
       </c>
@@ -3520,8 +3691,14 @@
       <c r="E121" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="F121" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I121" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122">
         <v>3</v>
       </c>
@@ -3537,8 +3714,14 @@
       <c r="E122" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="F122" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I122" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123">
         <v>3</v>
       </c>
@@ -3554,8 +3737,17 @@
       <c r="E123" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="F123" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124">
         <v>3</v>
       </c>
@@ -3571,8 +3763,14 @@
       <c r="E124" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="F124" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I124" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125">
         <v>3</v>
       </c>
@@ -3588,8 +3786,14 @@
       <c r="E125" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="F125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I125" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126">
         <v>3</v>
       </c>
@@ -3605,8 +3809,17 @@
       <c r="E126" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="F126" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127">
         <v>3</v>
       </c>
@@ -3622,8 +3835,14 @@
       <c r="E127" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="F127" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I127" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128">
         <v>3</v>
       </c>
@@ -3639,8 +3858,14 @@
       <c r="E128" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="F128" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I128" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129">
         <v>3</v>
       </c>
@@ -3656,8 +3881,17 @@
       <c r="E129" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="F129" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130">
         <v>3</v>
       </c>
@@ -3673,8 +3907,14 @@
       <c r="E130" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="F130" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I130" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131">
         <v>3</v>
       </c>
@@ -3690,8 +3930,14 @@
       <c r="E131" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="F131" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I131" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132">
         <v>3</v>
       </c>
@@ -3707,8 +3953,14 @@
       <c r="E132" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="F132" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I132" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133">
         <v>3</v>
       </c>
@@ -3724,8 +3976,14 @@
       <c r="E133" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="F133" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I133" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134">
         <v>3</v>
       </c>
@@ -3741,8 +3999,14 @@
       <c r="E134" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="F134" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I134" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135">
         <v>3</v>
       </c>
@@ -3758,8 +4022,17 @@
       <c r="E135" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="F135" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136">
         <v>3</v>
       </c>
@@ -3775,8 +4048,14 @@
       <c r="E136" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="F136" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I136" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137">
         <v>3</v>
       </c>
@@ -3792,8 +4071,14 @@
       <c r="E137" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="F137" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I137" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138">
         <v>3</v>
       </c>
@@ -3809,8 +4094,14 @@
       <c r="E138" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="F138" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I138" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139">
         <v>3</v>
       </c>
@@ -3826,8 +4117,14 @@
       <c r="E139" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="F139" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I139" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140">
         <v>3</v>
       </c>
@@ -3843,8 +4140,14 @@
       <c r="E140" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="F140" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I140" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141">
         <v>3</v>
       </c>
@@ -3860,8 +4163,14 @@
       <c r="E141" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="F141" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I141" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142">
         <v>3</v>
       </c>
@@ -3877,8 +4186,14 @@
       <c r="E142" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="F142" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I142" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143">
         <v>3</v>
       </c>
@@ -3894,8 +4209,14 @@
       <c r="E143" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="F143" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I143" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144">
         <v>3</v>
       </c>
@@ -3911,8 +4232,14 @@
       <c r="E144" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="F144" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I144" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145">
         <v>3</v>
       </c>
@@ -3928,8 +4255,17 @@
       <c r="E145" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="G145">
+        <v>38.6</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146">
         <v>3</v>
       </c>
@@ -3945,8 +4281,14 @@
       <c r="E146" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="G146">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="I146" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147">
         <v>3</v>
       </c>
@@ -3962,8 +4304,17 @@
       <c r="E147" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="G147">
+        <v>39.5</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148">
         <v>3</v>
       </c>
@@ -3979,8 +4330,14 @@
       <c r="E148" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="G148">
+        <v>38.6</v>
+      </c>
+      <c r="I148" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149">
         <v>3</v>
       </c>
@@ -3996,8 +4353,14 @@
       <c r="E149" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="G149">
+        <v>38.4</v>
+      </c>
+      <c r="I149" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150">
         <v>3</v>
       </c>
@@ -4013,8 +4376,17 @@
       <c r="E150" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="G150">
+        <v>38.4</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151">
         <v>3</v>
       </c>
@@ -4030,8 +4402,14 @@
       <c r="E151" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="G151">
+        <v>38.9</v>
+      </c>
+      <c r="I151" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152">
         <v>3</v>
       </c>
@@ -4047,8 +4425,17 @@
       <c r="E152" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="G152">
+        <v>36.5</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153">
         <v>3</v>
       </c>
@@ -4064,8 +4451,14 @@
       <c r="E153" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="G153">
+        <v>38.5</v>
+      </c>
+      <c r="I153" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154">
         <v>3</v>
       </c>
@@ -4081,8 +4474,14 @@
       <c r="E154" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="G154">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="I154" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155">
         <v>3</v>
       </c>
@@ -4098,8 +4497,14 @@
       <c r="E155" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="G155">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="I155" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156">
         <v>3</v>
       </c>
@@ -4115,8 +4520,14 @@
       <c r="E156" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="G156">
+        <v>39.1</v>
+      </c>
+      <c r="I156" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157">
         <v>3</v>
       </c>
@@ -4132,8 +4543,14 @@
       <c r="E157" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="G157">
+        <v>38</v>
+      </c>
+      <c r="I157" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158">
         <v>4</v>
       </c>
@@ -4150,7 +4567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:9">
       <c r="A159">
         <v>4</v>
       </c>
@@ -4167,7 +4584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:9">
       <c r="A160">
         <v>4</v>
       </c>

--- a/Data/2018-07-01_HS_datasheet.xlsx
+++ b/Data/2018-07-01_HS_datasheet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC23338-1FF7-4C88-B558-67A6C952FFFC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-07-01_HS_datasheet.csv" sheetId="1" r:id="rId1"/>
@@ -387,7 +393,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -431,6 +437,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -755,20 +769,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="K125" sqref="K125"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -797,7 +811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -816,11 +830,14 @@
       <c r="F2" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
       <c r="I2" s="3">
         <v>41820</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -843,7 +860,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -866,7 +883,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -889,7 +906,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -912,7 +929,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -935,7 +952,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -958,7 +975,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -987,7 +1004,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1013,7 +1030,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1036,7 +1053,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1059,7 +1076,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1082,7 +1099,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1108,7 +1125,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1131,7 +1148,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1157,7 +1174,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1180,7 +1197,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1206,7 +1223,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1232,7 +1249,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1255,7 +1272,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1281,7 +1298,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1304,7 +1321,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1327,7 +1344,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1353,7 +1370,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1376,7 +1393,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1399,7 +1416,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1425,7 +1442,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1451,7 +1468,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1477,7 +1494,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1503,7 +1520,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1529,7 +1546,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1555,7 +1572,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1581,7 +1598,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1604,7 +1621,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1630,7 +1647,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1653,7 +1670,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1676,7 +1693,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1702,7 +1719,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1725,7 +1742,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1751,7 +1768,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1777,7 +1794,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1806,7 +1823,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1835,7 +1852,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1864,7 +1881,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -1893,7 +1910,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -1922,7 +1939,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -1945,7 +1962,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -1974,7 +1991,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2000,7 +2017,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2023,7 +2040,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2052,7 +2069,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2075,7 +2092,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2104,7 +2121,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -2127,7 +2144,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -2150,7 +2167,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -2173,7 +2190,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
@@ -2199,7 +2216,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2</v>
       </c>
@@ -2222,7 +2239,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -2245,7 +2262,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -2268,7 +2285,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -2291,7 +2308,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2</v>
       </c>
@@ -2314,7 +2331,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -2337,7 +2354,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -2357,13 +2374,13 @@
         <v>41</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I64" s="3">
         <v>41821</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -2386,7 +2403,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
@@ -2409,7 +2426,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
@@ -2432,7 +2449,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -2455,7 +2472,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -2478,7 +2495,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
@@ -2501,7 +2518,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2</v>
       </c>
@@ -2524,7 +2541,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2</v>
       </c>
@@ -2547,7 +2564,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2</v>
       </c>
@@ -2570,7 +2587,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
@@ -2593,7 +2610,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2</v>
       </c>
@@ -2616,7 +2633,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2</v>
       </c>
@@ -2639,7 +2656,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2</v>
       </c>
@@ -2665,7 +2682,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
@@ -2688,7 +2705,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2</v>
       </c>
@@ -2711,7 +2728,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2</v>
       </c>
@@ -2734,7 +2751,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
@@ -2760,7 +2777,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2</v>
       </c>
@@ -2786,7 +2803,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2</v>
       </c>
@@ -2812,7 +2829,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2</v>
       </c>
@@ -2835,7 +2852,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2</v>
       </c>
@@ -2858,7 +2875,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2</v>
       </c>
@@ -2881,7 +2898,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2</v>
       </c>
@@ -2904,7 +2921,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2</v>
       </c>
@@ -2927,7 +2944,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -2950,7 +2967,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2</v>
       </c>
@@ -2976,7 +2993,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2</v>
       </c>
@@ -2999,7 +3016,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2</v>
       </c>
@@ -3022,7 +3039,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2</v>
       </c>
@@ -3048,7 +3065,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2</v>
       </c>
@@ -3071,7 +3088,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2</v>
       </c>
@@ -3097,7 +3114,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2</v>
       </c>
@@ -3120,7 +3137,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2</v>
       </c>
@@ -3143,7 +3160,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2</v>
       </c>
@@ -3166,7 +3183,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
@@ -3189,7 +3206,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2</v>
       </c>
@@ -3212,7 +3229,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2</v>
       </c>
@@ -3235,7 +3252,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2</v>
       </c>
@@ -3258,7 +3275,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2</v>
       </c>
@@ -3281,7 +3298,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2</v>
       </c>
@@ -3304,7 +3321,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2</v>
       </c>
@@ -3327,7 +3344,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>3</v>
       </c>
@@ -3350,7 +3367,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>3</v>
       </c>
@@ -3373,7 +3390,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>3</v>
       </c>
@@ -3396,7 +3413,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>3</v>
       </c>
@@ -3415,11 +3432,14 @@
       <c r="G109">
         <v>41.3</v>
       </c>
+      <c r="H109">
+        <v>2</v>
+      </c>
       <c r="I109" s="3">
         <v>41825</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>3</v>
       </c>
@@ -3442,7 +3462,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>3</v>
       </c>
@@ -3465,7 +3485,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>3</v>
       </c>
@@ -3484,11 +3504,14 @@
       <c r="G112">
         <v>40.700000000000003</v>
       </c>
+      <c r="H112">
+        <v>2</v>
+      </c>
       <c r="I112" s="3">
         <v>41825</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>3</v>
       </c>
@@ -3511,7 +3534,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>3</v>
       </c>
@@ -3534,7 +3557,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>3</v>
       </c>
@@ -3557,7 +3580,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>3</v>
       </c>
@@ -3580,7 +3603,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>3</v>
       </c>
@@ -3606,7 +3629,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>3</v>
       </c>
@@ -3629,7 +3652,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>3</v>
       </c>
@@ -3652,7 +3675,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>3</v>
       </c>
@@ -3675,7 +3698,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>3</v>
       </c>
@@ -3698,7 +3721,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>3</v>
       </c>
@@ -3721,7 +3744,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>3</v>
       </c>
@@ -3747,7 +3770,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>3</v>
       </c>
@@ -3770,7 +3793,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>3</v>
       </c>
@@ -3793,7 +3816,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>3</v>
       </c>
@@ -3819,7 +3842,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>3</v>
       </c>
@@ -3842,7 +3865,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>3</v>
       </c>
@@ -3865,7 +3888,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>3</v>
       </c>
@@ -3891,7 +3914,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>3</v>
       </c>
@@ -3914,7 +3937,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>3</v>
       </c>
@@ -3937,7 +3960,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>3</v>
       </c>
@@ -3960,7 +3983,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>3</v>
       </c>
@@ -3983,7 +4006,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>3</v>
       </c>
@@ -4006,7 +4029,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>3</v>
       </c>
@@ -4032,7 +4055,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>3</v>
       </c>
@@ -4055,7 +4078,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>3</v>
       </c>
@@ -4078,7 +4101,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>3</v>
       </c>
@@ -4101,7 +4124,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>3</v>
       </c>
@@ -4124,7 +4147,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>3</v>
       </c>
@@ -4147,7 +4170,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>3</v>
       </c>
@@ -4170,7 +4193,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>3</v>
       </c>
@@ -4193,7 +4216,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>3</v>
       </c>
@@ -4216,7 +4239,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3</v>
       </c>
@@ -4239,7 +4262,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>3</v>
       </c>
@@ -4265,7 +4288,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>3</v>
       </c>
@@ -4288,7 +4311,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>3</v>
       </c>
@@ -4314,7 +4337,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>3</v>
       </c>
@@ -4337,7 +4360,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>3</v>
       </c>
@@ -4360,7 +4383,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>3</v>
       </c>
@@ -4386,7 +4409,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>3</v>
       </c>
@@ -4409,7 +4432,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>3</v>
       </c>
@@ -4435,7 +4458,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>3</v>
       </c>
@@ -4458,7 +4481,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>3</v>
       </c>
@@ -4481,7 +4504,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>3</v>
       </c>
@@ -4504,7 +4527,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>3</v>
       </c>
@@ -4527,7 +4550,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>3</v>
       </c>
@@ -4550,7 +4573,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>4</v>
       </c>
@@ -4567,7 +4590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>4</v>
       </c>
@@ -4584,7 +4607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>4</v>
       </c>
@@ -4601,7 +4624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>4</v>
       </c>
@@ -4618,7 +4641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>4</v>
       </c>
@@ -4635,7 +4658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>4</v>
       </c>
@@ -4652,7 +4675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>4</v>
       </c>
@@ -4669,7 +4692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>4</v>
       </c>
@@ -4686,7 +4709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>4</v>
       </c>
@@ -4703,7 +4726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>4</v>
       </c>
@@ -4720,7 +4743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>4</v>
       </c>
@@ -4737,7 +4760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>4</v>
       </c>
@@ -4754,7 +4777,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>4</v>
       </c>
@@ -4771,7 +4794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>4</v>
       </c>
@@ -4788,7 +4811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>4</v>
       </c>
@@ -4805,7 +4828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>4</v>
       </c>
@@ -4822,7 +4845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>4</v>
       </c>
@@ -4839,7 +4862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>4</v>
       </c>
@@ -4856,7 +4879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>4</v>
       </c>
@@ -4873,7 +4896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>4</v>
       </c>
@@ -4890,7 +4913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>4</v>
       </c>
@@ -4907,7 +4930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>4</v>
       </c>
@@ -4924,7 +4947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>4</v>
       </c>
@@ -4941,7 +4964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>4</v>
       </c>
@@ -4958,7 +4981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>4</v>
       </c>
@@ -4975,7 +4998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>4</v>
       </c>
@@ -4992,7 +5015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>4</v>
       </c>
@@ -5009,7 +5032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>4</v>
       </c>
@@ -5026,7 +5049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>4</v>
       </c>
@@ -5043,7 +5066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>4</v>
       </c>
@@ -5060,7 +5083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>4</v>
       </c>
@@ -5077,7 +5100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>4</v>
       </c>
@@ -5094,7 +5117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>4</v>
       </c>
@@ -5111,7 +5134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>4</v>
       </c>
@@ -5128,7 +5151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>4</v>
       </c>
@@ -5145,7 +5168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>4</v>
       </c>
@@ -5162,7 +5185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>4</v>
       </c>
@@ -5179,7 +5202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>4</v>
       </c>
@@ -5196,7 +5219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>4</v>
       </c>
@@ -5213,7 +5236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>4</v>
       </c>
@@ -5230,7 +5253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>4</v>
       </c>
@@ -5247,7 +5270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>4</v>
       </c>
@@ -5264,7 +5287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>4</v>
       </c>
@@ -5281,7 +5304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>4</v>
       </c>
@@ -5298,7 +5321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>4</v>
       </c>
@@ -5315,7 +5338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>4</v>
       </c>
@@ -5332,7 +5355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>4</v>
       </c>
@@ -5349,7 +5372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>4</v>
       </c>
@@ -5366,7 +5389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>4</v>
       </c>
@@ -5383,7 +5406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>4</v>
       </c>
@@ -5400,7 +5423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>4</v>
       </c>
@@ -5417,7 +5440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>4</v>
       </c>
@@ -5434,7 +5457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>5</v>
       </c>
@@ -5451,7 +5474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>5</v>
       </c>
@@ -5468,7 +5491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>5</v>
       </c>
@@ -5485,7 +5508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>5</v>
       </c>
@@ -5502,7 +5525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>5</v>
       </c>
@@ -5519,7 +5542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>5</v>
       </c>
@@ -5536,7 +5559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>5</v>
       </c>
@@ -5553,7 +5576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>5</v>
       </c>
@@ -5570,7 +5593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>5</v>
       </c>
@@ -5587,7 +5610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>5</v>
       </c>
@@ -5604,7 +5627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>5</v>
       </c>
@@ -5621,7 +5644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>5</v>
       </c>
@@ -5638,7 +5661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>5</v>
       </c>
@@ -5655,7 +5678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>5</v>
       </c>
@@ -5672,7 +5695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>5</v>
       </c>
@@ -5689,7 +5712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>5</v>
       </c>
@@ -5706,7 +5729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>5</v>
       </c>
@@ -5723,7 +5746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>5</v>
       </c>
@@ -5740,7 +5763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>5</v>
       </c>
@@ -5757,7 +5780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>5</v>
       </c>
@@ -5774,7 +5797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>5</v>
       </c>
@@ -5791,7 +5814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>5</v>
       </c>
@@ -5808,7 +5831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>5</v>
       </c>
@@ -5825,7 +5848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>5</v>
       </c>
@@ -5842,7 +5865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>5</v>
       </c>
@@ -5859,7 +5882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>5</v>
       </c>
@@ -5876,7 +5899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>5</v>
       </c>
@@ -5893,7 +5916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>5</v>
       </c>
@@ -5910,7 +5933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>5</v>
       </c>
@@ -5927,7 +5950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>5</v>
       </c>
@@ -5944,7 +5967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>5</v>
       </c>
@@ -5961,7 +5984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>5</v>
       </c>
@@ -5978,7 +6001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>5</v>
       </c>
@@ -5995,7 +6018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>5</v>
       </c>
@@ -6012,7 +6035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>5</v>
       </c>
@@ -6029,7 +6052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>5</v>
       </c>
@@ -6046,7 +6069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>5</v>
       </c>
@@ -6063,7 +6086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>5</v>
       </c>
@@ -6080,7 +6103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>5</v>
       </c>
@@ -6097,7 +6120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>5</v>
       </c>
@@ -6114,7 +6137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>5</v>
       </c>
@@ -6131,7 +6154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>5</v>
       </c>
@@ -6148,7 +6171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>5</v>
       </c>
@@ -6165,7 +6188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>5</v>
       </c>
@@ -6182,7 +6205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>5</v>
       </c>
@@ -6199,7 +6222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>5</v>
       </c>
@@ -6216,7 +6239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>5</v>
       </c>
@@ -6233,7 +6256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>5</v>
       </c>
@@ -6250,7 +6273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>5</v>
       </c>
@@ -6267,7 +6290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>5</v>
       </c>
@@ -6284,7 +6307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>5</v>
       </c>
@@ -6301,7 +6324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>5</v>
       </c>
@@ -6318,7 +6341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>6</v>
       </c>
@@ -6335,7 +6358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>6</v>
       </c>
@@ -6352,7 +6375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>6</v>
       </c>
@@ -6369,7 +6392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>6</v>
       </c>
@@ -6386,7 +6409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>6</v>
       </c>
@@ -6403,7 +6426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>6</v>
       </c>
@@ -6420,7 +6443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>6</v>
       </c>
@@ -6437,7 +6460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>6</v>
       </c>
@@ -6454,7 +6477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>6</v>
       </c>
@@ -6471,7 +6494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>6</v>
       </c>
@@ -6488,7 +6511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>6</v>
       </c>
@@ -6505,7 +6528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>6</v>
       </c>
@@ -6522,7 +6545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>6</v>
       </c>
@@ -6539,7 +6562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>6</v>
       </c>
@@ -6556,7 +6579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>6</v>
       </c>
@@ -6573,7 +6596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>6</v>
       </c>
@@ -6590,7 +6613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>6</v>
       </c>
@@ -6607,7 +6630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>6</v>
       </c>
@@ -6624,7 +6647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>6</v>
       </c>
@@ -6641,7 +6664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>6</v>
       </c>
@@ -6658,7 +6681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>6</v>
       </c>
@@ -6675,7 +6698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>6</v>
       </c>
@@ -6692,7 +6715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>6</v>
       </c>
@@ -6709,7 +6732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>6</v>
       </c>
@@ -6726,7 +6749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>6</v>
       </c>
@@ -6743,7 +6766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>6</v>
       </c>
@@ -6760,7 +6783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>6</v>
       </c>
@@ -6777,7 +6800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>6</v>
       </c>
@@ -6794,7 +6817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>6</v>
       </c>
@@ -6811,7 +6834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>6</v>
       </c>
@@ -6828,7 +6851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>6</v>
       </c>
@@ -6845,7 +6868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>6</v>
       </c>
@@ -6862,7 +6885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>6</v>
       </c>
@@ -6879,7 +6902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>6</v>
       </c>
@@ -6896,7 +6919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>6</v>
       </c>
@@ -6913,7 +6936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>6</v>
       </c>
@@ -6930,7 +6953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>6</v>
       </c>
@@ -6947,7 +6970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>6</v>
       </c>
@@ -6964,7 +6987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>6</v>
       </c>
@@ -6981,7 +7004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>6</v>
       </c>
@@ -6998,7 +7021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>6</v>
       </c>
@@ -7015,7 +7038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>6</v>
       </c>
@@ -7032,7 +7055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>6</v>
       </c>
@@ -7049,7 +7072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>6</v>
       </c>
@@ -7066,7 +7089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>6</v>
       </c>
@@ -7083,7 +7106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>6</v>
       </c>
@@ -7100,7 +7123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>6</v>
       </c>
@@ -7117,7 +7140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>6</v>
       </c>
@@ -7134,7 +7157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>6</v>
       </c>
@@ -7151,7 +7174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>6</v>
       </c>
@@ -7168,7 +7191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>6</v>
       </c>
@@ -7185,7 +7208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>6</v>
       </c>
@@ -7202,7 +7225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>7</v>
       </c>
@@ -7219,7 +7242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>7</v>
       </c>
@@ -7236,7 +7259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>7</v>
       </c>
@@ -7253,7 +7276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>7</v>
       </c>
@@ -7270,7 +7293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>7</v>
       </c>
@@ -7287,7 +7310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>7</v>
       </c>
@@ -7304,7 +7327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>7</v>
       </c>
@@ -7321,7 +7344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>7</v>
       </c>
@@ -7338,7 +7361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>7</v>
       </c>
@@ -7355,7 +7378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>7</v>
       </c>
@@ -7372,7 +7395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>7</v>
       </c>
@@ -7389,7 +7412,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>7</v>
       </c>
@@ -7406,7 +7429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>7</v>
       </c>
@@ -7423,7 +7446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>7</v>
       </c>
@@ -7440,7 +7463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>7</v>
       </c>
@@ -7457,7 +7480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>7</v>
       </c>
@@ -7474,7 +7497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>7</v>
       </c>
@@ -7491,7 +7514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>7</v>
       </c>
@@ -7508,7 +7531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>7</v>
       </c>
@@ -7525,7 +7548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>7</v>
       </c>
@@ -7542,7 +7565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>7</v>
       </c>
@@ -7559,7 +7582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>7</v>
       </c>
@@ -7576,7 +7599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>7</v>
       </c>
@@ -7593,7 +7616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>7</v>
       </c>
@@ -7610,7 +7633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>7</v>
       </c>
@@ -7627,7 +7650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>7</v>
       </c>
@@ -7644,7 +7667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>7</v>
       </c>
@@ -7661,7 +7684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>7</v>
       </c>
@@ -7678,7 +7701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>7</v>
       </c>
@@ -7695,7 +7718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>7</v>
       </c>
@@ -7712,7 +7735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>7</v>
       </c>
@@ -7729,7 +7752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>7</v>
       </c>
@@ -7746,7 +7769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>7</v>
       </c>
@@ -7763,7 +7786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>7</v>
       </c>
@@ -7780,7 +7803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>7</v>
       </c>
@@ -7797,7 +7820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>7</v>
       </c>
@@ -7814,7 +7837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>7</v>
       </c>
@@ -7831,7 +7854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>7</v>
       </c>
@@ -7848,7 +7871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>7</v>
       </c>
@@ -7865,7 +7888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>7</v>
       </c>
@@ -7882,7 +7905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>7</v>
       </c>
@@ -7899,7 +7922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>7</v>
       </c>
@@ -7916,7 +7939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>7</v>
       </c>
@@ -7933,7 +7956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>7</v>
       </c>
@@ -7950,7 +7973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>7</v>
       </c>
@@ -7967,7 +7990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>7</v>
       </c>
@@ -7984,7 +8007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>7</v>
       </c>
@@ -8001,7 +8024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>7</v>
       </c>
@@ -8018,7 +8041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>7</v>
       </c>
@@ -8035,7 +8058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>7</v>
       </c>
@@ -8052,7 +8075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>7</v>
       </c>
@@ -8069,7 +8092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>7</v>
       </c>
@@ -8086,7 +8109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>8</v>
       </c>
@@ -8103,7 +8126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>8</v>
       </c>
@@ -8120,7 +8143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>8</v>
       </c>
@@ -8137,7 +8160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>8</v>
       </c>
@@ -8154,7 +8177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>8</v>
       </c>
@@ -8171,7 +8194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>8</v>
       </c>
@@ -8188,7 +8211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>8</v>
       </c>
@@ -8205,7 +8228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>8</v>
       </c>
@@ -8222,7 +8245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>8</v>
       </c>
@@ -8239,7 +8262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>8</v>
       </c>
@@ -8256,7 +8279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>8</v>
       </c>
@@ -8273,7 +8296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>8</v>
       </c>
@@ -8290,7 +8313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>8</v>
       </c>
@@ -8307,7 +8330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>8</v>
       </c>
@@ -8324,7 +8347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>8</v>
       </c>
@@ -8341,7 +8364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>8</v>
       </c>
@@ -8358,7 +8381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>8</v>
       </c>
@@ -8375,7 +8398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>8</v>
       </c>
@@ -8392,7 +8415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>8</v>
       </c>
@@ -8409,7 +8432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>8</v>
       </c>
@@ -8426,7 +8449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>8</v>
       </c>
@@ -8443,7 +8466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>8</v>
       </c>
@@ -8460,7 +8483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>8</v>
       </c>
@@ -8477,7 +8500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>8</v>
       </c>
@@ -8494,7 +8517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>8</v>
       </c>
@@ -8511,7 +8534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>8</v>
       </c>
@@ -8528,7 +8551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>8</v>
       </c>
@@ -8545,7 +8568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>8</v>
       </c>
@@ -8562,7 +8585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>8</v>
       </c>
@@ -8579,7 +8602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>8</v>
       </c>
@@ -8596,7 +8619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>8</v>
       </c>
@@ -8613,7 +8636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>8</v>
       </c>
@@ -8630,7 +8653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>8</v>
       </c>
@@ -8647,7 +8670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>8</v>
       </c>
@@ -8664,7 +8687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>8</v>
       </c>
@@ -8681,7 +8704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>8</v>
       </c>
@@ -8698,7 +8721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>8</v>
       </c>
@@ -8715,7 +8738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>8</v>
       </c>
@@ -8732,7 +8755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>8</v>
       </c>
@@ -8749,7 +8772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>8</v>
       </c>
@@ -8766,7 +8789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>8</v>
       </c>
@@ -8783,7 +8806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>8</v>
       </c>
@@ -8800,7 +8823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>8</v>
       </c>
@@ -8817,7 +8840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>8</v>
       </c>
@@ -8834,7 +8857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>8</v>
       </c>
@@ -8851,7 +8874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>8</v>
       </c>
@@ -8868,7 +8891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>8</v>
       </c>
@@ -8885,7 +8908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>8</v>
       </c>
@@ -8902,7 +8925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>8</v>
       </c>
@@ -8919,7 +8942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>8</v>
       </c>
@@ -8936,7 +8959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>8</v>
       </c>
@@ -8953,7 +8976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>8</v>
       </c>
@@ -8970,7 +8993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>9</v>
       </c>
@@ -8987,7 +9010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>9</v>
       </c>
@@ -9004,7 +9027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>9</v>
       </c>
@@ -9021,7 +9044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>9</v>
       </c>
@@ -9038,7 +9061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>9</v>
       </c>
@@ -9055,7 +9078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>9</v>
       </c>
@@ -9072,7 +9095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>9</v>
       </c>
@@ -9089,7 +9112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>9</v>
       </c>
@@ -9106,7 +9129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>9</v>
       </c>
@@ -9123,7 +9146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>9</v>
       </c>
@@ -9140,7 +9163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>9</v>
       </c>
@@ -9157,7 +9180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>9</v>
       </c>
@@ -9174,7 +9197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>9</v>
       </c>
@@ -9191,7 +9214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>9</v>
       </c>
@@ -9208,7 +9231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>9</v>
       </c>
@@ -9225,7 +9248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>9</v>
       </c>
@@ -9242,7 +9265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>9</v>
       </c>
@@ -9259,7 +9282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>9</v>
       </c>
@@ -9276,7 +9299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>9</v>
       </c>
@@ -9293,7 +9316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>9</v>
       </c>
@@ -9310,7 +9333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>9</v>
       </c>
@@ -9327,7 +9350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>9</v>
       </c>
@@ -9344,7 +9367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>9</v>
       </c>
@@ -9361,7 +9384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>9</v>
       </c>
@@ -9378,7 +9401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>9</v>
       </c>
@@ -9395,7 +9418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>9</v>
       </c>
@@ -9412,7 +9435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>9</v>
       </c>
@@ -9429,7 +9452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>9</v>
       </c>
@@ -9446,7 +9469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>9</v>
       </c>
@@ -9463,7 +9486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>9</v>
       </c>
@@ -9480,7 +9503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>9</v>
       </c>
@@ -9497,7 +9520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>9</v>
       </c>
@@ -9514,7 +9537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>9</v>
       </c>
@@ -9531,7 +9554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>9</v>
       </c>
@@ -9548,7 +9571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>9</v>
       </c>
@@ -9565,7 +9588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>9</v>
       </c>
@@ -9582,7 +9605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>9</v>
       </c>
@@ -9599,7 +9622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>9</v>
       </c>
@@ -9616,7 +9639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>9</v>
       </c>
@@ -9633,7 +9656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>9</v>
       </c>
@@ -9650,7 +9673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>9</v>
       </c>
@@ -9667,7 +9690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>9</v>
       </c>
@@ -9684,7 +9707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>9</v>
       </c>
@@ -9701,7 +9724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>9</v>
       </c>
@@ -9718,7 +9741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="462" spans="1:5">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>9</v>
       </c>
@@ -9735,7 +9758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="463" spans="1:5">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>9</v>
       </c>
@@ -9752,7 +9775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="464" spans="1:5">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>9</v>
       </c>
@@ -9769,7 +9792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>9</v>
       </c>
@@ -9786,7 +9809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>9</v>
       </c>
@@ -9803,7 +9826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>9</v>
       </c>
@@ -9820,7 +9843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="468" spans="1:5">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>9</v>
       </c>
@@ -9837,7 +9860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="469" spans="1:5">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>9</v>
       </c>
@@ -9854,7 +9877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>10</v>
       </c>
@@ -9871,7 +9894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>10</v>
       </c>
@@ -9888,7 +9911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>10</v>
       </c>
@@ -9905,7 +9928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>10</v>
       </c>
@@ -9922,7 +9945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>10</v>
       </c>
@@ -9939,7 +9962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>10</v>
       </c>
@@ -9956,7 +9979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="476" spans="1:5">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>10</v>
       </c>
@@ -9973,7 +9996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="477" spans="1:5">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>10</v>
       </c>
@@ -9990,7 +10013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="478" spans="1:5">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>10</v>
       </c>
@@ -10007,7 +10030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="479" spans="1:5">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>10</v>
       </c>
@@ -10024,7 +10047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>10</v>
       </c>
@@ -10041,7 +10064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="481" spans="1:5">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>10</v>
       </c>
@@ -10058,7 +10081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="482" spans="1:5">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>10</v>
       </c>
@@ -10075,7 +10098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="483" spans="1:5">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>10</v>
       </c>
@@ -10092,7 +10115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="484" spans="1:5">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>10</v>
       </c>
@@ -10109,7 +10132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>10</v>
       </c>
@@ -10126,7 +10149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>10</v>
       </c>
@@ -10143,7 +10166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="487" spans="1:5">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>10</v>
       </c>
@@ -10160,7 +10183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="488" spans="1:5">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>10</v>
       </c>
@@ -10177,7 +10200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="489" spans="1:5">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>10</v>
       </c>
@@ -10194,7 +10217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="490" spans="1:5">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>10</v>
       </c>
@@ -10211,7 +10234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="1:5">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>10</v>
       </c>
@@ -10228,7 +10251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="492" spans="1:5">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>10</v>
       </c>
@@ -10245,7 +10268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="493" spans="1:5">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>10</v>
       </c>
@@ -10262,7 +10285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="494" spans="1:5">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>10</v>
       </c>
@@ -10279,7 +10302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="495" spans="1:5">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>10</v>
       </c>
@@ -10296,7 +10319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="496" spans="1:5">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>10</v>
       </c>
@@ -10313,7 +10336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="497" spans="1:5">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>10</v>
       </c>
@@ -10330,7 +10353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="498" spans="1:5">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>10</v>
       </c>
@@ -10347,7 +10370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="499" spans="1:5">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>10</v>
       </c>
@@ -10364,7 +10387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="500" spans="1:5">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>10</v>
       </c>
@@ -10381,7 +10404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="501" spans="1:5">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>10</v>
       </c>
@@ -10398,7 +10421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="502" spans="1:5">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>10</v>
       </c>
@@ -10415,7 +10438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="503" spans="1:5">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>10</v>
       </c>
@@ -10432,7 +10455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="504" spans="1:5">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>10</v>
       </c>
@@ -10449,7 +10472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="505" spans="1:5">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>10</v>
       </c>
@@ -10466,7 +10489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="506" spans="1:5">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>10</v>
       </c>
@@ -10483,7 +10506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="507" spans="1:5">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>10</v>
       </c>
@@ -10500,7 +10523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="508" spans="1:5">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>10</v>
       </c>
@@ -10517,7 +10540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="509" spans="1:5">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>10</v>
       </c>
@@ -10534,7 +10557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="510" spans="1:5">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>10</v>
       </c>
@@ -10551,7 +10574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="511" spans="1:5">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>10</v>
       </c>
@@ -10568,7 +10591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="512" spans="1:5">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>10</v>
       </c>
@@ -10585,7 +10608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="513" spans="1:5">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>10</v>
       </c>
@@ -10602,7 +10625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="514" spans="1:5">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>10</v>
       </c>
@@ -10619,7 +10642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="515" spans="1:5">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>10</v>
       </c>
@@ -10636,7 +10659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="516" spans="1:5">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>10</v>
       </c>
@@ -10653,7 +10676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:5">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>10</v>
       </c>
@@ -10670,7 +10693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="518" spans="1:5">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>10</v>
       </c>
@@ -10687,7 +10710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="519" spans="1:5">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>10</v>
       </c>
@@ -10704,7 +10727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="520" spans="1:5">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>10</v>
       </c>
@@ -10721,7 +10744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="521" spans="1:5">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>10</v>
       </c>

--- a/Data/2018-07-01_HS_datasheet.xlsx
+++ b/Data/2018-07-01_HS_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC23338-1FF7-4C88-B558-67A6C952FFFC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8028221-7F15-4A57-9DEF-73F8A6E826EC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="144">
   <si>
     <t>cohort</t>
   </si>
@@ -388,6 +388,75 @@
   </si>
   <si>
     <t>0:10</t>
+  </si>
+  <si>
+    <t>13:10</t>
+  </si>
+  <si>
+    <t>2:23</t>
+  </si>
+  <si>
+    <t>0:51</t>
+  </si>
+  <si>
+    <t>10:55</t>
+  </si>
+  <si>
+    <t>1:33</t>
+  </si>
+  <si>
+    <t>20:34</t>
+  </si>
+  <si>
+    <t>9:22</t>
+  </si>
+  <si>
+    <t>10:25</t>
+  </si>
+  <si>
+    <t>18:24</t>
+  </si>
+  <si>
+    <t>12:23</t>
+  </si>
+  <si>
+    <t>0:19</t>
+  </si>
+  <si>
+    <t>18:34</t>
+  </si>
+  <si>
+    <t>2:50</t>
+  </si>
+  <si>
+    <t>13:22</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>3:23</t>
+  </si>
+  <si>
+    <t>12:09</t>
+  </si>
+  <si>
+    <t>4:50</t>
+  </si>
+  <si>
+    <t>15:51</t>
+  </si>
+  <si>
+    <t>14:20</t>
+  </si>
+  <si>
+    <t>17:04</t>
+  </si>
+  <si>
+    <t>1:36</t>
+  </si>
+  <si>
+    <t>5:45</t>
   </si>
 </sst>
 </file>
@@ -397,8 +466,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -426,11 +503,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,8 +852,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I207" sqref="I207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -782,32 +863,32 @@
     <col min="9" max="9" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1141,6 +1222,9 @@
       <c r="E15" t="s">
         <v>13</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H15">
         <v>0</v>
       </c>
@@ -1190,6 +1274,9 @@
       <c r="E17" t="s">
         <v>11</v>
       </c>
+      <c r="F17" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H17">
         <v>0</v>
       </c>
@@ -1265,6 +1352,9 @@
       <c r="E20" t="s">
         <v>11</v>
       </c>
+      <c r="F20" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H20">
         <v>0</v>
       </c>
@@ -1314,6 +1404,9 @@
       <c r="E22" t="s">
         <v>11</v>
       </c>
+      <c r="F22" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H22">
         <v>0</v>
       </c>
@@ -1337,6 +1430,9 @@
       <c r="E23" t="s">
         <v>13</v>
       </c>
+      <c r="F23" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H23">
         <v>0</v>
       </c>
@@ -1386,6 +1482,9 @@
       <c r="E25" t="s">
         <v>11</v>
       </c>
+      <c r="F25" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H25">
         <v>0</v>
       </c>
@@ -1409,6 +1508,9 @@
       <c r="E26" t="s">
         <v>11</v>
       </c>
+      <c r="F26" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H26">
         <v>0</v>
       </c>
@@ -4589,6 +4691,12 @@
       <c r="E158" t="s">
         <v>13</v>
       </c>
+      <c r="G158">
+        <v>41.7</v>
+      </c>
+      <c r="I158" s="3">
+        <v>41828</v>
+      </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
@@ -4606,6 +4714,12 @@
       <c r="E159" t="s">
         <v>11</v>
       </c>
+      <c r="G159">
+        <v>41.8</v>
+      </c>
+      <c r="I159" s="3">
+        <v>41828</v>
+      </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
@@ -4623,8 +4737,14 @@
       <c r="E160" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G160">
+        <v>41.7</v>
+      </c>
+      <c r="I160" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>4</v>
       </c>
@@ -4640,8 +4760,14 @@
       <c r="E161" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G161">
+        <v>40.4</v>
+      </c>
+      <c r="I161" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>4</v>
       </c>
@@ -4657,8 +4783,14 @@
       <c r="E162" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G162">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="I162" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>4</v>
       </c>
@@ -4674,8 +4806,14 @@
       <c r="E163" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G163">
+        <v>41.7</v>
+      </c>
+      <c r="I163" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>4</v>
       </c>
@@ -4691,8 +4829,14 @@
       <c r="E164" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G164">
+        <v>41.7</v>
+      </c>
+      <c r="I164" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>4</v>
       </c>
@@ -4708,8 +4852,14 @@
       <c r="E165" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G165">
+        <v>40.4</v>
+      </c>
+      <c r="I165" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>4</v>
       </c>
@@ -4725,8 +4875,14 @@
       <c r="E166" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G166">
+        <v>41.7</v>
+      </c>
+      <c r="I166" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>4</v>
       </c>
@@ -4742,8 +4898,14 @@
       <c r="E167" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G167">
+        <v>41.7</v>
+      </c>
+      <c r="I167" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>4</v>
       </c>
@@ -4759,8 +4921,14 @@
       <c r="E168" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G168">
+        <v>40.4</v>
+      </c>
+      <c r="I168" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>4</v>
       </c>
@@ -4776,8 +4944,14 @@
       <c r="E169" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G169">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="I169" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>4</v>
       </c>
@@ -4793,8 +4967,14 @@
       <c r="E170" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G170">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="I170" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>4</v>
       </c>
@@ -4810,8 +4990,14 @@
       <c r="E171" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I171" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>4</v>
       </c>
@@ -4827,8 +5013,14 @@
       <c r="E172" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I172" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>4</v>
       </c>
@@ -4844,8 +5036,14 @@
       <c r="E173" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I173" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>4</v>
       </c>
@@ -4861,8 +5059,14 @@
       <c r="E174" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I174" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>4</v>
       </c>
@@ -4878,8 +5082,14 @@
       <c r="E175" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I175" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>4</v>
       </c>
@@ -4895,8 +5105,14 @@
       <c r="E176" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I176" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>4</v>
       </c>
@@ -4912,8 +5128,14 @@
       <c r="E177" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I177" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>4</v>
       </c>
@@ -4929,8 +5151,14 @@
       <c r="E178" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I178" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>4</v>
       </c>
@@ -4946,8 +5174,14 @@
       <c r="E179" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I179" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>4</v>
       </c>
@@ -4963,8 +5197,14 @@
       <c r="E180" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I180" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>4</v>
       </c>
@@ -4980,8 +5220,14 @@
       <c r="E181" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I181" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>4</v>
       </c>
@@ -4997,8 +5243,14 @@
       <c r="E182" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I182" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>4</v>
       </c>
@@ -5014,8 +5266,14 @@
       <c r="E183" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I183" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>4</v>
       </c>
@@ -5031,8 +5289,14 @@
       <c r="E184" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I184" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>4</v>
       </c>
@@ -5048,8 +5312,14 @@
       <c r="E185" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I185" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>4</v>
       </c>
@@ -5065,8 +5335,14 @@
       <c r="E186" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I186" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>4</v>
       </c>
@@ -5082,8 +5358,14 @@
       <c r="E187" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F187" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I187" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>4</v>
       </c>
@@ -5099,8 +5381,14 @@
       <c r="E188" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F188" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I188" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>4</v>
       </c>
@@ -5116,8 +5404,14 @@
       <c r="E189" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I189" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>4</v>
       </c>
@@ -5133,8 +5427,14 @@
       <c r="E190" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I190" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>4</v>
       </c>
@@ -5150,8 +5450,14 @@
       <c r="E191" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I191" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>4</v>
       </c>
@@ -5167,8 +5473,14 @@
       <c r="E192" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I192" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>4</v>
       </c>
@@ -5184,8 +5496,14 @@
       <c r="E193" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I193" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>4</v>
       </c>
@@ -5201,8 +5519,14 @@
       <c r="E194" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I194" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>4</v>
       </c>
@@ -5218,8 +5542,14 @@
       <c r="E195" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I195" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>4</v>
       </c>
@@ -5235,8 +5565,14 @@
       <c r="E196" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I196" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>4</v>
       </c>
@@ -5252,8 +5588,14 @@
       <c r="E197" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G197">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="I197" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>4</v>
       </c>
@@ -5269,8 +5611,14 @@
       <c r="E198" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G198">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="I198" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>4</v>
       </c>
@@ -5286,8 +5634,14 @@
       <c r="E199" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G199">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="I199" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>4</v>
       </c>
@@ -5303,8 +5657,14 @@
       <c r="E200" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G200">
+        <v>38.6</v>
+      </c>
+      <c r="I200" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>4</v>
       </c>
@@ -5320,8 +5680,14 @@
       <c r="E201" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G201">
+        <v>38.4</v>
+      </c>
+      <c r="I201" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>4</v>
       </c>
@@ -5337,8 +5703,14 @@
       <c r="E202" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G202">
+        <v>38.4</v>
+      </c>
+      <c r="I202" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>4</v>
       </c>
@@ -5354,8 +5726,14 @@
       <c r="E203" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G203">
+        <v>38.9</v>
+      </c>
+      <c r="I203" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>4</v>
       </c>
@@ -5371,8 +5749,14 @@
       <c r="E204" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G204">
+        <v>36.5</v>
+      </c>
+      <c r="I204" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>4</v>
       </c>
@@ -5388,8 +5772,14 @@
       <c r="E205" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G205">
+        <v>38.5</v>
+      </c>
+      <c r="I205" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>4</v>
       </c>
@@ -5405,8 +5795,14 @@
       <c r="E206" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G206">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="I206" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>4</v>
       </c>
@@ -5422,8 +5818,14 @@
       <c r="E207" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G207">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="I207" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>4</v>
       </c>
@@ -5439,8 +5841,14 @@
       <c r="E208" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G208">
+        <v>39.1</v>
+      </c>
+      <c r="I208" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>4</v>
       </c>
@@ -5456,8 +5864,14 @@
       <c r="E209" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G209">
+        <v>38</v>
+      </c>
+      <c r="I209" s="3">
+        <v>41828</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>5</v>
       </c>
@@ -5474,7 +5888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>5</v>
       </c>
@@ -5491,7 +5905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>5</v>
       </c>
@@ -5508,7 +5922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>5</v>
       </c>
@@ -5525,7 +5939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>5</v>
       </c>
@@ -5542,7 +5956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>5</v>
       </c>
@@ -5559,7 +5973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>5</v>
       </c>
@@ -5576,7 +5990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>5</v>
       </c>
@@ -5593,7 +6007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>5</v>
       </c>
@@ -5610,7 +6024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>5</v>
       </c>
@@ -5627,7 +6041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>5</v>
       </c>
@@ -5644,7 +6058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>5</v>
       </c>
@@ -5661,7 +6075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>5</v>
       </c>
@@ -5678,7 +6092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>5</v>
       </c>
@@ -5695,7 +6109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>5</v>
       </c>
@@ -10763,6 +11177,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Data/2018-07-01_HS_datasheet.xlsx
+++ b/Data/2018-07-01_HS_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8028221-7F15-4A57-9DEF-73F8A6E826EC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18AD9EA-E166-4D27-BEEC-D4AF91025979}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="157">
   <si>
     <t>cohort</t>
   </si>
@@ -457,6 +457,45 @@
   </si>
   <si>
     <t>5:45</t>
+  </si>
+  <si>
+    <t>5:43</t>
+  </si>
+  <si>
+    <t>7:15</t>
+  </si>
+  <si>
+    <t>15:02</t>
+  </si>
+  <si>
+    <t>18:05</t>
+  </si>
+  <si>
+    <t>11:43</t>
+  </si>
+  <si>
+    <t>6:40</t>
+  </si>
+  <si>
+    <t>16:47</t>
+  </si>
+  <si>
+    <t>1:34</t>
+  </si>
+  <si>
+    <t>12:04</t>
+  </si>
+  <si>
+    <t>11:08</t>
+  </si>
+  <si>
+    <t>25:17</t>
+  </si>
+  <si>
+    <t>7:45</t>
+  </si>
+  <si>
+    <t>0:39</t>
   </si>
 </sst>
 </file>
@@ -853,8 +892,8 @@
   <dimension ref="A1:I521"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I207" sqref="I207"/>
+      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F252" sqref="F252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1220,7 +1259,7 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>97</v>
@@ -2844,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>85</v>
@@ -3083,7 +3122,7 @@
         <v>13</v>
       </c>
       <c r="E90" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>95</v>
@@ -3345,7 +3384,7 @@
         <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G101">
         <v>38.700000000000003</v>
@@ -3483,7 +3522,7 @@
         <v>12</v>
       </c>
       <c r="E107" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G107">
         <v>40.799999999999997</v>
@@ -3745,7 +3784,7 @@
         <v>6</v>
       </c>
       <c r="E118" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G118">
         <v>38.1</v>
@@ -3909,7 +3948,7 @@
         <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>104</v>
@@ -4850,7 +4889,7 @@
         <v>5</v>
       </c>
       <c r="E165" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G165">
         <v>40.4</v>
@@ -4873,7 +4912,7 @@
         <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G166">
         <v>41.7</v>
@@ -5425,7 +5464,7 @@
         <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>137</v>
@@ -5887,6 +5926,9 @@
       <c r="E210" t="s">
         <v>13</v>
       </c>
+      <c r="G210">
+        <v>41</v>
+      </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
@@ -5904,6 +5946,9 @@
       <c r="E211" t="s">
         <v>13</v>
       </c>
+      <c r="G211">
+        <v>38.200000000000003</v>
+      </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
@@ -5921,6 +5966,9 @@
       <c r="E212" t="s">
         <v>11</v>
       </c>
+      <c r="G212">
+        <v>41.6</v>
+      </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
@@ -5938,6 +5986,9 @@
       <c r="E213" t="s">
         <v>13</v>
       </c>
+      <c r="G213">
+        <v>39.9</v>
+      </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
@@ -5955,6 +6006,9 @@
       <c r="E214" t="s">
         <v>13</v>
       </c>
+      <c r="G214">
+        <v>41.6</v>
+      </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
@@ -5972,6 +6026,9 @@
       <c r="E215" t="s">
         <v>13</v>
       </c>
+      <c r="G215">
+        <v>41</v>
+      </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
@@ -5989,6 +6046,9 @@
       <c r="E216" t="s">
         <v>13</v>
       </c>
+      <c r="G216">
+        <v>41.6</v>
+      </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
@@ -6006,6 +6066,9 @@
       <c r="E217" t="s">
         <v>13</v>
       </c>
+      <c r="G217">
+        <v>41</v>
+      </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
@@ -6023,6 +6086,9 @@
       <c r="E218" t="s">
         <v>11</v>
       </c>
+      <c r="G218">
+        <v>41.6</v>
+      </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
@@ -6040,6 +6106,9 @@
       <c r="E219" t="s">
         <v>13</v>
       </c>
+      <c r="G219">
+        <v>41.6</v>
+      </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
@@ -6057,6 +6126,9 @@
       <c r="E220" t="s">
         <v>13</v>
       </c>
+      <c r="G220">
+        <v>41.6</v>
+      </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
@@ -6074,6 +6146,9 @@
       <c r="E221" t="s">
         <v>13</v>
       </c>
+      <c r="G221">
+        <v>40.5</v>
+      </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
@@ -6091,6 +6166,9 @@
       <c r="E222" t="s">
         <v>13</v>
       </c>
+      <c r="G222">
+        <v>38.799999999999997</v>
+      </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
@@ -6126,7 +6204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>5</v>
       </c>
@@ -6143,7 +6221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>5</v>
       </c>
@@ -6160,7 +6238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>5</v>
       </c>
@@ -6177,7 +6255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>5</v>
       </c>
@@ -6194,7 +6272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>5</v>
       </c>
@@ -6211,7 +6289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>5</v>
       </c>
@@ -6225,10 +6303,10 @@
         <v>13</v>
       </c>
       <c r="E230" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>5</v>
       </c>
@@ -6245,7 +6323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>5</v>
       </c>
@@ -6259,10 +6337,10 @@
         <v>2</v>
       </c>
       <c r="E232" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>5</v>
       </c>
@@ -6279,7 +6357,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>5</v>
       </c>
@@ -6296,7 +6374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>5</v>
       </c>
@@ -6313,7 +6391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>5</v>
       </c>
@@ -6329,8 +6407,11 @@
       <c r="E236" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F236" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>5</v>
       </c>
@@ -6346,8 +6427,11 @@
       <c r="E237" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F237" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>5</v>
       </c>
@@ -6363,8 +6447,11 @@
       <c r="E238" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F238" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>5</v>
       </c>
@@ -6380,8 +6467,11 @@
       <c r="E239" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F239" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>5</v>
       </c>
@@ -6397,8 +6487,11 @@
       <c r="E240" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F240" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>5</v>
       </c>
@@ -6414,8 +6507,11 @@
       <c r="E241" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F241" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>5</v>
       </c>
@@ -6431,8 +6527,11 @@
       <c r="E242" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F242" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>5</v>
       </c>
@@ -6446,10 +6545,13 @@
         <v>1</v>
       </c>
       <c r="E243" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>5</v>
       </c>
@@ -6465,8 +6567,11 @@
       <c r="E244" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F244" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>5</v>
       </c>
@@ -6480,10 +6585,13 @@
         <v>8</v>
       </c>
       <c r="E245" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>5</v>
       </c>
@@ -6499,8 +6607,11 @@
       <c r="E246" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F246" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>5</v>
       </c>
@@ -6516,8 +6627,11 @@
       <c r="E247" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F247" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>5</v>
       </c>
@@ -6533,8 +6647,11 @@
       <c r="E248" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F248" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>5</v>
       </c>
@@ -6550,8 +6667,11 @@
       <c r="E249" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G249">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>5</v>
       </c>
@@ -6567,8 +6687,11 @@
       <c r="E250" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G250">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>5</v>
       </c>
@@ -6584,8 +6707,11 @@
       <c r="E251" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G251">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>5</v>
       </c>
@@ -6601,8 +6727,11 @@
       <c r="E252" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G252">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>5</v>
       </c>
@@ -6618,8 +6747,11 @@
       <c r="E253" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G253">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>5</v>
       </c>
@@ -6635,8 +6767,11 @@
       <c r="E254" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G254">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>5</v>
       </c>
@@ -6652,8 +6787,11 @@
       <c r="E255" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G255">
+        <v>39.700000000000003</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>5</v>
       </c>
@@ -6669,8 +6807,11 @@
       <c r="E256" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G256">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>5</v>
       </c>
@@ -6686,8 +6827,11 @@
       <c r="E257" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G257">
+        <v>38.299999999999997</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>5</v>
       </c>
@@ -6701,10 +6845,13 @@
         <v>4</v>
       </c>
       <c r="E258" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="G258">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>5</v>
       </c>
@@ -6720,8 +6867,11 @@
       <c r="E259" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G259">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>5</v>
       </c>
@@ -6737,8 +6887,11 @@
       <c r="E260" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G260">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>5</v>
       </c>
@@ -6754,8 +6907,11 @@
       <c r="E261" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G261">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>6</v>
       </c>
@@ -6772,7 +6928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>6</v>
       </c>
@@ -6789,7 +6945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>6</v>
       </c>
@@ -6806,7 +6962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>6</v>
       </c>
@@ -6823,7 +6979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>6</v>
       </c>
@@ -6840,7 +6996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>6</v>
       </c>
@@ -6857,7 +7013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>6</v>
       </c>
@@ -6874,7 +7030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>6</v>
       </c>
@@ -6891,7 +7047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>6</v>
       </c>
@@ -6908,7 +7064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>6</v>
       </c>
@@ -6925,7 +7081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>6</v>
       </c>

--- a/Data/2018-07-01_HS_datasheet.xlsx
+++ b/Data/2018-07-01_HS_datasheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18AD9EA-E166-4D27-BEEC-D4AF91025979}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BECF473-6813-4932-AB15-C1D55BF3FDD2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-07-01_HS_datasheet.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="158">
   <si>
     <t>cohort</t>
   </si>
@@ -496,6 +496,9 @@
   </si>
   <si>
     <t>0:39</t>
+  </si>
+  <si>
+    <t>death_date</t>
   </si>
 </sst>
 </file>
@@ -889,20 +892,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I521"/>
+  <dimension ref="A1:J521"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F252" sqref="F252"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J241" sqref="J241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.875" style="3"/>
+    <col min="10" max="10" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -930,8 +934,11 @@
       <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -956,8 +963,11 @@
       <c r="I2" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="3">
+        <v>41827</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -980,7 +990,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1003,7 +1013,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1022,11 +1032,17 @@
       <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
       <c r="I5" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1049,7 +1065,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1072,7 +1088,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1095,7 +1111,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1123,8 +1139,11 @@
       <c r="I9" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1150,7 +1169,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1173,7 +1192,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1196,7 +1215,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1219,7 +1238,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1245,7 +1264,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1270,8 +1289,11 @@
       <c r="I15" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1296,8 +1318,11 @@
       <c r="I16" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1322,8 +1347,11 @@
       <c r="I17" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1348,8 +1376,11 @@
       <c r="I18" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1374,8 +1405,11 @@
       <c r="I19" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1400,8 +1434,11 @@
       <c r="I20" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1426,8 +1463,11 @@
       <c r="I21" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1452,8 +1492,11 @@
       <c r="I22" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1478,8 +1521,11 @@
       <c r="I23" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1504,8 +1550,11 @@
       <c r="I24" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1530,8 +1579,11 @@
       <c r="I25" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1556,8 +1608,11 @@
       <c r="I26" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1582,8 +1637,11 @@
       <c r="I27" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1608,8 +1666,11 @@
       <c r="I28" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1634,8 +1695,11 @@
       <c r="I29" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1660,8 +1724,11 @@
       <c r="I30" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1686,8 +1753,11 @@
       <c r="I31" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1712,8 +1782,11 @@
       <c r="I32" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1738,8 +1811,11 @@
       <c r="I33" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1762,7 +1838,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1787,8 +1863,11 @@
       <c r="I35" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1811,7 +1890,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1834,7 +1913,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1859,8 +1938,11 @@
       <c r="I38" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1883,7 +1965,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1908,8 +1990,11 @@
       <c r="I40" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1934,8 +2019,11 @@
       <c r="I41" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1963,8 +2051,11 @@
       <c r="I42" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1992,8 +2083,11 @@
       <c r="I43" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2021,8 +2115,11 @@
       <c r="I44" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2050,8 +2147,11 @@
       <c r="I45" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2079,8 +2179,11 @@
       <c r="I46" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2103,7 +2206,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2131,8 +2234,11 @@
       <c r="I48" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2157,8 +2263,11 @@
       <c r="I49" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2181,7 +2290,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2209,8 +2318,11 @@
       <c r="I51" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2233,7 +2345,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2261,8 +2373,11 @@
       <c r="I53" s="3">
         <v>41820</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="3">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -2285,7 +2400,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -2308,7 +2423,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -2331,7 +2446,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
@@ -2356,8 +2471,11 @@
       <c r="I57" s="3">
         <v>41821</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2</v>
       </c>
@@ -2380,7 +2498,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -2403,7 +2521,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -2426,7 +2544,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -2449,7 +2567,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2</v>
       </c>
@@ -2472,7 +2590,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -2495,7 +2613,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -2520,8 +2638,11 @@
       <c r="I64" s="3">
         <v>41821</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -2544,7 +2665,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
@@ -2567,7 +2688,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
@@ -2590,7 +2711,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -2613,7 +2734,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -2636,7 +2757,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
@@ -2659,7 +2780,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2</v>
       </c>
@@ -2682,7 +2803,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2</v>
       </c>
@@ -2705,7 +2826,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2</v>
       </c>
@@ -2728,7 +2849,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
@@ -2751,7 +2872,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2</v>
       </c>
@@ -2774,7 +2895,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2</v>
       </c>
@@ -2797,7 +2918,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2</v>
       </c>
@@ -2822,8 +2943,11 @@
       <c r="I77" s="3">
         <v>41821</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
@@ -2846,7 +2970,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2</v>
       </c>
@@ -2869,7 +2993,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2</v>
       </c>
@@ -2892,7 +3016,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
@@ -2917,8 +3041,11 @@
       <c r="I81" s="3">
         <v>41821</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2</v>
       </c>
@@ -2943,8 +3070,11 @@
       <c r="I82" s="3">
         <v>41821</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2</v>
       </c>
@@ -2969,8 +3099,11 @@
       <c r="I83" s="3">
         <v>41821</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2</v>
       </c>
@@ -2993,7 +3126,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2</v>
       </c>
@@ -3016,7 +3149,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2</v>
       </c>
@@ -3039,7 +3172,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2</v>
       </c>
@@ -3062,7 +3195,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2</v>
       </c>
@@ -3085,7 +3218,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3108,7 +3241,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2</v>
       </c>
@@ -3133,8 +3266,11 @@
       <c r="I90" s="3">
         <v>41821</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2</v>
       </c>
@@ -3157,7 +3293,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2</v>
       </c>
@@ -3180,7 +3316,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2</v>
       </c>
@@ -3205,8 +3341,11 @@
       <c r="I93" s="3">
         <v>41821</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2</v>
       </c>
@@ -3229,7 +3368,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2</v>
       </c>
@@ -3254,8 +3393,11 @@
       <c r="I95" s="3">
         <v>41821</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="3">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2</v>
       </c>
@@ -3278,7 +3420,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2</v>
       </c>
@@ -3301,7 +3443,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2</v>
       </c>
@@ -3324,7 +3466,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
@@ -3347,7 +3489,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2</v>
       </c>
@@ -3370,7 +3512,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2</v>
       </c>
@@ -3393,7 +3535,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2</v>
       </c>
@@ -3416,7 +3558,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2</v>
       </c>
@@ -3439,7 +3581,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2</v>
       </c>
@@ -3462,7 +3604,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2</v>
       </c>
@@ -3485,7 +3627,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>3</v>
       </c>
@@ -3508,7 +3650,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>3</v>
       </c>
@@ -3531,7 +3673,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>3</v>
       </c>
@@ -3554,7 +3696,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>3</v>
       </c>
@@ -3579,8 +3721,11 @@
       <c r="I109" s="3">
         <v>41825</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" s="3">
+        <v>41827</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>3</v>
       </c>
@@ -3603,7 +3748,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>3</v>
       </c>
@@ -3626,7 +3771,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>3</v>
       </c>
@@ -3651,8 +3796,11 @@
       <c r="I112" s="3">
         <v>41825</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="3">
+        <v>41827</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>3</v>
       </c>
@@ -3675,7 +3823,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>3</v>
       </c>
@@ -3698,7 +3846,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>3</v>
       </c>
@@ -3721,7 +3869,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>3</v>
       </c>
@@ -3744,7 +3892,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>3</v>
       </c>
@@ -3769,8 +3917,11 @@
       <c r="I117" s="3">
         <v>41825</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>3</v>
       </c>
@@ -3793,7 +3944,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>3</v>
       </c>
@@ -3816,7 +3967,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>3</v>
       </c>
@@ -3839,7 +3990,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>3</v>
       </c>
@@ -3862,7 +4013,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>3</v>
       </c>
@@ -3885,7 +4036,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>3</v>
       </c>
@@ -3910,8 +4061,11 @@
       <c r="I123" s="3">
         <v>41825</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>3</v>
       </c>
@@ -3934,7 +4088,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>3</v>
       </c>
@@ -3957,7 +4111,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>3</v>
       </c>
@@ -3982,8 +4136,11 @@
       <c r="I126" s="3">
         <v>41825</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>3</v>
       </c>
@@ -4006,7 +4163,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>3</v>
       </c>
@@ -4029,7 +4186,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>3</v>
       </c>
@@ -4054,8 +4211,11 @@
       <c r="I129" s="3">
         <v>41825</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>3</v>
       </c>
@@ -4078,7 +4238,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>3</v>
       </c>
@@ -4101,7 +4261,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>3</v>
       </c>
@@ -4124,7 +4284,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>3</v>
       </c>
@@ -4147,7 +4307,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>3</v>
       </c>
@@ -4170,7 +4330,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>3</v>
       </c>
@@ -4195,8 +4355,11 @@
       <c r="I135" s="3">
         <v>41825</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>3</v>
       </c>
@@ -4219,7 +4382,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>3</v>
       </c>
@@ -4242,7 +4405,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>3</v>
       </c>
@@ -4265,7 +4428,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>3</v>
       </c>
@@ -4288,7 +4451,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>3</v>
       </c>
@@ -4311,7 +4474,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>3</v>
       </c>
@@ -4334,7 +4497,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>3</v>
       </c>
@@ -4357,7 +4520,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>3</v>
       </c>
@@ -4380,7 +4543,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3</v>
       </c>
@@ -4403,7 +4566,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>3</v>
       </c>
@@ -4428,8 +4591,11 @@
       <c r="I145" s="3">
         <v>41825</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>3</v>
       </c>
@@ -4452,7 +4618,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>3</v>
       </c>
@@ -4477,8 +4643,11 @@
       <c r="I147" s="3">
         <v>41825</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J147" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>3</v>
       </c>
@@ -4501,7 +4670,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>3</v>
       </c>
@@ -4524,7 +4693,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>3</v>
       </c>
@@ -4549,8 +4718,11 @@
       <c r="I150" s="3">
         <v>41825</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>3</v>
       </c>
@@ -4573,7 +4745,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>3</v>
       </c>
@@ -4598,8 +4770,11 @@
       <c r="I152" s="3">
         <v>41825</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J152" s="3">
+        <v>41825</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>3</v>
       </c>
@@ -4622,7 +4797,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>3</v>
       </c>
@@ -4645,7 +4820,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>3</v>
       </c>
@@ -4668,7 +4843,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>3</v>
       </c>
@@ -4691,7 +4866,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>3</v>
       </c>
@@ -4714,7 +4889,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>4</v>
       </c>
@@ -4737,7 +4912,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>4</v>
       </c>
@@ -4760,7 +4935,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>4</v>
       </c>
@@ -5519,7 +5694,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>4</v>
       </c>
@@ -5542,7 +5717,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>4</v>
       </c>
@@ -5565,7 +5740,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>4</v>
       </c>
@@ -5588,7 +5763,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>4</v>
       </c>
@@ -5611,7 +5786,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>4</v>
       </c>
@@ -5634,7 +5809,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>4</v>
       </c>
@@ -5657,7 +5832,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>4</v>
       </c>
@@ -5680,7 +5855,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>4</v>
       </c>
@@ -5703,7 +5878,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>4</v>
       </c>
@@ -5726,7 +5901,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>4</v>
       </c>
@@ -5745,11 +5920,17 @@
       <c r="G202">
         <v>38.4</v>
       </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
       <c r="I202" s="3">
         <v>41828</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J202" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>4</v>
       </c>
@@ -5772,7 +5953,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>4</v>
       </c>
@@ -5795,7 +5976,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>4</v>
       </c>
@@ -5818,7 +5999,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>4</v>
       </c>
@@ -5841,7 +6022,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>4</v>
       </c>
@@ -5860,11 +6041,17 @@
       <c r="G207">
         <v>37.799999999999997</v>
       </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
       <c r="I207" s="3">
         <v>41828</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J207" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>4</v>
       </c>
@@ -5887,7 +6074,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>4</v>
       </c>
@@ -5910,7 +6097,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>5</v>
       </c>
@@ -5929,8 +6116,11 @@
       <c r="G210">
         <v>41</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I210" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>5</v>
       </c>
@@ -5949,8 +6139,11 @@
       <c r="G211">
         <v>38.200000000000003</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I211" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>5</v>
       </c>
@@ -5969,8 +6162,17 @@
       <c r="G212">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212" s="3">
+        <v>41829</v>
+      </c>
+      <c r="J212" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>5</v>
       </c>
@@ -5989,8 +6191,11 @@
       <c r="G213">
         <v>39.9</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I213" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>5</v>
       </c>
@@ -6009,8 +6214,11 @@
       <c r="G214">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I214" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>5</v>
       </c>
@@ -6029,8 +6237,11 @@
       <c r="G215">
         <v>41</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I215" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>5</v>
       </c>
@@ -6049,8 +6260,11 @@
       <c r="G216">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I216" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>5</v>
       </c>
@@ -6069,8 +6283,11 @@
       <c r="G217">
         <v>41</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I217" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>5</v>
       </c>
@@ -6089,8 +6306,11 @@
       <c r="G218">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I218" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>5</v>
       </c>
@@ -6109,8 +6329,11 @@
       <c r="G219">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I219" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>5</v>
       </c>
@@ -6129,8 +6352,11 @@
       <c r="G220">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I220" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>5</v>
       </c>
@@ -6149,8 +6375,11 @@
       <c r="G221">
         <v>40.5</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I221" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>5</v>
       </c>
@@ -6169,8 +6398,11 @@
       <c r="G222">
         <v>38.799999999999997</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I222" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>5</v>
       </c>
@@ -6186,8 +6418,11 @@
       <c r="E223" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I223" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>5</v>
       </c>
@@ -6203,8 +6438,17 @@
       <c r="E224" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224" s="3">
+        <v>41829</v>
+      </c>
+      <c r="J224" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>5</v>
       </c>
@@ -6220,8 +6464,17 @@
       <c r="E225" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225" s="3">
+        <v>41829</v>
+      </c>
+      <c r="J225" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>5</v>
       </c>
@@ -6237,8 +6490,17 @@
       <c r="E226" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226" s="3">
+        <v>41829</v>
+      </c>
+      <c r="J226" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>5</v>
       </c>
@@ -6254,8 +6516,11 @@
       <c r="E227" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I227" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>5</v>
       </c>
@@ -6271,8 +6536,11 @@
       <c r="E228" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I228" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>5</v>
       </c>
@@ -6288,8 +6556,11 @@
       <c r="E229" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I229" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>5</v>
       </c>
@@ -6305,8 +6576,11 @@
       <c r="E230" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I230" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>5</v>
       </c>
@@ -6322,8 +6596,11 @@
       <c r="E231" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I231" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>5</v>
       </c>
@@ -6339,8 +6616,11 @@
       <c r="E232" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I232" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>5</v>
       </c>
@@ -6356,8 +6636,11 @@
       <c r="E233" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I233" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>5</v>
       </c>
@@ -6373,8 +6656,11 @@
       <c r="E234" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I234" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>5</v>
       </c>
@@ -6390,8 +6676,17 @@
       <c r="E235" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235" s="3">
+        <v>41829</v>
+      </c>
+      <c r="J235" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>5</v>
       </c>
@@ -6410,8 +6705,11 @@
       <c r="F236" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I236" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>5</v>
       </c>
@@ -6430,8 +6728,17 @@
       <c r="F237" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237" s="3">
+        <v>41829</v>
+      </c>
+      <c r="J237" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>5</v>
       </c>
@@ -6450,8 +6757,11 @@
       <c r="F238" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I238" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>5</v>
       </c>
@@ -6470,8 +6780,11 @@
       <c r="F239" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I239" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>5</v>
       </c>
@@ -6490,8 +6803,11 @@
       <c r="F240" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I240" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>5</v>
       </c>
@@ -6510,8 +6826,17 @@
       <c r="F241" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="I241" s="3">
+        <v>41829</v>
+      </c>
+      <c r="J241" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>5</v>
       </c>
@@ -6530,8 +6855,11 @@
       <c r="F242" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I242" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>5</v>
       </c>
@@ -6550,8 +6878,11 @@
       <c r="F243" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I243" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>5</v>
       </c>
@@ -6570,8 +6901,11 @@
       <c r="F244" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I244" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>5</v>
       </c>
@@ -6590,8 +6924,11 @@
       <c r="F245" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I245" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>5</v>
       </c>
@@ -6610,8 +6947,11 @@
       <c r="F246" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I246" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>5</v>
       </c>
@@ -6630,8 +6970,11 @@
       <c r="F247" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I247" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>5</v>
       </c>
@@ -6650,8 +6993,11 @@
       <c r="F248" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I248" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>5</v>
       </c>
@@ -6670,8 +7016,11 @@
       <c r="G249">
         <v>39</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I249" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>5</v>
       </c>
@@ -6690,8 +7039,11 @@
       <c r="G250">
         <v>37.299999999999997</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I250" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>5</v>
       </c>
@@ -6710,8 +7062,11 @@
       <c r="G251">
         <v>39.299999999999997</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I251" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>5</v>
       </c>
@@ -6730,8 +7085,11 @@
       <c r="G252">
         <v>38.9</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I252" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>5</v>
       </c>
@@ -6750,8 +7108,11 @@
       <c r="G253">
         <v>37</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I253" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>5</v>
       </c>
@@ -6770,8 +7131,11 @@
       <c r="G254">
         <v>38.700000000000003</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I254" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>5</v>
       </c>
@@ -6790,8 +7154,11 @@
       <c r="G255">
         <v>39.700000000000003</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I255" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>5</v>
       </c>
@@ -6810,8 +7177,11 @@
       <c r="G256">
         <v>37.1</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I256" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>5</v>
       </c>
@@ -6830,8 +7200,11 @@
       <c r="G257">
         <v>38.299999999999997</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I257" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>5</v>
       </c>
@@ -6850,8 +7223,11 @@
       <c r="G258">
         <v>39.4</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I258" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>5</v>
       </c>
@@ -6870,8 +7246,11 @@
       <c r="G259">
         <v>38.799999999999997</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I259" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>5</v>
       </c>
@@ -6890,8 +7269,11 @@
       <c r="G260">
         <v>39.1</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I260" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>5</v>
       </c>
@@ -6910,8 +7292,11 @@
       <c r="G261">
         <v>37.4</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I261" s="3">
+        <v>41829</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>6</v>
       </c>
@@ -6928,7 +7313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>6</v>
       </c>
@@ -6945,7 +7330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>6</v>
       </c>
@@ -6962,7 +7347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>6</v>
       </c>
@@ -6979,7 +7364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>6</v>
       </c>
@@ -6996,7 +7381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>6</v>
       </c>
@@ -7013,7 +7398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>6</v>
       </c>
@@ -7030,7 +7415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>6</v>
       </c>
@@ -7047,7 +7432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>6</v>
       </c>
@@ -7064,7 +7449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>6</v>
       </c>
@@ -7081,7 +7466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>6</v>
       </c>

--- a/Data/2018-07-01_HS_datasheet.xlsx
+++ b/Data/2018-07-01_HS_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BECF473-6813-4932-AB15-C1D55BF3FDD2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AFE769-11E7-4E6E-8EEF-799C7021113C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="168">
   <si>
     <t>cohort</t>
   </si>
@@ -499,6 +499,36 @@
   </si>
   <si>
     <t>death_date</t>
+  </si>
+  <si>
+    <t>12:05</t>
+  </si>
+  <si>
+    <t>2:41</t>
+  </si>
+  <si>
+    <t>3:54</t>
+  </si>
+  <si>
+    <t>10:06</t>
+  </si>
+  <si>
+    <t>13:40</t>
+  </si>
+  <si>
+    <t>30:07</t>
+  </si>
+  <si>
+    <t>1:40</t>
+  </si>
+  <si>
+    <t>7:23</t>
+  </si>
+  <si>
+    <t>16:02</t>
+  </si>
+  <si>
+    <t>6:08</t>
   </si>
 </sst>
 </file>
@@ -895,8 +925,8 @@
   <dimension ref="A1:J521"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J241" sqref="J241"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F228" sqref="F228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6418,6 +6448,9 @@
       <c r="E223" t="s">
         <v>13</v>
       </c>
+      <c r="F223" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="I223" s="3">
         <v>41829</v>
       </c>
@@ -6438,6 +6471,9 @@
       <c r="E224" t="s">
         <v>11</v>
       </c>
+      <c r="F224" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="H224">
         <v>0</v>
       </c>
@@ -6464,6 +6500,9 @@
       <c r="E225" t="s">
         <v>13</v>
       </c>
+      <c r="F225" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="H225">
         <v>0</v>
       </c>
@@ -6490,6 +6529,9 @@
       <c r="E226" t="s">
         <v>13</v>
       </c>
+      <c r="F226" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="H226">
         <v>0</v>
       </c>
@@ -6516,6 +6558,9 @@
       <c r="E227" t="s">
         <v>11</v>
       </c>
+      <c r="F227" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="I227" s="3">
         <v>41829</v>
       </c>
@@ -6536,6 +6581,9 @@
       <c r="E228" t="s">
         <v>11</v>
       </c>
+      <c r="F228" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="I228" s="3">
         <v>41829</v>
       </c>
@@ -6556,6 +6604,9 @@
       <c r="E229" t="s">
         <v>13</v>
       </c>
+      <c r="F229" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="I229" s="3">
         <v>41829</v>
       </c>
@@ -6576,6 +6627,9 @@
       <c r="E230" t="s">
         <v>13</v>
       </c>
+      <c r="F230" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="I230" s="3">
         <v>41829</v>
       </c>
@@ -6596,6 +6650,9 @@
       <c r="E231" t="s">
         <v>13</v>
       </c>
+      <c r="F231" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="I231" s="3">
         <v>41829</v>
       </c>
@@ -6616,6 +6673,9 @@
       <c r="E232" t="s">
         <v>11</v>
       </c>
+      <c r="F232" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="I232" s="3">
         <v>41829</v>
       </c>
@@ -6636,6 +6696,9 @@
       <c r="E233" t="s">
         <v>11</v>
       </c>
+      <c r="F233" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="I233" s="3">
         <v>41829</v>
       </c>
@@ -6656,6 +6719,9 @@
       <c r="E234" t="s">
         <v>11</v>
       </c>
+      <c r="F234" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="I234" s="3">
         <v>41829</v>
       </c>
@@ -6675,6 +6741,9 @@
       </c>
       <c r="E235" t="s">
         <v>11</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="H235">
         <v>0</v>

--- a/Data/2018-07-01_HS_datasheet.xlsx
+++ b/Data/2018-07-01_HS_datasheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Proteome_stability_project\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ECDC20-C2B4-431D-9D83-5050691BD0AD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874567E5-0DAE-443D-9EA3-D4B617C62BED}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -805,8 +805,8 @@
   <dimension ref="A1:J703"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H254" sqref="H254"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -867,8 +867,14 @@
       <c r="G2" s="2">
         <v>41.6</v>
       </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
       <c r="I2" s="3">
         <v>41822</v>
+      </c>
+      <c r="J2" s="3">
+        <v>41831</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1247,8 +1253,14 @@
       <c r="F18" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="H18">
+        <v>9</v>
+      </c>
       <c r="I18" s="3">
         <v>41822</v>
+      </c>
+      <c r="J18" s="3">
+        <v>41831</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1339,8 +1351,14 @@
       <c r="F22" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
       <c r="I22" s="3">
         <v>41822</v>
+      </c>
+      <c r="J22" s="3">
+        <v>41831</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2768,8 +2786,14 @@
       <c r="G87">
         <v>41.3</v>
       </c>
+      <c r="H87">
+        <v>6</v>
+      </c>
       <c r="I87" s="3">
         <v>41825</v>
+      </c>
+      <c r="J87" s="3">
+        <v>41831</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -3056,8 +3080,14 @@
       <c r="F99" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="H99">
+        <v>6</v>
+      </c>
       <c r="I99" s="3">
         <v>41825</v>
+      </c>
+      <c r="J99" s="3">
+        <v>41831</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">

--- a/Data/2018-07-01_HS_datasheet.xlsx
+++ b/Data/2018-07-01_HS_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874567E5-0DAE-443D-9EA3-D4B617C62BED}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7891EE6A-DA0F-461C-A08F-705A178CCABE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="150">
   <si>
     <t>cohort</t>
   </si>
@@ -409,6 +409,72 @@
   </si>
   <si>
     <t>CC</t>
+  </si>
+  <si>
+    <t>12:13</t>
+  </si>
+  <si>
+    <t>1:41</t>
+  </si>
+  <si>
+    <t>23:27</t>
+  </si>
+  <si>
+    <t>7:03</t>
+  </si>
+  <si>
+    <t>7:34</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>12:48</t>
+  </si>
+  <si>
+    <t>14:45</t>
+  </si>
+  <si>
+    <t>0:33</t>
+  </si>
+  <si>
+    <t>14:14</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>8:40</t>
+  </si>
+  <si>
+    <t>31:34</t>
+  </si>
+  <si>
+    <t>8:09</t>
+  </si>
+  <si>
+    <t>6:12</t>
+  </si>
+  <si>
+    <t>11:14</t>
+  </si>
+  <si>
+    <t>7:42</t>
+  </si>
+  <si>
+    <t>21:46</t>
+  </si>
+  <si>
+    <t>13:04</t>
+  </si>
+  <si>
+    <t>9:45</t>
+  </si>
+  <si>
+    <t>5:02</t>
+  </si>
+  <si>
+    <t>1:15</t>
   </si>
 </sst>
 </file>
@@ -443,7 +509,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -451,11 +517,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -463,6 +538,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,8 +883,8 @@
   <dimension ref="A1:J703"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N32" sqref="N32"/>
+      <pane ySplit="1" topLeftCell="A332" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I353" sqref="I353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2577,22 +2655,24 @@
         <v>41822</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="79" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="7">
         <v>2</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C79" t="s">
-        <v>127</v>
-      </c>
-      <c r="E79" t="s">
-        <v>11</v>
-      </c>
-      <c r="I79" s="3">
+      <c r="C79" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="8"/>
+      <c r="I79" s="9">
         <v>41822</v>
       </c>
+      <c r="J79" s="9"/>
     </row>
     <row r="80" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80">
@@ -4299,22 +4379,24 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157">
+    <row r="157" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="7">
         <v>3</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C157" t="s">
-        <v>127</v>
-      </c>
-      <c r="E157" t="s">
-        <v>11</v>
-      </c>
-      <c r="I157" s="3">
+      <c r="C157" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" s="8"/>
+      <c r="I157" s="9">
         <v>41825</v>
       </c>
+      <c r="J157" s="9"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
@@ -5827,7 +5909,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>4</v>
       </c>
@@ -5844,7 +5926,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>4</v>
       </c>
@@ -5861,7 +5943,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>4</v>
       </c>
@@ -5878,7 +5960,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>4</v>
       </c>
@@ -5895,7 +5977,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>4</v>
       </c>
@@ -5912,7 +5994,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>4</v>
       </c>
@@ -5929,7 +6011,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>4</v>
       </c>
@@ -5946,7 +6028,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>4</v>
       </c>
@@ -5963,7 +6045,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>4</v>
       </c>
@@ -5980,7 +6062,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>4</v>
       </c>
@@ -5997,24 +6079,26 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A235">
+    <row r="235" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="7">
         <v>4</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C235" t="s">
-        <v>127</v>
-      </c>
-      <c r="E235" t="s">
-        <v>11</v>
-      </c>
-      <c r="I235" s="3">
+      <c r="C235" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E235" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F235" s="8"/>
+      <c r="I235" s="9">
         <v>41828</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J235" s="9"/>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>5</v>
       </c>
@@ -6037,7 +6121,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>5</v>
       </c>
@@ -6060,7 +6144,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>5</v>
       </c>
@@ -6083,7 +6167,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>5</v>
       </c>
@@ -6106,7 +6190,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>5</v>
       </c>
@@ -7505,7 +7589,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>5</v>
       </c>
@@ -7522,7 +7606,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>5</v>
       </c>
@@ -7539,7 +7623,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>5</v>
       </c>
@@ -7556,7 +7640,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>5</v>
       </c>
@@ -7573,7 +7657,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>5</v>
       </c>
@@ -7590,7 +7674,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>5</v>
       </c>
@@ -7607,7 +7691,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>5</v>
       </c>
@@ -7624,7 +7708,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>5</v>
       </c>
@@ -7641,24 +7725,26 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A313">
+    <row r="313" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="7">
         <v>5</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C313" t="s">
-        <v>127</v>
-      </c>
-      <c r="E313" t="s">
-        <v>11</v>
-      </c>
-      <c r="I313" s="3">
+      <c r="C313" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E313" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F313" s="8"/>
+      <c r="I313" s="9">
         <v>41829</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J313" s="9"/>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>6</v>
       </c>
@@ -7674,8 +7760,14 @@
       <c r="E314" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G314">
+        <v>41.7</v>
+      </c>
+      <c r="I314" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>6</v>
       </c>
@@ -7691,8 +7783,14 @@
       <c r="E315" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G315">
+        <v>41.7</v>
+      </c>
+      <c r="I315" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>6</v>
       </c>
@@ -7708,8 +7806,14 @@
       <c r="E316" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G316">
+        <v>41.7</v>
+      </c>
+      <c r="I316" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>6</v>
       </c>
@@ -7725,8 +7829,14 @@
       <c r="E317" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G317">
+        <v>40.6</v>
+      </c>
+      <c r="I317" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>6</v>
       </c>
@@ -7742,8 +7852,14 @@
       <c r="E318" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G318">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="I318" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>6</v>
       </c>
@@ -7759,8 +7875,14 @@
       <c r="E319" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G319">
+        <v>40.6</v>
+      </c>
+      <c r="I319" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>6</v>
       </c>
@@ -7776,8 +7898,14 @@
       <c r="E320" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G320">
+        <v>41.7</v>
+      </c>
+      <c r="I320" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>6</v>
       </c>
@@ -7793,8 +7921,14 @@
       <c r="E321" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G321">
+        <v>41.7</v>
+      </c>
+      <c r="I321" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>6</v>
       </c>
@@ -7810,8 +7944,14 @@
       <c r="E322" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G322">
+        <v>42.3</v>
+      </c>
+      <c r="I322" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>6</v>
       </c>
@@ -7827,8 +7967,14 @@
       <c r="E323" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G323">
+        <v>40.6</v>
+      </c>
+      <c r="I323" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>6</v>
       </c>
@@ -7844,8 +7990,14 @@
       <c r="E324" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G324">
+        <v>39.9</v>
+      </c>
+      <c r="I324" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>6</v>
       </c>
@@ -7861,8 +8013,14 @@
       <c r="E325" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G325">
+        <v>40.6</v>
+      </c>
+      <c r="I325" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>6</v>
       </c>
@@ -7878,8 +8036,14 @@
       <c r="E326" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G326">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="I326" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>6</v>
       </c>
@@ -7895,8 +8059,14 @@
       <c r="E327" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F327" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I327" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>6</v>
       </c>
@@ -7912,8 +8082,14 @@
       <c r="E328" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F328" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I328" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>6</v>
       </c>
@@ -7929,8 +8105,14 @@
       <c r="E329" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F329" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I329" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>6</v>
       </c>
@@ -7946,8 +8128,14 @@
       <c r="E330" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F330" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I330" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>6</v>
       </c>
@@ -7963,8 +8151,14 @@
       <c r="E331" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F331" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I331" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>6</v>
       </c>
@@ -7980,8 +8174,14 @@
       <c r="E332" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F332" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I332" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>6</v>
       </c>
@@ -7997,8 +8197,14 @@
       <c r="E333" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F333" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I333" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>6</v>
       </c>
@@ -8014,8 +8220,14 @@
       <c r="E334" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F334" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I334" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>6</v>
       </c>
@@ -8031,8 +8243,14 @@
       <c r="E335" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F335" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I335" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>6</v>
       </c>
@@ -8048,8 +8266,14 @@
       <c r="E336" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F336" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I336" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>6</v>
       </c>
@@ -8065,8 +8289,14 @@
       <c r="E337" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F337" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I337" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>6</v>
       </c>
@@ -8082,8 +8312,14 @@
       <c r="E338" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F338" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I338" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>6</v>
       </c>
@@ -8099,8 +8335,14 @@
       <c r="E339" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F339" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I339" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>6</v>
       </c>
@@ -8116,8 +8358,14 @@
       <c r="E340" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F340" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I340" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>6</v>
       </c>
@@ -8133,8 +8381,14 @@
       <c r="E341" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F341" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I341" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>6</v>
       </c>
@@ -8150,8 +8404,14 @@
       <c r="E342" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F342" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I342" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>6</v>
       </c>
@@ -8167,8 +8427,14 @@
       <c r="E343" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F343" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I343" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>6</v>
       </c>
@@ -8184,8 +8450,14 @@
       <c r="E344" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F344" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I344" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>6</v>
       </c>
@@ -8201,8 +8473,14 @@
       <c r="E345" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F345" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I345" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>6</v>
       </c>
@@ -8218,8 +8496,14 @@
       <c r="E346" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F346" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I346" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>6</v>
       </c>
@@ -8235,8 +8519,14 @@
       <c r="E347" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F347" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I347" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>6</v>
       </c>
@@ -8252,8 +8542,14 @@
       <c r="E348" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F348" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I348" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>6</v>
       </c>
@@ -8269,8 +8565,14 @@
       <c r="E349" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F349" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I349" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>6</v>
       </c>
@@ -8286,8 +8588,14 @@
       <c r="E350" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F350" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I350" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>6</v>
       </c>
@@ -8303,8 +8611,14 @@
       <c r="E351" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F351" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I351" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>6</v>
       </c>
@@ -8320,8 +8634,14 @@
       <c r="E352" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F352" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I352" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>6</v>
       </c>
@@ -8337,8 +8657,14 @@
       <c r="E353" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G353">
+        <v>39.1</v>
+      </c>
+      <c r="I353" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>6</v>
       </c>
@@ -8354,8 +8680,14 @@
       <c r="E354" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G354">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="I354" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>6</v>
       </c>
@@ -8371,8 +8703,14 @@
       <c r="E355" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G355">
+        <v>39.5</v>
+      </c>
+      <c r="I355" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>6</v>
       </c>
@@ -8388,8 +8726,14 @@
       <c r="E356" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G356">
+        <v>39.4</v>
+      </c>
+      <c r="I356" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>6</v>
       </c>
@@ -8405,8 +8749,14 @@
       <c r="E357" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G357">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="I357" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>6</v>
       </c>
@@ -8422,8 +8772,14 @@
       <c r="E358" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G358">
+        <v>38.4</v>
+      </c>
+      <c r="I358" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>6</v>
       </c>
@@ -8439,8 +8795,14 @@
       <c r="E359" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G359">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="I359" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>6</v>
       </c>
@@ -8456,8 +8818,14 @@
       <c r="E360" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G360">
+        <v>37.5</v>
+      </c>
+      <c r="I360" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>6</v>
       </c>
@@ -8473,8 +8841,14 @@
       <c r="E361" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G361">
+        <v>38.1</v>
+      </c>
+      <c r="I361" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>6</v>
       </c>
@@ -8490,8 +8864,14 @@
       <c r="E362" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G362">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="I362" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>6</v>
       </c>
@@ -8507,8 +8887,14 @@
       <c r="E363" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G363">
+        <v>38.9</v>
+      </c>
+      <c r="I363" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>6</v>
       </c>
@@ -8524,8 +8910,14 @@
       <c r="E364" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G364">
+        <v>39</v>
+      </c>
+      <c r="I364" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>6</v>
       </c>
@@ -8541,8 +8933,14 @@
       <c r="E365" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G365">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="I365" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>6</v>
       </c>
@@ -8555,8 +8953,11 @@
       <c r="E366" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I366" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>6</v>
       </c>
@@ -8569,8 +8970,11 @@
       <c r="E367" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I367" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>6</v>
       </c>
@@ -8583,8 +8987,11 @@
       <c r="E368" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I368" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>6</v>
       </c>
@@ -8597,8 +9004,11 @@
       <c r="E369" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I369" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>6</v>
       </c>
@@ -8611,8 +9021,11 @@
       <c r="E370" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I370" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>6</v>
       </c>
@@ -8625,8 +9038,11 @@
       <c r="E371" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I371" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>6</v>
       </c>
@@ -8639,8 +9055,11 @@
       <c r="E372" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I372" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>6</v>
       </c>
@@ -8653,8 +9072,11 @@
       <c r="E373" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I373" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>6</v>
       </c>
@@ -8667,8 +9089,11 @@
       <c r="E374" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I374" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>6</v>
       </c>
@@ -8681,8 +9106,11 @@
       <c r="E375" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I375" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>6</v>
       </c>
@@ -8695,8 +9123,11 @@
       <c r="E376" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I376" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>6</v>
       </c>
@@ -8709,8 +9140,11 @@
       <c r="E377" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I377" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>6</v>
       </c>
@@ -8723,8 +9157,11 @@
       <c r="E378" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I378" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>6</v>
       </c>
@@ -8737,8 +9174,11 @@
       <c r="E379" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I379" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>6</v>
       </c>
@@ -8751,8 +9191,11 @@
       <c r="E380" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I380" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>6</v>
       </c>
@@ -8765,8 +9208,11 @@
       <c r="E381" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I381" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>6</v>
       </c>
@@ -8779,8 +9225,11 @@
       <c r="E382" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I382" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>6</v>
       </c>
@@ -8793,8 +9242,11 @@
       <c r="E383" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I383" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>6</v>
       </c>
@@ -8807,8 +9259,11 @@
       <c r="E384" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I384" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>6</v>
       </c>
@@ -8821,8 +9276,11 @@
       <c r="E385" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I385" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>6</v>
       </c>
@@ -8835,8 +9293,11 @@
       <c r="E386" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I386" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>6</v>
       </c>
@@ -8849,8 +9310,11 @@
       <c r="E387" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I387" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>6</v>
       </c>
@@ -8863,8 +9327,11 @@
       <c r="E388" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I388" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>6</v>
       </c>
@@ -8877,8 +9344,11 @@
       <c r="E389" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I389" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>6</v>
       </c>
@@ -8891,22 +9361,30 @@
       <c r="E390" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A391">
+      <c r="I390" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="7">
         <v>6</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B391" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C391" t="s">
-        <v>127</v>
-      </c>
-      <c r="E391" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C391" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E391" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F391" s="8"/>
+      <c r="I391" s="9">
+        <v>41831</v>
+      </c>
+      <c r="J391" s="9"/>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>7</v>
       </c>
@@ -8923,7 +9401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>7</v>
       </c>
@@ -8940,7 +9418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>7</v>
       </c>
@@ -8957,7 +9435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>7</v>
       </c>
@@ -8974,7 +9452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>7</v>
       </c>
@@ -8991,7 +9469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>7</v>
       </c>
@@ -9008,7 +9486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>7</v>
       </c>
@@ -9025,7 +9503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>7</v>
       </c>
@@ -9042,7 +9520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>7</v>
       </c>
@@ -10084,7 +10562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>7</v>
       </c>
@@ -10098,7 +10576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>7</v>
       </c>
@@ -10112,7 +10590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>7</v>
       </c>
@@ -10126,7 +10604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>7</v>
       </c>
@@ -10140,21 +10618,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A469">
+    <row r="469" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A469" s="7">
         <v>7</v>
       </c>
-      <c r="B469" t="s">
+      <c r="B469" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C469" t="s">
-        <v>127</v>
-      </c>
-      <c r="E469" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C469" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E469" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F469" s="8"/>
+      <c r="I469" s="9"/>
+      <c r="J469" s="9"/>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>8</v>
       </c>
@@ -10171,7 +10652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>8</v>
       </c>
@@ -10188,7 +10669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>8</v>
       </c>
@@ -10205,7 +10686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>8</v>
       </c>
@@ -10222,7 +10703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>8</v>
       </c>
@@ -10239,7 +10720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>8</v>
       </c>
@@ -10256,7 +10737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>8</v>
       </c>
@@ -10273,7 +10754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>8</v>
       </c>
@@ -10290,7 +10771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>8</v>
       </c>
@@ -10307,7 +10788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>8</v>
       </c>
@@ -10324,7 +10805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>8</v>
       </c>
@@ -11360,7 +11841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>8</v>
       </c>
@@ -11374,7 +11855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>8</v>
       </c>
@@ -11388,21 +11869,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A547">
+    <row r="547" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A547" s="7">
         <v>8</v>
       </c>
-      <c r="B547" t="s">
+      <c r="B547" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C547" t="s">
-        <v>127</v>
-      </c>
-      <c r="E547" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C547" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E547" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F547" s="8"/>
+      <c r="I547" s="9"/>
+      <c r="J547" s="9"/>
+    </row>
+    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>9</v>
       </c>
@@ -11419,7 +11903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>9</v>
       </c>
@@ -11436,7 +11920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>9</v>
       </c>
@@ -11453,7 +11937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>9</v>
       </c>
@@ -11470,7 +11954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>9</v>
       </c>
@@ -11487,7 +11971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>9</v>
       </c>
@@ -11504,7 +11988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>9</v>
       </c>
@@ -11521,7 +12005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>9</v>
       </c>
@@ -11538,7 +12022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>9</v>
       </c>
@@ -11555,7 +12039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>9</v>
       </c>
@@ -11572,7 +12056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>9</v>
       </c>
@@ -11589,7 +12073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>9</v>
       </c>
@@ -11606,7 +12090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>9</v>
       </c>
@@ -12636,21 +13120,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A625">
-        <v>9</v>
-      </c>
-      <c r="B625" t="s">
+    <row r="625" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A625" s="7">
+        <v>9</v>
+      </c>
+      <c r="B625" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C625" t="s">
-        <v>127</v>
-      </c>
-      <c r="E625" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C625" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E625" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F625" s="8"/>
+      <c r="I625" s="9"/>
+      <c r="J625" s="9"/>
+    </row>
+    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>10</v>
       </c>
@@ -12667,7 +13154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>10</v>
       </c>
@@ -12684,7 +13171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>10</v>
       </c>
@@ -12701,7 +13188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>10</v>
       </c>
@@ -12718,7 +13205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>10</v>
       </c>
@@ -12735,7 +13222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>10</v>
       </c>
@@ -12752,7 +13239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>10</v>
       </c>
@@ -12769,7 +13256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>10</v>
       </c>
@@ -12786,7 +13273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>10</v>
       </c>
@@ -12803,7 +13290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>10</v>
       </c>
@@ -12820,7 +13307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>10</v>
       </c>
@@ -12837,7 +13324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>10</v>
       </c>
@@ -12854,7 +13341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>10</v>
       </c>
@@ -12871,7 +13358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>10</v>
       </c>
@@ -12888,7 +13375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>10</v>
       </c>

--- a/Data/2018-07-01_HS_datasheet.xlsx
+++ b/Data/2018-07-01_HS_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7891EE6A-DA0F-461C-A08F-705A178CCABE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F442E59B-F088-4BB4-BBF6-476FFBE2A03D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="172">
   <si>
     <t>cohort</t>
   </si>
@@ -475,6 +475,72 @@
   </si>
   <si>
     <t>1:15</t>
+  </si>
+  <si>
+    <t>20:58</t>
+  </si>
+  <si>
+    <t>7:09</t>
+  </si>
+  <si>
+    <t>17:28</t>
+  </si>
+  <si>
+    <t>23:02</t>
+  </si>
+  <si>
+    <t>9:47</t>
+  </si>
+  <si>
+    <t>23:30</t>
+  </si>
+  <si>
+    <t>2:26</t>
+  </si>
+  <si>
+    <t>9:26</t>
+  </si>
+  <si>
+    <t>22:35</t>
+  </si>
+  <si>
+    <t>14:07</t>
+  </si>
+  <si>
+    <t>8:15</t>
+  </si>
+  <si>
+    <t>0:54</t>
+  </si>
+  <si>
+    <t>7:53</t>
+  </si>
+  <si>
+    <t>27:55</t>
+  </si>
+  <si>
+    <t>15:48</t>
+  </si>
+  <si>
+    <t>25:50</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>2:30</t>
+  </si>
+  <si>
+    <t>42:33</t>
+  </si>
+  <si>
+    <t>4:00</t>
+  </si>
+  <si>
+    <t>24:21</t>
+  </si>
+  <si>
+    <t>5:14</t>
   </si>
 </sst>
 </file>
@@ -883,8 +949,8 @@
   <dimension ref="A1:J703"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A332" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I353" sqref="I353"/>
+      <pane ySplit="1" topLeftCell="A400" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J414" sqref="J414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2018,8 +2084,14 @@
       <c r="G45">
         <v>37.6</v>
       </c>
+      <c r="H45">
+        <v>10</v>
+      </c>
       <c r="I45" s="3">
         <v>41822</v>
+      </c>
+      <c r="J45" s="3">
+        <v>41832</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -4358,8 +4430,14 @@
       <c r="E155" t="s">
         <v>11</v>
       </c>
+      <c r="H155">
+        <v>7</v>
+      </c>
       <c r="I155" s="3">
         <v>41825</v>
+      </c>
+      <c r="J155" s="3">
+        <v>41832</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -8273,7 +8351,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>6</v>
       </c>
@@ -8296,7 +8374,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>6</v>
       </c>
@@ -8319,7 +8397,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>6</v>
       </c>
@@ -8342,7 +8420,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>6</v>
       </c>
@@ -8365,7 +8443,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>6</v>
       </c>
@@ -8388,7 +8466,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>6</v>
       </c>
@@ -8411,7 +8489,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>6</v>
       </c>
@@ -8434,7 +8512,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>6</v>
       </c>
@@ -8457,7 +8535,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>6</v>
       </c>
@@ -8480,7 +8558,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>6</v>
       </c>
@@ -8503,7 +8581,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>6</v>
       </c>
@@ -8526,7 +8604,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>6</v>
       </c>
@@ -8549,7 +8627,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>6</v>
       </c>
@@ -8572,7 +8650,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>6</v>
       </c>
@@ -8591,11 +8669,17 @@
       <c r="F350" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="H350">
+        <v>0</v>
+      </c>
       <c r="I350" s="3">
         <v>41831</v>
       </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J350" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>6</v>
       </c>
@@ -8618,7 +8702,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>6</v>
       </c>
@@ -8641,7 +8725,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>6</v>
       </c>
@@ -8664,7 +8748,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>6</v>
       </c>
@@ -8687,7 +8771,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>6</v>
       </c>
@@ -8706,11 +8790,17 @@
       <c r="G355">
         <v>39.5</v>
       </c>
+      <c r="H355">
+        <v>0</v>
+      </c>
       <c r="I355" s="3">
         <v>41831</v>
       </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J355" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>6</v>
       </c>
@@ -8733,7 +8823,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>6</v>
       </c>
@@ -8756,7 +8846,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>6</v>
       </c>
@@ -8779,7 +8869,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>6</v>
       </c>
@@ -8798,11 +8888,17 @@
       <c r="G359">
         <v>37.799999999999997</v>
       </c>
+      <c r="H359">
+        <v>0</v>
+      </c>
       <c r="I359" s="3">
         <v>41831</v>
       </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J359" s="3">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>6</v>
       </c>
@@ -8825,7 +8921,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>6</v>
       </c>
@@ -8848,7 +8944,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>6</v>
       </c>
@@ -8871,7 +8967,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>6</v>
       </c>
@@ -8894,7 +8990,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>6</v>
       </c>
@@ -8917,7 +9013,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>6</v>
       </c>
@@ -8940,7 +9036,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>6</v>
       </c>
@@ -8957,7 +9053,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>6</v>
       </c>
@@ -8974,7 +9070,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>6</v>
       </c>
@@ -9400,6 +9496,12 @@
       <c r="E392" t="s">
         <v>11</v>
       </c>
+      <c r="G392">
+        <v>41.7</v>
+      </c>
+      <c r="I392" s="3">
+        <v>41832</v>
+      </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393">
@@ -9417,6 +9519,12 @@
       <c r="E393" t="s">
         <v>11</v>
       </c>
+      <c r="G393">
+        <v>40.5</v>
+      </c>
+      <c r="I393" s="3">
+        <v>41832</v>
+      </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394">
@@ -9434,6 +9542,12 @@
       <c r="E394" t="s">
         <v>11</v>
       </c>
+      <c r="G394">
+        <v>41.7</v>
+      </c>
+      <c r="I394" s="3">
+        <v>41832</v>
+      </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395">
@@ -9451,6 +9565,12 @@
       <c r="E395" t="s">
         <v>13</v>
       </c>
+      <c r="G395">
+        <v>40.5</v>
+      </c>
+      <c r="I395" s="3">
+        <v>41832</v>
+      </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396">
@@ -9468,6 +9588,12 @@
       <c r="E396" t="s">
         <v>13</v>
       </c>
+      <c r="G396">
+        <v>40.9</v>
+      </c>
+      <c r="I396" s="3">
+        <v>41832</v>
+      </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397">
@@ -9485,6 +9611,12 @@
       <c r="E397" t="s">
         <v>13</v>
       </c>
+      <c r="G397">
+        <v>40.9</v>
+      </c>
+      <c r="I397" s="3">
+        <v>41832</v>
+      </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398">
@@ -9502,6 +9634,12 @@
       <c r="E398" t="s">
         <v>13</v>
       </c>
+      <c r="G398">
+        <v>40.1</v>
+      </c>
+      <c r="I398" s="3">
+        <v>41832</v>
+      </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399">
@@ -9519,6 +9657,12 @@
       <c r="E399" t="s">
         <v>13</v>
       </c>
+      <c r="G399">
+        <v>41.5</v>
+      </c>
+      <c r="I399" s="3">
+        <v>41832</v>
+      </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400">
@@ -9536,8 +9680,14 @@
       <c r="E400" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G400">
+        <v>39.6</v>
+      </c>
+      <c r="I400" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>7</v>
       </c>
@@ -9553,8 +9703,14 @@
       <c r="E401" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G401">
+        <v>40.5</v>
+      </c>
+      <c r="I401" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>7</v>
       </c>
@@ -9570,8 +9726,14 @@
       <c r="E402" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G402">
+        <v>40.9</v>
+      </c>
+      <c r="I402" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>7</v>
       </c>
@@ -9587,8 +9749,14 @@
       <c r="E403" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G403">
+        <v>40.9</v>
+      </c>
+      <c r="I403" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>7</v>
       </c>
@@ -9604,8 +9772,14 @@
       <c r="E404" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G404">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="I404" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>7</v>
       </c>
@@ -9621,8 +9795,14 @@
       <c r="E405" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F405" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I405" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>7</v>
       </c>
@@ -9638,8 +9818,14 @@
       <c r="E406" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F406" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I406" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>7</v>
       </c>
@@ -9655,8 +9841,14 @@
       <c r="E407" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F407" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I407" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>7</v>
       </c>
@@ -9672,8 +9864,14 @@
       <c r="E408" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F408" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I408" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>7</v>
       </c>
@@ -9689,8 +9887,14 @@
       <c r="E409" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F409" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I409" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>7</v>
       </c>
@@ -9706,8 +9910,14 @@
       <c r="E410" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F410" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I410" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>7</v>
       </c>
@@ -9723,8 +9933,14 @@
       <c r="E411" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F411" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I411" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>7</v>
       </c>
@@ -9740,8 +9956,14 @@
       <c r="E412" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F412" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I412" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>7</v>
       </c>
@@ -9757,8 +9979,14 @@
       <c r="E413" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F413" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I413" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>7</v>
       </c>
@@ -9774,8 +10002,14 @@
       <c r="E414" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F414" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I414" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>7</v>
       </c>
@@ -9791,8 +10025,14 @@
       <c r="E415" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F415" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I415" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>7</v>
       </c>
@@ -9808,8 +10048,14 @@
       <c r="E416" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F416" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I416" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>7</v>
       </c>
@@ -9825,8 +10071,14 @@
       <c r="E417" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F417" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I417" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>7</v>
       </c>
@@ -9842,8 +10094,14 @@
       <c r="E418" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F418" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I418" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>7</v>
       </c>
@@ -9859,8 +10117,14 @@
       <c r="E419" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F419" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I419" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>7</v>
       </c>
@@ -9876,8 +10140,14 @@
       <c r="E420" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F420" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I420" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>7</v>
       </c>
@@ -9893,8 +10163,14 @@
       <c r="E421" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F421" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I421" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>7</v>
       </c>
@@ -9910,8 +10186,14 @@
       <c r="E422" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F422" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I422" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>7</v>
       </c>
@@ -9927,8 +10209,14 @@
       <c r="E423" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F423" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I423" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>7</v>
       </c>
@@ -9944,8 +10232,14 @@
       <c r="E424" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F424" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I424" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>7</v>
       </c>
@@ -9961,8 +10255,14 @@
       <c r="E425" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F425" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I425" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>7</v>
       </c>
@@ -9978,8 +10278,14 @@
       <c r="E426" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F426" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I426" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>7</v>
       </c>
@@ -9995,8 +10301,14 @@
       <c r="E427" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F427" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I427" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>7</v>
       </c>
@@ -10012,8 +10324,14 @@
       <c r="E428" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F428" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I428" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>7</v>
       </c>
@@ -10029,8 +10347,14 @@
       <c r="E429" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F429" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I429" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>7</v>
       </c>
@@ -10046,8 +10370,14 @@
       <c r="E430" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F430" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I430" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>7</v>
       </c>
@@ -10063,8 +10393,14 @@
       <c r="E431" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G431">
+        <v>39.4</v>
+      </c>
+      <c r="I431" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>7</v>
       </c>
@@ -10080,8 +10416,14 @@
       <c r="E432" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G432">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="I432" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>7</v>
       </c>
@@ -10097,8 +10439,14 @@
       <c r="E433" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G433">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="I433" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>7</v>
       </c>
@@ -10114,8 +10462,14 @@
       <c r="E434" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G434">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="I434" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>7</v>
       </c>
@@ -10131,8 +10485,14 @@
       <c r="E435" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G435">
+        <v>36.9</v>
+      </c>
+      <c r="I435" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>7</v>
       </c>
@@ -10148,8 +10508,14 @@
       <c r="E436" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G436">
+        <v>37.4</v>
+      </c>
+      <c r="I436" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>7</v>
       </c>
@@ -10165,8 +10531,14 @@
       <c r="E437" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G437">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="I437" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>7</v>
       </c>
@@ -10182,8 +10554,14 @@
       <c r="E438" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G438">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="I438" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>7</v>
       </c>
@@ -10199,8 +10577,14 @@
       <c r="E439" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G439">
+        <v>39</v>
+      </c>
+      <c r="I439" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>7</v>
       </c>
@@ -10216,8 +10600,14 @@
       <c r="E440" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G440">
+        <v>39.5</v>
+      </c>
+      <c r="I440" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>7</v>
       </c>
@@ -10233,8 +10623,14 @@
       <c r="E441" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G441">
+        <v>38.6</v>
+      </c>
+      <c r="I441" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>7</v>
       </c>
@@ -10250,8 +10646,14 @@
       <c r="E442" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G442">
+        <v>38.1</v>
+      </c>
+      <c r="I442" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>7</v>
       </c>
@@ -10267,8 +10669,14 @@
       <c r="E443" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G443">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="I443" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>7</v>
       </c>
@@ -10281,8 +10689,11 @@
       <c r="E444" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I444" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>7</v>
       </c>
@@ -10295,8 +10706,11 @@
       <c r="E445" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I445" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>7</v>
       </c>
@@ -10309,8 +10723,11 @@
       <c r="E446" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I446" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>7</v>
       </c>
@@ -10323,8 +10740,11 @@
       <c r="E447" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I447" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>7</v>
       </c>
@@ -10337,8 +10757,11 @@
       <c r="E448" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I448" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>7</v>
       </c>
@@ -10351,8 +10774,11 @@
       <c r="E449" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I449" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>7</v>
       </c>
@@ -10365,8 +10791,11 @@
       <c r="E450" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I450" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>7</v>
       </c>
@@ -10379,8 +10808,11 @@
       <c r="E451" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I451" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>7</v>
       </c>
@@ -10393,8 +10825,11 @@
       <c r="E452" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I452" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>7</v>
       </c>
@@ -10407,8 +10842,11 @@
       <c r="E453" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I453" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>7</v>
       </c>
@@ -10421,8 +10859,11 @@
       <c r="E454" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I454" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>7</v>
       </c>
@@ -10435,8 +10876,11 @@
       <c r="E455" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I455" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>7</v>
       </c>
@@ -10449,8 +10893,11 @@
       <c r="E456" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I456" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>7</v>
       </c>
@@ -10463,8 +10910,11 @@
       <c r="E457" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I457" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>7</v>
       </c>
@@ -10477,8 +10927,11 @@
       <c r="E458" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I458" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>7</v>
       </c>
@@ -10491,8 +10944,11 @@
       <c r="E459" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I459" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>7</v>
       </c>
@@ -10505,8 +10961,11 @@
       <c r="E460" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I460" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>7</v>
       </c>
@@ -10519,8 +10978,11 @@
       <c r="E461" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I461" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>7</v>
       </c>
@@ -10533,8 +10995,11 @@
       <c r="E462" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I462" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>7</v>
       </c>
@@ -10547,8 +11012,11 @@
       <c r="E463" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I463" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>7</v>
       </c>
@@ -10560,6 +11028,9 @@
       </c>
       <c r="E464" t="s">
         <v>11</v>
+      </c>
+      <c r="I464" s="3">
+        <v>41832</v>
       </c>
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.25">
@@ -10575,6 +11046,9 @@
       <c r="E465" t="s">
         <v>11</v>
       </c>
+      <c r="I465" s="3">
+        <v>41832</v>
+      </c>
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A466">
@@ -10589,6 +11063,9 @@
       <c r="E466" t="s">
         <v>11</v>
       </c>
+      <c r="I466" s="3">
+        <v>41832</v>
+      </c>
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A467">
@@ -10603,6 +11080,9 @@
       <c r="E467" t="s">
         <v>11</v>
       </c>
+      <c r="I467" s="3">
+        <v>41832</v>
+      </c>
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A468">
@@ -10617,6 +11097,9 @@
       <c r="E468" t="s">
         <v>11</v>
       </c>
+      <c r="I468" s="3">
+        <v>41832</v>
+      </c>
     </row>
     <row r="469" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" s="7">
@@ -10632,7 +11115,9 @@
         <v>11</v>
       </c>
       <c r="F469" s="8"/>
-      <c r="I469" s="9"/>
+      <c r="I469" s="9">
+        <v>41832</v>
+      </c>
       <c r="J469" s="9"/>
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.25">

--- a/Data/2018-07-01_HS_datasheet.xlsx
+++ b/Data/2018-07-01_HS_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F442E59B-F088-4BB4-BBF6-476FFBE2A03D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AEE2A2-7B01-45EB-847E-DE495531D59D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="194">
   <si>
     <t>cohort</t>
   </si>
@@ -541,6 +541,72 @@
   </si>
   <si>
     <t>5:14</t>
+  </si>
+  <si>
+    <t>15:40</t>
+  </si>
+  <si>
+    <t>16:58</t>
+  </si>
+  <si>
+    <t>6:48</t>
+  </si>
+  <si>
+    <t>12:10</t>
+  </si>
+  <si>
+    <t>3:52</t>
+  </si>
+  <si>
+    <t>22:32</t>
+  </si>
+  <si>
+    <t>18:20</t>
+  </si>
+  <si>
+    <t>0:36</t>
+  </si>
+  <si>
+    <t>20:10</t>
+  </si>
+  <si>
+    <t>9:25</t>
+  </si>
+  <si>
+    <t>16:52</t>
+  </si>
+  <si>
+    <t>15:23</t>
+  </si>
+  <si>
+    <t>26:43</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>11:19</t>
+  </si>
+  <si>
+    <t>17:49</t>
+  </si>
+  <si>
+    <t>8:33</t>
+  </si>
+  <si>
+    <t>10:56</t>
+  </si>
+  <si>
+    <t>19:46</t>
+  </si>
+  <si>
+    <t>7:52</t>
+  </si>
+  <si>
+    <t>1:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -949,8 +1015,8 @@
   <dimension ref="A1:J703"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A400" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J414" sqref="J414"/>
+      <pane ySplit="1" topLeftCell="A488" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C522" sqref="C522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1040,8 +1106,14 @@
       <c r="G3" s="2">
         <v>41</v>
       </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
       <c r="I3" s="3">
         <v>41822</v>
+      </c>
+      <c r="J3" s="3">
+        <v>41834</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1063,8 +1135,14 @@
       <c r="G4" s="2">
         <v>41</v>
       </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
       <c r="I4" s="3">
         <v>41822</v>
+      </c>
+      <c r="J4" s="3">
+        <v>41834</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1115,8 +1193,14 @@
       <c r="G6" s="2">
         <v>39.799999999999997</v>
       </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
       <c r="I6" s="3">
         <v>41822</v>
+      </c>
+      <c r="J6" s="3">
+        <v>41834</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1184,8 +1268,14 @@
       <c r="G9" s="2">
         <v>39</v>
       </c>
+      <c r="H9">
+        <v>11</v>
+      </c>
       <c r="I9" s="3">
         <v>41822</v>
+      </c>
+      <c r="J9" s="3">
+        <v>41833</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1230,8 +1320,14 @@
       <c r="G11" s="2">
         <v>41.6</v>
       </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
       <c r="I11" s="3">
         <v>41822</v>
+      </c>
+      <c r="J11" s="3">
+        <v>41833</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1282,8 +1378,14 @@
       <c r="G13" s="2">
         <v>40.4</v>
       </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
       <c r="I13" s="3">
         <v>41822</v>
+      </c>
+      <c r="J13" s="3">
+        <v>41834</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1351,8 +1453,14 @@
       <c r="F16" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
       <c r="I16" s="3">
         <v>41822</v>
+      </c>
+      <c r="J16" s="3">
+        <v>41834</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1524,8 +1632,14 @@
       <c r="F23" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="H23">
+        <v>11</v>
+      </c>
       <c r="I23" s="3">
         <v>41822</v>
+      </c>
+      <c r="J23" s="3">
+        <v>41833</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1622,8 +1736,14 @@
       <c r="F27" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="H27">
+        <v>11</v>
+      </c>
       <c r="I27" s="3">
         <v>41822</v>
+      </c>
+      <c r="J27" s="3">
+        <v>41833</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1807,8 +1927,14 @@
       <c r="F34" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="H34">
+        <v>12</v>
+      </c>
       <c r="I34" s="3">
         <v>41822</v>
+      </c>
+      <c r="J34" s="3">
+        <v>41834</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2009,8 +2135,14 @@
       <c r="G42">
         <v>38.1</v>
       </c>
+      <c r="H42">
+        <v>12</v>
+      </c>
       <c r="I42" s="3">
         <v>41822</v>
+      </c>
+      <c r="J42" s="3">
+        <v>41834</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2061,8 +2193,14 @@
       <c r="G44">
         <v>39</v>
       </c>
+      <c r="H44">
+        <v>11</v>
+      </c>
       <c r="I44" s="3">
         <v>41822</v>
+      </c>
+      <c r="J44" s="3">
+        <v>41833</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2136,8 +2274,14 @@
       <c r="G47">
         <v>39.5</v>
       </c>
+      <c r="H47">
+        <v>12</v>
+      </c>
       <c r="I47" s="3">
         <v>41822</v>
+      </c>
+      <c r="J47" s="3">
+        <v>41834</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2257,8 +2401,14 @@
       <c r="G52">
         <v>39.1</v>
       </c>
+      <c r="H52">
+        <v>11</v>
+      </c>
       <c r="I52" s="3">
         <v>41822</v>
+      </c>
+      <c r="J52" s="3">
+        <v>41833</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2280,8 +2430,14 @@
       <c r="G53">
         <v>37</v>
       </c>
+      <c r="H53">
+        <v>11</v>
+      </c>
       <c r="I53" s="3">
         <v>41822</v>
+      </c>
+      <c r="J53" s="3">
+        <v>41833</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2297,8 +2453,14 @@
       <c r="E54" t="s">
         <v>13</v>
       </c>
+      <c r="H54">
+        <v>11</v>
+      </c>
       <c r="I54" s="3">
         <v>41822</v>
+      </c>
+      <c r="J54" s="3">
+        <v>41833</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2331,8 +2493,14 @@
       <c r="E56" t="s">
         <v>13</v>
       </c>
+      <c r="H56">
+        <v>12</v>
+      </c>
       <c r="I56" s="3">
         <v>41822</v>
+      </c>
+      <c r="J56" s="3">
+        <v>41834</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2365,8 +2533,14 @@
       <c r="E58" t="s">
         <v>13</v>
       </c>
+      <c r="H58">
+        <v>12</v>
+      </c>
       <c r="I58" s="3">
         <v>41822</v>
+      </c>
+      <c r="J58" s="3">
+        <v>41834</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2456,8 +2630,14 @@
       <c r="E63" t="s">
         <v>13</v>
       </c>
+      <c r="H63">
+        <v>11</v>
+      </c>
       <c r="I63" s="3">
         <v>41822</v>
+      </c>
+      <c r="J63" s="3">
+        <v>41833</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2473,8 +2653,14 @@
       <c r="E64" t="s">
         <v>13</v>
       </c>
+      <c r="H64">
+        <v>12</v>
+      </c>
       <c r="I64" s="3">
         <v>41822</v>
+      </c>
+      <c r="J64" s="3">
+        <v>41834</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -2530,8 +2716,14 @@
       <c r="E67" t="s">
         <v>11</v>
       </c>
+      <c r="H67">
+        <v>11</v>
+      </c>
       <c r="I67" s="3">
         <v>41822</v>
+      </c>
+      <c r="J67" s="3">
+        <v>41833</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -2564,8 +2756,14 @@
       <c r="E69" t="s">
         <v>11</v>
       </c>
+      <c r="H69">
+        <v>12</v>
+      </c>
       <c r="I69" s="3">
         <v>41822</v>
+      </c>
+      <c r="J69" s="3">
+        <v>41834</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -2598,8 +2796,14 @@
       <c r="E71" t="s">
         <v>11</v>
       </c>
+      <c r="H71">
+        <v>12</v>
+      </c>
       <c r="I71" s="3">
         <v>41822</v>
+      </c>
+      <c r="J71" s="3">
+        <v>41834</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -2632,8 +2836,14 @@
       <c r="E73" t="s">
         <v>11</v>
       </c>
+      <c r="H73">
+        <v>12</v>
+      </c>
       <c r="I73" s="3">
         <v>41822</v>
+      </c>
+      <c r="J73" s="3">
+        <v>41834</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -2689,8 +2899,14 @@
       <c r="E76" t="s">
         <v>11</v>
       </c>
+      <c r="H76">
+        <v>11</v>
+      </c>
       <c r="I76" s="3">
         <v>41822</v>
+      </c>
+      <c r="J76" s="3">
+        <v>41833</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -2766,7 +2982,7 @@
         <v>41.3</v>
       </c>
       <c r="I80" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -2789,7 +3005,7 @@
         <v>40.799999999999997</v>
       </c>
       <c r="I81" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -2812,7 +3028,7 @@
         <v>40.799999999999997</v>
       </c>
       <c r="I82" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -2835,10 +3051,10 @@
         <v>41.3</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I83" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
       <c r="J83" s="3">
         <v>41827</v>
@@ -2864,7 +3080,7 @@
         <v>41.3</v>
       </c>
       <c r="I84" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -2887,7 +3103,7 @@
         <v>41.3</v>
       </c>
       <c r="I85" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -2910,10 +3126,10 @@
         <v>40.700000000000003</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I86" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
       <c r="J86" s="3">
         <v>41827</v>
@@ -2939,10 +3155,10 @@
         <v>41.3</v>
       </c>
       <c r="H87">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I87" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
       <c r="J87" s="3">
         <v>41831</v>
@@ -2968,7 +3184,7 @@
         <v>41.3</v>
       </c>
       <c r="I88" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -2991,7 +3207,7 @@
         <v>41.4</v>
       </c>
       <c r="I89" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -3014,7 +3230,7 @@
         <v>39.9</v>
       </c>
       <c r="I90" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -3040,10 +3256,10 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
       <c r="J91" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -3066,7 +3282,7 @@
         <v>38.1</v>
       </c>
       <c r="I92" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -3089,7 +3305,7 @@
         <v>58</v>
       </c>
       <c r="I93" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -3112,7 +3328,7 @@
         <v>59</v>
       </c>
       <c r="I94" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -3135,7 +3351,7 @@
         <v>57</v>
       </c>
       <c r="I95" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -3158,7 +3374,7 @@
         <v>60</v>
       </c>
       <c r="I96" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -3184,10 +3400,10 @@
         <v>0</v>
       </c>
       <c r="I97" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
       <c r="J97" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -3210,7 +3426,7 @@
         <v>62</v>
       </c>
       <c r="I98" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -3233,10 +3449,10 @@
         <v>63</v>
       </c>
       <c r="H99">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I99" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
       <c r="J99" s="3">
         <v>41831</v>
@@ -3265,10 +3481,10 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
       <c r="J100" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -3291,7 +3507,7 @@
         <v>64</v>
       </c>
       <c r="I101" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -3314,7 +3530,7 @@
         <v>65</v>
       </c>
       <c r="I102" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -3340,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="I103" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
       <c r="J103" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -3365,8 +3581,14 @@
       <c r="F104" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="H104">
+        <v>9</v>
+      </c>
       <c r="I104" s="3">
-        <v>41825</v>
+        <v>41824</v>
+      </c>
+      <c r="J104" s="3">
+        <v>41833</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -3389,7 +3611,7 @@
         <v>56</v>
       </c>
       <c r="I105" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -3412,7 +3634,7 @@
         <v>67</v>
       </c>
       <c r="I106" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -3435,7 +3657,7 @@
         <v>68</v>
       </c>
       <c r="I107" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -3458,7 +3680,7 @@
         <v>69</v>
       </c>
       <c r="I108" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -3484,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="I109" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
       <c r="J109" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -3510,7 +3732,7 @@
         <v>71</v>
       </c>
       <c r="I110" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -3533,7 +3755,7 @@
         <v>72</v>
       </c>
       <c r="I111" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -3556,7 +3778,7 @@
         <v>73</v>
       </c>
       <c r="I112" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -3578,8 +3800,14 @@
       <c r="F113" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="H113">
+        <v>9</v>
+      </c>
       <c r="I113" s="3">
-        <v>41825</v>
+        <v>41824</v>
+      </c>
+      <c r="J113" s="3">
+        <v>41833</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -3602,7 +3830,7 @@
         <v>75</v>
       </c>
       <c r="I114" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -3625,7 +3853,7 @@
         <v>76</v>
       </c>
       <c r="I115" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -3648,7 +3876,7 @@
         <v>77</v>
       </c>
       <c r="I116" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -3671,7 +3899,7 @@
         <v>78</v>
       </c>
       <c r="I117" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -3694,7 +3922,7 @@
         <v>79</v>
       </c>
       <c r="I118" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -3720,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="I119" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
       <c r="J119" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -3746,7 +3974,7 @@
         <v>38.299999999999997</v>
       </c>
       <c r="I120" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -3772,10 +4000,10 @@
         <v>0</v>
       </c>
       <c r="I121" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
       <c r="J121" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -3798,7 +4026,7 @@
         <v>38.6</v>
       </c>
       <c r="I122" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -3821,7 +4049,7 @@
         <v>38.4</v>
       </c>
       <c r="I123" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -3847,10 +4075,10 @@
         <v>0</v>
       </c>
       <c r="I124" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
       <c r="J124" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -3873,7 +4101,7 @@
         <v>38.9</v>
       </c>
       <c r="I125" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -3899,10 +4127,10 @@
         <v>0</v>
       </c>
       <c r="I126" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
       <c r="J126" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -3925,7 +4153,7 @@
         <v>38.5</v>
       </c>
       <c r="I127" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -3948,10 +4176,10 @@
         <v>38.700000000000003</v>
       </c>
       <c r="I128" s="3">
-        <v>41825</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>3</v>
       </c>
@@ -3971,10 +4199,10 @@
         <v>37.799999999999997</v>
       </c>
       <c r="I129" s="3">
-        <v>41825</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>3</v>
       </c>
@@ -3994,10 +4222,10 @@
         <v>39.1</v>
       </c>
       <c r="I130" s="3">
-        <v>41825</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>3</v>
       </c>
@@ -4017,10 +4245,10 @@
         <v>38</v>
       </c>
       <c r="I131" s="3">
-        <v>41825</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>3</v>
       </c>
@@ -4034,10 +4262,10 @@
         <v>13</v>
       </c>
       <c r="I132" s="3">
-        <v>41825</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>3</v>
       </c>
@@ -4051,10 +4279,10 @@
         <v>13</v>
       </c>
       <c r="I133" s="3">
-        <v>41825</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>3</v>
       </c>
@@ -4068,10 +4296,10 @@
         <v>13</v>
       </c>
       <c r="I134" s="3">
-        <v>41825</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>3</v>
       </c>
@@ -4085,10 +4313,10 @@
         <v>13</v>
       </c>
       <c r="I135" s="3">
-        <v>41825</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>3</v>
       </c>
@@ -4102,10 +4330,10 @@
         <v>13</v>
       </c>
       <c r="I136" s="3">
-        <v>41825</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>3</v>
       </c>
@@ -4119,10 +4347,10 @@
         <v>13</v>
       </c>
       <c r="I137" s="3">
-        <v>41825</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>3</v>
       </c>
@@ -4136,10 +4364,10 @@
         <v>13</v>
       </c>
       <c r="I138" s="3">
-        <v>41825</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>3</v>
       </c>
@@ -4153,10 +4381,10 @@
         <v>13</v>
       </c>
       <c r="I139" s="3">
-        <v>41825</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>3</v>
       </c>
@@ -4170,10 +4398,10 @@
         <v>13</v>
       </c>
       <c r="I140" s="3">
-        <v>41825</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>3</v>
       </c>
@@ -4186,11 +4414,17 @@
       <c r="E141" t="s">
         <v>13</v>
       </c>
+      <c r="H141">
+        <v>9</v>
+      </c>
       <c r="I141" s="3">
-        <v>41825</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41824</v>
+      </c>
+      <c r="J141" s="3">
+        <v>41833</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>3</v>
       </c>
@@ -4204,10 +4438,10 @@
         <v>13</v>
       </c>
       <c r="I142" s="3">
-        <v>41825</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>3</v>
       </c>
@@ -4221,10 +4455,10 @@
         <v>13</v>
       </c>
       <c r="I143" s="3">
-        <v>41825</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3</v>
       </c>
@@ -4238,7 +4472,7 @@
         <v>13</v>
       </c>
       <c r="I144" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -4255,7 +4489,7 @@
         <v>11</v>
       </c>
       <c r="I145" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -4272,7 +4506,7 @@
         <v>11</v>
       </c>
       <c r="I146" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -4288,8 +4522,14 @@
       <c r="E147" t="s">
         <v>11</v>
       </c>
+      <c r="H147">
+        <v>9</v>
+      </c>
       <c r="I147" s="3">
-        <v>41825</v>
+        <v>41824</v>
+      </c>
+      <c r="J147" s="3">
+        <v>41833</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -4305,8 +4545,14 @@
       <c r="E148" t="s">
         <v>11</v>
       </c>
+      <c r="H148">
+        <v>9</v>
+      </c>
       <c r="I148" s="3">
-        <v>41825</v>
+        <v>41824</v>
+      </c>
+      <c r="J148" s="3">
+        <v>41833</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -4323,7 +4569,7 @@
         <v>11</v>
       </c>
       <c r="I149" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -4339,8 +4585,14 @@
       <c r="E150" t="s">
         <v>11</v>
       </c>
+      <c r="H150">
+        <v>9</v>
+      </c>
       <c r="I150" s="3">
-        <v>41825</v>
+        <v>41824</v>
+      </c>
+      <c r="J150" s="3">
+        <v>41833</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -4357,7 +4609,7 @@
         <v>11</v>
       </c>
       <c r="I151" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -4374,10 +4626,10 @@
         <v>11</v>
       </c>
       <c r="H152">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I152" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
       <c r="J152" s="3">
         <v>41828</v>
@@ -4397,7 +4649,7 @@
         <v>11</v>
       </c>
       <c r="I153" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -4414,7 +4666,7 @@
         <v>11</v>
       </c>
       <c r="I154" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -4431,10 +4683,10 @@
         <v>11</v>
       </c>
       <c r="H155">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I155" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
       <c r="J155" s="3">
         <v>41832</v>
@@ -4454,7 +4706,7 @@
         <v>11</v>
       </c>
       <c r="I156" s="3">
-        <v>41825</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="157" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4472,7 +4724,7 @@
       </c>
       <c r="F157" s="8"/>
       <c r="I157" s="9">
-        <v>41825</v>
+        <v>41824</v>
       </c>
       <c r="J157" s="9"/>
     </row>
@@ -4706,7 +4958,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>4</v>
       </c>
@@ -4725,8 +4977,14 @@
       <c r="G168">
         <v>40.4</v>
       </c>
+      <c r="H168">
+        <v>5</v>
+      </c>
       <c r="I168" s="3">
         <v>41828</v>
+      </c>
+      <c r="J168" s="3">
+        <v>41833</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -5607,8 +5865,14 @@
       <c r="G204">
         <v>36.5</v>
       </c>
+      <c r="H204">
+        <v>5</v>
+      </c>
       <c r="I204" s="3">
         <v>41828</v>
+      </c>
+      <c r="J204" s="3">
+        <v>41833</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -5709,7 +5973,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>4</v>
       </c>
@@ -5732,7 +5996,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>4</v>
       </c>
@@ -5749,7 +6013,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>4</v>
       </c>
@@ -5766,7 +6030,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>4</v>
       </c>
@@ -5783,7 +6047,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>4</v>
       </c>
@@ -5800,7 +6064,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>4</v>
       </c>
@@ -5817,7 +6081,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>4</v>
       </c>
@@ -5834,7 +6098,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>4</v>
       </c>
@@ -5847,11 +6111,17 @@
       <c r="E216" t="s">
         <v>13</v>
       </c>
+      <c r="H216">
+        <v>5</v>
+      </c>
       <c r="I216" s="3">
         <v>41828</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J216" s="3">
+        <v>41833</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>4</v>
       </c>
@@ -5868,7 +6138,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>4</v>
       </c>
@@ -5885,7 +6155,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>4</v>
       </c>
@@ -5902,7 +6172,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>4</v>
       </c>
@@ -5919,7 +6189,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>4</v>
       </c>
@@ -5936,7 +6206,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>4</v>
       </c>
@@ -5953,7 +6223,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>4</v>
       </c>
@@ -5970,7 +6240,7 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>4</v>
       </c>
@@ -6034,8 +6304,14 @@
       <c r="E227" t="s">
         <v>11</v>
       </c>
+      <c r="H227">
+        <v>5</v>
+      </c>
       <c r="I227" s="3">
         <v>41828</v>
+      </c>
+      <c r="J227" s="3">
+        <v>41833</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
@@ -6661,11 +6937,17 @@
       <c r="F256" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="H256">
+        <v>3</v>
+      </c>
       <c r="I256" s="3">
         <v>41829</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J256" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>5</v>
       </c>
@@ -6688,7 +6970,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>5</v>
       </c>
@@ -6711,7 +6993,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>5</v>
       </c>
@@ -6734,7 +7016,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>5</v>
       </c>
@@ -6757,7 +7039,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>5</v>
       </c>
@@ -6780,7 +7062,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>5</v>
       </c>
@@ -6803,7 +7085,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>5</v>
       </c>
@@ -6826,7 +7108,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>5</v>
       </c>
@@ -6849,7 +7131,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>5</v>
       </c>
@@ -6872,7 +7154,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>5</v>
       </c>
@@ -6895,7 +7177,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>5</v>
       </c>
@@ -6918,7 +7200,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>5</v>
       </c>
@@ -6941,7 +7223,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>5</v>
       </c>
@@ -6960,11 +7242,17 @@
       <c r="F269" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="H269">
+        <v>4</v>
+      </c>
       <c r="I269" s="3">
         <v>41829</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J269" s="3">
+        <v>41833</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>5</v>
       </c>
@@ -6987,7 +7275,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>5</v>
       </c>
@@ -7010,7 +7298,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>5</v>
       </c>
@@ -7395,7 +7683,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>5</v>
       </c>
@@ -7412,7 +7700,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>5</v>
       </c>
@@ -7429,7 +7717,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>5</v>
       </c>
@@ -7446,7 +7734,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>5</v>
       </c>
@@ -7463,7 +7751,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>5</v>
       </c>
@@ -7480,7 +7768,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>5</v>
       </c>
@@ -7497,7 +7785,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>5</v>
       </c>
@@ -7510,11 +7798,17 @@
       <c r="E295" t="s">
         <v>13</v>
       </c>
+      <c r="H295">
+        <v>4</v>
+      </c>
       <c r="I295" s="3">
         <v>41829</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J295" s="3">
+        <v>41833</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>5</v>
       </c>
@@ -7531,7 +7825,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>5</v>
       </c>
@@ -7548,7 +7842,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>5</v>
       </c>
@@ -7565,7 +7859,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>5</v>
       </c>
@@ -7582,7 +7876,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>5</v>
       </c>
@@ -7599,7 +7893,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>5</v>
       </c>
@@ -7616,7 +7910,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>5</v>
       </c>
@@ -7633,7 +7927,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>5</v>
       </c>
@@ -7650,7 +7944,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>5</v>
       </c>
@@ -8842,8 +9136,14 @@
       <c r="G357">
         <v>38.200000000000003</v>
       </c>
+      <c r="H357">
+        <v>2</v>
+      </c>
       <c r="I357" s="3">
         <v>41831</v>
+      </c>
+      <c r="J357" s="3">
+        <v>41833</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
@@ -9548,6 +9848,9 @@
       <c r="I394" s="3">
         <v>41832</v>
       </c>
+      <c r="J394" s="3" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395">
@@ -9687,7 +9990,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>7</v>
       </c>
@@ -9710,7 +10013,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>7</v>
       </c>
@@ -9733,7 +10036,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>7</v>
       </c>
@@ -9756,7 +10059,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>7</v>
       </c>
@@ -9779,7 +10082,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>7</v>
       </c>
@@ -9802,7 +10105,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>7</v>
       </c>
@@ -9821,11 +10124,17 @@
       <c r="F406" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="H406">
+        <v>0</v>
+      </c>
       <c r="I406" s="3">
         <v>41832</v>
       </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J406" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>7</v>
       </c>
@@ -9848,7 +10157,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>7</v>
       </c>
@@ -9871,7 +10180,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>7</v>
       </c>
@@ -9894,7 +10203,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>7</v>
       </c>
@@ -9917,7 +10226,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>7</v>
       </c>
@@ -9940,7 +10249,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>7</v>
       </c>
@@ -9959,11 +10268,17 @@
       <c r="F412" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="H412">
+        <v>0</v>
+      </c>
       <c r="I412" s="3">
         <v>41832</v>
       </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J412" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>7</v>
       </c>
@@ -9986,7 +10301,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>7</v>
       </c>
@@ -10009,7 +10324,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>7</v>
       </c>
@@ -10032,7 +10347,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>7</v>
       </c>
@@ -10055,7 +10370,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>7</v>
       </c>
@@ -10078,7 +10393,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>7</v>
       </c>
@@ -10097,11 +10412,17 @@
       <c r="F418" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="H418">
+        <v>0</v>
+      </c>
       <c r="I418" s="3">
         <v>41832</v>
       </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J418" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>7</v>
       </c>
@@ -10124,7 +10445,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>7</v>
       </c>
@@ -10147,7 +10468,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>7</v>
       </c>
@@ -10166,11 +10487,17 @@
       <c r="F421" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="H421">
+        <v>0</v>
+      </c>
       <c r="I421" s="3">
         <v>41832</v>
       </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J421" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>7</v>
       </c>
@@ -10193,7 +10520,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>7</v>
       </c>
@@ -10216,7 +10543,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>7</v>
       </c>
@@ -10239,7 +10566,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>7</v>
       </c>
@@ -10262,7 +10589,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>7</v>
       </c>
@@ -10285,7 +10612,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>7</v>
       </c>
@@ -10308,7 +10635,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>7</v>
       </c>
@@ -10331,7 +10658,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>7</v>
       </c>
@@ -10354,7 +10681,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>7</v>
       </c>
@@ -10377,7 +10704,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>7</v>
       </c>
@@ -10396,11 +10723,17 @@
       <c r="G431">
         <v>39.4</v>
       </c>
+      <c r="H431">
+        <v>0</v>
+      </c>
       <c r="I431" s="3">
         <v>41832</v>
       </c>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J431" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>7</v>
       </c>
@@ -10419,11 +10752,17 @@
       <c r="G432">
         <v>38.299999999999997</v>
       </c>
+      <c r="H432">
+        <v>0</v>
+      </c>
       <c r="I432" s="3">
         <v>41832</v>
       </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J432" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>7</v>
       </c>
@@ -10442,11 +10781,17 @@
       <c r="G433">
         <v>38.200000000000003</v>
       </c>
+      <c r="H433">
+        <v>0</v>
+      </c>
       <c r="I433" s="3">
         <v>41832</v>
       </c>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J433" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>7</v>
       </c>
@@ -10469,7 +10814,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>7</v>
       </c>
@@ -10488,11 +10833,17 @@
       <c r="G435">
         <v>36.9</v>
       </c>
+      <c r="H435">
+        <v>0</v>
+      </c>
       <c r="I435" s="3">
         <v>41832</v>
       </c>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J435" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>7</v>
       </c>
@@ -10515,7 +10866,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>7</v>
       </c>
@@ -10538,7 +10889,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>7</v>
       </c>
@@ -10557,11 +10908,17 @@
       <c r="G438">
         <v>37.299999999999997</v>
       </c>
+      <c r="H438">
+        <v>0</v>
+      </c>
       <c r="I438" s="3">
         <v>41832</v>
       </c>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J438" s="3">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>7</v>
       </c>
@@ -10584,7 +10941,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>7</v>
       </c>
@@ -10607,7 +10964,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>7</v>
       </c>
@@ -10630,7 +10987,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>7</v>
       </c>
@@ -10653,7 +11010,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>7</v>
       </c>
@@ -10676,7 +11033,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>7</v>
       </c>
@@ -10693,7 +11050,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>7</v>
       </c>
@@ -10710,7 +11067,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>7</v>
       </c>
@@ -10727,7 +11084,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>7</v>
       </c>
@@ -10744,7 +11101,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>7</v>
       </c>
@@ -11136,6 +11493,9 @@
       <c r="E470" t="s">
         <v>13</v>
       </c>
+      <c r="G470">
+        <v>41.3</v>
+      </c>
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A471">
@@ -11153,6 +11513,9 @@
       <c r="E471" t="s">
         <v>11</v>
       </c>
+      <c r="G471">
+        <v>39.4</v>
+      </c>
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A472">
@@ -11170,6 +11533,9 @@
       <c r="E472" t="s">
         <v>11</v>
       </c>
+      <c r="G472">
+        <v>41.9</v>
+      </c>
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A473">
@@ -11187,6 +11553,9 @@
       <c r="E473" t="s">
         <v>11</v>
       </c>
+      <c r="G473">
+        <v>41.9</v>
+      </c>
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A474">
@@ -11204,6 +11573,9 @@
       <c r="E474" t="s">
         <v>13</v>
       </c>
+      <c r="G474">
+        <v>41.9</v>
+      </c>
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475">
@@ -11221,6 +11593,9 @@
       <c r="E475" t="s">
         <v>11</v>
       </c>
+      <c r="G475">
+        <v>36.5</v>
+      </c>
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A476">
@@ -11238,6 +11613,9 @@
       <c r="E476" t="s">
         <v>11</v>
       </c>
+      <c r="G476">
+        <v>40.4</v>
+      </c>
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A477">
@@ -11255,6 +11633,9 @@
       <c r="E477" t="s">
         <v>13</v>
       </c>
+      <c r="G477">
+        <v>40.5</v>
+      </c>
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A478">
@@ -11272,6 +11653,9 @@
       <c r="E478" t="s">
         <v>13</v>
       </c>
+      <c r="G478">
+        <v>41.3</v>
+      </c>
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A479">
@@ -11289,6 +11673,9 @@
       <c r="E479" t="s">
         <v>11</v>
       </c>
+      <c r="G479">
+        <v>41.3</v>
+      </c>
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A480">
@@ -11306,8 +11693,11 @@
       <c r="E480" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G480">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>8</v>
       </c>
@@ -11323,8 +11713,11 @@
       <c r="E481" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G481">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>8</v>
       </c>
@@ -11340,8 +11733,11 @@
       <c r="E482" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G482">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>8</v>
       </c>
@@ -11357,8 +11753,11 @@
       <c r="E483" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F483" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>8</v>
       </c>
@@ -11374,8 +11773,11 @@
       <c r="E484" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F484" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>8</v>
       </c>
@@ -11391,8 +11793,11 @@
       <c r="E485" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F485" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>8</v>
       </c>
@@ -11408,8 +11813,11 @@
       <c r="E486" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F486" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>8</v>
       </c>
@@ -11425,8 +11833,11 @@
       <c r="E487" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F487" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>8</v>
       </c>
@@ -11442,8 +11853,11 @@
       <c r="E488" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F488" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>8</v>
       </c>
@@ -11459,8 +11873,11 @@
       <c r="E489" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F489" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>8</v>
       </c>
@@ -11476,8 +11893,11 @@
       <c r="E490" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F490" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>8</v>
       </c>
@@ -11493,8 +11913,11 @@
       <c r="E491" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F491" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>8</v>
       </c>
@@ -11510,8 +11933,11 @@
       <c r="E492" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F492" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>8</v>
       </c>
@@ -11527,8 +11953,11 @@
       <c r="E493" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F493" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>8</v>
       </c>
@@ -11544,8 +11973,11 @@
       <c r="E494" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F494" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>8</v>
       </c>
@@ -11561,8 +11993,11 @@
       <c r="E495" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F495" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>8</v>
       </c>
@@ -11578,8 +12013,11 @@
       <c r="E496" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F496" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>8</v>
       </c>
@@ -11595,8 +12033,11 @@
       <c r="E497" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F497" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>8</v>
       </c>
@@ -11612,8 +12053,11 @@
       <c r="E498" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F498" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>8</v>
       </c>
@@ -11629,8 +12073,11 @@
       <c r="E499" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F499" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>8</v>
       </c>
@@ -11646,8 +12093,11 @@
       <c r="E500" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F500" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>8</v>
       </c>
@@ -11663,8 +12113,11 @@
       <c r="E501" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F501" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>8</v>
       </c>
@@ -11680,8 +12133,11 @@
       <c r="E502" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F502" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>8</v>
       </c>
@@ -11697,8 +12153,11 @@
       <c r="E503" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F503" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>8</v>
       </c>
@@ -11714,8 +12173,11 @@
       <c r="E504" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F504" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>8</v>
       </c>
@@ -11731,8 +12193,11 @@
       <c r="E505" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F505" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>8</v>
       </c>
@@ -11748,8 +12213,11 @@
       <c r="E506" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F506" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>8</v>
       </c>
@@ -11765,8 +12233,11 @@
       <c r="E507" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F507" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>8</v>
       </c>
@@ -11782,8 +12253,11 @@
       <c r="E508" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F508" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>8</v>
       </c>
@@ -11799,8 +12273,11 @@
       <c r="E509" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G509">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>8</v>
       </c>
@@ -11816,8 +12293,11 @@
       <c r="E510" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G510">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>8</v>
       </c>
@@ -11833,8 +12313,11 @@
       <c r="E511" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G511">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>8</v>
       </c>
@@ -11850,8 +12333,11 @@
       <c r="E512" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G512">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>8</v>
       </c>
@@ -11867,8 +12353,11 @@
       <c r="E513" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G513">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>8</v>
       </c>
@@ -11884,8 +12373,11 @@
       <c r="E514" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G514">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>8</v>
       </c>
@@ -11901,8 +12393,11 @@
       <c r="E515" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G515">
+        <v>39.700000000000003</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>8</v>
       </c>
@@ -11918,8 +12413,11 @@
       <c r="E516" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G516">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>8</v>
       </c>
@@ -11935,8 +12433,11 @@
       <c r="E517" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G517">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>8</v>
       </c>
@@ -11952,8 +12453,11 @@
       <c r="E518" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G518">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>8</v>
       </c>
@@ -11969,8 +12473,11 @@
       <c r="E519" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G519">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>8</v>
       </c>
@@ -11986,8 +12493,11 @@
       <c r="E520" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G520">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>8</v>
       </c>
@@ -12003,8 +12513,11 @@
       <c r="E521" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G521">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>8</v>
       </c>
@@ -12018,7 +12531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>8</v>
       </c>
@@ -12032,7 +12545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>8</v>
       </c>
@@ -12046,7 +12559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>8</v>
       </c>
@@ -12060,7 +12573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>8</v>
       </c>
@@ -12074,7 +12587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>8</v>
       </c>
@@ -12088,7 +12601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>8</v>
       </c>

--- a/Data/2018-07-01_HS_datasheet.xlsx
+++ b/Data/2018-07-01_HS_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AEE2A2-7B01-45EB-847E-DE495531D59D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE2ADA1-6E31-4100-9F0A-D2AA133C1471}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="212">
   <si>
     <t>cohort</t>
   </si>
@@ -607,6 +607,60 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>11:32</t>
+  </si>
+  <si>
+    <t>2:47</t>
+  </si>
+  <si>
+    <t>18:38</t>
+  </si>
+  <si>
+    <t>14:05</t>
+  </si>
+  <si>
+    <t>12:52</t>
+  </si>
+  <si>
+    <t>5:13</t>
+  </si>
+  <si>
+    <t>9:09</t>
+  </si>
+  <si>
+    <t>6:46</t>
+  </si>
+  <si>
+    <t>12:01</t>
+  </si>
+  <si>
+    <t>6:22</t>
+  </si>
+  <si>
+    <t>10:32</t>
+  </si>
+  <si>
+    <t>18:44</t>
+  </si>
+  <si>
+    <t>14:50</t>
+  </si>
+  <si>
+    <t>16:42</t>
+  </si>
+  <si>
+    <t>3:29</t>
+  </si>
+  <si>
+    <t>20:48</t>
+  </si>
+  <si>
+    <t>25:15</t>
+  </si>
+  <si>
+    <t>4:51</t>
   </si>
 </sst>
 </file>
@@ -1015,8 +1069,8 @@
   <dimension ref="A1:J703"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A488" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C522" sqref="C522"/>
+      <pane ySplit="1" topLeftCell="A467" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L483" sqref="L483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1245,8 +1299,14 @@
       <c r="G8" s="2">
         <v>41</v>
       </c>
+      <c r="H8">
+        <v>13</v>
+      </c>
       <c r="I8" s="3">
         <v>41822</v>
+      </c>
+      <c r="J8" s="3">
+        <v>41835</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1297,8 +1357,14 @@
       <c r="G10" s="2">
         <v>41</v>
       </c>
+      <c r="H10">
+        <v>13</v>
+      </c>
       <c r="I10" s="3">
         <v>41822</v>
+      </c>
+      <c r="J10" s="3">
+        <v>41835</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2008,8 +2074,14 @@
       <c r="F37" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="H37">
+        <v>13</v>
+      </c>
       <c r="I37" s="3">
         <v>41822</v>
+      </c>
+      <c r="J37" s="3">
+        <v>41835</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2556,8 +2628,14 @@
       <c r="E59" t="s">
         <v>13</v>
       </c>
+      <c r="H59">
+        <v>13</v>
+      </c>
       <c r="I59" s="3">
         <v>41822</v>
+      </c>
+      <c r="J59" s="3">
+        <v>41835</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2613,8 +2691,14 @@
       <c r="E62" t="s">
         <v>13</v>
       </c>
+      <c r="H62">
+        <v>13</v>
+      </c>
       <c r="I62" s="3">
         <v>41822</v>
+      </c>
+      <c r="J62" s="3">
+        <v>41835</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2819,8 +2903,14 @@
       <c r="E72" t="s">
         <v>11</v>
       </c>
+      <c r="H72">
+        <v>13</v>
+      </c>
       <c r="I72" s="3">
         <v>41822</v>
+      </c>
+      <c r="J72" s="3">
+        <v>41835</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3079,8 +3169,14 @@
       <c r="G84">
         <v>41.3</v>
       </c>
+      <c r="H84">
+        <v>11</v>
+      </c>
       <c r="I84" s="3">
         <v>41824</v>
+      </c>
+      <c r="J84" s="3">
+        <v>41835</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -4488,8 +4584,14 @@
       <c r="E145" t="s">
         <v>11</v>
       </c>
+      <c r="H145">
+        <v>11</v>
+      </c>
       <c r="I145" s="3">
         <v>41824</v>
+      </c>
+      <c r="J145" s="3">
+        <v>41835</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -7781,8 +7883,14 @@
       <c r="E294" t="s">
         <v>13</v>
       </c>
+      <c r="H294">
+        <v>6</v>
+      </c>
       <c r="I294" s="3">
         <v>41829</v>
+      </c>
+      <c r="J294" s="3">
+        <v>41835</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
@@ -11046,8 +11154,14 @@
       <c r="E444" t="s">
         <v>13</v>
       </c>
+      <c r="H444">
+        <v>3</v>
+      </c>
       <c r="I444" s="3">
         <v>41832</v>
+      </c>
+      <c r="J444" s="3">
+        <v>41835</v>
       </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.25">
@@ -11496,6 +11610,9 @@
       <c r="G470">
         <v>41.3</v>
       </c>
+      <c r="I470" s="3">
+        <v>41834</v>
+      </c>
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A471">
@@ -11516,6 +11633,9 @@
       <c r="G471">
         <v>39.4</v>
       </c>
+      <c r="I471" s="3">
+        <v>41834</v>
+      </c>
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A472">
@@ -11536,6 +11656,9 @@
       <c r="G472">
         <v>41.9</v>
       </c>
+      <c r="I472" s="3">
+        <v>41834</v>
+      </c>
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A473">
@@ -11556,6 +11679,9 @@
       <c r="G473">
         <v>41.9</v>
       </c>
+      <c r="I473" s="3">
+        <v>41834</v>
+      </c>
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A474">
@@ -11576,6 +11702,9 @@
       <c r="G474">
         <v>41.9</v>
       </c>
+      <c r="I474" s="3">
+        <v>41834</v>
+      </c>
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475">
@@ -11596,6 +11725,9 @@
       <c r="G475">
         <v>36.5</v>
       </c>
+      <c r="I475" s="3">
+        <v>41834</v>
+      </c>
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A476">
@@ -11616,6 +11748,9 @@
       <c r="G476">
         <v>40.4</v>
       </c>
+      <c r="I476" s="3">
+        <v>41834</v>
+      </c>
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A477">
@@ -11636,6 +11771,9 @@
       <c r="G477">
         <v>40.5</v>
       </c>
+      <c r="I477" s="3">
+        <v>41834</v>
+      </c>
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A478">
@@ -11656,6 +11794,9 @@
       <c r="G478">
         <v>41.3</v>
       </c>
+      <c r="I478" s="3">
+        <v>41834</v>
+      </c>
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A479">
@@ -11676,6 +11817,9 @@
       <c r="G479">
         <v>41.3</v>
       </c>
+      <c r="I479" s="3">
+        <v>41834</v>
+      </c>
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A480">
@@ -11696,8 +11840,11 @@
       <c r="G480">
         <v>41.3</v>
       </c>
-    </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I480" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>8</v>
       </c>
@@ -11716,8 +11863,11 @@
       <c r="G481">
         <v>41.3</v>
       </c>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I481" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>8</v>
       </c>
@@ -11736,8 +11886,11 @@
       <c r="G482">
         <v>37.6</v>
       </c>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I482" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>8</v>
       </c>
@@ -11756,8 +11909,11 @@
       <c r="F483" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I483" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>8</v>
       </c>
@@ -11776,8 +11932,11 @@
       <c r="F484" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I484" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>8</v>
       </c>
@@ -11796,8 +11955,11 @@
       <c r="F485" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I485" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>8</v>
       </c>
@@ -11816,8 +11978,11 @@
       <c r="F486" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I486" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>8</v>
       </c>
@@ -11836,8 +12001,11 @@
       <c r="F487" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I487" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>8</v>
       </c>
@@ -11856,8 +12024,11 @@
       <c r="F488" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I488" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>8</v>
       </c>
@@ -11876,8 +12047,11 @@
       <c r="F489" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I489" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>8</v>
       </c>
@@ -11896,8 +12070,17 @@
       <c r="F490" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H490">
+        <v>0</v>
+      </c>
+      <c r="I490" s="3">
+        <v>41834</v>
+      </c>
+      <c r="J490" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>8</v>
       </c>
@@ -11916,8 +12099,11 @@
       <c r="F491" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I491" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>8</v>
       </c>
@@ -11936,8 +12122,11 @@
       <c r="F492" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I492" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>8</v>
       </c>
@@ -11956,8 +12145,17 @@
       <c r="F493" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H493">
+        <v>0</v>
+      </c>
+      <c r="I493" s="3">
+        <v>41834</v>
+      </c>
+      <c r="J493" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>8</v>
       </c>
@@ -11976,8 +12174,17 @@
       <c r="F494" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H494">
+        <v>0</v>
+      </c>
+      <c r="I494" s="3">
+        <v>41834</v>
+      </c>
+      <c r="J494" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>8</v>
       </c>
@@ -11996,8 +12203,11 @@
       <c r="F495" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I495" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>8</v>
       </c>
@@ -12016,8 +12226,11 @@
       <c r="F496" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I496" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>8</v>
       </c>
@@ -12036,8 +12249,11 @@
       <c r="F497" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I497" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>8</v>
       </c>
@@ -12056,8 +12272,11 @@
       <c r="F498" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I498" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>8</v>
       </c>
@@ -12076,8 +12295,11 @@
       <c r="F499" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I499" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>8</v>
       </c>
@@ -12096,8 +12318,11 @@
       <c r="F500" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I500" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>8</v>
       </c>
@@ -12116,8 +12341,11 @@
       <c r="F501" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I501" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>8</v>
       </c>
@@ -12136,8 +12364,11 @@
       <c r="F502" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I502" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>8</v>
       </c>
@@ -12156,8 +12387,11 @@
       <c r="F503" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I503" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>8</v>
       </c>
@@ -12176,8 +12410,11 @@
       <c r="F504" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I504" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>8</v>
       </c>
@@ -12196,8 +12433,11 @@
       <c r="F505" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I505" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>8</v>
       </c>
@@ -12216,8 +12456,11 @@
       <c r="F506" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I506" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>8</v>
       </c>
@@ -12236,8 +12479,11 @@
       <c r="F507" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I507" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>8</v>
       </c>
@@ -12256,8 +12502,11 @@
       <c r="F508" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I508" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>8</v>
       </c>
@@ -12276,8 +12525,11 @@
       <c r="G509">
         <v>38.4</v>
       </c>
-    </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I509" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>8</v>
       </c>
@@ -12296,8 +12548,17 @@
       <c r="G510">
         <v>39.1</v>
       </c>
-    </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H510">
+        <v>0</v>
+      </c>
+      <c r="I510" s="3">
+        <v>41834</v>
+      </c>
+      <c r="J510" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>8</v>
       </c>
@@ -12316,8 +12577,17 @@
       <c r="G511">
         <v>39.4</v>
       </c>
-    </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H511">
+        <v>0</v>
+      </c>
+      <c r="I511" s="3">
+        <v>41834</v>
+      </c>
+      <c r="J511" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>8</v>
       </c>
@@ -12336,8 +12606,11 @@
       <c r="G512">
         <v>39.299999999999997</v>
       </c>
-    </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I512" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>8</v>
       </c>
@@ -12356,8 +12629,11 @@
       <c r="G513">
         <v>38.700000000000003</v>
       </c>
-    </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I513" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>8</v>
       </c>
@@ -12376,8 +12652,11 @@
       <c r="G514">
         <v>38.9</v>
       </c>
-    </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I514" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>8</v>
       </c>
@@ -12396,8 +12675,11 @@
       <c r="G515">
         <v>39.700000000000003</v>
       </c>
-    </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I515" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>8</v>
       </c>
@@ -12416,8 +12698,17 @@
       <c r="G516">
         <v>37.4</v>
       </c>
-    </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H516">
+        <v>0</v>
+      </c>
+      <c r="I516" s="3">
+        <v>41834</v>
+      </c>
+      <c r="J516" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>8</v>
       </c>
@@ -12436,8 +12727,11 @@
       <c r="G517">
         <v>38.6</v>
       </c>
-    </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I517" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>8</v>
       </c>
@@ -12456,8 +12750,11 @@
       <c r="G518">
         <v>39.5</v>
       </c>
-    </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I518" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>8</v>
       </c>
@@ -12476,8 +12773,11 @@
       <c r="G519">
         <v>39.5</v>
       </c>
-    </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I519" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>8</v>
       </c>
@@ -12496,8 +12796,11 @@
       <c r="G520">
         <v>39.1</v>
       </c>
-    </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I520" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>8</v>
       </c>
@@ -12516,8 +12819,11 @@
       <c r="G521">
         <v>37.5</v>
       </c>
-    </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I521" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>8</v>
       </c>
@@ -12530,8 +12836,11 @@
       <c r="E522" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I522" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>8</v>
       </c>
@@ -12544,8 +12853,11 @@
       <c r="E523" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I523" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>8</v>
       </c>
@@ -12558,8 +12870,11 @@
       <c r="E524" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I524" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>8</v>
       </c>
@@ -12572,8 +12887,11 @@
       <c r="E525" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I525" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>8</v>
       </c>
@@ -12586,8 +12904,11 @@
       <c r="E526" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I526" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>8</v>
       </c>
@@ -12600,8 +12921,11 @@
       <c r="E527" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I527" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>8</v>
       </c>
@@ -12614,8 +12938,11 @@
       <c r="E528" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I528" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>8</v>
       </c>
@@ -12628,8 +12955,11 @@
       <c r="E529" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I529" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>8</v>
       </c>
@@ -12642,8 +12972,11 @@
       <c r="E530" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I530" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>8</v>
       </c>
@@ -12656,8 +12989,11 @@
       <c r="E531" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I531" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>8</v>
       </c>
@@ -12670,8 +13006,11 @@
       <c r="E532" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I532" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>8</v>
       </c>
@@ -12684,8 +13023,11 @@
       <c r="E533" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I533" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>8</v>
       </c>
@@ -12698,8 +13040,11 @@
       <c r="E534" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I534" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>8</v>
       </c>
@@ -12712,8 +13057,11 @@
       <c r="E535" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I535" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>8</v>
       </c>
@@ -12726,8 +13074,11 @@
       <c r="E536" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I536" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>8</v>
       </c>
@@ -12740,8 +13091,11 @@
       <c r="E537" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I537" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>8</v>
       </c>
@@ -12754,8 +13108,11 @@
       <c r="E538" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I538" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>8</v>
       </c>
@@ -12768,8 +13125,11 @@
       <c r="E539" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I539" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>8</v>
       </c>
@@ -12782,8 +13142,11 @@
       <c r="E540" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I540" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>8</v>
       </c>
@@ -12796,8 +13159,11 @@
       <c r="E541" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I541" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>8</v>
       </c>
@@ -12810,8 +13176,11 @@
       <c r="E542" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I542" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>8</v>
       </c>
@@ -12824,8 +13193,11 @@
       <c r="E543" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I543" s="3">
+        <v>41834</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>8</v>
       </c>
@@ -12837,6 +13209,9 @@
       </c>
       <c r="E544" t="s">
         <v>11</v>
+      </c>
+      <c r="I544" s="3">
+        <v>41834</v>
       </c>
     </row>
     <row r="545" spans="1:10" x14ac:dyDescent="0.25">
@@ -12852,6 +13227,9 @@
       <c r="E545" t="s">
         <v>11</v>
       </c>
+      <c r="I545" s="3">
+        <v>41834</v>
+      </c>
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A546">
@@ -12866,6 +13244,9 @@
       <c r="E546" t="s">
         <v>11</v>
       </c>
+      <c r="I546" s="3">
+        <v>41834</v>
+      </c>
     </row>
     <row r="547" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A547" s="7">
@@ -12881,7 +13262,9 @@
         <v>11</v>
       </c>
       <c r="F547" s="8"/>
-      <c r="I547" s="9"/>
+      <c r="I547" s="9">
+        <v>41834</v>
+      </c>
       <c r="J547" s="9"/>
     </row>
     <row r="548" spans="1:10" x14ac:dyDescent="0.25">
@@ -12900,6 +13283,12 @@
       <c r="E548" t="s">
         <v>11</v>
       </c>
+      <c r="G548">
+        <v>40.5</v>
+      </c>
+      <c r="I548" s="3">
+        <v>41835</v>
+      </c>
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A549">
@@ -12917,6 +13306,12 @@
       <c r="E549" t="s">
         <v>11</v>
       </c>
+      <c r="G549">
+        <v>41.1</v>
+      </c>
+      <c r="I549" s="3">
+        <v>41835</v>
+      </c>
     </row>
     <row r="550" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A550">
@@ -12934,6 +13329,12 @@
       <c r="E550" t="s">
         <v>13</v>
       </c>
+      <c r="G550">
+        <v>40.5</v>
+      </c>
+      <c r="I550" s="3">
+        <v>41835</v>
+      </c>
     </row>
     <row r="551" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A551">
@@ -12951,6 +13352,12 @@
       <c r="E551" t="s">
         <v>13</v>
       </c>
+      <c r="G551">
+        <v>41.1</v>
+      </c>
+      <c r="I551" s="3">
+        <v>41835</v>
+      </c>
     </row>
     <row r="552" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A552">
@@ -12968,6 +13375,12 @@
       <c r="E552" t="s">
         <v>11</v>
       </c>
+      <c r="G552">
+        <v>39.6</v>
+      </c>
+      <c r="I552" s="3">
+        <v>41835</v>
+      </c>
     </row>
     <row r="553" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A553">
@@ -12985,6 +13398,12 @@
       <c r="E553" t="s">
         <v>13</v>
       </c>
+      <c r="G553">
+        <v>41.1</v>
+      </c>
+      <c r="I553" s="3">
+        <v>41835</v>
+      </c>
     </row>
     <row r="554" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A554">
@@ -13002,6 +13421,12 @@
       <c r="E554" t="s">
         <v>13</v>
       </c>
+      <c r="G554">
+        <v>41.3</v>
+      </c>
+      <c r="I554" s="3">
+        <v>41835</v>
+      </c>
     </row>
     <row r="555" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A555">
@@ -13019,6 +13444,12 @@
       <c r="E555" t="s">
         <v>11</v>
       </c>
+      <c r="G555">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="I555" s="3">
+        <v>41835</v>
+      </c>
     </row>
     <row r="556" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A556">
@@ -13036,6 +13467,12 @@
       <c r="E556" t="s">
         <v>11</v>
       </c>
+      <c r="G556">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="I556" s="3">
+        <v>41835</v>
+      </c>
     </row>
     <row r="557" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A557">
@@ -13053,6 +13490,12 @@
       <c r="E557" t="s">
         <v>11</v>
       </c>
+      <c r="G557">
+        <v>40.5</v>
+      </c>
+      <c r="I557" s="3">
+        <v>41835</v>
+      </c>
     </row>
     <row r="558" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A558">
@@ -13070,6 +13513,12 @@
       <c r="E558" t="s">
         <v>13</v>
       </c>
+      <c r="G558">
+        <v>41.1</v>
+      </c>
+      <c r="I558" s="3">
+        <v>41835</v>
+      </c>
     </row>
     <row r="559" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A559">
@@ -13087,6 +13536,12 @@
       <c r="E559" t="s">
         <v>13</v>
       </c>
+      <c r="G559">
+        <v>39.9</v>
+      </c>
+      <c r="I559" s="3">
+        <v>41835</v>
+      </c>
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A560">
@@ -13104,8 +13559,14 @@
       <c r="E560" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G560">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="I560" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>9</v>
       </c>
@@ -13121,8 +13582,14 @@
       <c r="E561" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F561" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I561" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>9</v>
       </c>
@@ -13138,8 +13605,14 @@
       <c r="E562" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F562" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I562" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>9</v>
       </c>
@@ -13155,8 +13628,14 @@
       <c r="E563" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F563" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I563" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>9</v>
       </c>
@@ -13172,8 +13651,14 @@
       <c r="E564" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F564" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I564" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>9</v>
       </c>
@@ -13189,8 +13674,14 @@
       <c r="E565" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F565" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I565" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>9</v>
       </c>
@@ -13206,8 +13697,14 @@
       <c r="E566" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F566" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I566" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>9</v>
       </c>
@@ -13223,8 +13720,14 @@
       <c r="E567" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F567" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I567" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>9</v>
       </c>
@@ -13240,8 +13743,14 @@
       <c r="E568" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F568" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I568" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>9</v>
       </c>
@@ -13257,8 +13766,14 @@
       <c r="E569" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F569" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I569" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>9</v>
       </c>
@@ -13274,8 +13789,14 @@
       <c r="E570" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F570" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I570" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>9</v>
       </c>
@@ -13291,8 +13812,14 @@
       <c r="E571" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F571" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I571" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>9</v>
       </c>
@@ -13308,8 +13835,14 @@
       <c r="E572" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F572" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I572" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>9</v>
       </c>
@@ -13325,8 +13858,14 @@
       <c r="E573" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F573" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I573" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>9</v>
       </c>
@@ -13342,8 +13881,14 @@
       <c r="E574" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F574" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I574" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>9</v>
       </c>
@@ -13359,8 +13904,14 @@
       <c r="E575" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F575" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I575" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>9</v>
       </c>
@@ -13376,8 +13927,14 @@
       <c r="E576" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F576" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I576" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>9</v>
       </c>
@@ -13393,8 +13950,14 @@
       <c r="E577" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F577" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I577" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>9</v>
       </c>
@@ -13410,8 +13973,14 @@
       <c r="E578" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F578" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I578" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>9</v>
       </c>
@@ -13427,8 +13996,14 @@
       <c r="E579" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F579" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I579" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>9</v>
       </c>
@@ -13444,8 +14019,14 @@
       <c r="E580" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F580" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I580" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>9</v>
       </c>
@@ -13461,8 +14042,14 @@
       <c r="E581" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F581" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I581" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>9</v>
       </c>
@@ -13478,8 +14065,14 @@
       <c r="E582" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F582" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I582" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>9</v>
       </c>
@@ -13495,8 +14088,14 @@
       <c r="E583" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F583" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I583" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>9</v>
       </c>
@@ -13512,8 +14111,14 @@
       <c r="E584" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F584" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I584" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>9</v>
       </c>
@@ -13529,8 +14134,14 @@
       <c r="E585" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F585" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I585" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>9</v>
       </c>
@@ -13546,8 +14157,14 @@
       <c r="E586" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F586" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I586" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>9</v>
       </c>
@@ -13563,8 +14180,11 @@
       <c r="E587" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I587" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>9</v>
       </c>
@@ -13580,8 +14200,11 @@
       <c r="E588" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I588" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>9</v>
       </c>
@@ -13597,8 +14220,11 @@
       <c r="E589" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I589" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>9</v>
       </c>
@@ -13614,8 +14240,11 @@
       <c r="E590" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I590" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>9</v>
       </c>
@@ -13631,8 +14260,11 @@
       <c r="E591" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I591" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>9</v>
       </c>
@@ -13648,8 +14280,11 @@
       <c r="E592" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I592" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>9</v>
       </c>
@@ -13665,8 +14300,11 @@
       <c r="E593" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I593" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>9</v>
       </c>
@@ -13682,8 +14320,11 @@
       <c r="E594" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I594" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>9</v>
       </c>
@@ -13699,8 +14340,11 @@
       <c r="E595" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I595" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>9</v>
       </c>
@@ -13716,8 +14360,11 @@
       <c r="E596" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I596" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>9</v>
       </c>
@@ -13733,8 +14380,11 @@
       <c r="E597" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I597" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>9</v>
       </c>
@@ -13750,8 +14400,11 @@
       <c r="E598" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I598" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>9</v>
       </c>
@@ -13767,8 +14420,11 @@
       <c r="E599" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I599" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>9</v>
       </c>
@@ -13781,8 +14437,11 @@
       <c r="E600" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I600" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>9</v>
       </c>
@@ -13795,8 +14454,11 @@
       <c r="E601" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I601" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>9</v>
       </c>
@@ -13809,8 +14471,11 @@
       <c r="E602" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I602" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>9</v>
       </c>
@@ -13823,8 +14488,11 @@
       <c r="E603" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I603" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>9</v>
       </c>
@@ -13837,8 +14505,11 @@
       <c r="E604" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I604" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>9</v>
       </c>
@@ -13851,8 +14522,11 @@
       <c r="E605" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I605" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>9</v>
       </c>
@@ -13865,8 +14539,11 @@
       <c r="E606" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I606" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>9</v>
       </c>
@@ -13879,8 +14556,11 @@
       <c r="E607" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I607" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>9</v>
       </c>
@@ -13893,8 +14573,11 @@
       <c r="E608" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I608" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>9</v>
       </c>
@@ -13907,8 +14590,11 @@
       <c r="E609" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I609" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>9</v>
       </c>
@@ -13921,8 +14607,11 @@
       <c r="E610" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I610" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>9</v>
       </c>
@@ -13935,8 +14624,11 @@
       <c r="E611" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I611" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>9</v>
       </c>
@@ -13949,8 +14641,11 @@
       <c r="E612" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I612" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>9</v>
       </c>
@@ -13963,8 +14658,11 @@
       <c r="E613" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I613" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>9</v>
       </c>
@@ -13977,8 +14675,11 @@
       <c r="E614" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I614" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>9</v>
       </c>
@@ -13991,8 +14692,11 @@
       <c r="E615" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I615" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>9</v>
       </c>
@@ -14005,8 +14709,11 @@
       <c r="E616" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I616" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>9</v>
       </c>
@@ -14019,8 +14726,11 @@
       <c r="E617" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I617" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>9</v>
       </c>
@@ -14033,8 +14743,11 @@
       <c r="E618" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I618" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>9</v>
       </c>
@@ -14047,8 +14760,11 @@
       <c r="E619" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I619" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>9</v>
       </c>
@@ -14061,8 +14777,11 @@
       <c r="E620" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I620" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>9</v>
       </c>
@@ -14075,8 +14794,11 @@
       <c r="E621" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I621" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>9</v>
       </c>
@@ -14089,8 +14811,11 @@
       <c r="E622" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I622" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>9</v>
       </c>
@@ -14103,8 +14828,11 @@
       <c r="E623" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I623" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>9</v>
       </c>
@@ -14117,6 +14845,9 @@
       <c r="E624" t="s">
         <v>11</v>
       </c>
+      <c r="I624" s="3">
+        <v>41835</v>
+      </c>
     </row>
     <row r="625" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A625" s="7">
@@ -14132,7 +14863,9 @@
         <v>11</v>
       </c>
       <c r="F625" s="8"/>
-      <c r="I625" s="9"/>
+      <c r="I625" s="9">
+        <v>41835</v>
+      </c>
       <c r="J625" s="9"/>
     </row>
     <row r="626" spans="1:10" x14ac:dyDescent="0.25">

--- a/Data/2018-07-01_HS_datasheet.xlsx
+++ b/Data/2018-07-01_HS_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE2ADA1-6E31-4100-9F0A-D2AA133C1471}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A18076A-4A6F-409A-9830-8478B9A32103}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="212">
   <si>
     <t>cohort</t>
   </si>
@@ -680,7 +680,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -721,12 +721,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1066,11 +1066,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J703"/>
+  <dimension ref="A1:J755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A467" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L483" sqref="L483"/>
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F322" sqref="F322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1080,35 +1080,35 @@
     <col min="10" max="10" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="9" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3033,24 +3033,24 @@
         <v>41822</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="7">
+    <row r="79" spans="1:10" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
         <v>2</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C79" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="8"/>
-      <c r="I79" s="9">
+      <c r="C79" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="5"/>
+      <c r="I79" s="6">
         <v>41822</v>
       </c>
-      <c r="J79" s="9"/>
+      <c r="J79" s="6"/>
     </row>
     <row r="80" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80">
@@ -4811,24 +4811,24 @@
         <v>41824</v>
       </c>
     </row>
-    <row r="157" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="7">
+    <row r="157" spans="1:10" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="4">
         <v>3</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C157" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E157" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F157" s="8"/>
-      <c r="I157" s="9">
+      <c r="C157" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" s="5"/>
+      <c r="I157" s="6">
         <v>41824</v>
       </c>
-      <c r="J157" s="9"/>
+      <c r="J157" s="6"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
@@ -6535,24 +6535,24 @@
         <v>41828</v>
       </c>
     </row>
-    <row r="235" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="7">
+    <row r="235" spans="1:10" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="4">
         <v>4</v>
       </c>
-      <c r="B235" s="7" t="s">
+      <c r="B235" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C235" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E235" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F235" s="8"/>
-      <c r="I235" s="9">
+      <c r="C235" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F235" s="5"/>
+      <c r="I235" s="6">
         <v>41828</v>
       </c>
-      <c r="J235" s="9"/>
+      <c r="J235" s="6"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
@@ -8205,24 +8205,24 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="313" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="7">
+    <row r="313" spans="1:10" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="4">
         <v>5</v>
       </c>
-      <c r="B313" s="7" t="s">
+      <c r="B313" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C313" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E313" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F313" s="8"/>
-      <c r="I313" s="9">
+      <c r="C313" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E313" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F313" s="5"/>
+      <c r="I313" s="6">
         <v>41829</v>
       </c>
-      <c r="J313" s="9"/>
+      <c r="J313" s="6"/>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314">
@@ -9869,24 +9869,24 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="391" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A391" s="7">
+    <row r="391" spans="1:10" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="4">
         <v>6</v>
       </c>
-      <c r="B391" s="7" t="s">
+      <c r="B391" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C391" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E391" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F391" s="8"/>
-      <c r="I391" s="9">
+      <c r="C391" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E391" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F391" s="5"/>
+      <c r="I391" s="6">
         <v>41831</v>
       </c>
-      <c r="J391" s="9"/>
+      <c r="J391" s="6"/>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392">
@@ -11572,24 +11572,24 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="469" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A469" s="7">
+    <row r="469" spans="1:10" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A469" s="4">
         <v>7</v>
       </c>
-      <c r="B469" s="7" t="s">
+      <c r="B469" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C469" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E469" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F469" s="8"/>
-      <c r="I469" s="9">
+      <c r="C469" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E469" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F469" s="5"/>
+      <c r="I469" s="6">
         <v>41832</v>
       </c>
-      <c r="J469" s="9"/>
+      <c r="J469" s="6"/>
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A470">
@@ -13248,24 +13248,24 @@
         <v>41834</v>
       </c>
     </row>
-    <row r="547" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A547" s="7">
+    <row r="547" spans="1:10" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A547" s="4">
         <v>8</v>
       </c>
-      <c r="B547" s="7" t="s">
+      <c r="B547" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C547" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E547" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F547" s="8"/>
-      <c r="I547" s="9">
+      <c r="C547" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E547" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F547" s="5"/>
+      <c r="I547" s="6">
         <v>41834</v>
       </c>
-      <c r="J547" s="9"/>
+      <c r="J547" s="6"/>
     </row>
     <row r="548" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A548">
@@ -14849,24 +14849,24 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="625" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A625" s="7">
-        <v>9</v>
-      </c>
-      <c r="B625" s="7" t="s">
+    <row r="625" spans="1:10" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A625" s="4">
+        <v>9</v>
+      </c>
+      <c r="B625" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C625" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E625" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F625" s="8"/>
-      <c r="I625" s="9">
+      <c r="C625" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E625" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F625" s="5"/>
+      <c r="I625" s="6">
         <v>41835</v>
       </c>
-      <c r="J625" s="9"/>
+      <c r="J625" s="6"/>
     </row>
     <row r="626" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A626">
@@ -15906,7 +15906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>10</v>
       </c>
@@ -15920,7 +15920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>10</v>
       </c>
@@ -15934,7 +15934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>10</v>
       </c>
@@ -15948,7 +15948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>10</v>
       </c>
@@ -15962,7 +15962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>10</v>
       </c>
@@ -15976,7 +15976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>10</v>
       </c>
@@ -15990,7 +15990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>10</v>
       </c>
@@ -16004,7 +16004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>10</v>
       </c>
@@ -16018,7 +16018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>10</v>
       </c>
@@ -16032,7 +16032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>10</v>
       </c>
@@ -16046,7 +16046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>10</v>
       </c>
@@ -16060,7 +16060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>10</v>
       </c>
@@ -16074,7 +16074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>10</v>
       </c>
@@ -16088,7 +16088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>10</v>
       </c>
@@ -16102,18 +16102,905 @@
         <v>11</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A703">
-        <v>10</v>
-      </c>
-      <c r="B703" t="s">
+    <row r="703" spans="1:10" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A703" s="4">
+        <v>10</v>
+      </c>
+      <c r="B703" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C703" t="s">
-        <v>127</v>
-      </c>
-      <c r="E703" t="s">
-        <v>11</v>
+      <c r="C703" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E703" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F703" s="5"/>
+      <c r="I703" s="6"/>
+      <c r="J703" s="6"/>
+    </row>
+    <row r="704" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>11</v>
+      </c>
+      <c r="B704" t="s">
+        <v>9</v>
+      </c>
+      <c r="C704" t="s">
+        <v>10</v>
+      </c>
+      <c r="D704">
+        <v>2</v>
+      </c>
+      <c r="E704" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>11</v>
+      </c>
+      <c r="B705" t="s">
+        <v>12</v>
+      </c>
+      <c r="C705" t="s">
+        <v>10</v>
+      </c>
+      <c r="D705">
+        <v>12</v>
+      </c>
+      <c r="E705" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>11</v>
+      </c>
+      <c r="B706" t="s">
+        <v>14</v>
+      </c>
+      <c r="C706" t="s">
+        <v>10</v>
+      </c>
+      <c r="D706">
+        <v>1</v>
+      </c>
+      <c r="E706" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>11</v>
+      </c>
+      <c r="B707" t="s">
+        <v>15</v>
+      </c>
+      <c r="C707" t="s">
+        <v>10</v>
+      </c>
+      <c r="D707">
+        <v>11</v>
+      </c>
+      <c r="E707" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>11</v>
+      </c>
+      <c r="B708" t="s">
+        <v>16</v>
+      </c>
+      <c r="C708" t="s">
+        <v>10</v>
+      </c>
+      <c r="D708">
+        <v>7</v>
+      </c>
+      <c r="E708" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>11</v>
+      </c>
+      <c r="B709" t="s">
+        <v>17</v>
+      </c>
+      <c r="C709" t="s">
+        <v>10</v>
+      </c>
+      <c r="D709">
+        <v>9</v>
+      </c>
+      <c r="E709" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>11</v>
+      </c>
+      <c r="B710" t="s">
+        <v>18</v>
+      </c>
+      <c r="C710" t="s">
+        <v>10</v>
+      </c>
+      <c r="D710">
+        <v>6</v>
+      </c>
+      <c r="E710" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>11</v>
+      </c>
+      <c r="B711" t="s">
+        <v>19</v>
+      </c>
+      <c r="C711" t="s">
+        <v>10</v>
+      </c>
+      <c r="D711">
+        <v>8</v>
+      </c>
+      <c r="E711" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>11</v>
+      </c>
+      <c r="B712" t="s">
+        <v>20</v>
+      </c>
+      <c r="C712" t="s">
+        <v>10</v>
+      </c>
+      <c r="D712">
+        <v>10</v>
+      </c>
+      <c r="E712" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>11</v>
+      </c>
+      <c r="B713" t="s">
+        <v>21</v>
+      </c>
+      <c r="C713" t="s">
+        <v>10</v>
+      </c>
+      <c r="D713">
+        <v>5</v>
+      </c>
+      <c r="E713" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A714">
+        <v>11</v>
+      </c>
+      <c r="B714" t="s">
+        <v>22</v>
+      </c>
+      <c r="C714" t="s">
+        <v>10</v>
+      </c>
+      <c r="D714">
+        <v>3</v>
+      </c>
+      <c r="E714" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A715">
+        <v>11</v>
+      </c>
+      <c r="B715" t="s">
+        <v>23</v>
+      </c>
+      <c r="C715" t="s">
+        <v>10</v>
+      </c>
+      <c r="D715">
+        <v>4</v>
+      </c>
+      <c r="E715" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A716">
+        <v>11</v>
+      </c>
+      <c r="B716" t="s">
+        <v>24</v>
+      </c>
+      <c r="C716" t="s">
+        <v>10</v>
+      </c>
+      <c r="D716">
+        <v>13</v>
+      </c>
+      <c r="E716" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A717">
+        <v>11</v>
+      </c>
+      <c r="B717" t="s">
+        <v>9</v>
+      </c>
+      <c r="C717" t="s">
+        <v>25</v>
+      </c>
+      <c r="D717">
+        <v>5</v>
+      </c>
+      <c r="E717" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A718">
+        <v>11</v>
+      </c>
+      <c r="B718" t="s">
+        <v>12</v>
+      </c>
+      <c r="C718" t="s">
+        <v>25</v>
+      </c>
+      <c r="D718">
+        <v>13</v>
+      </c>
+      <c r="E718" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A719">
+        <v>11</v>
+      </c>
+      <c r="B719" t="s">
+        <v>14</v>
+      </c>
+      <c r="C719" t="s">
+        <v>25</v>
+      </c>
+      <c r="D719">
+        <v>6</v>
+      </c>
+      <c r="E719" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A720">
+        <v>11</v>
+      </c>
+      <c r="B720" t="s">
+        <v>15</v>
+      </c>
+      <c r="C720" t="s">
+        <v>25</v>
+      </c>
+      <c r="D720">
+        <v>7</v>
+      </c>
+      <c r="E720" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A721">
+        <v>11</v>
+      </c>
+      <c r="B721" t="s">
+        <v>16</v>
+      </c>
+      <c r="C721" t="s">
+        <v>25</v>
+      </c>
+      <c r="D721">
+        <v>1</v>
+      </c>
+      <c r="E721" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A722">
+        <v>11</v>
+      </c>
+      <c r="B722" t="s">
+        <v>17</v>
+      </c>
+      <c r="C722" t="s">
+        <v>25</v>
+      </c>
+      <c r="D722">
+        <v>11</v>
+      </c>
+      <c r="E722" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A723">
+        <v>11</v>
+      </c>
+      <c r="B723" t="s">
+        <v>18</v>
+      </c>
+      <c r="C723" t="s">
+        <v>25</v>
+      </c>
+      <c r="D723">
+        <v>4</v>
+      </c>
+      <c r="E723" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A724">
+        <v>11</v>
+      </c>
+      <c r="B724" t="s">
+        <v>19</v>
+      </c>
+      <c r="C724" t="s">
+        <v>25</v>
+      </c>
+      <c r="D724">
+        <v>2</v>
+      </c>
+      <c r="E724" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A725">
+        <v>11</v>
+      </c>
+      <c r="B725" t="s">
+        <v>20</v>
+      </c>
+      <c r="C725" t="s">
+        <v>25</v>
+      </c>
+      <c r="D725">
+        <v>10</v>
+      </c>
+      <c r="E725" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A726">
+        <v>11</v>
+      </c>
+      <c r="B726" t="s">
+        <v>21</v>
+      </c>
+      <c r="C726" t="s">
+        <v>25</v>
+      </c>
+      <c r="D726">
+        <v>3</v>
+      </c>
+      <c r="E726" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A727">
+        <v>11</v>
+      </c>
+      <c r="B727" t="s">
+        <v>22</v>
+      </c>
+      <c r="C727" t="s">
+        <v>25</v>
+      </c>
+      <c r="D727">
+        <v>12</v>
+      </c>
+      <c r="E727" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>11</v>
+      </c>
+      <c r="B728" t="s">
+        <v>23</v>
+      </c>
+      <c r="C728" t="s">
+        <v>25</v>
+      </c>
+      <c r="D728">
+        <v>8</v>
+      </c>
+      <c r="E728" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A729">
+        <v>11</v>
+      </c>
+      <c r="B729" t="s">
+        <v>24</v>
+      </c>
+      <c r="C729" t="s">
+        <v>25</v>
+      </c>
+      <c r="D729">
+        <v>9</v>
+      </c>
+      <c r="E729" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A730">
+        <v>11</v>
+      </c>
+      <c r="B730" t="s">
+        <v>9</v>
+      </c>
+      <c r="C730" t="s">
+        <v>26</v>
+      </c>
+      <c r="D730">
+        <v>13</v>
+      </c>
+      <c r="E730" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A731">
+        <v>11</v>
+      </c>
+      <c r="B731" t="s">
+        <v>12</v>
+      </c>
+      <c r="C731" t="s">
+        <v>26</v>
+      </c>
+      <c r="D731">
+        <v>7</v>
+      </c>
+      <c r="E731" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A732">
+        <v>11</v>
+      </c>
+      <c r="B732" t="s">
+        <v>14</v>
+      </c>
+      <c r="C732" t="s">
+        <v>26</v>
+      </c>
+      <c r="D732">
+        <v>10</v>
+      </c>
+      <c r="E732" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A733">
+        <v>11</v>
+      </c>
+      <c r="B733" t="s">
+        <v>15</v>
+      </c>
+      <c r="C733" t="s">
+        <v>26</v>
+      </c>
+      <c r="D733">
+        <v>12</v>
+      </c>
+      <c r="E733" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A734">
+        <v>11</v>
+      </c>
+      <c r="B734" t="s">
+        <v>16</v>
+      </c>
+      <c r="C734" t="s">
+        <v>26</v>
+      </c>
+      <c r="D734">
+        <v>3</v>
+      </c>
+      <c r="E734" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A735">
+        <v>11</v>
+      </c>
+      <c r="B735" t="s">
+        <v>17</v>
+      </c>
+      <c r="C735" t="s">
+        <v>26</v>
+      </c>
+      <c r="D735">
+        <v>4</v>
+      </c>
+      <c r="E735" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A736">
+        <v>11</v>
+      </c>
+      <c r="B736" t="s">
+        <v>18</v>
+      </c>
+      <c r="C736" t="s">
+        <v>26</v>
+      </c>
+      <c r="D736">
+        <v>9</v>
+      </c>
+      <c r="E736" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A737">
+        <v>11</v>
+      </c>
+      <c r="B737" t="s">
+        <v>19</v>
+      </c>
+      <c r="C737" t="s">
+        <v>26</v>
+      </c>
+      <c r="D737">
+        <v>2</v>
+      </c>
+      <c r="E737" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A738">
+        <v>11</v>
+      </c>
+      <c r="B738" t="s">
+        <v>20</v>
+      </c>
+      <c r="C738" t="s">
+        <v>26</v>
+      </c>
+      <c r="D738">
+        <v>1</v>
+      </c>
+      <c r="E738" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A739">
+        <v>11</v>
+      </c>
+      <c r="B739" t="s">
+        <v>21</v>
+      </c>
+      <c r="C739" t="s">
+        <v>26</v>
+      </c>
+      <c r="D739">
+        <v>6</v>
+      </c>
+      <c r="E739" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A740">
+        <v>11</v>
+      </c>
+      <c r="B740" t="s">
+        <v>22</v>
+      </c>
+      <c r="C740" t="s">
+        <v>26</v>
+      </c>
+      <c r="D740">
+        <v>11</v>
+      </c>
+      <c r="E740" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A741">
+        <v>11</v>
+      </c>
+      <c r="B741" t="s">
+        <v>23</v>
+      </c>
+      <c r="C741" t="s">
+        <v>26</v>
+      </c>
+      <c r="D741">
+        <v>8</v>
+      </c>
+      <c r="E741" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A742">
+        <v>11</v>
+      </c>
+      <c r="B742" t="s">
+        <v>24</v>
+      </c>
+      <c r="C742" t="s">
+        <v>26</v>
+      </c>
+      <c r="D742">
+        <v>5</v>
+      </c>
+      <c r="E742" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A743">
+        <v>11</v>
+      </c>
+      <c r="B743" t="s">
+        <v>9</v>
+      </c>
+      <c r="C743" t="s">
+        <v>27</v>
+      </c>
+      <c r="D743">
+        <v>4</v>
+      </c>
+      <c r="E743" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A744">
+        <v>11</v>
+      </c>
+      <c r="B744" t="s">
+        <v>12</v>
+      </c>
+      <c r="C744" t="s">
+        <v>27</v>
+      </c>
+      <c r="D744">
+        <v>7</v>
+      </c>
+      <c r="E744" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A745">
+        <v>11</v>
+      </c>
+      <c r="B745" t="s">
+        <v>14</v>
+      </c>
+      <c r="C745" t="s">
+        <v>27</v>
+      </c>
+      <c r="D745">
+        <v>10</v>
+      </c>
+      <c r="E745" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A746">
+        <v>11</v>
+      </c>
+      <c r="B746" t="s">
+        <v>15</v>
+      </c>
+      <c r="C746" t="s">
+        <v>27</v>
+      </c>
+      <c r="D746">
+        <v>5</v>
+      </c>
+      <c r="E746" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A747">
+        <v>11</v>
+      </c>
+      <c r="B747" t="s">
+        <v>16</v>
+      </c>
+      <c r="C747" t="s">
+        <v>27</v>
+      </c>
+      <c r="D747">
+        <v>2</v>
+      </c>
+      <c r="E747" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A748">
+        <v>11</v>
+      </c>
+      <c r="B748" t="s">
+        <v>17</v>
+      </c>
+      <c r="C748" t="s">
+        <v>27</v>
+      </c>
+      <c r="D748">
+        <v>13</v>
+      </c>
+      <c r="E748" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A749">
+        <v>11</v>
+      </c>
+      <c r="B749" t="s">
+        <v>18</v>
+      </c>
+      <c r="C749" t="s">
+        <v>27</v>
+      </c>
+      <c r="D749">
+        <v>8</v>
+      </c>
+      <c r="E749" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A750">
+        <v>11</v>
+      </c>
+      <c r="B750" t="s">
+        <v>19</v>
+      </c>
+      <c r="C750" t="s">
+        <v>27</v>
+      </c>
+      <c r="D750">
+        <v>6</v>
+      </c>
+      <c r="E750" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A751">
+        <v>11</v>
+      </c>
+      <c r="B751" t="s">
+        <v>20</v>
+      </c>
+      <c r="C751" t="s">
+        <v>27</v>
+      </c>
+      <c r="D751">
+        <v>1</v>
+      </c>
+      <c r="E751" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A752">
+        <v>11</v>
+      </c>
+      <c r="B752" t="s">
+        <v>21</v>
+      </c>
+      <c r="C752" t="s">
+        <v>27</v>
+      </c>
+      <c r="D752">
+        <v>11</v>
+      </c>
+      <c r="E752" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A753">
+        <v>11</v>
+      </c>
+      <c r="B753" t="s">
+        <v>22</v>
+      </c>
+      <c r="C753" t="s">
+        <v>27</v>
+      </c>
+      <c r="D753">
+        <v>9</v>
+      </c>
+      <c r="E753" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A754">
+        <v>11</v>
+      </c>
+      <c r="B754" t="s">
+        <v>23</v>
+      </c>
+      <c r="C754" t="s">
+        <v>27</v>
+      </c>
+      <c r="D754">
+        <v>12</v>
+      </c>
+      <c r="E754" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A755">
+        <v>11</v>
+      </c>
+      <c r="B755" t="s">
+        <v>24</v>
+      </c>
+      <c r="C755" t="s">
+        <v>27</v>
+      </c>
+      <c r="D755">
+        <v>3</v>
+      </c>
+      <c r="E755" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2018-07-01_HS_datasheet.xlsx
+++ b/Data/2018-07-01_HS_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A18076A-4A6F-409A-9830-8478B9A32103}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EB7BA0-CC41-457C-AACE-42E24244172B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1069,8 +1069,8 @@
   <dimension ref="A1:J755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F322" sqref="F322"/>
+      <pane ySplit="1" topLeftCell="A548" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D602" sqref="D602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14180,6 +14180,9 @@
       <c r="E587" t="s">
         <v>13</v>
       </c>
+      <c r="G587">
+        <v>39.299999999999997</v>
+      </c>
       <c r="I587" s="3">
         <v>41835</v>
       </c>
@@ -14200,6 +14203,9 @@
       <c r="E588" t="s">
         <v>11</v>
       </c>
+      <c r="G588">
+        <v>38.1</v>
+      </c>
       <c r="I588" s="3">
         <v>41835</v>
       </c>
@@ -14220,6 +14226,9 @@
       <c r="E589" t="s">
         <v>13</v>
       </c>
+      <c r="G589">
+        <v>39.9</v>
+      </c>
       <c r="I589" s="3">
         <v>41835</v>
       </c>
@@ -14240,6 +14249,9 @@
       <c r="E590" t="s">
         <v>11</v>
       </c>
+      <c r="G590">
+        <v>39.4</v>
+      </c>
       <c r="I590" s="3">
         <v>41835</v>
       </c>
@@ -14260,6 +14272,9 @@
       <c r="E591" t="s">
         <v>13</v>
       </c>
+      <c r="G591">
+        <v>39.700000000000003</v>
+      </c>
       <c r="I591" s="3">
         <v>41835</v>
       </c>
@@ -14280,6 +14295,9 @@
       <c r="E592" t="s">
         <v>11</v>
       </c>
+      <c r="G592">
+        <v>37.6</v>
+      </c>
       <c r="I592" s="3">
         <v>41835</v>
       </c>
@@ -14300,6 +14318,9 @@
       <c r="E593" t="s">
         <v>13</v>
       </c>
+      <c r="G593">
+        <v>39.799999999999997</v>
+      </c>
       <c r="I593" s="3">
         <v>41835</v>
       </c>
@@ -14320,6 +14341,9 @@
       <c r="E594" t="s">
         <v>13</v>
       </c>
+      <c r="G594">
+        <v>37.200000000000003</v>
+      </c>
       <c r="I594" s="3">
         <v>41835</v>
       </c>
@@ -14340,6 +14364,9 @@
       <c r="E595" t="s">
         <v>11</v>
       </c>
+      <c r="G595">
+        <v>38.799999999999997</v>
+      </c>
       <c r="I595" s="3">
         <v>41835</v>
       </c>
@@ -14360,6 +14387,9 @@
       <c r="E596" t="s">
         <v>11</v>
       </c>
+      <c r="G596">
+        <v>39.6</v>
+      </c>
       <c r="I596" s="3">
         <v>41835</v>
       </c>
@@ -14380,6 +14410,9 @@
       <c r="E597" t="s">
         <v>11</v>
       </c>
+      <c r="G597">
+        <v>39.1</v>
+      </c>
       <c r="I597" s="3">
         <v>41835</v>
       </c>
@@ -14400,6 +14433,9 @@
       <c r="E598" t="s">
         <v>11</v>
       </c>
+      <c r="G598">
+        <v>39.200000000000003</v>
+      </c>
       <c r="I598" s="3">
         <v>41835</v>
       </c>
@@ -14419,6 +14455,9 @@
       </c>
       <c r="E599" t="s">
         <v>13</v>
+      </c>
+      <c r="G599">
+        <v>37</v>
       </c>
       <c r="I599" s="3">
         <v>41835</v>

--- a/Data/2018-07-01_HS_datasheet.xlsx
+++ b/Data/2018-07-01_HS_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EB7BA0-CC41-457C-AACE-42E24244172B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1096BD35-6182-443D-86FF-3C7EA686531D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="234">
   <si>
     <t>cohort</t>
   </si>
@@ -661,6 +661,72 @@
   </si>
   <si>
     <t>4:51</t>
+  </si>
+  <si>
+    <t>16:23</t>
+  </si>
+  <si>
+    <t>6:43</t>
+  </si>
+  <si>
+    <t>11:59</t>
+  </si>
+  <si>
+    <t>17:29</t>
+  </si>
+  <si>
+    <t>18:15</t>
+  </si>
+  <si>
+    <t>15:50</t>
+  </si>
+  <si>
+    <t>13:41</t>
+  </si>
+  <si>
+    <t>12:33</t>
+  </si>
+  <si>
+    <t>8:05</t>
+  </si>
+  <si>
+    <t>24:02</t>
+  </si>
+  <si>
+    <t>6:38</t>
+  </si>
+  <si>
+    <t>15:26</t>
+  </si>
+  <si>
+    <t>19:03</t>
+  </si>
+  <si>
+    <t>16:24</t>
+  </si>
+  <si>
+    <t>5:19</t>
+  </si>
+  <si>
+    <t>14:57</t>
+  </si>
+  <si>
+    <t>1:04</t>
+  </si>
+  <si>
+    <t>9:40</t>
+  </si>
+  <si>
+    <t>11:30</t>
+  </si>
+  <si>
+    <t>12:54</t>
+  </si>
+  <si>
+    <t>8:50</t>
+  </si>
+  <si>
+    <t>0:23</t>
   </si>
 </sst>
 </file>
@@ -1069,8 +1135,8 @@
   <dimension ref="A1:J755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A548" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D602" sqref="D602"/>
+      <pane ySplit="1" topLeftCell="A653" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K673" sqref="K673:K674"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1473,8 +1539,14 @@
       <c r="G14" s="2">
         <v>37.1</v>
       </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
       <c r="I14" s="3">
         <v>41822</v>
+      </c>
+      <c r="J14" s="3">
+        <v>41835</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1548,8 +1620,14 @@
       <c r="F17" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="H17">
+        <v>13</v>
+      </c>
       <c r="I17" s="3">
         <v>41822</v>
+      </c>
+      <c r="J17" s="3">
+        <v>41835</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1941,8 +2019,14 @@
       <c r="F32" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
       <c r="I32" s="3">
         <v>41822</v>
+      </c>
+      <c r="J32" s="3">
+        <v>41835</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -4069,8 +4153,14 @@
       <c r="G120">
         <v>38.299999999999997</v>
       </c>
+      <c r="H120">
+        <v>11</v>
+      </c>
       <c r="I120" s="3">
         <v>41824</v>
+      </c>
+      <c r="J120" s="3">
+        <v>41835</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -4340,8 +4430,14 @@
       <c r="G131">
         <v>38</v>
       </c>
+      <c r="H131">
+        <v>11</v>
+      </c>
       <c r="I131" s="3">
         <v>41824</v>
+      </c>
+      <c r="J131" s="3">
+        <v>41835</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -5696,8 +5792,14 @@
       <c r="F193" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="H193">
+        <v>7</v>
+      </c>
       <c r="I193" s="3">
         <v>41828</v>
+      </c>
+      <c r="J193" s="3">
+        <v>41835</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -7423,7 +7525,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>5</v>
       </c>
@@ -7446,7 +7548,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>5</v>
       </c>
@@ -7469,7 +7571,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>5</v>
       </c>
@@ -7492,7 +7594,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>5</v>
       </c>
@@ -7515,7 +7617,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>5</v>
       </c>
@@ -7538,7 +7640,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>5</v>
       </c>
@@ -7561,7 +7663,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>5</v>
       </c>
@@ -7584,7 +7686,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>5</v>
       </c>
@@ -7607,7 +7709,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>5</v>
       </c>
@@ -7630,7 +7732,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>5</v>
       </c>
@@ -7653,7 +7755,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>5</v>
       </c>
@@ -7676,7 +7778,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>5</v>
       </c>
@@ -7699,7 +7801,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>5</v>
       </c>
@@ -7722,7 +7824,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>5</v>
       </c>
@@ -7745,7 +7847,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>5</v>
       </c>
@@ -7764,11 +7866,17 @@
       <c r="G287">
         <v>37.4</v>
       </c>
+      <c r="H287">
+        <v>6</v>
+      </c>
       <c r="I287" s="3">
         <v>41829</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J287" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>5</v>
       </c>
@@ -13355,9 +13463,15 @@
       <c r="G551">
         <v>41.1</v>
       </c>
+      <c r="H551">
+        <v>0</v>
+      </c>
       <c r="I551" s="3">
         <v>41835</v>
       </c>
+      <c r="J551" s="3">
+        <v>41835</v>
+      </c>
     </row>
     <row r="552" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A552">
@@ -13401,9 +13515,15 @@
       <c r="G553">
         <v>41.1</v>
       </c>
+      <c r="H553">
+        <v>0</v>
+      </c>
       <c r="I553" s="3">
         <v>41835</v>
       </c>
+      <c r="J553" s="3">
+        <v>41835</v>
+      </c>
     </row>
     <row r="554" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A554">
@@ -13566,7 +13686,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>9</v>
       </c>
@@ -13589,7 +13709,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>9</v>
       </c>
@@ -13612,7 +13732,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>9</v>
       </c>
@@ -13635,7 +13755,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>9</v>
       </c>
@@ -13654,11 +13774,17 @@
       <c r="F564" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="H564">
+        <v>0</v>
+      </c>
       <c r="I564" s="3">
         <v>41835</v>
       </c>
-    </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J564" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>9</v>
       </c>
@@ -13681,7 +13807,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>9</v>
       </c>
@@ -13704,7 +13830,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>9</v>
       </c>
@@ -13727,7 +13853,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>9</v>
       </c>
@@ -13746,11 +13872,17 @@
       <c r="F568" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="H568">
+        <v>0</v>
+      </c>
       <c r="I568" s="3">
         <v>41835</v>
       </c>
-    </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J568" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>9</v>
       </c>
@@ -13773,7 +13905,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>9</v>
       </c>
@@ -13792,11 +13924,17 @@
       <c r="F570" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="H570">
+        <v>0</v>
+      </c>
       <c r="I570" s="3">
         <v>41835</v>
       </c>
-    </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J570" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>9</v>
       </c>
@@ -13815,11 +13953,17 @@
       <c r="F571" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="H571">
+        <v>0</v>
+      </c>
       <c r="I571" s="3">
         <v>41835</v>
       </c>
-    </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J571" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>9</v>
       </c>
@@ -13842,7 +13986,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>9</v>
       </c>
@@ -13865,7 +14009,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>9</v>
       </c>
@@ -13888,7 +14032,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>9</v>
       </c>
@@ -13911,7 +14055,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>9</v>
       </c>
@@ -13934,7 +14078,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>9</v>
       </c>
@@ -13957,7 +14101,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>9</v>
       </c>
@@ -13980,7 +14124,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>9</v>
       </c>
@@ -14003,7 +14147,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>9</v>
       </c>
@@ -14026,7 +14170,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>9</v>
       </c>
@@ -14049,7 +14193,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>9</v>
       </c>
@@ -14072,7 +14216,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>9</v>
       </c>
@@ -14095,7 +14239,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>9</v>
       </c>
@@ -14118,7 +14262,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>9</v>
       </c>
@@ -14141,7 +14285,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>9</v>
       </c>
@@ -14164,7 +14308,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>9</v>
       </c>
@@ -14187,7 +14331,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>9</v>
       </c>
@@ -14210,7 +14354,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>9</v>
       </c>
@@ -14233,7 +14377,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>9</v>
       </c>
@@ -14252,11 +14396,17 @@
       <c r="G590">
         <v>39.4</v>
       </c>
+      <c r="H590">
+        <v>0</v>
+      </c>
       <c r="I590" s="3">
         <v>41835</v>
       </c>
-    </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J590" s="3">
+        <v>41835</v>
+      </c>
+    </row>
+    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>9</v>
       </c>
@@ -14279,7 +14429,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>9</v>
       </c>
@@ -14923,6 +15073,12 @@
       <c r="E626" t="s">
         <v>11</v>
       </c>
+      <c r="G626">
+        <v>42</v>
+      </c>
+      <c r="I626" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="627" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A627">
@@ -14940,6 +15096,12 @@
       <c r="E627" t="s">
         <v>13</v>
       </c>
+      <c r="G627">
+        <v>42</v>
+      </c>
+      <c r="I627" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="628" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A628">
@@ -14957,6 +15119,12 @@
       <c r="E628" t="s">
         <v>11</v>
       </c>
+      <c r="G628">
+        <v>41.6</v>
+      </c>
+      <c r="I628" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="629" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A629">
@@ -14974,6 +15142,12 @@
       <c r="E629" t="s">
         <v>11</v>
       </c>
+      <c r="G629">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="I629" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="630" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A630">
@@ -14991,6 +15165,12 @@
       <c r="E630" t="s">
         <v>11</v>
       </c>
+      <c r="G630">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="I630" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="631" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A631">
@@ -15008,6 +15188,12 @@
       <c r="E631" t="s">
         <v>11</v>
       </c>
+      <c r="G631">
+        <v>41.1</v>
+      </c>
+      <c r="I631" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="632" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A632">
@@ -15025,6 +15211,12 @@
       <c r="E632" t="s">
         <v>11</v>
       </c>
+      <c r="G632">
+        <v>41.4</v>
+      </c>
+      <c r="I632" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="633" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A633">
@@ -15042,6 +15234,12 @@
       <c r="E633" t="s">
         <v>11</v>
       </c>
+      <c r="G633">
+        <v>40.1</v>
+      </c>
+      <c r="I633" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="634" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A634">
@@ -15059,6 +15257,12 @@
       <c r="E634" t="s">
         <v>11</v>
       </c>
+      <c r="G634">
+        <v>40.6</v>
+      </c>
+      <c r="I634" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="635" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A635">
@@ -15076,6 +15280,12 @@
       <c r="E635" t="s">
         <v>13</v>
       </c>
+      <c r="G635">
+        <v>42</v>
+      </c>
+      <c r="I635" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="636" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A636">
@@ -15093,6 +15303,12 @@
       <c r="E636" t="s">
         <v>13</v>
       </c>
+      <c r="G636">
+        <v>42</v>
+      </c>
+      <c r="I636" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="637" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A637">
@@ -15110,6 +15326,12 @@
       <c r="E637" t="s">
         <v>13</v>
       </c>
+      <c r="G637">
+        <v>41.8</v>
+      </c>
+      <c r="I637" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="638" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A638">
@@ -15127,6 +15349,12 @@
       <c r="E638" t="s">
         <v>11</v>
       </c>
+      <c r="G638">
+        <v>37.4</v>
+      </c>
+      <c r="I638" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="639" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A639">
@@ -15144,6 +15372,12 @@
       <c r="E639" t="s">
         <v>11</v>
       </c>
+      <c r="F639" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I639" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="640" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A640">
@@ -15161,8 +15395,14 @@
       <c r="E640" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F640" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I640" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>10</v>
       </c>
@@ -15178,8 +15418,14 @@
       <c r="E641" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F641" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I641" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>10</v>
       </c>
@@ -15195,8 +15441,14 @@
       <c r="E642" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F642" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I642" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>10</v>
       </c>
@@ -15212,8 +15464,14 @@
       <c r="E643" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F643" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I643" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>10</v>
       </c>
@@ -15229,8 +15487,14 @@
       <c r="E644" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F644" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I644" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>10</v>
       </c>
@@ -15246,8 +15510,14 @@
       <c r="E645" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F645" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I645" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>10</v>
       </c>
@@ -15263,8 +15533,14 @@
       <c r="E646" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F646" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I646" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>10</v>
       </c>
@@ -15280,8 +15556,14 @@
       <c r="E647" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F647" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I647" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>10</v>
       </c>
@@ -15297,8 +15579,14 @@
       <c r="E648" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F648" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I648" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>10</v>
       </c>
@@ -15314,8 +15602,14 @@
       <c r="E649" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F649" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I649" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>10</v>
       </c>
@@ -15331,8 +15625,14 @@
       <c r="E650" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F650" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I650" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>10</v>
       </c>
@@ -15348,8 +15648,14 @@
       <c r="E651" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F651" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I651" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>10</v>
       </c>
@@ -15365,8 +15671,14 @@
       <c r="E652" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F652" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I652" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>10</v>
       </c>
@@ -15382,8 +15694,14 @@
       <c r="E653" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F653" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I653" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>10</v>
       </c>
@@ -15399,8 +15717,14 @@
       <c r="E654" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F654" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I654" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>10</v>
       </c>
@@ -15416,8 +15740,14 @@
       <c r="E655" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F655" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I655" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>10</v>
       </c>
@@ -15433,8 +15763,14 @@
       <c r="E656" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F656" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I656" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>10</v>
       </c>
@@ -15450,8 +15786,14 @@
       <c r="E657" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F657" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I657" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>10</v>
       </c>
@@ -15467,8 +15809,14 @@
       <c r="E658" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F658" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I658" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>10</v>
       </c>
@@ -15484,8 +15832,14 @@
       <c r="E659" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F659" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I659" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>10</v>
       </c>
@@ -15501,8 +15855,14 @@
       <c r="E660" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F660" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I660" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>10</v>
       </c>
@@ -15518,8 +15878,14 @@
       <c r="E661" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F661" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I661" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>10</v>
       </c>
@@ -15535,8 +15901,14 @@
       <c r="E662" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F662" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I662" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>10</v>
       </c>
@@ -15552,8 +15924,14 @@
       <c r="E663" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F663" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I663" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>10</v>
       </c>
@@ -15569,8 +15947,14 @@
       <c r="E664" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F664" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I664" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="665" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>10</v>
       </c>
@@ -15586,8 +15970,14 @@
       <c r="E665" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G665">
+        <v>38.4</v>
+      </c>
+      <c r="I665" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="666" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>10</v>
       </c>
@@ -15603,8 +15993,14 @@
       <c r="E666" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G666">
+        <v>38.9</v>
+      </c>
+      <c r="I666" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="667" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>10</v>
       </c>
@@ -15620,8 +16016,14 @@
       <c r="E667" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G667">
+        <v>39.4</v>
+      </c>
+      <c r="I667" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="668" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>10</v>
       </c>
@@ -15637,8 +16039,14 @@
       <c r="E668" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G668">
+        <v>37</v>
+      </c>
+      <c r="I668" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="669" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>10</v>
       </c>
@@ -15654,8 +16062,14 @@
       <c r="E669" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G669">
+        <v>38.4</v>
+      </c>
+      <c r="I669" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="670" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>10</v>
       </c>
@@ -15671,8 +16085,14 @@
       <c r="E670" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G670">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="I670" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="671" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>10</v>
       </c>
@@ -15688,8 +16108,14 @@
       <c r="E671" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G671">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="I671" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>10</v>
       </c>
@@ -15705,8 +16131,14 @@
       <c r="E672" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G672">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="I672" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>10</v>
       </c>
@@ -15722,8 +16154,14 @@
       <c r="E673" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G673">
+        <v>37.4</v>
+      </c>
+      <c r="I673" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="674" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>10</v>
       </c>
@@ -15739,8 +16177,14 @@
       <c r="E674" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G674">
+        <v>39</v>
+      </c>
+      <c r="I674" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="675" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>10</v>
       </c>
@@ -15756,8 +16200,14 @@
       <c r="E675" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G675">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="I675" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>10</v>
       </c>
@@ -15773,8 +16223,14 @@
       <c r="E676" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G676">
+        <v>38.1</v>
+      </c>
+      <c r="I676" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>10</v>
       </c>
@@ -15790,8 +16246,14 @@
       <c r="E677" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G677">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I677" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>10</v>
       </c>
@@ -15804,8 +16266,11 @@
       <c r="E678" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I678" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>10</v>
       </c>
@@ -15818,8 +16283,11 @@
       <c r="E679" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I679" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>10</v>
       </c>
@@ -15832,8 +16300,11 @@
       <c r="E680" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I680" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>10</v>
       </c>
@@ -15846,8 +16317,11 @@
       <c r="E681" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I681" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>10</v>
       </c>
@@ -15860,8 +16334,11 @@
       <c r="E682" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I682" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="683" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>10</v>
       </c>
@@ -15874,8 +16351,11 @@
       <c r="E683" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I683" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>10</v>
       </c>
@@ -15888,8 +16368,11 @@
       <c r="E684" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I684" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>10</v>
       </c>
@@ -15902,8 +16385,11 @@
       <c r="E685" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I685" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>10</v>
       </c>
@@ -15916,8 +16402,11 @@
       <c r="E686" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I686" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>10</v>
       </c>
@@ -15930,8 +16419,11 @@
       <c r="E687" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I687" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>10</v>
       </c>
@@ -15944,6 +16436,9 @@
       <c r="E688" t="s">
         <v>13</v>
       </c>
+      <c r="I688" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="689" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A689">
@@ -15958,6 +16453,9 @@
       <c r="E689" t="s">
         <v>13</v>
       </c>
+      <c r="I689" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="690" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A690">
@@ -15972,6 +16470,9 @@
       <c r="E690" t="s">
         <v>13</v>
       </c>
+      <c r="I690" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="691" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A691">
@@ -15986,6 +16487,9 @@
       <c r="E691" t="s">
         <v>11</v>
       </c>
+      <c r="I691" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="692" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A692">
@@ -16000,6 +16504,9 @@
       <c r="E692" t="s">
         <v>11</v>
       </c>
+      <c r="I692" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="693" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A693">
@@ -16014,6 +16521,9 @@
       <c r="E693" t="s">
         <v>11</v>
       </c>
+      <c r="I693" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="694" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A694">
@@ -16028,6 +16538,9 @@
       <c r="E694" t="s">
         <v>11</v>
       </c>
+      <c r="I694" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="695" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A695">
@@ -16042,6 +16555,9 @@
       <c r="E695" t="s">
         <v>11</v>
       </c>
+      <c r="I695" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="696" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A696">
@@ -16056,6 +16572,9 @@
       <c r="E696" t="s">
         <v>11</v>
       </c>
+      <c r="I696" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="697" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A697">
@@ -16070,6 +16589,9 @@
       <c r="E697" t="s">
         <v>11</v>
       </c>
+      <c r="I697" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="698" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A698">
@@ -16084,6 +16606,9 @@
       <c r="E698" t="s">
         <v>11</v>
       </c>
+      <c r="I698" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="699" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A699">
@@ -16098,6 +16623,9 @@
       <c r="E699" t="s">
         <v>11</v>
       </c>
+      <c r="I699" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="700" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A700">
@@ -16112,6 +16640,9 @@
       <c r="E700" t="s">
         <v>11</v>
       </c>
+      <c r="I700" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="701" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A701">
@@ -16126,6 +16657,9 @@
       <c r="E701" t="s">
         <v>11</v>
       </c>
+      <c r="I701" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="702" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A702">
@@ -16140,6 +16674,9 @@
       <c r="E702" t="s">
         <v>11</v>
       </c>
+      <c r="I702" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="703" spans="1:10" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A703" s="4">
@@ -16155,7 +16692,9 @@
         <v>11</v>
       </c>
       <c r="F703" s="5"/>
-      <c r="I703" s="6"/>
+      <c r="I703" s="6">
+        <v>41836</v>
+      </c>
       <c r="J703" s="6"/>
     </row>
     <row r="704" spans="1:10" x14ac:dyDescent="0.25">

--- a/Data/2018-07-01_HS_datasheet.xlsx
+++ b/Data/2018-07-01_HS_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1096BD35-6182-443D-86FF-3C7EA686531D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C8E0C9-0770-461B-B17F-86C393DCABBD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1135,8 +1135,8 @@
   <dimension ref="A1:J755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A653" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K673" sqref="K673:K674"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1568,8 +1568,14 @@
       <c r="F15" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="H15">
+        <v>16</v>
+      </c>
       <c r="I15" s="3">
         <v>41822</v>
+      </c>
+      <c r="J15" s="3">
+        <v>41838</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1678,8 +1684,14 @@
       <c r="F19" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="H19">
+        <v>16</v>
+      </c>
       <c r="I19" s="3">
         <v>41822</v>
+      </c>
+      <c r="J19" s="3">
+        <v>41838</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2135,8 +2147,14 @@
       <c r="F36" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="H36">
+        <v>15</v>
+      </c>
       <c r="I36" s="3">
         <v>41822</v>
+      </c>
+      <c r="J36" s="3">
+        <v>41837</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -3155,8 +3173,14 @@
       <c r="G80">
         <v>41.3</v>
       </c>
+      <c r="H80">
+        <v>14</v>
+      </c>
       <c r="I80" s="3">
         <v>41824</v>
+      </c>
+      <c r="J80" s="3">
+        <v>41838</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -3282,8 +3306,14 @@
       <c r="G85">
         <v>41.3</v>
       </c>
+      <c r="H85">
+        <v>13</v>
+      </c>
       <c r="I85" s="3">
         <v>41824</v>
+      </c>
+      <c r="J85" s="3">
+        <v>41837</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -3605,8 +3635,14 @@
       <c r="F98" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="H98">
+        <v>13</v>
+      </c>
       <c r="I98" s="3">
         <v>41824</v>
+      </c>
+      <c r="J98" s="3">
+        <v>41837</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -3813,8 +3849,14 @@
       <c r="F106" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="H106">
+        <v>13</v>
+      </c>
       <c r="I106" s="3">
         <v>41824</v>
+      </c>
+      <c r="J106" s="3">
+        <v>41837</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -4055,8 +4097,14 @@
       <c r="F116" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="H116">
+        <v>13</v>
+      </c>
       <c r="I116" s="3">
         <v>41824</v>
+      </c>
+      <c r="J116" s="3">
+        <v>41837</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -4101,8 +4149,14 @@
       <c r="F118" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="H118">
+        <v>13</v>
+      </c>
       <c r="I118" s="3">
         <v>41824</v>
+      </c>
+      <c r="J118" s="3">
+        <v>41837</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -4211,8 +4265,14 @@
       <c r="G122">
         <v>38.6</v>
       </c>
+      <c r="H122">
+        <v>13</v>
+      </c>
       <c r="I122" s="3">
         <v>41824</v>
+      </c>
+      <c r="J122" s="3">
+        <v>41837</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -4766,8 +4826,14 @@
       <c r="E149" t="s">
         <v>11</v>
       </c>
+      <c r="H149">
+        <v>13</v>
+      </c>
       <c r="I149" s="3">
         <v>41824</v>
+      </c>
+      <c r="J149" s="3">
+        <v>41837</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -4921,10 +4987,15 @@
         <v>11</v>
       </c>
       <c r="F157" s="5"/>
+      <c r="H157" s="4">
+        <v>13</v>
+      </c>
       <c r="I157" s="6">
         <v>41824</v>
       </c>
-      <c r="J157" s="6"/>
+      <c r="J157" s="6">
+        <v>41837</v>
+      </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
@@ -5106,8 +5177,14 @@
       <c r="G165">
         <v>40.4</v>
       </c>
+      <c r="H165">
+        <v>10</v>
+      </c>
       <c r="I165" s="3">
         <v>41828</v>
+      </c>
+      <c r="J165" s="3">
+        <v>41838</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -5250,8 +5327,14 @@
       <c r="F171" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="H171">
+        <v>9</v>
+      </c>
       <c r="I171" s="3">
         <v>41828</v>
+      </c>
+      <c r="J171" s="3">
+        <v>41837</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -5348,8 +5431,14 @@
       <c r="F175" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="H175">
+        <v>9</v>
+      </c>
       <c r="I175" s="3">
         <v>41828</v>
+      </c>
+      <c r="J175" s="3">
+        <v>41837</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -5625,8 +5714,14 @@
       <c r="F186" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="H186">
+        <v>10</v>
+      </c>
       <c r="I186" s="3">
         <v>41828</v>
+      </c>
+      <c r="J186" s="3">
+        <v>41838</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -5700,8 +5795,14 @@
       <c r="F189" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="H189">
+        <v>9</v>
+      </c>
       <c r="I189" s="3">
         <v>41828</v>
+      </c>
+      <c r="J189" s="3">
+        <v>41837</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -5793,13 +5894,13 @@
         <v>99</v>
       </c>
       <c r="H193">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I193" s="3">
         <v>41828</v>
       </c>
       <c r="J193" s="3">
-        <v>41835</v>
+        <v>41836</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -6098,8 +6199,14 @@
       <c r="G205">
         <v>38.5</v>
       </c>
+      <c r="H205">
+        <v>8</v>
+      </c>
       <c r="I205" s="3">
         <v>41828</v>
+      </c>
+      <c r="J205" s="3">
+        <v>41836</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -6338,8 +6445,14 @@
       <c r="E217" t="s">
         <v>13</v>
       </c>
+      <c r="H217">
+        <v>8</v>
+      </c>
       <c r="I217" s="3">
         <v>41828</v>
+      </c>
+      <c r="J217" s="3">
+        <v>41836</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
@@ -6474,8 +6587,14 @@
       <c r="E225" t="s">
         <v>11</v>
       </c>
+      <c r="H225">
+        <v>8</v>
+      </c>
       <c r="I225" s="3">
         <v>41828</v>
+      </c>
+      <c r="J225" s="3">
+        <v>41836</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -6491,8 +6610,14 @@
       <c r="E226" t="s">
         <v>11</v>
       </c>
+      <c r="H226">
+        <v>8</v>
+      </c>
       <c r="I226" s="3">
         <v>41828</v>
+      </c>
+      <c r="J226" s="3">
+        <v>41836</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -6675,8 +6800,14 @@
       <c r="G236">
         <v>41</v>
       </c>
+      <c r="H236">
+        <v>8</v>
+      </c>
       <c r="I236" s="3">
         <v>41829</v>
+      </c>
+      <c r="J236" s="3">
+        <v>41837</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -7118,8 +7249,14 @@
       <c r="F255" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="H255">
+        <v>9</v>
+      </c>
       <c r="I255" s="3">
         <v>41829</v>
+      </c>
+      <c r="J255" s="3">
+        <v>41838</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
@@ -7285,8 +7422,14 @@
       <c r="F262" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="H262">
+        <v>8</v>
+      </c>
       <c r="I262" s="3">
         <v>41829</v>
+      </c>
+      <c r="J262" s="3">
+        <v>41837</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
@@ -7423,8 +7566,14 @@
       <c r="F268" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="H268">
+        <v>8</v>
+      </c>
       <c r="I268" s="3">
         <v>41829</v>
+      </c>
+      <c r="J268" s="3">
+        <v>41837</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
@@ -7613,8 +7762,14 @@
       <c r="G276">
         <v>37.299999999999997</v>
       </c>
+      <c r="H276">
+        <v>8</v>
+      </c>
       <c r="I276" s="3">
         <v>41829</v>
+      </c>
+      <c r="J276" s="3">
+        <v>41837</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
@@ -7843,8 +7998,14 @@
       <c r="G286">
         <v>39.1</v>
       </c>
+      <c r="H286">
+        <v>8</v>
+      </c>
       <c r="I286" s="3">
         <v>41829</v>
+      </c>
+      <c r="J286" s="3">
+        <v>41837</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
@@ -8091,6 +8252,9 @@
       <c r="I299" s="3">
         <v>41829</v>
       </c>
+      <c r="J299" s="3">
+        <v>41837</v>
+      </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300">
@@ -8156,8 +8320,14 @@
       <c r="E303" t="s">
         <v>11</v>
       </c>
+      <c r="H303">
+        <v>9</v>
+      </c>
       <c r="I303" s="3">
         <v>41829</v>
+      </c>
+      <c r="J303" s="3">
+        <v>41838</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
@@ -8190,8 +8360,14 @@
       <c r="E305" t="s">
         <v>11</v>
       </c>
+      <c r="H305">
+        <v>8</v>
+      </c>
       <c r="I305" s="3">
         <v>41829</v>
+      </c>
+      <c r="J305" s="3">
+        <v>41837</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
@@ -9603,7 +9779,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>6</v>
       </c>
@@ -9620,7 +9796,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>6</v>
       </c>
@@ -9637,7 +9813,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>6</v>
       </c>
@@ -9654,7 +9830,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>6</v>
       </c>
@@ -9667,11 +9843,17 @@
       <c r="E372" t="s">
         <v>13</v>
       </c>
+      <c r="H372">
+        <v>7</v>
+      </c>
       <c r="I372" s="3">
         <v>41831</v>
       </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J372" s="3">
+        <v>41838</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>6</v>
       </c>
@@ -9688,7 +9870,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>6</v>
       </c>
@@ -9705,7 +9887,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>6</v>
       </c>
@@ -9722,7 +9904,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>6</v>
       </c>
@@ -9739,7 +9921,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>6</v>
       </c>
@@ -9756,7 +9938,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>6</v>
       </c>
@@ -9773,7 +9955,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>6</v>
       </c>
@@ -9790,7 +9972,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>6</v>
       </c>
@@ -9807,7 +9989,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>6</v>
       </c>
@@ -9824,7 +10006,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>6</v>
       </c>
@@ -9841,7 +10023,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>6</v>
       </c>
@@ -9858,7 +10040,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>6</v>
       </c>
@@ -9922,8 +10104,14 @@
       <c r="E387" t="s">
         <v>11</v>
       </c>
+      <c r="H387">
+        <v>6</v>
+      </c>
       <c r="I387" s="3">
         <v>41831</v>
+      </c>
+      <c r="J387" s="3">
+        <v>41837</v>
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
@@ -11340,7 +11528,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>7</v>
       </c>
@@ -11357,7 +11545,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>7</v>
       </c>
@@ -11374,7 +11562,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>7</v>
       </c>
@@ -11391,7 +11579,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>7</v>
       </c>
@@ -11408,7 +11596,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>7</v>
       </c>
@@ -11425,7 +11613,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>7</v>
       </c>
@@ -11442,7 +11630,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>7</v>
       </c>
@@ -11459,7 +11647,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>7</v>
       </c>
@@ -11476,7 +11664,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>7</v>
       </c>
@@ -11489,11 +11677,17 @@
       <c r="E457" t="s">
         <v>11</v>
       </c>
+      <c r="H457">
+        <v>6</v>
+      </c>
       <c r="I457" s="3">
         <v>41832</v>
       </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J457" s="3">
+        <v>41838</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>7</v>
       </c>
@@ -11510,7 +11704,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>7</v>
       </c>
@@ -11527,7 +11721,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>7</v>
       </c>
@@ -11544,7 +11738,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>7</v>
       </c>
@@ -11561,7 +11755,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>7</v>
       </c>
@@ -11578,7 +11772,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>7</v>
       </c>
@@ -11595,7 +11789,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>7</v>
       </c>
@@ -11833,8 +12027,14 @@
       <c r="G475">
         <v>36.5</v>
       </c>
+      <c r="H475">
+        <v>3</v>
+      </c>
       <c r="I475" s="3">
         <v>41834</v>
+      </c>
+      <c r="J475" s="3">
+        <v>41837</v>
       </c>
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.25">
@@ -14452,7 +14652,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>9</v>
       </c>
@@ -14475,7 +14675,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>9</v>
       </c>
@@ -14498,7 +14698,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>9</v>
       </c>
@@ -14521,7 +14721,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>9</v>
       </c>
@@ -14544,7 +14744,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>9</v>
       </c>
@@ -14567,7 +14767,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>9</v>
       </c>
@@ -14590,7 +14790,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>9</v>
       </c>
@@ -14613,7 +14813,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>9</v>
       </c>
@@ -14630,7 +14830,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>9</v>
       </c>
@@ -14647,7 +14847,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>9</v>
       </c>
@@ -14664,7 +14864,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>9</v>
       </c>
@@ -14677,11 +14877,17 @@
       <c r="E603" t="s">
         <v>13</v>
       </c>
+      <c r="H603">
+        <v>3</v>
+      </c>
       <c r="I603" s="3">
         <v>41835</v>
       </c>
-    </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J603" s="3">
+        <v>41838</v>
+      </c>
+    </row>
+    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>9</v>
       </c>
@@ -14698,7 +14904,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>9</v>
       </c>
@@ -14715,7 +14921,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>9</v>
       </c>
@@ -14732,7 +14938,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>9</v>
       </c>
@@ -14749,7 +14955,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>9</v>
       </c>
@@ -15076,9 +15282,15 @@
       <c r="G626">
         <v>42</v>
       </c>
+      <c r="H626">
+        <v>0</v>
+      </c>
       <c r="I626" s="3">
         <v>41836</v>
       </c>
+      <c r="J626" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="627" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A627">
@@ -15099,9 +15311,15 @@
       <c r="G627">
         <v>42</v>
       </c>
+      <c r="H627">
+        <v>0</v>
+      </c>
       <c r="I627" s="3">
         <v>41836</v>
       </c>
+      <c r="J627" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="628" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A628">
@@ -15191,9 +15409,15 @@
       <c r="G631">
         <v>41.1</v>
       </c>
+      <c r="H631">
+        <v>0</v>
+      </c>
       <c r="I631" s="3">
         <v>41836</v>
       </c>
+      <c r="J631" s="3">
+        <v>41836</v>
+      </c>
     </row>
     <row r="632" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A632">
@@ -15402,7 +15626,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>10</v>
       </c>
@@ -15425,7 +15649,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>10</v>
       </c>
@@ -15448,7 +15672,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>10</v>
       </c>
@@ -15471,7 +15695,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>10</v>
       </c>
@@ -15494,7 +15718,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>10</v>
       </c>
@@ -15517,7 +15741,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>10</v>
       </c>
@@ -15540,7 +15764,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>10</v>
       </c>
@@ -15563,7 +15787,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>10</v>
       </c>
@@ -15586,7 +15810,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>10</v>
       </c>
@@ -15609,7 +15833,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>10</v>
       </c>
@@ -15632,7 +15856,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>10</v>
       </c>
@@ -15655,7 +15879,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>10</v>
       </c>
@@ -15678,7 +15902,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>10</v>
       </c>
@@ -15701,7 +15925,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>10</v>
       </c>
@@ -15724,7 +15948,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>10</v>
       </c>
@@ -15743,11 +15967,17 @@
       <c r="F655" s="1" t="s">
         <v>224</v>
       </c>
+      <c r="H655">
+        <v>0</v>
+      </c>
       <c r="I655" s="3">
         <v>41836</v>
       </c>
-    </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J655" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>10</v>
       </c>
@@ -15770,7 +16000,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>10</v>
       </c>
@@ -15793,7 +16023,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>10</v>
       </c>
@@ -15816,7 +16046,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>10</v>
       </c>
@@ -15839,7 +16069,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>10</v>
       </c>
@@ -15862,7 +16092,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>10</v>
       </c>
@@ -15885,7 +16115,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>10</v>
       </c>
@@ -15908,7 +16138,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>10</v>
       </c>
@@ -15931,7 +16161,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>10</v>
       </c>
@@ -15954,7 +16184,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>10</v>
       </c>
@@ -15973,11 +16203,17 @@
       <c r="G665">
         <v>38.4</v>
       </c>
+      <c r="H665">
+        <v>0</v>
+      </c>
       <c r="I665" s="3">
         <v>41836</v>
       </c>
-    </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J665" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>10</v>
       </c>
@@ -16000,7 +16236,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>10</v>
       </c>
@@ -16023,7 +16259,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>10</v>
       </c>
@@ -16042,11 +16278,17 @@
       <c r="G668">
         <v>37</v>
       </c>
+      <c r="H668">
+        <v>0</v>
+      </c>
       <c r="I668" s="3">
         <v>41836</v>
       </c>
-    </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J668" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="669" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>10</v>
       </c>
@@ -16069,7 +16311,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>10</v>
       </c>
@@ -16092,7 +16334,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>10</v>
       </c>
@@ -16115,7 +16357,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>10</v>
       </c>
@@ -16138,7 +16380,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>10</v>
       </c>
@@ -16161,7 +16403,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>10</v>
       </c>
@@ -16180,11 +16422,17 @@
       <c r="G674">
         <v>39</v>
       </c>
+      <c r="H674">
+        <v>0</v>
+      </c>
       <c r="I674" s="3">
         <v>41836</v>
       </c>
-    </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J674" s="3">
+        <v>41836</v>
+      </c>
+    </row>
+    <row r="675" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>10</v>
       </c>
@@ -16207,7 +16455,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>10</v>
       </c>
@@ -16230,7 +16478,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>10</v>
       </c>
@@ -16253,7 +16501,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>10</v>
       </c>
@@ -16270,7 +16518,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>10</v>
       </c>
@@ -16287,7 +16535,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>10</v>
       </c>
@@ -16304,7 +16552,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>10</v>
       </c>
@@ -16321,7 +16569,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>10</v>
       </c>
@@ -16338,7 +16586,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>10</v>
       </c>
@@ -16355,7 +16603,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>10</v>
       </c>
@@ -16372,7 +16620,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>10</v>
       </c>
@@ -16389,7 +16637,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>10</v>
       </c>
@@ -16406,7 +16654,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>10</v>
       </c>
@@ -16423,7 +16671,7 @@
         <v>41836</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>10</v>
       </c>

--- a/Data/2018-07-01_HS_datasheet.xlsx
+++ b/Data/2018-07-01_HS_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C8E0C9-0770-461B-B17F-86C393DCABBD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB0568A-CB12-4943-A865-74EE4A7C7542}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="255">
   <si>
     <t>cohort</t>
   </si>
@@ -727,6 +727,69 @@
   </si>
   <si>
     <t>0:23</t>
+  </si>
+  <si>
+    <t>12:57</t>
+  </si>
+  <si>
+    <t>1:23</t>
+  </si>
+  <si>
+    <t>14:02</t>
+  </si>
+  <si>
+    <t>0:31</t>
+  </si>
+  <si>
+    <t>5:48</t>
+  </si>
+  <si>
+    <t>7:36</t>
+  </si>
+  <si>
+    <t>16:04</t>
+  </si>
+  <si>
+    <t>22:54</t>
+  </si>
+  <si>
+    <t>11:31</t>
+  </si>
+  <si>
+    <t>12:24</t>
+  </si>
+  <si>
+    <t>22:24</t>
+  </si>
+  <si>
+    <t>7:48</t>
+  </si>
+  <si>
+    <t>17:27</t>
+  </si>
+  <si>
+    <t>5:24</t>
+  </si>
+  <si>
+    <t>6:34</t>
+  </si>
+  <si>
+    <t>0:25</t>
+  </si>
+  <si>
+    <t>17:55</t>
+  </si>
+  <si>
+    <t>11:01</t>
+  </si>
+  <si>
+    <t>21:40</t>
+  </si>
+  <si>
+    <t>5:44</t>
+  </si>
+  <si>
+    <t>1:32</t>
   </si>
 </sst>
 </file>
@@ -782,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -793,6 +856,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1132,11 +1197,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J755"/>
+  <dimension ref="A1:J781"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
+      <pane ySplit="1" topLeftCell="A697" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G717" sqref="G717"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1342,8 +1407,14 @@
       <c r="G7" s="2">
         <v>41.6</v>
       </c>
+      <c r="H7">
+        <v>17</v>
+      </c>
       <c r="I7" s="3">
         <v>41822</v>
+      </c>
+      <c r="J7" s="3">
+        <v>41839</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1736,8 +1807,14 @@
       <c r="F21" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="H21">
+        <v>19</v>
+      </c>
       <c r="I21" s="3">
         <v>41822</v>
+      </c>
+      <c r="J21" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1817,8 +1894,14 @@
       <c r="F24" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="H24">
+        <v>17</v>
+      </c>
       <c r="I24" s="3">
         <v>41822</v>
+      </c>
+      <c r="J24" s="3">
+        <v>41839</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1921,8 +2004,14 @@
       <c r="F28" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="H28">
+        <v>19</v>
+      </c>
       <c r="I28" s="3">
         <v>41822</v>
+      </c>
+      <c r="J28" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2234,8 +2323,14 @@
       <c r="F39" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="H39">
+        <v>17</v>
+      </c>
       <c r="I39" s="3">
         <v>41822</v>
+      </c>
+      <c r="J39" s="3">
+        <v>41839</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2257,8 +2352,14 @@
       <c r="F40" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="H40">
+        <v>17</v>
+      </c>
       <c r="I40" s="3">
         <v>41822</v>
+      </c>
+      <c r="J40" s="3">
+        <v>41839</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2885,8 +2986,14 @@
       <c r="E66" t="s">
         <v>13</v>
       </c>
+      <c r="H66">
+        <v>19</v>
+      </c>
       <c r="I66" s="3">
         <v>41822</v>
+      </c>
+      <c r="J66" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3131,8 +3238,14 @@
       <c r="E78" t="s">
         <v>11</v>
       </c>
+      <c r="H78">
+        <v>19</v>
+      </c>
       <c r="I78" s="3">
         <v>41822</v>
+      </c>
+      <c r="J78" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="79" spans="1:10" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3439,8 +3552,14 @@
       <c r="G90">
         <v>39.9</v>
       </c>
+      <c r="H90">
+        <v>17</v>
+      </c>
       <c r="I90" s="3">
         <v>41824</v>
+      </c>
+      <c r="J90" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -3491,8 +3610,14 @@
       <c r="G92">
         <v>38.1</v>
       </c>
+      <c r="H92">
+        <v>15</v>
+      </c>
       <c r="I92" s="3">
         <v>41824</v>
+      </c>
+      <c r="J92" s="3">
+        <v>41839</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -3514,8 +3639,14 @@
       <c r="F93" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="H93">
+        <v>15</v>
+      </c>
       <c r="I93" s="3">
         <v>41824</v>
+      </c>
+      <c r="J93" s="3">
+        <v>41839</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -3583,8 +3714,14 @@
       <c r="F96" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="H96">
+        <v>17</v>
+      </c>
       <c r="I96" s="3">
         <v>41824</v>
+      </c>
+      <c r="J96" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -3745,8 +3882,14 @@
       <c r="F102" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="H102">
+        <v>15</v>
+      </c>
       <c r="I102" s="3">
         <v>41824</v>
+      </c>
+      <c r="J102" s="3">
+        <v>41839</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -4126,8 +4269,14 @@
       <c r="F117" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="H117">
+        <v>15</v>
+      </c>
       <c r="I117" s="3">
         <v>41824</v>
+      </c>
+      <c r="J117" s="3">
+        <v>41839</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -4467,8 +4616,14 @@
       <c r="G130">
         <v>39.1</v>
       </c>
+      <c r="H130">
+        <v>15</v>
+      </c>
       <c r="I130" s="3">
         <v>41824</v>
+      </c>
+      <c r="J130" s="10">
+        <v>41839</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -4581,8 +4736,14 @@
       <c r="E136" t="s">
         <v>13</v>
       </c>
+      <c r="H136">
+        <v>15</v>
+      </c>
       <c r="I136" s="3">
         <v>41824</v>
+      </c>
+      <c r="J136" s="10">
+        <v>41839</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -4615,8 +4776,14 @@
       <c r="E138" t="s">
         <v>13</v>
       </c>
+      <c r="H138">
+        <v>17</v>
+      </c>
       <c r="I138" s="3">
         <v>41824</v>
+      </c>
+      <c r="J138" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -4912,8 +5079,14 @@
       <c r="E153" t="s">
         <v>11</v>
       </c>
+      <c r="H153">
+        <v>15</v>
+      </c>
       <c r="I153" s="3">
         <v>41824</v>
+      </c>
+      <c r="J153" s="3">
+        <v>41839</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -5016,8 +5189,14 @@
       <c r="G158">
         <v>41.7</v>
       </c>
+      <c r="H158" s="11">
+        <v>13</v>
+      </c>
       <c r="I158" s="3">
         <v>41828</v>
+      </c>
+      <c r="J158" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -5085,8 +5264,14 @@
       <c r="G161">
         <v>40.4</v>
       </c>
+      <c r="H161">
+        <v>13</v>
+      </c>
       <c r="I161" s="3">
         <v>41828</v>
+      </c>
+      <c r="J161" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -5108,8 +5293,14 @@
       <c r="G162">
         <v>40.200000000000003</v>
       </c>
+      <c r="H162">
+        <v>11</v>
+      </c>
       <c r="I162" s="3">
         <v>41828</v>
+      </c>
+      <c r="J162" s="3">
+        <v>41839</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -5154,8 +5345,14 @@
       <c r="G164">
         <v>41.7</v>
       </c>
+      <c r="H164">
+        <v>13</v>
+      </c>
       <c r="I164" s="3">
         <v>41828</v>
+      </c>
+      <c r="J164" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -5206,8 +5403,14 @@
       <c r="G166">
         <v>41.7</v>
       </c>
+      <c r="H166">
+        <v>13</v>
+      </c>
       <c r="I166" s="3">
         <v>41828</v>
+      </c>
+      <c r="J166" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -5489,8 +5692,14 @@
       <c r="F177" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="H177">
+        <v>11</v>
+      </c>
       <c r="I177" s="3">
         <v>41828</v>
+      </c>
+      <c r="J177" s="3">
+        <v>41839</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -5570,8 +5779,14 @@
       <c r="F180" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="H180">
+        <v>13</v>
+      </c>
       <c r="I180" s="3">
         <v>41828</v>
+      </c>
+      <c r="J180" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -5616,8 +5831,14 @@
       <c r="F182" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="H182">
+        <v>13</v>
+      </c>
       <c r="I182" s="3">
         <v>41828</v>
+      </c>
+      <c r="J182" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -5968,8 +6189,14 @@
       <c r="F196" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="H196">
+        <v>11</v>
+      </c>
       <c r="I196" s="3">
         <v>41828</v>
+      </c>
+      <c r="J196" s="3">
+        <v>41839</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -6043,8 +6270,14 @@
       <c r="G199">
         <v>39.299999999999997</v>
       </c>
+      <c r="H199">
+        <v>11</v>
+      </c>
       <c r="I199" s="3">
         <v>41828</v>
+      </c>
+      <c r="J199" s="3">
+        <v>41839</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -6228,8 +6461,14 @@
       <c r="G206">
         <v>38.700000000000003</v>
       </c>
+      <c r="H206">
+        <v>13</v>
+      </c>
       <c r="I206" s="3">
         <v>41828</v>
+      </c>
+      <c r="J206" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -6570,8 +6809,14 @@
       <c r="E224" t="s">
         <v>11</v>
       </c>
+      <c r="H224">
+        <v>13</v>
+      </c>
       <c r="I224" s="3">
         <v>41828</v>
+      </c>
+      <c r="J224" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -6656,8 +6901,14 @@
       <c r="E228" t="s">
         <v>11</v>
       </c>
+      <c r="H228">
+        <v>13</v>
+      </c>
       <c r="I228" s="3">
         <v>41828</v>
+      </c>
+      <c r="J228" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -6707,8 +6958,14 @@
       <c r="E231" t="s">
         <v>11</v>
       </c>
+      <c r="H231">
+        <v>13</v>
+      </c>
       <c r="I231" s="3">
         <v>41828</v>
+      </c>
+      <c r="J231" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -6724,8 +6981,14 @@
       <c r="E232" t="s">
         <v>11</v>
       </c>
+      <c r="H232">
+        <v>11</v>
+      </c>
       <c r="I232" s="3">
         <v>41828</v>
+      </c>
+      <c r="J232" s="3">
+        <v>41839</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -6758,8 +7021,14 @@
       <c r="E234" t="s">
         <v>11</v>
       </c>
+      <c r="H234">
+        <v>13</v>
+      </c>
       <c r="I234" s="3">
         <v>41828</v>
+      </c>
+      <c r="J234" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="235" spans="1:10" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6776,10 +7045,15 @@
         <v>11</v>
       </c>
       <c r="F235" s="5"/>
+      <c r="H235" s="4">
+        <v>11</v>
+      </c>
       <c r="I235" s="6">
         <v>41828</v>
       </c>
-      <c r="J235" s="6"/>
+      <c r="J235" s="6">
+        <v>41839</v>
+      </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
@@ -7180,8 +7454,14 @@
       <c r="F252" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="H252">
+        <v>12</v>
+      </c>
       <c r="I252" s="3">
         <v>41829</v>
+      </c>
+      <c r="J252" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
@@ -7203,8 +7483,14 @@
       <c r="F253" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="H253">
+        <v>12</v>
+      </c>
       <c r="I253" s="3">
         <v>41829</v>
+      </c>
+      <c r="J253" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
@@ -7226,8 +7512,14 @@
       <c r="F254" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="H254">
+        <v>12</v>
+      </c>
       <c r="I254" s="3">
         <v>41829</v>
+      </c>
+      <c r="J254" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
@@ -7399,8 +7691,14 @@
       <c r="F261" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="H261">
+        <v>10</v>
+      </c>
       <c r="I261" s="3">
         <v>41829</v>
+      </c>
+      <c r="J261" s="3">
+        <v>41839</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
@@ -7693,8 +7991,14 @@
       <c r="F273" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="H273">
+        <v>12</v>
+      </c>
       <c r="I273" s="3">
         <v>41829</v>
+      </c>
+      <c r="J273" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
@@ -7837,8 +8141,14 @@
       <c r="G279">
         <v>37</v>
       </c>
+      <c r="H279">
+        <v>12</v>
+      </c>
       <c r="I279" s="3">
         <v>41829</v>
+      </c>
+      <c r="J279" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
@@ -7883,8 +8193,14 @@
       <c r="G281">
         <v>39.700000000000003</v>
       </c>
+      <c r="H281">
+        <v>12</v>
+      </c>
       <c r="I281" s="3">
         <v>41829</v>
+      </c>
+      <c r="J281" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
@@ -7952,8 +8268,14 @@
       <c r="G284">
         <v>39.4</v>
       </c>
+      <c r="H284">
+        <v>12</v>
+      </c>
       <c r="I284" s="3">
         <v>41829</v>
+      </c>
+      <c r="J284" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
@@ -8101,8 +8423,14 @@
       <c r="E291" t="s">
         <v>13</v>
       </c>
+      <c r="H291">
+        <v>12</v>
+      </c>
       <c r="I291" s="3">
         <v>41829</v>
+      </c>
+      <c r="J291" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
@@ -8286,8 +8614,14 @@
       <c r="E301" t="s">
         <v>11</v>
       </c>
+      <c r="H301">
+        <v>12</v>
+      </c>
       <c r="I301" s="3">
         <v>41829</v>
+      </c>
+      <c r="J301" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
@@ -8303,8 +8637,14 @@
       <c r="E302" t="s">
         <v>11</v>
       </c>
+      <c r="H302">
+        <v>12</v>
+      </c>
       <c r="I302" s="3">
         <v>41829</v>
+      </c>
+      <c r="J302" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
@@ -8343,8 +8683,14 @@
       <c r="E304" t="s">
         <v>11</v>
       </c>
+      <c r="H304">
+        <v>10</v>
+      </c>
       <c r="I304" s="3">
         <v>41829</v>
+      </c>
+      <c r="J304" s="3">
+        <v>41839</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
@@ -8383,8 +8729,14 @@
       <c r="E306" t="s">
         <v>11</v>
       </c>
+      <c r="H306">
+        <v>12</v>
+      </c>
       <c r="I306" s="3">
         <v>41829</v>
+      </c>
+      <c r="J306" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
@@ -8434,8 +8786,14 @@
       <c r="E309" t="s">
         <v>11</v>
       </c>
+      <c r="H309">
+        <v>12</v>
+      </c>
       <c r="I309" s="3">
         <v>41829</v>
+      </c>
+      <c r="J309" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
@@ -8451,8 +8809,14 @@
       <c r="E310" t="s">
         <v>11</v>
       </c>
+      <c r="H310">
+        <v>12</v>
+      </c>
       <c r="I310" s="3">
         <v>41829</v>
+      </c>
+      <c r="J310" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
@@ -8503,10 +8867,15 @@
         <v>11</v>
       </c>
       <c r="F313" s="5"/>
+      <c r="H313" s="4">
+        <v>12</v>
+      </c>
       <c r="I313" s="6">
         <v>41829</v>
       </c>
-      <c r="J313" s="6"/>
+      <c r="J313" s="6">
+        <v>41841</v>
+      </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314">
@@ -8669,7 +9038,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>6</v>
       </c>
@@ -8692,7 +9061,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>6</v>
       </c>
@@ -8715,7 +9084,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>6</v>
       </c>
@@ -8738,7 +9107,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>6</v>
       </c>
@@ -8761,7 +9130,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>6</v>
       </c>
@@ -8784,7 +9153,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>6</v>
       </c>
@@ -8807,7 +9176,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>6</v>
       </c>
@@ -8830,7 +9199,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>6</v>
       </c>
@@ -8853,7 +9222,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>6</v>
       </c>
@@ -8876,7 +9245,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>6</v>
       </c>
@@ -8899,7 +9268,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>6</v>
       </c>
@@ -8922,7 +9291,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>6</v>
       </c>
@@ -8941,11 +9310,17 @@
       <c r="F332" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="H332">
+        <v>10</v>
+      </c>
       <c r="I332" s="3">
         <v>41831</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J332" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>6</v>
       </c>
@@ -8968,7 +9343,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>6</v>
       </c>
@@ -8991,7 +9366,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>6</v>
       </c>
@@ -9014,7 +9389,7 @@
         <v>41831</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>6</v>
       </c>
@@ -9079,8 +9454,14 @@
       <c r="F338" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="H338">
+        <v>10</v>
+      </c>
       <c r="I338" s="3">
         <v>41831</v>
+      </c>
+      <c r="J338" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
@@ -9125,8 +9506,14 @@
       <c r="F340" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="H340">
+        <v>10</v>
+      </c>
       <c r="I340" s="3">
         <v>41831</v>
+      </c>
+      <c r="J340" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
@@ -9724,8 +10111,14 @@
       <c r="G365">
         <v>37.700000000000003</v>
       </c>
+      <c r="H365">
+        <v>10</v>
+      </c>
       <c r="I365" s="3">
         <v>41831</v>
+      </c>
+      <c r="J365" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
@@ -9741,8 +10134,14 @@
       <c r="E366" t="s">
         <v>13</v>
       </c>
+      <c r="H366">
+        <v>10</v>
+      </c>
       <c r="I366" s="3">
         <v>41831</v>
+      </c>
+      <c r="J366" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
@@ -9826,8 +10225,14 @@
       <c r="E371" t="s">
         <v>13</v>
       </c>
+      <c r="H371">
+        <v>8</v>
+      </c>
       <c r="I371" s="3">
         <v>41831</v>
+      </c>
+      <c r="J371" s="3">
+        <v>41839</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.25">
@@ -9934,8 +10339,14 @@
       <c r="E377" t="s">
         <v>13</v>
       </c>
+      <c r="H377">
+        <v>10</v>
+      </c>
       <c r="I377" s="3">
         <v>41831</v>
+      </c>
+      <c r="J377" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.25">
@@ -9968,8 +10379,14 @@
       <c r="E379" t="s">
         <v>11</v>
       </c>
+      <c r="H379">
+        <v>10</v>
+      </c>
       <c r="I379" s="3">
         <v>41831</v>
+      </c>
+      <c r="J379" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.25">
@@ -10203,8 +10620,14 @@
       <c r="G392">
         <v>41.7</v>
       </c>
+      <c r="H392">
+        <v>9</v>
+      </c>
       <c r="I392" s="3">
         <v>41832</v>
+      </c>
+      <c r="J392" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.25">
@@ -10580,8 +11003,14 @@
       <c r="F408" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="H408">
+        <v>9</v>
+      </c>
       <c r="I408" s="3">
         <v>41832</v>
+      </c>
+      <c r="J408" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.25">
@@ -11717,8 +12146,14 @@
       <c r="E459" t="s">
         <v>11</v>
       </c>
+      <c r="H459">
+        <v>9</v>
+      </c>
       <c r="I459" s="3">
         <v>41832</v>
+      </c>
+      <c r="J459" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.25">
@@ -11734,8 +12169,14 @@
       <c r="E460" t="s">
         <v>11</v>
       </c>
+      <c r="H460">
+        <v>9</v>
+      </c>
       <c r="I460" s="3">
         <v>41832</v>
+      </c>
+      <c r="J460" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.25">
@@ -12286,8 +12727,14 @@
       <c r="F486" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="H486">
+        <v>7</v>
+      </c>
       <c r="I486" s="3">
         <v>41834</v>
+      </c>
+      <c r="J486" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.25">
@@ -13552,8 +13999,14 @@
       <c r="E546" t="s">
         <v>11</v>
       </c>
+      <c r="H546">
+        <v>7</v>
+      </c>
       <c r="I546" s="3">
         <v>41834</v>
+      </c>
+      <c r="J546" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="547" spans="1:10" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13905,9 +14358,15 @@
       <c r="F561" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="H561">
+        <v>6</v>
+      </c>
       <c r="I561" s="3">
         <v>41835</v>
       </c>
+      <c r="J561" s="3">
+        <v>41841</v>
+      </c>
     </row>
     <row r="562" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A562">
@@ -14972,7 +15431,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>9</v>
       </c>
@@ -14989,7 +15448,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>9</v>
       </c>
@@ -15006,7 +15465,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>9</v>
       </c>
@@ -15023,7 +15482,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>9</v>
       </c>
@@ -15040,7 +15499,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>9</v>
       </c>
@@ -15052,12 +15511,18 @@
       </c>
       <c r="E613" t="s">
         <v>11</v>
+      </c>
+      <c r="H613">
+        <v>6</v>
       </c>
       <c r="I613" s="3">
         <v>41835</v>
       </c>
-    </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J613" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>9</v>
       </c>
@@ -15074,7 +15539,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>9</v>
       </c>
@@ -15091,7 +15556,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>9</v>
       </c>
@@ -15104,11 +15569,17 @@
       <c r="E616" t="s">
         <v>11</v>
       </c>
+      <c r="H616">
+        <v>6</v>
+      </c>
       <c r="I616" s="3">
         <v>41835</v>
       </c>
-    </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J616" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>9</v>
       </c>
@@ -15125,7 +15596,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>9</v>
       </c>
@@ -15142,7 +15613,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>9</v>
       </c>
@@ -15159,7 +15630,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>9</v>
       </c>
@@ -15176,7 +15647,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>9</v>
       </c>
@@ -15193,7 +15664,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>9</v>
       </c>
@@ -15210,7 +15681,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>9</v>
       </c>
@@ -15227,7 +15698,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>9</v>
       </c>
@@ -15737,8 +16208,14 @@
       <c r="F645" s="1" t="s">
         <v>216</v>
       </c>
+      <c r="H645">
+        <v>5</v>
+      </c>
       <c r="I645" s="3">
         <v>41836</v>
+      </c>
+      <c r="J645" s="3">
+        <v>41841</v>
       </c>
     </row>
     <row r="646" spans="1:10" x14ac:dyDescent="0.25">
@@ -16961,8 +17438,14 @@
       <c r="E704" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G704">
+        <v>41.5</v>
+      </c>
+      <c r="I704" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="705" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>11</v>
       </c>
@@ -16978,8 +17461,14 @@
       <c r="E705" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G705">
+        <v>41.7</v>
+      </c>
+      <c r="I705" s="3">
+        <v>41842</v>
+      </c>
+    </row>
+    <row r="706" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>11</v>
       </c>
@@ -16995,8 +17484,14 @@
       <c r="E706" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G706">
+        <v>41.3</v>
+      </c>
+      <c r="I706" s="3">
+        <v>41843</v>
+      </c>
+    </row>
+    <row r="707" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>11</v>
       </c>
@@ -17012,8 +17507,14 @@
       <c r="E707" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G707">
+        <v>41.8</v>
+      </c>
+      <c r="I707" s="3">
+        <v>41844</v>
+      </c>
+    </row>
+    <row r="708" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>11</v>
       </c>
@@ -17029,8 +17530,14 @@
       <c r="E708" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G708">
+        <v>40</v>
+      </c>
+      <c r="I708" s="3">
+        <v>41845</v>
+      </c>
+    </row>
+    <row r="709" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>11</v>
       </c>
@@ -17046,8 +17553,14 @@
       <c r="E709" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G709">
+        <v>41</v>
+      </c>
+      <c r="I709" s="3">
+        <v>41846</v>
+      </c>
+    </row>
+    <row r="710" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>11</v>
       </c>
@@ -17063,8 +17576,14 @@
       <c r="E710" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G710">
+        <v>41.3</v>
+      </c>
+      <c r="I710" s="3">
+        <v>41847</v>
+      </c>
+    </row>
+    <row r="711" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>11</v>
       </c>
@@ -17080,8 +17599,14 @@
       <c r="E711" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G711">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="I711" s="3">
+        <v>41848</v>
+      </c>
+    </row>
+    <row r="712" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>11</v>
       </c>
@@ -17097,8 +17622,14 @@
       <c r="E712" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G712">
+        <v>41.7</v>
+      </c>
+      <c r="I712" s="3">
+        <v>41849</v>
+      </c>
+    </row>
+    <row r="713" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>11</v>
       </c>
@@ -17114,8 +17645,14 @@
       <c r="E713" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G713">
+        <v>41.3</v>
+      </c>
+      <c r="I713" s="3">
+        <v>41850</v>
+      </c>
+    </row>
+    <row r="714" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>11</v>
       </c>
@@ -17131,8 +17668,14 @@
       <c r="E714" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G714">
+        <v>41.5</v>
+      </c>
+      <c r="I714" s="3">
+        <v>41851</v>
+      </c>
+    </row>
+    <row r="715" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>11</v>
       </c>
@@ -17148,8 +17691,14 @@
       <c r="E715" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G715">
+        <v>41.5</v>
+      </c>
+      <c r="I715" s="3">
+        <v>41852</v>
+      </c>
+    </row>
+    <row r="716" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>11</v>
       </c>
@@ -17165,8 +17714,14 @@
       <c r="E716" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G716">
+        <v>38.1</v>
+      </c>
+      <c r="I716" s="3">
+        <v>41853</v>
+      </c>
+    </row>
+    <row r="717" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>11</v>
       </c>
@@ -17182,8 +17737,14 @@
       <c r="E717" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F717" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I717" s="3">
+        <v>41854</v>
+      </c>
+    </row>
+    <row r="718" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>11</v>
       </c>
@@ -17199,8 +17760,14 @@
       <c r="E718" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F718" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I718" s="3">
+        <v>41855</v>
+      </c>
+    </row>
+    <row r="719" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>11</v>
       </c>
@@ -17216,8 +17783,14 @@
       <c r="E719" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F719" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I719" s="3">
+        <v>41856</v>
+      </c>
+    </row>
+    <row r="720" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>11</v>
       </c>
@@ -17233,8 +17806,14 @@
       <c r="E720" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F720" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I720" s="3">
+        <v>41857</v>
+      </c>
+    </row>
+    <row r="721" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>11</v>
       </c>
@@ -17250,8 +17829,14 @@
       <c r="E721" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F721" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I721" s="3">
+        <v>41858</v>
+      </c>
+    </row>
+    <row r="722" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>11</v>
       </c>
@@ -17267,8 +17852,14 @@
       <c r="E722" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F722" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I722" s="3">
+        <v>41859</v>
+      </c>
+    </row>
+    <row r="723" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>11</v>
       </c>
@@ -17284,8 +17875,14 @@
       <c r="E723" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F723" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I723" s="3">
+        <v>41860</v>
+      </c>
+    </row>
+    <row r="724" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>11</v>
       </c>
@@ -17301,8 +17898,14 @@
       <c r="E724" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F724" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I724" s="3">
+        <v>41861</v>
+      </c>
+    </row>
+    <row r="725" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>11</v>
       </c>
@@ -17318,8 +17921,14 @@
       <c r="E725" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F725" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I725" s="3">
+        <v>41862</v>
+      </c>
+    </row>
+    <row r="726" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>11</v>
       </c>
@@ -17335,8 +17944,14 @@
       <c r="E726" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F726" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I726" s="3">
+        <v>41863</v>
+      </c>
+    </row>
+    <row r="727" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>11</v>
       </c>
@@ -17352,8 +17967,14 @@
       <c r="E727" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F727" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I727" s="3">
+        <v>41864</v>
+      </c>
+    </row>
+    <row r="728" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>11</v>
       </c>
@@ -17369,8 +17990,14 @@
       <c r="E728" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F728" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I728" s="3">
+        <v>41865</v>
+      </c>
+    </row>
+    <row r="729" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>11</v>
       </c>
@@ -17386,8 +18013,14 @@
       <c r="E729" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F729" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I729" s="3">
+        <v>41866</v>
+      </c>
+    </row>
+    <row r="730" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>11</v>
       </c>
@@ -17403,8 +18036,14 @@
       <c r="E730" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F730" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I730" s="3">
+        <v>41867</v>
+      </c>
+    </row>
+    <row r="731" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>11</v>
       </c>
@@ -17420,8 +18059,14 @@
       <c r="E731" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F731" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I731" s="3">
+        <v>41868</v>
+      </c>
+    </row>
+    <row r="732" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>11</v>
       </c>
@@ -17437,8 +18082,14 @@
       <c r="E732" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F732" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I732" s="3">
+        <v>41869</v>
+      </c>
+    </row>
+    <row r="733" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>11</v>
       </c>
@@ -17454,8 +18105,14 @@
       <c r="E733" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F733" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I733" s="3">
+        <v>41870</v>
+      </c>
+    </row>
+    <row r="734" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>11</v>
       </c>
@@ -17471,8 +18128,14 @@
       <c r="E734" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F734" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I734" s="3">
+        <v>41871</v>
+      </c>
+    </row>
+    <row r="735" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>11</v>
       </c>
@@ -17488,8 +18151,14 @@
       <c r="E735" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F735" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I735" s="3">
+        <v>41872</v>
+      </c>
+    </row>
+    <row r="736" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>11</v>
       </c>
@@ -17505,8 +18174,14 @@
       <c r="E736" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F736" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I736" s="3">
+        <v>41873</v>
+      </c>
+    </row>
+    <row r="737" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>11</v>
       </c>
@@ -17522,8 +18197,14 @@
       <c r="E737" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F737" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I737" s="3">
+        <v>41874</v>
+      </c>
+    </row>
+    <row r="738" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>11</v>
       </c>
@@ -17539,8 +18220,14 @@
       <c r="E738" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F738" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I738" s="3">
+        <v>41875</v>
+      </c>
+    </row>
+    <row r="739" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>11</v>
       </c>
@@ -17556,8 +18243,14 @@
       <c r="E739" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F739" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I739" s="3">
+        <v>41876</v>
+      </c>
+    </row>
+    <row r="740" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>11</v>
       </c>
@@ -17573,8 +18266,14 @@
       <c r="E740" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F740" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I740" s="3">
+        <v>41877</v>
+      </c>
+    </row>
+    <row r="741" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>11</v>
       </c>
@@ -17590,8 +18289,14 @@
       <c r="E741" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F741" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I741" s="3">
+        <v>41878</v>
+      </c>
+    </row>
+    <row r="742" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>11</v>
       </c>
@@ -17607,8 +18312,14 @@
       <c r="E742" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F742" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I742" s="3">
+        <v>41879</v>
+      </c>
+    </row>
+    <row r="743" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>11</v>
       </c>
@@ -17624,8 +18335,14 @@
       <c r="E743" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G743">
+        <v>39</v>
+      </c>
+      <c r="I743" s="3">
+        <v>41880</v>
+      </c>
+    </row>
+    <row r="744" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>11</v>
       </c>
@@ -17641,8 +18358,14 @@
       <c r="E744" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G744">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="I744" s="3">
+        <v>41881</v>
+      </c>
+    </row>
+    <row r="745" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>11</v>
       </c>
@@ -17658,8 +18381,14 @@
       <c r="E745" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G745">
+        <v>39.6</v>
+      </c>
+      <c r="I745" s="3">
+        <v>41882</v>
+      </c>
+    </row>
+    <row r="746" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>11</v>
       </c>
@@ -17675,8 +18404,14 @@
       <c r="E746" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G746">
+        <v>39</v>
+      </c>
+      <c r="I746" s="3">
+        <v>41883</v>
+      </c>
+    </row>
+    <row r="747" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>11</v>
       </c>
@@ -17692,8 +18427,14 @@
       <c r="E747" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G747">
+        <v>38.6</v>
+      </c>
+      <c r="I747" s="3">
+        <v>41884</v>
+      </c>
+    </row>
+    <row r="748" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>11</v>
       </c>
@@ -17709,8 +18450,14 @@
       <c r="E748" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G748">
+        <v>39.4</v>
+      </c>
+      <c r="I748" s="3">
+        <v>41885</v>
+      </c>
+    </row>
+    <row r="749" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>11</v>
       </c>
@@ -17726,8 +18473,14 @@
       <c r="E749" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G749">
+        <v>39.4</v>
+      </c>
+      <c r="I749" s="3">
+        <v>41886</v>
+      </c>
+    </row>
+    <row r="750" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>11</v>
       </c>
@@ -17743,8 +18496,14 @@
       <c r="E750" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G750">
+        <v>36.9</v>
+      </c>
+      <c r="I750" s="3">
+        <v>41887</v>
+      </c>
+    </row>
+    <row r="751" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>11</v>
       </c>
@@ -17760,8 +18519,14 @@
       <c r="E751" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G751">
+        <v>38.5</v>
+      </c>
+      <c r="I751" s="3">
+        <v>41888</v>
+      </c>
+    </row>
+    <row r="752" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>11</v>
       </c>
@@ -17777,8 +18542,14 @@
       <c r="E752" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G752">
+        <v>39.6</v>
+      </c>
+      <c r="I752" s="3">
+        <v>41889</v>
+      </c>
+    </row>
+    <row r="753" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>11</v>
       </c>
@@ -17794,8 +18565,14 @@
       <c r="E753" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G753">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="I753" s="3">
+        <v>41890</v>
+      </c>
+    </row>
+    <row r="754" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>11</v>
       </c>
@@ -17811,8 +18588,14 @@
       <c r="E754" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G754">
+        <v>38.6</v>
+      </c>
+      <c r="I754" s="3">
+        <v>41891</v>
+      </c>
+    </row>
+    <row r="755" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>11</v>
       </c>
@@ -17827,6 +18610,377 @@
       </c>
       <c r="E755" t="s">
         <v>13</v>
+      </c>
+      <c r="G755">
+        <v>36.5</v>
+      </c>
+      <c r="I755" s="3">
+        <v>41892</v>
+      </c>
+    </row>
+    <row r="756" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A756">
+        <v>11</v>
+      </c>
+      <c r="B756" t="s">
+        <v>9</v>
+      </c>
+      <c r="C756" t="s">
+        <v>127</v>
+      </c>
+      <c r="E756" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="757" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A757">
+        <v>11</v>
+      </c>
+      <c r="B757" t="s">
+        <v>12</v>
+      </c>
+      <c r="C757" t="s">
+        <v>127</v>
+      </c>
+      <c r="E757" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="758" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A758">
+        <v>11</v>
+      </c>
+      <c r="B758" t="s">
+        <v>14</v>
+      </c>
+      <c r="C758" t="s">
+        <v>127</v>
+      </c>
+      <c r="E758" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="759" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A759">
+        <v>11</v>
+      </c>
+      <c r="B759" t="s">
+        <v>15</v>
+      </c>
+      <c r="C759" t="s">
+        <v>127</v>
+      </c>
+      <c r="E759" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="760" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A760">
+        <v>11</v>
+      </c>
+      <c r="B760" t="s">
+        <v>16</v>
+      </c>
+      <c r="C760" t="s">
+        <v>127</v>
+      </c>
+      <c r="E760" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="761" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A761">
+        <v>11</v>
+      </c>
+      <c r="B761" t="s">
+        <v>17</v>
+      </c>
+      <c r="C761" t="s">
+        <v>127</v>
+      </c>
+      <c r="E761" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="762" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A762">
+        <v>11</v>
+      </c>
+      <c r="B762" t="s">
+        <v>18</v>
+      </c>
+      <c r="C762" t="s">
+        <v>127</v>
+      </c>
+      <c r="E762" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="763" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A763">
+        <v>11</v>
+      </c>
+      <c r="B763" t="s">
+        <v>19</v>
+      </c>
+      <c r="C763" t="s">
+        <v>127</v>
+      </c>
+      <c r="E763" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="764" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A764">
+        <v>11</v>
+      </c>
+      <c r="B764" t="s">
+        <v>20</v>
+      </c>
+      <c r="C764" t="s">
+        <v>127</v>
+      </c>
+      <c r="E764" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="765" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A765">
+        <v>11</v>
+      </c>
+      <c r="B765" t="s">
+        <v>21</v>
+      </c>
+      <c r="C765" t="s">
+        <v>127</v>
+      </c>
+      <c r="E765" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="766" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A766">
+        <v>11</v>
+      </c>
+      <c r="B766" t="s">
+        <v>22</v>
+      </c>
+      <c r="C766" t="s">
+        <v>127</v>
+      </c>
+      <c r="E766" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="767" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A767">
+        <v>11</v>
+      </c>
+      <c r="B767" t="s">
+        <v>23</v>
+      </c>
+      <c r="C767" t="s">
+        <v>127</v>
+      </c>
+      <c r="E767" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="768" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A768">
+        <v>11</v>
+      </c>
+      <c r="B768" t="s">
+        <v>24</v>
+      </c>
+      <c r="C768" t="s">
+        <v>127</v>
+      </c>
+      <c r="E768" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A769">
+        <v>11</v>
+      </c>
+      <c r="B769" t="s">
+        <v>9</v>
+      </c>
+      <c r="C769" t="s">
+        <v>127</v>
+      </c>
+      <c r="E769" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A770">
+        <v>11</v>
+      </c>
+      <c r="B770" t="s">
+        <v>12</v>
+      </c>
+      <c r="C770" t="s">
+        <v>127</v>
+      </c>
+      <c r="E770" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A771">
+        <v>11</v>
+      </c>
+      <c r="B771" t="s">
+        <v>14</v>
+      </c>
+      <c r="C771" t="s">
+        <v>127</v>
+      </c>
+      <c r="E771" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A772">
+        <v>11</v>
+      </c>
+      <c r="B772" t="s">
+        <v>15</v>
+      </c>
+      <c r="C772" t="s">
+        <v>127</v>
+      </c>
+      <c r="E772" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A773">
+        <v>11</v>
+      </c>
+      <c r="B773" t="s">
+        <v>16</v>
+      </c>
+      <c r="C773" t="s">
+        <v>127</v>
+      </c>
+      <c r="E773" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A774">
+        <v>11</v>
+      </c>
+      <c r="B774" t="s">
+        <v>17</v>
+      </c>
+      <c r="C774" t="s">
+        <v>127</v>
+      </c>
+      <c r="E774" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A775">
+        <v>11</v>
+      </c>
+      <c r="B775" t="s">
+        <v>18</v>
+      </c>
+      <c r="C775" t="s">
+        <v>127</v>
+      </c>
+      <c r="E775" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A776">
+        <v>11</v>
+      </c>
+      <c r="B776" t="s">
+        <v>19</v>
+      </c>
+      <c r="C776" t="s">
+        <v>127</v>
+      </c>
+      <c r="E776" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A777">
+        <v>11</v>
+      </c>
+      <c r="B777" t="s">
+        <v>20</v>
+      </c>
+      <c r="C777" t="s">
+        <v>127</v>
+      </c>
+      <c r="E777" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A778">
+        <v>11</v>
+      </c>
+      <c r="B778" t="s">
+        <v>21</v>
+      </c>
+      <c r="C778" t="s">
+        <v>127</v>
+      </c>
+      <c r="E778" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A779">
+        <v>11</v>
+      </c>
+      <c r="B779" t="s">
+        <v>22</v>
+      </c>
+      <c r="C779" t="s">
+        <v>127</v>
+      </c>
+      <c r="E779" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A780">
+        <v>11</v>
+      </c>
+      <c r="B780" t="s">
+        <v>23</v>
+      </c>
+      <c r="C780" t="s">
+        <v>127</v>
+      </c>
+      <c r="E780" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A781">
+        <v>11</v>
+      </c>
+      <c r="B781" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C781" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D781" s="4"/>
+      <c r="E781" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2018-07-01_HS_datasheet.xlsx
+++ b/Data/2018-07-01_HS_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB0568A-CB12-4943-A865-74EE4A7C7542}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1544B6A-E344-4945-B7DD-934D61971F04}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1200,8 +1200,8 @@
   <dimension ref="A1:J781"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A697" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G717" sqref="G717"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H765" sqref="H765"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1321,13 +1321,13 @@
         <v>41</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I4" s="3">
         <v>41822</v>
       </c>
       <c r="J4" s="3">
-        <v>41834</v>
+        <v>41843</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1784,8 +1784,14 @@
       <c r="F20" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="H20">
+        <v>21</v>
+      </c>
       <c r="I20" s="3">
         <v>41822</v>
+      </c>
+      <c r="J20" s="3">
+        <v>41843</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -3691,8 +3697,14 @@
       <c r="F95" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="H95">
+        <v>19</v>
+      </c>
       <c r="I95" s="3">
         <v>41824</v>
+      </c>
+      <c r="J95" s="3">
+        <v>41843</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -4930,8 +4942,14 @@
       <c r="E146" t="s">
         <v>11</v>
       </c>
+      <c r="H146">
+        <v>19</v>
+      </c>
       <c r="I146" s="3">
         <v>41824</v>
+      </c>
+      <c r="J146" s="3">
+        <v>41843</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -5322,8 +5340,14 @@
       <c r="G163">
         <v>41.7</v>
       </c>
+      <c r="H163">
+        <v>15</v>
+      </c>
       <c r="I163" s="3">
         <v>41828</v>
+      </c>
+      <c r="J163" s="3">
+        <v>41843</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -5484,8 +5508,14 @@
       <c r="G169">
         <v>39.799999999999997</v>
       </c>
+      <c r="H169">
+        <v>15</v>
+      </c>
       <c r="I169" s="3">
         <v>41828</v>
+      </c>
+      <c r="J169" s="3">
+        <v>41843</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -5860,8 +5890,14 @@
       <c r="F183" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="H183">
+        <v>15</v>
+      </c>
       <c r="I183" s="3">
         <v>41828</v>
+      </c>
+      <c r="J183" s="3">
+        <v>41843</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -6593,8 +6629,14 @@
       <c r="E212" t="s">
         <v>13</v>
       </c>
+      <c r="H212">
+        <v>14</v>
+      </c>
       <c r="I212" s="3">
         <v>41828</v>
+      </c>
+      <c r="J212" s="3">
+        <v>41842</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
@@ -7172,8 +7214,14 @@
       <c r="G240">
         <v>41.6</v>
       </c>
+      <c r="H240">
+        <v>13</v>
+      </c>
       <c r="I240" s="3">
         <v>41829</v>
+      </c>
+      <c r="J240" s="3">
+        <v>41842</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
@@ -7264,8 +7312,14 @@
       <c r="G244">
         <v>41.6</v>
       </c>
+      <c r="H244">
+        <v>14</v>
+      </c>
       <c r="I244" s="3">
         <v>41829</v>
+      </c>
+      <c r="J244" s="3">
+        <v>41843</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
@@ -7622,8 +7676,14 @@
       <c r="F258" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="H258">
+        <v>14</v>
+      </c>
       <c r="I258" s="3">
         <v>41829</v>
+      </c>
+      <c r="J258" s="3">
+        <v>41843</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
@@ -7668,8 +7728,14 @@
       <c r="F260" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="H260">
+        <v>13</v>
+      </c>
       <c r="I260" s="3">
         <v>41829</v>
+      </c>
+      <c r="J260" s="3">
+        <v>41842</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
@@ -7772,8 +7838,14 @@
       <c r="F264" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="H264">
+        <v>13</v>
+      </c>
       <c r="I264" s="3">
         <v>41829</v>
+      </c>
+      <c r="J264" s="3">
+        <v>41842</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
@@ -7818,8 +7890,14 @@
       <c r="F266" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="H266">
+        <v>14</v>
+      </c>
       <c r="I266" s="3">
         <v>41829</v>
+      </c>
+      <c r="J266" s="3">
+        <v>41843</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
@@ -8067,13 +8145,13 @@
         <v>37.299999999999997</v>
       </c>
       <c r="H276">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I276" s="3">
         <v>41829</v>
       </c>
       <c r="J276" s="3">
-        <v>41837</v>
+        <v>41843</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
@@ -8965,8 +9043,14 @@
       <c r="G317">
         <v>40.6</v>
       </c>
+      <c r="H317">
+        <v>12</v>
+      </c>
       <c r="I317" s="3">
         <v>41831</v>
+      </c>
+      <c r="J317" s="3">
+        <v>41843</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
@@ -9011,8 +9095,14 @@
       <c r="G319">
         <v>40.6</v>
       </c>
+      <c r="H319">
+        <v>12</v>
+      </c>
       <c r="I319" s="3">
         <v>41831</v>
+      </c>
+      <c r="J319" s="3">
+        <v>41843</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
@@ -9034,8 +9124,14 @@
       <c r="G320">
         <v>41.7</v>
       </c>
+      <c r="H320">
+        <v>11</v>
+      </c>
       <c r="I320" s="3">
         <v>41831</v>
+      </c>
+      <c r="J320" s="3">
+        <v>41842</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
@@ -9103,8 +9199,14 @@
       <c r="G323">
         <v>40.6</v>
       </c>
+      <c r="H323">
+        <v>12</v>
+      </c>
       <c r="I323" s="3">
         <v>41831</v>
+      </c>
+      <c r="J323" s="3">
+        <v>41843</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
@@ -9126,8 +9228,14 @@
       <c r="G324">
         <v>39.9</v>
       </c>
+      <c r="H324">
+        <v>12</v>
+      </c>
       <c r="I324" s="3">
         <v>41831</v>
+      </c>
+      <c r="J324" s="3">
+        <v>41843</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
@@ -9218,8 +9326,14 @@
       <c r="F328" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="H328">
+        <v>12</v>
+      </c>
       <c r="I328" s="3">
         <v>41831</v>
+      </c>
+      <c r="J328" s="3">
+        <v>41843</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
@@ -9287,8 +9401,14 @@
       <c r="F331" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="H331">
+        <v>12</v>
+      </c>
       <c r="I331" s="3">
         <v>41831</v>
+      </c>
+      <c r="J331" s="3">
+        <v>41843</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
@@ -9385,8 +9505,14 @@
       <c r="F335" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="H335">
+        <v>12</v>
+      </c>
       <c r="I335" s="3">
         <v>41831</v>
+      </c>
+      <c r="J335" s="3">
+        <v>41843</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
@@ -9944,8 +10070,14 @@
       <c r="G358">
         <v>38.4</v>
       </c>
+      <c r="H358">
+        <v>12</v>
+      </c>
       <c r="I358" s="3">
         <v>41831</v>
+      </c>
+      <c r="J358" s="3">
+        <v>41843</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
@@ -10065,8 +10197,14 @@
       <c r="G363">
         <v>38.9</v>
       </c>
+      <c r="H363">
+        <v>12</v>
+      </c>
       <c r="I363" s="3">
         <v>41831</v>
+      </c>
+      <c r="J363" s="3">
+        <v>41843</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
@@ -10436,8 +10574,14 @@
       <c r="E382" t="s">
         <v>11</v>
       </c>
+      <c r="H382">
+        <v>12</v>
+      </c>
       <c r="I382" s="3">
         <v>41831</v>
+      </c>
+      <c r="J382" s="3">
+        <v>41843</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
@@ -10544,8 +10688,14 @@
       <c r="E388" t="s">
         <v>11</v>
       </c>
+      <c r="H388">
+        <v>12</v>
+      </c>
       <c r="I388" s="3">
         <v>41831</v>
+      </c>
+      <c r="J388" s="3">
+        <v>41843</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
@@ -10596,10 +10746,15 @@
         <v>11</v>
       </c>
       <c r="F391" s="5"/>
+      <c r="H391" s="4">
+        <v>12</v>
+      </c>
       <c r="I391" s="6">
         <v>41831</v>
       </c>
-      <c r="J391" s="6"/>
+      <c r="J391" s="6">
+        <v>41843</v>
+      </c>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392">
@@ -11297,8 +11452,14 @@
       <c r="F420" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="H420">
+        <v>11</v>
+      </c>
       <c r="I420" s="3">
         <v>41832</v>
+      </c>
+      <c r="J420" s="3">
+        <v>41843</v>
       </c>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.25">
@@ -11418,8 +11579,14 @@
       <c r="F425" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="H425">
+        <v>11</v>
+      </c>
       <c r="I425" s="3">
         <v>41832</v>
+      </c>
+      <c r="J425" s="3">
+        <v>41843</v>
       </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.25">
@@ -11487,8 +11654,14 @@
       <c r="F428" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="H428">
+        <v>10</v>
+      </c>
       <c r="I428" s="3">
         <v>41832</v>
+      </c>
+      <c r="J428" s="3">
+        <v>41842</v>
       </c>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.25">
@@ -11839,8 +12012,14 @@
       <c r="G442">
         <v>38.1</v>
       </c>
+      <c r="H442">
+        <v>11</v>
+      </c>
       <c r="I442" s="3">
         <v>41832</v>
+      </c>
+      <c r="J442" s="3">
+        <v>41843</v>
       </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.25">
@@ -11862,8 +12041,14 @@
       <c r="G443">
         <v>36.700000000000003</v>
       </c>
+      <c r="H443">
+        <v>11</v>
+      </c>
       <c r="I443" s="3">
         <v>41832</v>
+      </c>
+      <c r="J443" s="3">
+        <v>41843</v>
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.25">
@@ -11987,8 +12172,14 @@
       <c r="E450" t="s">
         <v>13</v>
       </c>
+      <c r="H450">
+        <v>11</v>
+      </c>
       <c r="I450" s="3">
         <v>41832</v>
+      </c>
+      <c r="J450" s="3">
+        <v>41843</v>
       </c>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.25">
@@ -12260,8 +12451,14 @@
       <c r="E465" t="s">
         <v>11</v>
       </c>
+      <c r="H465">
+        <v>11</v>
+      </c>
       <c r="I465" s="3">
         <v>41832</v>
+      </c>
+      <c r="J465" s="3">
+        <v>41843</v>
       </c>
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.25">
@@ -13697,7 +13894,7 @@
         <v>41834</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>8</v>
       </c>
@@ -13714,7 +13911,7 @@
         <v>41834</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>8</v>
       </c>
@@ -13731,7 +13928,7 @@
         <v>41834</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>8</v>
       </c>
@@ -13748,7 +13945,7 @@
         <v>41834</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>8</v>
       </c>
@@ -13765,7 +13962,7 @@
         <v>41834</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>8</v>
       </c>
@@ -13778,11 +13975,17 @@
       <c r="E533" t="s">
         <v>13</v>
       </c>
+      <c r="H533">
+        <v>9</v>
+      </c>
       <c r="I533" s="3">
         <v>41834</v>
       </c>
-    </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J533" s="3">
+        <v>41843</v>
+      </c>
+    </row>
+    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>8</v>
       </c>
@@ -13799,7 +14002,7 @@
         <v>41834</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>8</v>
       </c>
@@ -13816,7 +14019,7 @@
         <v>41834</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>8</v>
       </c>
@@ -13833,7 +14036,7 @@
         <v>41834</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>8</v>
       </c>
@@ -13850,7 +14053,7 @@
         <v>41834</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>8</v>
       </c>
@@ -13867,7 +14070,7 @@
         <v>41834</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>8</v>
       </c>
@@ -13884,7 +14087,7 @@
         <v>41834</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>8</v>
       </c>
@@ -13901,7 +14104,7 @@
         <v>41834</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>8</v>
       </c>
@@ -13918,7 +14121,7 @@
         <v>41834</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>8</v>
       </c>
@@ -13935,7 +14138,7 @@
         <v>41834</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>8</v>
       </c>
@@ -13952,7 +14155,7 @@
         <v>41834</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>8</v>
       </c>
@@ -14220,9 +14423,15 @@
       <c r="G555">
         <v>39.200000000000003</v>
       </c>
+      <c r="H555">
+        <v>8</v>
+      </c>
       <c r="I555" s="3">
         <v>41835</v>
       </c>
+      <c r="J555" s="3">
+        <v>41843</v>
+      </c>
     </row>
     <row r="556" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A556">
@@ -14848,9 +15057,15 @@
       <c r="F581" s="1" t="s">
         <v>208</v>
       </c>
+      <c r="H581">
+        <v>8</v>
+      </c>
       <c r="I581" s="3">
         <v>41835</v>
       </c>
+      <c r="J581" s="3">
+        <v>41843</v>
+      </c>
     </row>
     <row r="582" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A582">
@@ -15153,9 +15368,15 @@
       <c r="G594">
         <v>37.200000000000003</v>
       </c>
+      <c r="H594">
+        <v>8</v>
+      </c>
       <c r="I594" s="3">
         <v>41835</v>
       </c>
+      <c r="J594" s="3">
+        <v>41843</v>
+      </c>
     </row>
     <row r="595" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A595">
@@ -15176,9 +15397,15 @@
       <c r="G595">
         <v>38.799999999999997</v>
       </c>
+      <c r="H595">
+        <v>8</v>
+      </c>
       <c r="I595" s="3">
         <v>41835</v>
       </c>
+      <c r="J595" s="3">
+        <v>41843</v>
+      </c>
     </row>
     <row r="596" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A596">
@@ -15694,8 +15921,14 @@
       <c r="E623" t="s">
         <v>11</v>
       </c>
+      <c r="H623">
+        <v>8</v>
+      </c>
       <c r="I623" s="3">
         <v>41835</v>
+      </c>
+      <c r="J623" s="3">
+        <v>41843</v>
       </c>
     </row>
     <row r="624" spans="1:10" x14ac:dyDescent="0.25">
@@ -16260,9 +16493,15 @@
       <c r="F647" s="1" t="s">
         <v>217</v>
       </c>
+      <c r="H647">
+        <v>6</v>
+      </c>
       <c r="I647" s="3">
         <v>41836</v>
       </c>
+      <c r="J647" s="3">
+        <v>41842</v>
+      </c>
     </row>
     <row r="648" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A648">
@@ -17042,8 +17281,14 @@
       <c r="E681" t="s">
         <v>13</v>
       </c>
+      <c r="H681">
+        <v>7</v>
+      </c>
       <c r="I681" s="3">
         <v>41836</v>
+      </c>
+      <c r="J681" s="3">
+        <v>41843</v>
       </c>
     </row>
     <row r="682" spans="1:10" x14ac:dyDescent="0.25">
@@ -17445,7 +17690,7 @@
         <v>41841</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>11</v>
       </c>
@@ -17464,11 +17709,17 @@
       <c r="G705">
         <v>41.7</v>
       </c>
+      <c r="H705">
+        <v>0</v>
+      </c>
       <c r="I705" s="3">
-        <v>41842</v>
-      </c>
-    </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+      <c r="J705" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="706" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>11</v>
       </c>
@@ -17488,10 +17739,10 @@
         <v>41.3</v>
       </c>
       <c r="I706" s="3">
-        <v>41843</v>
-      </c>
-    </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="707" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>11</v>
       </c>
@@ -17511,10 +17762,10 @@
         <v>41.8</v>
       </c>
       <c r="I707" s="3">
-        <v>41844</v>
-      </c>
-    </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="708" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>11</v>
       </c>
@@ -17534,10 +17785,10 @@
         <v>40</v>
       </c>
       <c r="I708" s="3">
-        <v>41845</v>
-      </c>
-    </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="709" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>11</v>
       </c>
@@ -17556,11 +17807,17 @@
       <c r="G709">
         <v>41</v>
       </c>
+      <c r="H709">
+        <v>0</v>
+      </c>
       <c r="I709" s="3">
-        <v>41846</v>
-      </c>
-    </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+      <c r="J709" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="710" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>11</v>
       </c>
@@ -17579,11 +17836,17 @@
       <c r="G710">
         <v>41.3</v>
       </c>
+      <c r="H710">
+        <v>0</v>
+      </c>
       <c r="I710" s="3">
-        <v>41847</v>
-      </c>
-    </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+      <c r="J710" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="711" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>11</v>
       </c>
@@ -17603,10 +17866,10 @@
         <v>39.299999999999997</v>
       </c>
       <c r="I711" s="3">
-        <v>41848</v>
-      </c>
-    </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="712" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>11</v>
       </c>
@@ -17625,11 +17888,17 @@
       <c r="G712">
         <v>41.7</v>
       </c>
+      <c r="H712">
+        <v>0</v>
+      </c>
       <c r="I712" s="3">
-        <v>41849</v>
-      </c>
-    </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+      <c r="J712" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="713" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>11</v>
       </c>
@@ -17649,10 +17918,10 @@
         <v>41.3</v>
       </c>
       <c r="I713" s="3">
-        <v>41850</v>
-      </c>
-    </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="714" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>11</v>
       </c>
@@ -17671,11 +17940,17 @@
       <c r="G714">
         <v>41.5</v>
       </c>
+      <c r="H714">
+        <v>0</v>
+      </c>
       <c r="I714" s="3">
-        <v>41851</v>
-      </c>
-    </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+      <c r="J714" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="715" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>11</v>
       </c>
@@ -17695,10 +17970,10 @@
         <v>41.5</v>
       </c>
       <c r="I715" s="3">
-        <v>41852</v>
-      </c>
-    </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="716" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>11</v>
       </c>
@@ -17718,10 +17993,10 @@
         <v>38.1</v>
       </c>
       <c r="I716" s="3">
-        <v>41853</v>
-      </c>
-    </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="717" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>11</v>
       </c>
@@ -17741,10 +18016,10 @@
         <v>234</v>
       </c>
       <c r="I717" s="3">
-        <v>41854</v>
-      </c>
-    </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="718" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>11</v>
       </c>
@@ -17763,11 +18038,17 @@
       <c r="F718" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="H718">
+        <v>2</v>
+      </c>
       <c r="I718" s="3">
-        <v>41855</v>
-      </c>
-    </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+      <c r="J718" s="3">
+        <v>41843</v>
+      </c>
+    </row>
+    <row r="719" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>11</v>
       </c>
@@ -17787,10 +18068,10 @@
         <v>236</v>
       </c>
       <c r="I719" s="3">
-        <v>41856</v>
-      </c>
-    </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="720" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>11</v>
       </c>
@@ -17809,11 +18090,17 @@
       <c r="F720" s="1" t="s">
         <v>237</v>
       </c>
+      <c r="H720">
+        <v>0</v>
+      </c>
       <c r="I720" s="3">
-        <v>41857</v>
-      </c>
-    </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+      <c r="J720" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="721" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>11</v>
       </c>
@@ -17833,10 +18120,10 @@
         <v>238</v>
       </c>
       <c r="I721" s="3">
-        <v>41858</v>
-      </c>
-    </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="722" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>11</v>
       </c>
@@ -17856,10 +18143,10 @@
         <v>239</v>
       </c>
       <c r="I722" s="3">
-        <v>41859</v>
-      </c>
-    </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="723" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>11</v>
       </c>
@@ -17879,10 +18166,10 @@
         <v>240</v>
       </c>
       <c r="I723" s="3">
-        <v>41860</v>
-      </c>
-    </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="724" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>11</v>
       </c>
@@ -17901,11 +18188,17 @@
       <c r="F724" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="H724">
+        <v>0</v>
+      </c>
       <c r="I724" s="3">
-        <v>41861</v>
-      </c>
-    </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+      <c r="J724" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="725" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>11</v>
       </c>
@@ -17925,10 +18218,10 @@
         <v>232</v>
       </c>
       <c r="I725" s="3">
-        <v>41862</v>
-      </c>
-    </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="726" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>11</v>
       </c>
@@ -17948,10 +18241,10 @@
         <v>241</v>
       </c>
       <c r="I726" s="3">
-        <v>41863</v>
-      </c>
-    </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="727" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>11</v>
       </c>
@@ -17971,10 +18264,10 @@
         <v>242</v>
       </c>
       <c r="I727" s="3">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="728" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>11</v>
       </c>
@@ -17994,10 +18287,10 @@
         <v>222</v>
       </c>
       <c r="I728" s="3">
-        <v>41865</v>
-      </c>
-    </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="729" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>11</v>
       </c>
@@ -18017,10 +18310,10 @@
         <v>56</v>
       </c>
       <c r="I729" s="3">
-        <v>41866</v>
-      </c>
-    </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="730" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>11</v>
       </c>
@@ -18040,10 +18333,10 @@
         <v>243</v>
       </c>
       <c r="I730" s="3">
-        <v>41867</v>
-      </c>
-    </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="731" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>11</v>
       </c>
@@ -18062,11 +18355,17 @@
       <c r="F731" s="1" t="s">
         <v>244</v>
       </c>
+      <c r="H731">
+        <v>0</v>
+      </c>
       <c r="I731" s="3">
-        <v>41868</v>
-      </c>
-    </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+      <c r="J731" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="732" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>11</v>
       </c>
@@ -18086,10 +18385,10 @@
         <v>245</v>
       </c>
       <c r="I732" s="3">
-        <v>41869</v>
-      </c>
-    </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="733" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>11</v>
       </c>
@@ -18109,10 +18408,10 @@
         <v>246</v>
       </c>
       <c r="I733" s="3">
-        <v>41870</v>
-      </c>
-    </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="734" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>11</v>
       </c>
@@ -18132,10 +18431,10 @@
         <v>247</v>
       </c>
       <c r="I734" s="3">
-        <v>41871</v>
-      </c>
-    </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="735" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>11</v>
       </c>
@@ -18155,10 +18454,10 @@
         <v>248</v>
       </c>
       <c r="I735" s="3">
-        <v>41872</v>
-      </c>
-    </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="736" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>11</v>
       </c>
@@ -18178,7 +18477,7 @@
         <v>172</v>
       </c>
       <c r="I736" s="3">
-        <v>41873</v>
+        <v>41841</v>
       </c>
     </row>
     <row r="737" spans="1:9" x14ac:dyDescent="0.25">
@@ -18201,7 +18500,7 @@
         <v>249</v>
       </c>
       <c r="I737" s="3">
-        <v>41874</v>
+        <v>41841</v>
       </c>
     </row>
     <row r="738" spans="1:9" x14ac:dyDescent="0.25">
@@ -18224,7 +18523,7 @@
         <v>250</v>
       </c>
       <c r="I738" s="3">
-        <v>41875</v>
+        <v>41841</v>
       </c>
     </row>
     <row r="739" spans="1:9" x14ac:dyDescent="0.25">
@@ -18247,7 +18546,7 @@
         <v>251</v>
       </c>
       <c r="I739" s="3">
-        <v>41876</v>
+        <v>41841</v>
       </c>
     </row>
     <row r="740" spans="1:9" x14ac:dyDescent="0.25">
@@ -18270,7 +18569,7 @@
         <v>252</v>
       </c>
       <c r="I740" s="3">
-        <v>41877</v>
+        <v>41841</v>
       </c>
     </row>
     <row r="741" spans="1:9" x14ac:dyDescent="0.25">
@@ -18293,7 +18592,7 @@
         <v>253</v>
       </c>
       <c r="I741" s="3">
-        <v>41878</v>
+        <v>41841</v>
       </c>
     </row>
     <row r="742" spans="1:9" x14ac:dyDescent="0.25">
@@ -18316,7 +18615,7 @@
         <v>254</v>
       </c>
       <c r="I742" s="3">
-        <v>41879</v>
+        <v>41841</v>
       </c>
     </row>
     <row r="743" spans="1:9" x14ac:dyDescent="0.25">
@@ -18339,7 +18638,7 @@
         <v>39</v>
       </c>
       <c r="I743" s="3">
-        <v>41880</v>
+        <v>41841</v>
       </c>
     </row>
     <row r="744" spans="1:9" x14ac:dyDescent="0.25">
@@ -18362,7 +18661,7 @@
         <v>38.200000000000003</v>
       </c>
       <c r="I744" s="3">
-        <v>41881</v>
+        <v>41841</v>
       </c>
     </row>
     <row r="745" spans="1:9" x14ac:dyDescent="0.25">
@@ -18385,7 +18684,7 @@
         <v>39.6</v>
       </c>
       <c r="I745" s="3">
-        <v>41882</v>
+        <v>41841</v>
       </c>
     </row>
     <row r="746" spans="1:9" x14ac:dyDescent="0.25">
@@ -18408,7 +18707,7 @@
         <v>39</v>
       </c>
       <c r="I746" s="3">
-        <v>41883</v>
+        <v>41841</v>
       </c>
     </row>
     <row r="747" spans="1:9" x14ac:dyDescent="0.25">
@@ -18431,7 +18730,7 @@
         <v>38.6</v>
       </c>
       <c r="I747" s="3">
-        <v>41884</v>
+        <v>41841</v>
       </c>
     </row>
     <row r="748" spans="1:9" x14ac:dyDescent="0.25">
@@ -18454,7 +18753,7 @@
         <v>39.4</v>
       </c>
       <c r="I748" s="3">
-        <v>41885</v>
+        <v>41841</v>
       </c>
     </row>
     <row r="749" spans="1:9" x14ac:dyDescent="0.25">
@@ -18477,7 +18776,7 @@
         <v>39.4</v>
       </c>
       <c r="I749" s="3">
-        <v>41886</v>
+        <v>41841</v>
       </c>
     </row>
     <row r="750" spans="1:9" x14ac:dyDescent="0.25">
@@ -18500,7 +18799,7 @@
         <v>36.9</v>
       </c>
       <c r="I750" s="3">
-        <v>41887</v>
+        <v>41841</v>
       </c>
     </row>
     <row r="751" spans="1:9" x14ac:dyDescent="0.25">
@@ -18523,7 +18822,7 @@
         <v>38.5</v>
       </c>
       <c r="I751" s="3">
-        <v>41888</v>
+        <v>41841</v>
       </c>
     </row>
     <row r="752" spans="1:9" x14ac:dyDescent="0.25">
@@ -18546,10 +18845,10 @@
         <v>39.6</v>
       </c>
       <c r="I752" s="3">
-        <v>41889</v>
-      </c>
-    </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="753" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>11</v>
       </c>
@@ -18568,11 +18867,17 @@
       <c r="G753">
         <v>39.700000000000003</v>
       </c>
+      <c r="H753">
+        <v>0</v>
+      </c>
       <c r="I753" s="3">
-        <v>41890</v>
-      </c>
-    </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+      <c r="J753" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="754" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>11</v>
       </c>
@@ -18592,10 +18897,10 @@
         <v>38.6</v>
       </c>
       <c r="I754" s="3">
-        <v>41891</v>
-      </c>
-    </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="755" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>11</v>
       </c>
@@ -18614,11 +18919,17 @@
       <c r="G755">
         <v>36.5</v>
       </c>
+      <c r="H755">
+        <v>0</v>
+      </c>
       <c r="I755" s="3">
-        <v>41892</v>
-      </c>
-    </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41841</v>
+      </c>
+      <c r="J755" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="756" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>11</v>
       </c>
@@ -18631,8 +18942,11 @@
       <c r="E756" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I756" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="757" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>11</v>
       </c>
@@ -18645,8 +18959,11 @@
       <c r="E757" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I757" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="758" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>11</v>
       </c>
@@ -18659,8 +18976,11 @@
       <c r="E758" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I758" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="759" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>11</v>
       </c>
@@ -18673,8 +18993,11 @@
       <c r="E759" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I759" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="760" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>11</v>
       </c>
@@ -18687,8 +19010,11 @@
       <c r="E760" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I760" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="761" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>11</v>
       </c>
@@ -18701,8 +19027,11 @@
       <c r="E761" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I761" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="762" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>11</v>
       </c>
@@ -18715,8 +19044,11 @@
       <c r="E762" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I762" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="763" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>11</v>
       </c>
@@ -18729,8 +19061,11 @@
       <c r="E763" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I763" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="764" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>11</v>
       </c>
@@ -18743,8 +19078,11 @@
       <c r="E764" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I764" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="765" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>11</v>
       </c>
@@ -18757,8 +19095,11 @@
       <c r="E765" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I765" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="766" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>11</v>
       </c>
@@ -18771,8 +19112,11 @@
       <c r="E766" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I766" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="767" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>11</v>
       </c>
@@ -18785,8 +19129,11 @@
       <c r="E767" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I767" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="768" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>11</v>
       </c>
@@ -18799,8 +19146,11 @@
       <c r="E768" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I768" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="769" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>11</v>
       </c>
@@ -18813,8 +19163,11 @@
       <c r="E769" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I769" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="770" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>11</v>
       </c>
@@ -18827,8 +19180,17 @@
       <c r="E770" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H770">
+        <v>2</v>
+      </c>
+      <c r="I770" s="3">
+        <v>41841</v>
+      </c>
+      <c r="J770" s="3">
+        <v>41843</v>
+      </c>
+    </row>
+    <row r="771" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>11</v>
       </c>
@@ -18841,8 +19203,11 @@
       <c r="E771" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I771" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="772" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>11</v>
       </c>
@@ -18855,8 +19220,11 @@
       <c r="E772" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I772" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="773" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>11</v>
       </c>
@@ -18869,8 +19237,11 @@
       <c r="E773" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I773" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="774" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>11</v>
       </c>
@@ -18883,8 +19254,11 @@
       <c r="E774" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I774" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="775" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>11</v>
       </c>
@@ -18897,8 +19271,11 @@
       <c r="E775" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I775" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="776" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>11</v>
       </c>
@@ -18911,8 +19288,11 @@
       <c r="E776" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I776" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="777" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>11</v>
       </c>
@@ -18925,8 +19305,11 @@
       <c r="E777" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I777" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="778" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>11</v>
       </c>
@@ -18939,8 +19322,11 @@
       <c r="E778" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I778" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="779" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>11</v>
       </c>
@@ -18953,8 +19339,11 @@
       <c r="E779" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I779" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="780" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>11</v>
       </c>
@@ -18967,8 +19356,11 @@
       <c r="E780" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="781" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I780" s="3">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="781" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A781">
         <v>11</v>
       </c>
@@ -18981,6 +19373,9 @@
       <c r="D781" s="4"/>
       <c r="E781" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="I781" s="3">
+        <v>41841</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2018-07-01_HS_datasheet.xlsx
+++ b/Data/2018-07-01_HS_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1544B6A-E344-4945-B7DD-934D61971F04}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E926908A-9E9B-485D-BB14-E58B2CF62CF3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2612" uniqueCount="256">
   <si>
     <t>cohort</t>
   </si>
@@ -790,6 +790,9 @@
   </si>
   <si>
     <t>1:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1204,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H765" sqref="H765"/>
+      <selection pane="bottomLeft" activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1958,8 +1961,14 @@
       <c r="F26" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="H26">
+        <v>22</v>
+      </c>
       <c r="I26" s="3">
         <v>41822</v>
+      </c>
+      <c r="J26" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -5589,8 +5598,14 @@
       <c r="F172" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="H172">
+        <v>16</v>
+      </c>
       <c r="I172" s="3">
         <v>41828</v>
+      </c>
+      <c r="J172" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -6081,8 +6096,14 @@
       <c r="F190" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="H190">
+        <v>16</v>
+      </c>
       <c r="I190" s="3">
         <v>41828</v>
+      </c>
+      <c r="J190" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -6179,8 +6200,14 @@
       <c r="F194" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="H194">
+        <v>16</v>
+      </c>
       <c r="I194" s="3">
         <v>41828</v>
+      </c>
+      <c r="J194" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -6364,8 +6391,14 @@
       <c r="G201">
         <v>38.4</v>
       </c>
+      <c r="H201">
+        <v>16</v>
+      </c>
       <c r="I201" s="3">
         <v>41828</v>
+      </c>
+      <c r="J201" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -6669,8 +6702,14 @@
       <c r="E214" t="s">
         <v>13</v>
       </c>
+      <c r="H214">
+        <v>16</v>
+      </c>
       <c r="I214" s="3">
         <v>41828</v>
+      </c>
+      <c r="J214" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -6817,8 +6856,14 @@
       <c r="E222" t="s">
         <v>13</v>
       </c>
+      <c r="H222">
+        <v>16</v>
+      </c>
       <c r="I222" s="3">
         <v>41828</v>
+      </c>
+      <c r="J222" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -7705,8 +7750,14 @@
       <c r="F259" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="H259">
+        <v>15</v>
+      </c>
       <c r="I259" s="3">
         <v>41829</v>
+      </c>
+      <c r="J259" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
@@ -8000,8 +8051,14 @@
       <c r="F270" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="H270">
+        <v>15</v>
+      </c>
       <c r="I270" s="3">
         <v>41829</v>
+      </c>
+      <c r="J270" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
@@ -8023,8 +8080,14 @@
       <c r="F271" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="H271">
+        <v>15</v>
+      </c>
       <c r="I271" s="3">
         <v>41829</v>
+      </c>
+      <c r="J271" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
@@ -8121,8 +8184,14 @@
       <c r="G275">
         <v>39</v>
       </c>
+      <c r="H275">
+        <v>15</v>
+      </c>
       <c r="I275" s="3">
         <v>41829</v>
+      </c>
+      <c r="J275" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
@@ -10018,8 +10087,14 @@
       <c r="G356">
         <v>39.4</v>
       </c>
+      <c r="H356">
+        <v>13</v>
+      </c>
       <c r="I356" s="3">
         <v>41831</v>
+      </c>
+      <c r="J356" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
@@ -10312,8 +10387,14 @@
       <c r="E368" t="s">
         <v>13</v>
       </c>
+      <c r="H368">
+        <v>13</v>
+      </c>
       <c r="I368" s="3">
         <v>41831</v>
+      </c>
+      <c r="J368" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.25">
@@ -10631,8 +10712,14 @@
       <c r="E385" t="s">
         <v>11</v>
       </c>
+      <c r="H385">
+        <v>13</v>
+      </c>
       <c r="I385" s="3">
         <v>41831</v>
+      </c>
+      <c r="J385" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.25">
@@ -10648,8 +10735,14 @@
       <c r="E386" t="s">
         <v>11</v>
       </c>
+      <c r="H386">
+        <v>13</v>
+      </c>
       <c r="I386" s="3">
         <v>41831</v>
+      </c>
+      <c r="J386" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.25">
@@ -11014,8 +11107,14 @@
       <c r="G402">
         <v>40.9</v>
       </c>
+      <c r="H402">
+        <v>12</v>
+      </c>
       <c r="I402" s="3">
         <v>41832</v>
+      </c>
+      <c r="J402" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.25">
@@ -12383,8 +12482,14 @@
       <c r="E461" t="s">
         <v>11</v>
       </c>
+      <c r="H461">
+        <v>12</v>
+      </c>
       <c r="I461" s="3">
         <v>41832</v>
+      </c>
+      <c r="J461" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.25">
@@ -12596,8 +12701,14 @@
       <c r="G472">
         <v>41.9</v>
       </c>
+      <c r="H472">
+        <v>10</v>
+      </c>
       <c r="I472" s="3">
         <v>41834</v>
+      </c>
+      <c r="J472" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.25">
@@ -12717,8 +12828,14 @@
       <c r="G477">
         <v>40.5</v>
       </c>
+      <c r="H477">
+        <v>10</v>
+      </c>
       <c r="I477" s="3">
         <v>41834</v>
+      </c>
+      <c r="J477" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.25">
@@ -13178,8 +13295,14 @@
       <c r="F496" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="H496">
+        <v>10</v>
+      </c>
       <c r="I496" s="3">
         <v>41834</v>
+      </c>
+      <c r="J496" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.25">
@@ -13408,8 +13531,14 @@
       <c r="F506" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="H506">
+        <v>10</v>
+      </c>
       <c r="I506" s="3">
         <v>41834</v>
+      </c>
+      <c r="J506" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.25">
@@ -13604,8 +13733,14 @@
       <c r="G514">
         <v>38.9</v>
       </c>
+      <c r="H514">
+        <v>10</v>
+      </c>
       <c r="I514" s="3">
         <v>41834</v>
+      </c>
+      <c r="J514" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.25">
@@ -13725,8 +13860,14 @@
       <c r="G519">
         <v>39.5</v>
       </c>
+      <c r="H519">
+        <v>10</v>
+      </c>
       <c r="I519" s="3">
         <v>41834</v>
+      </c>
+      <c r="J519" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="520" spans="1:10" x14ac:dyDescent="0.25">
@@ -13748,8 +13889,14 @@
       <c r="G520">
         <v>39.1</v>
       </c>
+      <c r="H520">
+        <v>10</v>
+      </c>
       <c r="I520" s="3">
         <v>41834</v>
+      </c>
+      <c r="J520" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="521" spans="1:10" x14ac:dyDescent="0.25">
@@ -14049,8 +14196,14 @@
       <c r="E537" t="s">
         <v>11</v>
       </c>
+      <c r="H537">
+        <v>10</v>
+      </c>
       <c r="I537" s="3">
         <v>41834</v>
+      </c>
+      <c r="J537" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.25">
@@ -14083,8 +14236,14 @@
       <c r="E539" t="s">
         <v>11</v>
       </c>
+      <c r="H539">
+        <v>10</v>
+      </c>
       <c r="I539" s="3">
         <v>41834</v>
+      </c>
+      <c r="J539" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="540" spans="1:10" x14ac:dyDescent="0.25">
@@ -14117,8 +14276,14 @@
       <c r="E541" t="s">
         <v>11</v>
       </c>
+      <c r="H541">
+        <v>10</v>
+      </c>
       <c r="I541" s="3">
         <v>41834</v>
+      </c>
+      <c r="J541" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="542" spans="1:10" x14ac:dyDescent="0.25">
@@ -14151,8 +14316,14 @@
       <c r="E543" t="s">
         <v>11</v>
       </c>
+      <c r="H543">
+        <v>10</v>
+      </c>
       <c r="I543" s="3">
         <v>41834</v>
+      </c>
+      <c r="J543" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="544" spans="1:10" x14ac:dyDescent="0.25">
@@ -14185,8 +14356,14 @@
       <c r="E545" t="s">
         <v>11</v>
       </c>
+      <c r="H545">
+        <v>10</v>
+      </c>
       <c r="I545" s="3">
         <v>41834</v>
+      </c>
+      <c r="J545" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.25">
@@ -14226,10 +14403,15 @@
         <v>11</v>
       </c>
       <c r="F547" s="5"/>
+      <c r="H547" s="4">
+        <v>10</v>
+      </c>
       <c r="I547" s="6">
         <v>41834</v>
       </c>
-      <c r="J547" s="6"/>
+      <c r="J547" s="6">
+        <v>41844</v>
+      </c>
     </row>
     <row r="548" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A548">
@@ -14850,8 +15032,14 @@
       <c r="F572" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="H572">
+        <v>9</v>
+      </c>
       <c r="I572" s="3">
         <v>41835</v>
+      </c>
+      <c r="J572" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="573" spans="1:10" x14ac:dyDescent="0.25">
@@ -16614,9 +16802,15 @@
       <c r="F652" s="1" t="s">
         <v>221</v>
       </c>
+      <c r="H652">
+        <v>8</v>
+      </c>
       <c r="I652" s="3">
         <v>41836</v>
       </c>
+      <c r="J652" s="3">
+        <v>41844</v>
+      </c>
     </row>
     <row r="653" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A653">
@@ -16712,9 +16906,15 @@
       <c r="F656" s="1" t="s">
         <v>225</v>
       </c>
+      <c r="H656">
+        <v>8</v>
+      </c>
       <c r="I656" s="3">
         <v>41836</v>
       </c>
+      <c r="J656" s="3">
+        <v>41844</v>
+      </c>
     </row>
     <row r="657" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A657">
@@ -17069,9 +17269,15 @@
       <c r="G671">
         <v>39.700000000000003</v>
       </c>
+      <c r="H671">
+        <v>8</v>
+      </c>
       <c r="I671" s="3">
         <v>41836</v>
       </c>
+      <c r="J671" s="3">
+        <v>41844</v>
+      </c>
     </row>
     <row r="672" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A672">
@@ -17092,9 +17298,15 @@
       <c r="G672">
         <v>36.299999999999997</v>
       </c>
+      <c r="H672">
+        <v>8</v>
+      </c>
       <c r="I672" s="3">
         <v>41836</v>
       </c>
+      <c r="J672" s="3">
+        <v>41844</v>
+      </c>
     </row>
     <row r="673" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A673">
@@ -17167,8 +17379,14 @@
       <c r="G675">
         <v>38.700000000000003</v>
       </c>
+      <c r="H675">
+        <v>8</v>
+      </c>
       <c r="I675" s="3">
         <v>41836</v>
+      </c>
+      <c r="J675" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="676" spans="1:10" x14ac:dyDescent="0.25">
@@ -18480,7 +18698,7 @@
         <v>41841</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>11</v>
       </c>
@@ -18503,7 +18721,7 @@
         <v>41841</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>11</v>
       </c>
@@ -18526,7 +18744,7 @@
         <v>41841</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>11</v>
       </c>
@@ -18549,7 +18767,7 @@
         <v>41841</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>11</v>
       </c>
@@ -18568,11 +18786,17 @@
       <c r="F740" s="1" t="s">
         <v>252</v>
       </c>
+      <c r="H740">
+        <v>3</v>
+      </c>
       <c r="I740" s="3">
         <v>41841</v>
       </c>
-    </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J740" s="3">
+        <v>41844</v>
+      </c>
+    </row>
+    <row r="741" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>11</v>
       </c>
@@ -18595,7 +18819,7 @@
         <v>41841</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>11</v>
       </c>
@@ -18618,7 +18842,7 @@
         <v>41841</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>11</v>
       </c>
@@ -18641,7 +18865,7 @@
         <v>41841</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>11</v>
       </c>
@@ -18664,7 +18888,7 @@
         <v>41841</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>11</v>
       </c>
@@ -18687,7 +18911,7 @@
         <v>41841</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>11</v>
       </c>
@@ -18710,7 +18934,7 @@
         <v>41841</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>11</v>
       </c>
@@ -18733,7 +18957,7 @@
         <v>41841</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>11</v>
       </c>
@@ -18756,7 +18980,7 @@
         <v>41841</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>11</v>
       </c>
@@ -18779,7 +19003,7 @@
         <v>41841</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>11</v>
       </c>
@@ -18802,7 +19026,7 @@
         <v>41841</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>11</v>
       </c>
@@ -18825,7 +19049,7 @@
         <v>41841</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>11</v>
       </c>
@@ -19095,6 +19319,9 @@
       <c r="E765" t="s">
         <v>13</v>
       </c>
+      <c r="H765" t="s">
+        <v>255</v>
+      </c>
       <c r="I765" s="3">
         <v>41841</v>
       </c>
@@ -19220,8 +19447,14 @@
       <c r="E772" t="s">
         <v>11</v>
       </c>
+      <c r="H772">
+        <v>3</v>
+      </c>
       <c r="I772" s="3">
         <v>41841</v>
+      </c>
+      <c r="J772" s="3">
+        <v>41844</v>
       </c>
     </row>
     <row r="773" spans="1:10" x14ac:dyDescent="0.25">

--- a/Data/2018-07-01_HS_datasheet.xlsx
+++ b/Data/2018-07-01_HS_datasheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E926908A-9E9B-485D-BB14-E58B2CF62CF3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693BC97E-AF54-48DA-8C4B-B1CC021CD633}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2612" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="255">
   <si>
     <t>cohort</t>
   </si>
@@ -604,9 +604,6 @@
   </si>
   <si>
     <t>1:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
   </si>
   <si>
     <t>11:32</t>
@@ -860,7 +857,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1203,8 +1200,8 @@
   <dimension ref="A1:J781"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N30" sqref="N30"/>
+      <pane ySplit="1" topLeftCell="A743" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E780" sqref="E780"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3683,8 +3680,14 @@
       <c r="F94" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="H94">
+        <v>21</v>
+      </c>
       <c r="I94" s="3">
         <v>41824</v>
+      </c>
+      <c r="J94" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -4042,8 +4045,14 @@
       <c r="F107" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="H107">
+        <v>21</v>
+      </c>
       <c r="I107" s="3">
         <v>41824</v>
+      </c>
+      <c r="J107" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -4723,8 +4732,14 @@
       <c r="E134" t="s">
         <v>13</v>
       </c>
+      <c r="H134">
+        <v>21</v>
+      </c>
       <c r="I134" s="3">
         <v>41824</v>
+      </c>
+      <c r="J134" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -4911,8 +4926,14 @@
       <c r="E144" t="s">
         <v>13</v>
       </c>
+      <c r="H144">
+        <v>21</v>
+      </c>
       <c r="I144" s="3">
         <v>41824</v>
+      </c>
+      <c r="J144" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -5216,14 +5237,14 @@
       <c r="G158">
         <v>41.7</v>
       </c>
-      <c r="H158" s="11">
-        <v>13</v>
+      <c r="H158">
+        <v>17</v>
       </c>
       <c r="I158" s="3">
         <v>41828</v>
       </c>
       <c r="J158" s="3">
-        <v>41841</v>
+        <v>41845</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -6148,8 +6169,14 @@
       <c r="F192" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="H192">
+        <v>17</v>
+      </c>
       <c r="I192" s="3">
         <v>41828</v>
+      </c>
+      <c r="J192" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -6449,8 +6476,14 @@
       <c r="G203">
         <v>38.9</v>
       </c>
+      <c r="H203">
+        <v>17</v>
+      </c>
       <c r="I203" s="3">
         <v>41828</v>
+      </c>
+      <c r="J203" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -6685,8 +6718,14 @@
       <c r="E213" t="s">
         <v>13</v>
       </c>
+      <c r="H213">
+        <v>17</v>
+      </c>
       <c r="I213" s="3">
         <v>41828</v>
+      </c>
+      <c r="J213" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
@@ -6805,8 +6844,14 @@
       <c r="E219" t="s">
         <v>13</v>
       </c>
+      <c r="H219">
+        <v>17</v>
+      </c>
       <c r="I219" s="3">
         <v>41828</v>
+      </c>
+      <c r="J219" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
@@ -6839,8 +6884,14 @@
       <c r="E221" t="s">
         <v>13</v>
       </c>
+      <c r="H221">
+        <v>17</v>
+      </c>
       <c r="I221" s="3">
         <v>41828</v>
+      </c>
+      <c r="J221" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -7011,8 +7062,14 @@
       <c r="E229" t="s">
         <v>11</v>
       </c>
+      <c r="H229">
+        <v>17</v>
+      </c>
       <c r="I229" s="3">
         <v>41828</v>
+      </c>
+      <c r="J229" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -7091,8 +7148,14 @@
       <c r="E233" t="s">
         <v>11</v>
       </c>
+      <c r="H233">
+        <v>17</v>
+      </c>
       <c r="I233" s="3">
         <v>41828</v>
+      </c>
+      <c r="J233" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -7507,8 +7570,14 @@
       <c r="F250" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="H250">
+        <v>16</v>
+      </c>
       <c r="I250" s="3">
         <v>41829</v>
+      </c>
+      <c r="J250" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
@@ -8242,8 +8311,14 @@
       <c r="G277">
         <v>39.299999999999997</v>
       </c>
+      <c r="H277">
+        <v>16</v>
+      </c>
       <c r="I277" s="3">
         <v>41829</v>
+      </c>
+      <c r="J277" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
@@ -9141,8 +9216,14 @@
       <c r="G318">
         <v>40.299999999999997</v>
       </c>
+      <c r="H318">
+        <v>14</v>
+      </c>
       <c r="I318" s="3">
         <v>41831</v>
+      </c>
+      <c r="J318" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
@@ -9222,8 +9303,14 @@
       <c r="G321">
         <v>41.7</v>
       </c>
+      <c r="H321">
+        <v>14</v>
+      </c>
       <c r="I321" s="3">
         <v>41831</v>
+      </c>
+      <c r="J321" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
@@ -9349,8 +9436,14 @@
       <c r="G326">
         <v>38.799999999999997</v>
       </c>
+      <c r="H326">
+        <v>14</v>
+      </c>
       <c r="I326" s="3">
         <v>41831</v>
+      </c>
+      <c r="J326" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
@@ -9424,8 +9517,14 @@
       <c r="F329" s="1" t="s">
         <v>130</v>
       </c>
+      <c r="H329">
+        <v>14</v>
+      </c>
       <c r="I329" s="3">
         <v>41831</v>
+      </c>
+      <c r="J329" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
@@ -9603,8 +9702,14 @@
       <c r="F336" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="H336">
+        <v>14</v>
+      </c>
       <c r="I336" s="3">
         <v>41831</v>
+      </c>
+      <c r="J336" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
@@ -9845,8 +9950,14 @@
       <c r="F346" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="H346">
+        <v>14</v>
+      </c>
       <c r="I346" s="3">
         <v>41831</v>
+      </c>
+      <c r="J346" s="11">
+        <v>41845</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
@@ -10203,8 +10314,14 @@
       <c r="G360">
         <v>37.5</v>
       </c>
+      <c r="H360">
+        <v>14</v>
+      </c>
       <c r="I360" s="3">
         <v>41831</v>
+      </c>
+      <c r="J360" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
@@ -10638,8 +10755,14 @@
       <c r="E381" t="s">
         <v>11</v>
       </c>
+      <c r="H381">
+        <v>14</v>
+      </c>
       <c r="I381" s="3">
         <v>41831</v>
+      </c>
+      <c r="J381" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
@@ -10695,8 +10818,14 @@
       <c r="E384" t="s">
         <v>11</v>
       </c>
+      <c r="H384">
+        <v>14</v>
+      </c>
       <c r="I384" s="3">
         <v>41831</v>
+      </c>
+      <c r="J384" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.25">
@@ -10804,8 +10933,14 @@
       <c r="E389" t="s">
         <v>11</v>
       </c>
+      <c r="H389">
+        <v>14</v>
+      </c>
       <c r="I389" s="3">
         <v>41831</v>
+      </c>
+      <c r="J389" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.25">
@@ -10821,8 +10956,14 @@
       <c r="E390" t="s">
         <v>11</v>
       </c>
+      <c r="H390">
+        <v>14</v>
+      </c>
       <c r="I390" s="3">
         <v>41831</v>
+      </c>
+      <c r="J390" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="391" spans="1:10" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -10897,8 +11038,14 @@
       <c r="G393">
         <v>40.5</v>
       </c>
+      <c r="H393">
+        <v>13</v>
+      </c>
       <c r="I393" s="3">
         <v>41832</v>
+      </c>
+      <c r="J393" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
@@ -10920,11 +11067,14 @@
       <c r="G394">
         <v>41.7</v>
       </c>
+      <c r="H394">
+        <v>13</v>
+      </c>
       <c r="I394" s="3">
         <v>41832</v>
       </c>
-      <c r="J394" s="3" t="s">
-        <v>193</v>
+      <c r="J394" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.25">
@@ -11061,8 +11211,14 @@
       <c r="G400">
         <v>39.6</v>
       </c>
+      <c r="H400">
+        <v>13</v>
+      </c>
       <c r="I400" s="3">
         <v>41832</v>
+      </c>
+      <c r="J400" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.25">
@@ -11136,8 +11292,14 @@
       <c r="G403">
         <v>40.9</v>
       </c>
+      <c r="H403">
+        <v>13</v>
+      </c>
       <c r="I403" s="3">
         <v>41832</v>
+      </c>
+      <c r="J403" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.25">
@@ -11384,8 +11546,14 @@
       <c r="F413" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="H413">
+        <v>13</v>
+      </c>
       <c r="I413" s="3">
         <v>41832</v>
+      </c>
+      <c r="J413" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.25">
@@ -11609,8 +11777,14 @@
       <c r="F422" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="H422">
+        <v>13</v>
+      </c>
       <c r="I422" s="3">
         <v>41832</v>
+      </c>
+      <c r="J422" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.25">
@@ -11707,8 +11881,14 @@
       <c r="F426" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="H426">
+        <v>13</v>
+      </c>
       <c r="I426" s="3">
         <v>41832</v>
+      </c>
+      <c r="J426" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.25">
@@ -11990,8 +12170,14 @@
       <c r="G437">
         <v>39.700000000000003</v>
       </c>
+      <c r="H437">
+        <v>13</v>
+      </c>
       <c r="I437" s="3">
         <v>41832</v>
+      </c>
+      <c r="J437" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.25">
@@ -12419,8 +12605,14 @@
       <c r="E458" t="s">
         <v>11</v>
       </c>
+      <c r="H458">
+        <v>13</v>
+      </c>
       <c r="I458" s="3">
         <v>41832</v>
+      </c>
+      <c r="J458" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.25">
@@ -12539,8 +12731,14 @@
       <c r="E464" t="s">
         <v>11</v>
       </c>
+      <c r="H464">
+        <v>13</v>
+      </c>
       <c r="I464" s="3">
         <v>41832</v>
+      </c>
+      <c r="J464" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.25">
@@ -12631,10 +12829,15 @@
         <v>11</v>
       </c>
       <c r="F469" s="5"/>
+      <c r="H469" s="4">
+        <v>13</v>
+      </c>
       <c r="I469" s="6">
         <v>41832</v>
       </c>
-      <c r="J469" s="6"/>
+      <c r="J469" s="6">
+        <v>41845</v>
+      </c>
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A470">
@@ -13560,8 +13763,14 @@
       <c r="F507" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="H507">
+        <v>11</v>
+      </c>
       <c r="I507" s="3">
         <v>41834</v>
+      </c>
+      <c r="J507" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.25">
@@ -14179,8 +14388,14 @@
       <c r="E536" t="s">
         <v>11</v>
       </c>
+      <c r="H536">
+        <v>11</v>
+      </c>
       <c r="I536" s="3">
         <v>41834</v>
+      </c>
+      <c r="J536" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="537" spans="1:10" x14ac:dyDescent="0.25">
@@ -14219,8 +14434,14 @@
       <c r="E538" t="s">
         <v>11</v>
       </c>
+      <c r="H538">
+        <v>11</v>
+      </c>
       <c r="I538" s="3">
         <v>41834</v>
+      </c>
+      <c r="J538" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="539" spans="1:10" x14ac:dyDescent="0.25">
@@ -14259,8 +14480,14 @@
       <c r="E540" t="s">
         <v>11</v>
       </c>
+      <c r="H540">
+        <v>11</v>
+      </c>
       <c r="I540" s="3">
         <v>41834</v>
+      </c>
+      <c r="J540" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="541" spans="1:10" x14ac:dyDescent="0.25">
@@ -14339,8 +14566,14 @@
       <c r="E544" t="s">
         <v>11</v>
       </c>
+      <c r="H544">
+        <v>11</v>
+      </c>
       <c r="I544" s="3">
         <v>41834</v>
+      </c>
+      <c r="J544" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="545" spans="1:10" x14ac:dyDescent="0.25">
@@ -14680,8 +14913,14 @@
       <c r="G558">
         <v>41.1</v>
       </c>
+      <c r="H558">
+        <v>10</v>
+      </c>
       <c r="I558" s="3">
         <v>41835</v>
+      </c>
+      <c r="J558" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="559" spans="1:10" x14ac:dyDescent="0.25">
@@ -14703,8 +14942,14 @@
       <c r="G559">
         <v>39.9</v>
       </c>
+      <c r="H559">
+        <v>10</v>
+      </c>
       <c r="I559" s="3">
         <v>41835</v>
+      </c>
+      <c r="J559" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.25">
@@ -14747,7 +14992,7 @@
         <v>13</v>
       </c>
       <c r="F561" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H561">
         <v>6</v>
@@ -14776,7 +15021,7 @@
         <v>11</v>
       </c>
       <c r="F562" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I562" s="3">
         <v>41835</v>
@@ -14799,7 +15044,7 @@
         <v>13</v>
       </c>
       <c r="F563" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I563" s="3">
         <v>41835</v>
@@ -14851,10 +15096,16 @@
         <v>11</v>
       </c>
       <c r="F565" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
+      </c>
+      <c r="H565">
+        <v>10</v>
       </c>
       <c r="I565" s="3">
         <v>41835</v>
+      </c>
+      <c r="J565" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="566" spans="1:10" x14ac:dyDescent="0.25">
@@ -14897,7 +15148,7 @@
         <v>11</v>
       </c>
       <c r="F567" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I567" s="3">
         <v>41835</v>
@@ -14949,7 +15200,7 @@
         <v>13</v>
       </c>
       <c r="F569" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I569" s="3">
         <v>41835</v>
@@ -14972,7 +15223,7 @@
         <v>11</v>
       </c>
       <c r="F570" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H570">
         <v>0</v>
@@ -15030,7 +15281,7 @@
         <v>13</v>
       </c>
       <c r="F572" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H572">
         <v>9</v>
@@ -15082,7 +15333,7 @@
         <v>11</v>
       </c>
       <c r="F574" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I574" s="3">
         <v>41835</v>
@@ -15105,7 +15356,7 @@
         <v>11</v>
       </c>
       <c r="F575" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I575" s="3">
         <v>41835</v>
@@ -15128,7 +15379,7 @@
         <v>11</v>
       </c>
       <c r="F576" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I576" s="3">
         <v>41835</v>
@@ -15151,7 +15402,7 @@
         <v>13</v>
       </c>
       <c r="F577" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I577" s="3">
         <v>41835</v>
@@ -15197,7 +15448,7 @@
         <v>11</v>
       </c>
       <c r="F579" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I579" s="3">
         <v>41835</v>
@@ -15220,7 +15471,7 @@
         <v>13</v>
       </c>
       <c r="F580" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I580" s="3">
         <v>41835</v>
@@ -15243,7 +15494,7 @@
         <v>11</v>
       </c>
       <c r="F581" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H581">
         <v>8</v>
@@ -15295,7 +15546,7 @@
         <v>11</v>
       </c>
       <c r="F583" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I583" s="3">
         <v>41835</v>
@@ -15318,7 +15569,7 @@
         <v>11</v>
       </c>
       <c r="F584" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I584" s="3">
         <v>41835</v>
@@ -15364,7 +15615,7 @@
         <v>11</v>
       </c>
       <c r="F586" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I586" s="3">
         <v>41835</v>
@@ -16092,8 +16343,14 @@
       <c r="E622" t="s">
         <v>11</v>
       </c>
+      <c r="H622">
+        <v>10</v>
+      </c>
       <c r="I622" s="3">
         <v>41835</v>
+      </c>
+      <c r="J622" s="3">
+        <v>41845</v>
       </c>
     </row>
     <row r="623" spans="1:10" x14ac:dyDescent="0.25">
@@ -16489,7 +16746,7 @@
         <v>11</v>
       </c>
       <c r="F639" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I639" s="3">
         <v>41836</v>
@@ -16512,7 +16769,7 @@
         <v>13</v>
       </c>
       <c r="F640" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I640" s="3">
         <v>41836</v>
@@ -16535,7 +16792,7 @@
         <v>13</v>
       </c>
       <c r="F641" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I641" s="3">
         <v>41836</v>
@@ -16558,7 +16815,7 @@
         <v>13</v>
       </c>
       <c r="F642" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I642" s="3">
         <v>41836</v>
@@ -16627,7 +16884,7 @@
         <v>11</v>
       </c>
       <c r="F645" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H645">
         <v>5</v>
@@ -16679,7 +16936,7 @@
         <v>13</v>
       </c>
       <c r="F647" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H647">
         <v>6</v>
@@ -16708,7 +16965,7 @@
         <v>13</v>
       </c>
       <c r="F648" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I648" s="3">
         <v>41836</v>
@@ -16731,7 +16988,7 @@
         <v>11</v>
       </c>
       <c r="F649" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I649" s="3">
         <v>41836</v>
@@ -16754,7 +17011,7 @@
         <v>13</v>
       </c>
       <c r="F650" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I650" s="3">
         <v>41836</v>
@@ -16800,7 +17057,7 @@
         <v>13</v>
       </c>
       <c r="F652" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H652">
         <v>8</v>
@@ -16829,7 +17086,7 @@
         <v>11</v>
       </c>
       <c r="F653" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I653" s="3">
         <v>41836</v>
@@ -16852,7 +17109,7 @@
         <v>11</v>
       </c>
       <c r="F654" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I654" s="3">
         <v>41836</v>
@@ -16875,7 +17132,7 @@
         <v>11</v>
       </c>
       <c r="F655" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H655">
         <v>0</v>
@@ -16904,7 +17161,7 @@
         <v>13</v>
       </c>
       <c r="F656" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H656">
         <v>8</v>
@@ -16933,7 +17190,7 @@
         <v>11</v>
       </c>
       <c r="F657" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I657" s="3">
         <v>41836</v>
@@ -16956,7 +17213,7 @@
         <v>13</v>
       </c>
       <c r="F658" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I658" s="3">
         <v>41836</v>
@@ -16979,7 +17236,7 @@
         <v>11</v>
       </c>
       <c r="F659" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I659" s="3">
         <v>41836</v>
@@ -17002,7 +17259,7 @@
         <v>11</v>
       </c>
       <c r="F660" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I660" s="3">
         <v>41836</v>
@@ -17025,7 +17282,7 @@
         <v>11</v>
       </c>
       <c r="F661" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I661" s="3">
         <v>41836</v>
@@ -17048,7 +17305,7 @@
         <v>11</v>
       </c>
       <c r="F662" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I662" s="3">
         <v>41836</v>
@@ -17071,11 +17328,17 @@
         <v>13</v>
       </c>
       <c r="F663" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
+      </c>
+      <c r="H663">
+        <v>9</v>
       </c>
       <c r="I663" s="3">
         <v>41836</v>
       </c>
+      <c r="J663" s="3">
+        <v>41845</v>
+      </c>
     </row>
     <row r="664" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A664">
@@ -17094,7 +17357,7 @@
         <v>11</v>
       </c>
       <c r="F664" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I664" s="3">
         <v>41836</v>
@@ -18231,7 +18494,7 @@
         <v>11</v>
       </c>
       <c r="F717" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I717" s="3">
         <v>41841</v>
@@ -18254,7 +18517,7 @@
         <v>13</v>
       </c>
       <c r="F718" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H718">
         <v>2</v>
@@ -18283,7 +18546,7 @@
         <v>11</v>
       </c>
       <c r="F719" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I719" s="3">
         <v>41841</v>
@@ -18306,7 +18569,7 @@
         <v>13</v>
       </c>
       <c r="F720" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H720">
         <v>0</v>
@@ -18335,7 +18598,7 @@
         <v>11</v>
       </c>
       <c r="F721" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I721" s="3">
         <v>41841</v>
@@ -18358,7 +18621,7 @@
         <v>11</v>
       </c>
       <c r="F722" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I722" s="3">
         <v>41841</v>
@@ -18381,7 +18644,7 @@
         <v>11</v>
       </c>
       <c r="F723" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I723" s="3">
         <v>41841</v>
@@ -18433,7 +18696,7 @@
         <v>13</v>
       </c>
       <c r="F725" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I725" s="3">
         <v>41841</v>
@@ -18456,7 +18719,7 @@
         <v>11</v>
       </c>
       <c r="F726" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I726" s="3">
         <v>41841</v>
@@ -18479,7 +18742,7 @@
         <v>11</v>
       </c>
       <c r="F727" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I727" s="3">
         <v>41841</v>
@@ -18502,7 +18765,7 @@
         <v>11</v>
       </c>
       <c r="F728" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I728" s="3">
         <v>41841</v>
@@ -18548,11 +18811,17 @@
         <v>11</v>
       </c>
       <c r="F730" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
+      </c>
+      <c r="H730">
+        <v>4</v>
       </c>
       <c r="I730" s="3">
         <v>41841</v>
       </c>
+      <c r="J730" s="3">
+        <v>41845</v>
+      </c>
     </row>
     <row r="731" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A731">
@@ -18571,7 +18840,7 @@
         <v>13</v>
       </c>
       <c r="F731" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H731">
         <v>0</v>
@@ -18600,7 +18869,7 @@
         <v>11</v>
       </c>
       <c r="F732" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I732" s="3">
         <v>41841</v>
@@ -18623,7 +18892,7 @@
         <v>13</v>
       </c>
       <c r="F733" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I733" s="3">
         <v>41841</v>
@@ -18646,7 +18915,7 @@
         <v>13</v>
       </c>
       <c r="F734" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I734" s="3">
         <v>41841</v>
@@ -18669,7 +18938,7 @@
         <v>13</v>
       </c>
       <c r="F735" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I735" s="3">
         <v>41841</v>
@@ -18715,7 +18984,7 @@
         <v>13</v>
       </c>
       <c r="F737" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I737" s="3">
         <v>41841</v>
@@ -18738,7 +19007,7 @@
         <v>11</v>
       </c>
       <c r="F738" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I738" s="3">
         <v>41841</v>
@@ -18761,7 +19030,7 @@
         <v>11</v>
       </c>
       <c r="F739" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I739" s="3">
         <v>41841</v>
@@ -18784,7 +19053,7 @@
         <v>13</v>
       </c>
       <c r="F740" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H740">
         <v>3</v>
@@ -18813,7 +19082,7 @@
         <v>13</v>
       </c>
       <c r="F741" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I741" s="3">
         <v>41841</v>
@@ -18836,7 +19105,7 @@
         <v>13</v>
       </c>
       <c r="F742" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I742" s="3">
         <v>41841</v>
@@ -18953,9 +19222,15 @@
       <c r="G747">
         <v>38.6</v>
       </c>
+      <c r="H747">
+        <v>4</v>
+      </c>
       <c r="I747" s="3">
         <v>41841</v>
       </c>
+      <c r="J747" s="3">
+        <v>41845</v>
+      </c>
     </row>
     <row r="748" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A748">
@@ -19320,7 +19595,7 @@
         <v>13</v>
       </c>
       <c r="H765" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I765" s="3">
         <v>41841</v>

--- a/Data/2018-07-01_HS_datasheet.xlsx
+++ b/Data/2018-07-01_HS_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693BC97E-AF54-48DA-8C4B-B1CC021CD633}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE24ECC-A5BE-4208-A3AA-728EE95304C9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1200,8 +1200,8 @@
   <dimension ref="A1:J781"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A743" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E780" sqref="E780"/>
+      <pane ySplit="1" topLeftCell="A671" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2763,8 +2763,14 @@
       <c r="E55" t="s">
         <v>13</v>
       </c>
+      <c r="H55">
+        <v>24</v>
+      </c>
       <c r="I55" s="3">
         <v>41822</v>
+      </c>
+      <c r="J55" s="3">
+        <v>41846</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3350,8 +3356,14 @@
       <c r="G82">
         <v>40.799999999999997</v>
       </c>
+      <c r="H82">
+        <v>22</v>
+      </c>
       <c r="I82" s="3">
         <v>41824</v>
+      </c>
+      <c r="J82" s="3">
+        <v>41846</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -4715,8 +4727,14 @@
       <c r="E133" t="s">
         <v>13</v>
       </c>
+      <c r="H133">
+        <v>22</v>
+      </c>
       <c r="I133" s="3">
         <v>41824</v>
+      </c>
+      <c r="J133" s="3">
+        <v>41846</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -7397,8 +7415,14 @@
       <c r="G243">
         <v>41</v>
       </c>
+      <c r="H243">
+        <v>17</v>
+      </c>
       <c r="I243" s="3">
         <v>41829</v>
+      </c>
+      <c r="J243" s="3">
+        <v>41846</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
@@ -8668,8 +8692,14 @@
       <c r="E292" t="s">
         <v>13</v>
       </c>
+      <c r="H292">
+        <v>17</v>
+      </c>
       <c r="I292" s="3">
         <v>41829</v>
+      </c>
+      <c r="J292" s="3">
+        <v>41846</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
@@ -9979,8 +10009,14 @@
       <c r="F347" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="H347">
+        <v>15</v>
+      </c>
       <c r="I347" s="3">
         <v>41831</v>
+      </c>
+      <c r="J347" s="3">
+        <v>74718</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
@@ -10146,8 +10182,14 @@
       <c r="G354">
         <v>38.700000000000003</v>
       </c>
+      <c r="H354">
+        <v>15</v>
+      </c>
       <c r="I354" s="3">
         <v>41831</v>
+      </c>
+      <c r="J354" s="3">
+        <v>74718</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
@@ -11696,8 +11738,14 @@
       <c r="F419" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="H419">
+        <v>14</v>
+      </c>
       <c r="I419" s="3">
         <v>41832</v>
+      </c>
+      <c r="J419" s="3">
+        <v>41846</v>
       </c>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.25">
@@ -12697,8 +12745,14 @@
       <c r="E462" t="s">
         <v>11</v>
       </c>
+      <c r="H462">
+        <v>14</v>
+      </c>
       <c r="I462" s="3">
         <v>41832</v>
+      </c>
+      <c r="J462" s="3">
+        <v>41846</v>
       </c>
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.25">
@@ -12777,8 +12831,14 @@
       <c r="E466" t="s">
         <v>11</v>
       </c>
+      <c r="H466">
+        <v>14</v>
+      </c>
       <c r="I466" s="3">
         <v>41832</v>
+      </c>
+      <c r="J466" s="3">
+        <v>41846</v>
       </c>
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.25">
@@ -12811,8 +12871,14 @@
       <c r="E468" t="s">
         <v>11</v>
       </c>
+      <c r="H468">
+        <v>14</v>
+      </c>
       <c r="I468" s="3">
         <v>41832</v>
+      </c>
+      <c r="J468" s="3">
+        <v>41846</v>
       </c>
     </row>
     <row r="469" spans="1:10" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13319,8 +13385,14 @@
       <c r="F489" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="H489">
+        <v>12</v>
+      </c>
       <c r="I489" s="3">
         <v>41834</v>
+      </c>
+      <c r="J489" s="3">
+        <v>41846</v>
       </c>
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.25">
@@ -13792,8 +13864,14 @@
       <c r="F508" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="H508">
+        <v>12</v>
+      </c>
       <c r="I508" s="3">
         <v>41834</v>
+      </c>
+      <c r="J508" s="3">
+        <v>41846</v>
       </c>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.25">
@@ -14971,8 +15049,14 @@
       <c r="G560">
         <v>36.799999999999997</v>
       </c>
+      <c r="H560">
+        <v>11</v>
+      </c>
       <c r="I560" s="3">
         <v>41835</v>
+      </c>
+      <c r="J560" s="3">
+        <v>41846</v>
       </c>
     </row>
     <row r="561" spans="1:10" x14ac:dyDescent="0.25">
@@ -15335,8 +15419,14 @@
       <c r="F574" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="H574">
+        <v>11</v>
+      </c>
       <c r="I574" s="3">
         <v>41835</v>
+      </c>
+      <c r="J574" s="3">
+        <v>41846</v>
       </c>
     </row>
     <row r="575" spans="1:10" x14ac:dyDescent="0.25">
@@ -15450,8 +15540,14 @@
       <c r="F579" s="1" t="s">
         <v>205</v>
       </c>
+      <c r="H579">
+        <v>11</v>
+      </c>
       <c r="I579" s="3">
         <v>41835</v>
+      </c>
+      <c r="J579" s="3">
+        <v>41846</v>
       </c>
     </row>
     <row r="580" spans="1:10" x14ac:dyDescent="0.25">
@@ -15761,8 +15857,14 @@
       <c r="G592">
         <v>37.6</v>
       </c>
+      <c r="H592">
+        <v>11</v>
+      </c>
       <c r="I592" s="3">
         <v>41835</v>
+      </c>
+      <c r="J592" s="3">
+        <v>41846</v>
       </c>
     </row>
     <row r="593" spans="1:10" x14ac:dyDescent="0.25">
@@ -16512,9 +16614,15 @@
       <c r="G629">
         <v>40.200000000000003</v>
       </c>
+      <c r="H629">
+        <v>10</v>
+      </c>
       <c r="I629" s="3">
         <v>41836</v>
       </c>
+      <c r="J629" s="3">
+        <v>41846</v>
+      </c>
     </row>
     <row r="630" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A630">
@@ -17238,9 +17346,15 @@
       <c r="F659" s="1" t="s">
         <v>227</v>
       </c>
+      <c r="H659">
+        <v>10</v>
+      </c>
       <c r="I659" s="3">
         <v>41836</v>
       </c>
+      <c r="J659" s="3">
+        <v>41846</v>
+      </c>
     </row>
     <row r="660" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A660">
@@ -18057,8 +18171,14 @@
       <c r="E698" t="s">
         <v>11</v>
       </c>
+      <c r="H698">
+        <v>10</v>
+      </c>
       <c r="I698" s="3">
         <v>41836</v>
+      </c>
+      <c r="J698" s="3">
+        <v>41846</v>
       </c>
     </row>
     <row r="699" spans="1:10" x14ac:dyDescent="0.25">
@@ -19509,8 +19629,14 @@
       <c r="E760" t="s">
         <v>13</v>
       </c>
+      <c r="H760">
+        <v>5</v>
+      </c>
       <c r="I760" s="3">
         <v>41841</v>
+      </c>
+      <c r="J760" s="3">
+        <v>41846</v>
       </c>
     </row>
     <row r="761" spans="1:10" x14ac:dyDescent="0.25">

--- a/Data/2018-07-01_HS_datasheet.xlsx
+++ b/Data/2018-07-01_HS_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE24ECC-A5BE-4208-A3AA-728EE95304C9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D83C895-042E-4DC7-9F12-BB66DD4B06F8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -845,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -858,6 +858,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1200,8 +1201,8 @@
   <dimension ref="A1:J781"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A671" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M61" sqref="M61"/>
+      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H274" sqref="H274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2619,8 +2620,14 @@
       <c r="G49">
         <v>38.700000000000003</v>
       </c>
+      <c r="H49">
+        <v>26</v>
+      </c>
       <c r="I49" s="3">
         <v>41822</v>
+      </c>
+      <c r="J49" s="3">
+        <v>41848</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -3553,8 +3560,14 @@
       <c r="G89">
         <v>41.4</v>
       </c>
+      <c r="H89">
+        <v>23</v>
+      </c>
       <c r="I89" s="3">
         <v>41824</v>
+      </c>
+      <c r="J89" s="3">
+        <v>41847</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -4485,8 +4498,14 @@
       <c r="G123">
         <v>38.4</v>
       </c>
+      <c r="H123">
+        <v>23</v>
+      </c>
       <c r="I123" s="3">
         <v>41824</v>
+      </c>
+      <c r="J123" s="3">
+        <v>41847</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -4612,8 +4631,14 @@
       <c r="G128">
         <v>38.700000000000003</v>
       </c>
+      <c r="H128">
+        <v>23</v>
+      </c>
       <c r="I128" s="3">
         <v>41824</v>
+      </c>
+      <c r="J128" s="3">
+        <v>41847</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -5284,8 +5309,14 @@
       <c r="G159">
         <v>41.8</v>
       </c>
+      <c r="H159">
+        <v>19</v>
+      </c>
       <c r="I159" s="3">
         <v>41828</v>
+      </c>
+      <c r="J159" s="3">
+        <v>41847</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -5504,8 +5535,14 @@
       <c r="G167">
         <v>41.7</v>
       </c>
+      <c r="H167">
+        <v>19</v>
+      </c>
       <c r="I167" s="3">
         <v>41828</v>
+      </c>
+      <c r="J167" s="3">
+        <v>41847</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5892,8 +5929,14 @@
       <c r="F181" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="H181">
+        <v>19</v>
+      </c>
       <c r="I181" s="3">
         <v>41828</v>
+      </c>
+      <c r="J181" s="3">
+        <v>41847</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -6782,8 +6825,14 @@
       <c r="E215" t="s">
         <v>13</v>
       </c>
+      <c r="H215">
+        <v>19</v>
+      </c>
       <c r="I215" s="3">
         <v>41828</v>
+      </c>
+      <c r="J215" s="3">
+        <v>41847</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -8254,8 +8303,14 @@
       <c r="F274" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="H274">
+        <v>19</v>
+      </c>
       <c r="I274" s="3">
         <v>41829</v>
+      </c>
+      <c r="J274" s="3">
+        <v>41848</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
@@ -9148,8 +9203,14 @@
       <c r="G314">
         <v>41.7</v>
       </c>
+      <c r="H314" s="12">
+        <v>16</v>
+      </c>
       <c r="I314" s="3">
         <v>41831</v>
+      </c>
+      <c r="J314" s="3">
+        <v>41847</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
@@ -9362,8 +9423,14 @@
       <c r="G322">
         <v>42.3</v>
       </c>
+      <c r="H322" s="12">
+        <v>16</v>
+      </c>
       <c r="I322" s="3">
         <v>41831</v>
+      </c>
+      <c r="J322" s="3">
+        <v>41847</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
@@ -10113,8 +10180,14 @@
       <c r="F351" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="H351" s="12">
+        <v>16</v>
+      </c>
       <c r="I351" s="3">
         <v>41831</v>
+      </c>
+      <c r="J351" s="3">
+        <v>41847</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
@@ -10683,8 +10756,14 @@
       <c r="E375" t="s">
         <v>13</v>
       </c>
+      <c r="H375">
+        <v>17</v>
+      </c>
       <c r="I375" s="3">
         <v>41831</v>
+      </c>
+      <c r="J375" s="3">
+        <v>41848</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.25">
@@ -11184,8 +11263,14 @@
       <c r="G397">
         <v>40.9</v>
       </c>
+      <c r="H397">
+        <v>16</v>
+      </c>
       <c r="I397" s="3">
         <v>41832</v>
+      </c>
+      <c r="J397" s="3">
+        <v>41848</v>
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.25">
@@ -11207,8 +11292,14 @@
       <c r="G398">
         <v>40.1</v>
       </c>
+      <c r="H398">
+        <v>15</v>
+      </c>
       <c r="I398" s="3">
         <v>41832</v>
+      </c>
+      <c r="J398" s="3">
+        <v>41847</v>
       </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.25">
@@ -11386,8 +11477,14 @@
       <c r="F405" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="H405">
+        <v>16</v>
+      </c>
       <c r="I405" s="3">
         <v>41832</v>
+      </c>
+      <c r="J405" s="3">
+        <v>41848</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.25">
@@ -12010,8 +12107,14 @@
       <c r="F429" s="1" t="s">
         <v>160</v>
       </c>
+      <c r="H429">
+        <v>16</v>
+      </c>
       <c r="I429" s="3">
         <v>41832</v>
+      </c>
+      <c r="J429" s="3">
+        <v>41848</v>
       </c>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.25">
@@ -12854,8 +12957,14 @@
       <c r="E467" t="s">
         <v>11</v>
       </c>
+      <c r="H467">
+        <v>15</v>
+      </c>
       <c r="I467" s="3">
         <v>41832</v>
+      </c>
+      <c r="J467" s="3">
+        <v>41847</v>
       </c>
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.25">
@@ -12999,8 +13108,14 @@
       <c r="G473">
         <v>41.9</v>
       </c>
+      <c r="H473">
+        <v>14</v>
+      </c>
       <c r="I473" s="3">
         <v>41834</v>
+      </c>
+      <c r="J473" s="3">
+        <v>41848</v>
       </c>
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.25">
@@ -13074,8 +13189,14 @@
       <c r="G476">
         <v>40.4</v>
       </c>
+      <c r="H476">
+        <v>14</v>
+      </c>
       <c r="I476" s="3">
         <v>41834</v>
+      </c>
+      <c r="J476" s="3">
+        <v>41848</v>
       </c>
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.25">
@@ -13126,8 +13247,14 @@
       <c r="G478">
         <v>41.3</v>
       </c>
+      <c r="H478">
+        <v>14</v>
+      </c>
       <c r="I478" s="3">
         <v>41834</v>
+      </c>
+      <c r="J478" s="3">
+        <v>41848</v>
       </c>
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.25">
@@ -13149,8 +13276,14 @@
       <c r="G479">
         <v>41.3</v>
       </c>
+      <c r="H479">
+        <v>14</v>
+      </c>
       <c r="I479" s="3">
         <v>41834</v>
+      </c>
+      <c r="J479" s="3">
+        <v>41848</v>
       </c>
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.25">
@@ -13264,8 +13397,14 @@
       <c r="F484" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="H484">
+        <v>14</v>
+      </c>
       <c r="I484" s="3">
         <v>41834</v>
+      </c>
+      <c r="J484" s="3">
+        <v>41848</v>
       </c>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.25">
@@ -13668,8 +13807,14 @@
       <c r="F500" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="H500">
+        <v>14</v>
+      </c>
       <c r="I500" s="3">
         <v>41834</v>
+      </c>
+      <c r="J500" s="3">
+        <v>41848</v>
       </c>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.25">
@@ -13714,8 +13859,14 @@
       <c r="F502" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="H502">
+        <v>14</v>
+      </c>
       <c r="I502" s="3">
         <v>41834</v>
+      </c>
+      <c r="J502" s="3">
+        <v>41848</v>
       </c>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.25">
@@ -13737,8 +13888,14 @@
       <c r="F503" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="H503">
+        <v>13</v>
+      </c>
       <c r="I503" s="3">
         <v>41834</v>
+      </c>
+      <c r="J503" s="3">
+        <v>41847</v>
       </c>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.25">
@@ -13760,8 +13917,14 @@
       <c r="F504" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="H504">
+        <v>13</v>
+      </c>
       <c r="I504" s="3">
         <v>41834</v>
+      </c>
+      <c r="J504" s="3">
+        <v>41847</v>
       </c>
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.25">
@@ -13783,8 +13946,14 @@
       <c r="F505" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="H505">
+        <v>13</v>
+      </c>
       <c r="I505" s="3">
         <v>41834</v>
+      </c>
+      <c r="J505" s="3">
+        <v>41847</v>
       </c>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.25">
@@ -13893,8 +14062,14 @@
       <c r="G509">
         <v>38.4</v>
       </c>
+      <c r="H509">
+        <v>13</v>
+      </c>
       <c r="I509" s="3">
         <v>41834</v>
+      </c>
+      <c r="J509" s="3">
+        <v>41847</v>
       </c>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.25">
@@ -14101,8 +14276,14 @@
       <c r="G517">
         <v>38.6</v>
       </c>
+      <c r="H517">
+        <v>13</v>
+      </c>
       <c r="I517" s="3">
         <v>41834</v>
+      </c>
+      <c r="J517" s="3">
+        <v>41847</v>
       </c>
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.25">
@@ -14290,8 +14471,14 @@
       <c r="E526" t="s">
         <v>13</v>
       </c>
+      <c r="H526">
+        <v>13</v>
+      </c>
       <c r="I526" s="3">
         <v>41834</v>
+      </c>
+      <c r="J526" s="3">
+        <v>41847</v>
       </c>
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.25">
@@ -14743,8 +14930,14 @@
       <c r="G548">
         <v>40.5</v>
       </c>
+      <c r="H548">
+        <v>12</v>
+      </c>
       <c r="I548" s="3">
         <v>41835</v>
+      </c>
+      <c r="J548" s="3">
+        <v>41847</v>
       </c>
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.25">
@@ -14841,8 +15034,14 @@
       <c r="G552">
         <v>39.6</v>
       </c>
+      <c r="H552">
+        <v>12</v>
+      </c>
       <c r="I552" s="3">
         <v>41835</v>
+      </c>
+      <c r="J552" s="3">
+        <v>41847</v>
       </c>
     </row>
     <row r="553" spans="1:10" x14ac:dyDescent="0.25">
@@ -14968,8 +15167,14 @@
       <c r="G557">
         <v>40.5</v>
       </c>
+      <c r="H557">
+        <v>12</v>
+      </c>
       <c r="I557" s="3">
         <v>41835</v>
+      </c>
+      <c r="J557" s="3">
+        <v>41847</v>
       </c>
     </row>
     <row r="558" spans="1:10" x14ac:dyDescent="0.25">
@@ -15130,8 +15335,14 @@
       <c r="F563" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="H563">
+        <v>12</v>
+      </c>
       <c r="I563" s="3">
         <v>41835</v>
+      </c>
+      <c r="J563" s="3">
+        <v>41847</v>
       </c>
     </row>
     <row r="564" spans="1:10" x14ac:dyDescent="0.25">
@@ -15471,8 +15682,14 @@
       <c r="F576" s="1" t="s">
         <v>203</v>
       </c>
+      <c r="H576">
+        <v>13</v>
+      </c>
       <c r="I576" s="3">
         <v>41835</v>
+      </c>
+      <c r="J576" s="3">
+        <v>41848</v>
       </c>
     </row>
     <row r="577" spans="1:10" x14ac:dyDescent="0.25">
@@ -15621,8 +15838,14 @@
       <c r="F582" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="H582">
+        <v>13</v>
+      </c>
       <c r="I582" s="3">
         <v>41835</v>
+      </c>
+      <c r="J582" s="3">
+        <v>41848</v>
       </c>
     </row>
     <row r="583" spans="1:10" x14ac:dyDescent="0.25">
@@ -15736,8 +15959,14 @@
       <c r="G587">
         <v>39.299999999999997</v>
       </c>
+      <c r="H587">
+        <v>13</v>
+      </c>
       <c r="I587" s="3">
         <v>41835</v>
+      </c>
+      <c r="J587" s="3">
+        <v>41848</v>
       </c>
     </row>
     <row r="588" spans="1:10" x14ac:dyDescent="0.25">
@@ -16320,8 +16549,14 @@
       <c r="E615" t="s">
         <v>11</v>
       </c>
+      <c r="H615">
+        <v>13</v>
+      </c>
       <c r="I615" s="3">
         <v>41835</v>
+      </c>
+      <c r="J615" s="3">
+        <v>41848</v>
       </c>
     </row>
     <row r="616" spans="1:10" x14ac:dyDescent="0.25">
@@ -16360,8 +16595,14 @@
       <c r="E617" t="s">
         <v>11</v>
       </c>
+      <c r="H617">
+        <v>12</v>
+      </c>
       <c r="I617" s="3">
         <v>41835</v>
+      </c>
+      <c r="J617" s="3">
+        <v>41847</v>
       </c>
     </row>
     <row r="618" spans="1:10" x14ac:dyDescent="0.25">
@@ -16377,8 +16618,14 @@
       <c r="E618" t="s">
         <v>11</v>
       </c>
+      <c r="H618">
+        <v>12</v>
+      </c>
       <c r="I618" s="3">
         <v>41835</v>
+      </c>
+      <c r="J618" s="3">
+        <v>41847</v>
       </c>
     </row>
     <row r="619" spans="1:10" x14ac:dyDescent="0.25">
@@ -16411,8 +16658,14 @@
       <c r="E620" t="s">
         <v>11</v>
       </c>
+      <c r="H620">
+        <v>12</v>
+      </c>
       <c r="I620" s="3">
         <v>41835</v>
+      </c>
+      <c r="J620" s="3">
+        <v>41847</v>
       </c>
     </row>
     <row r="621" spans="1:10" x14ac:dyDescent="0.25">
@@ -16428,8 +16681,14 @@
       <c r="E621" t="s">
         <v>11</v>
       </c>
+      <c r="H621">
+        <v>12</v>
+      </c>
       <c r="I621" s="3">
         <v>41835</v>
+      </c>
+      <c r="J621" s="3">
+        <v>41847</v>
       </c>
     </row>
     <row r="622" spans="1:10" x14ac:dyDescent="0.25">
@@ -16787,9 +17046,15 @@
       <c r="G636">
         <v>42</v>
       </c>
+      <c r="H636">
+        <v>12</v>
+      </c>
       <c r="I636" s="3">
         <v>41836</v>
       </c>
+      <c r="J636" s="3">
+        <v>41848</v>
+      </c>
     </row>
     <row r="637" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A637">
@@ -16833,9 +17098,15 @@
       <c r="G638">
         <v>37.4</v>
       </c>
+      <c r="H638">
+        <v>12</v>
+      </c>
       <c r="I638" s="3">
         <v>41836</v>
       </c>
+      <c r="J638" s="3">
+        <v>41848</v>
+      </c>
     </row>
     <row r="639" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A639">
@@ -17121,9 +17392,15 @@
       <c r="F650" s="1" t="s">
         <v>219</v>
       </c>
+      <c r="H650">
+        <v>11</v>
+      </c>
       <c r="I650" s="3">
         <v>41836</v>
       </c>
+      <c r="J650" s="3">
+        <v>41847</v>
+      </c>
     </row>
     <row r="651" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A651">
@@ -17323,9 +17600,15 @@
       <c r="F658" s="1" t="s">
         <v>226</v>
       </c>
+      <c r="H658">
+        <v>12</v>
+      </c>
       <c r="I658" s="3">
         <v>41836</v>
       </c>
+      <c r="J658" s="3">
+        <v>41848</v>
+      </c>
     </row>
     <row r="659" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A659">
@@ -17473,9 +17756,15 @@
       <c r="F664" s="1" t="s">
         <v>232</v>
       </c>
+      <c r="H664">
+        <v>11</v>
+      </c>
       <c r="I664" s="3">
         <v>41836</v>
       </c>
+      <c r="J664" s="3">
+        <v>41847</v>
+      </c>
     </row>
     <row r="665" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A665">
@@ -17525,9 +17814,15 @@
       <c r="G666">
         <v>38.9</v>
       </c>
+      <c r="H666">
+        <v>12</v>
+      </c>
       <c r="I666" s="3">
         <v>41836</v>
       </c>
+      <c r="J666" s="3">
+        <v>41848</v>
+      </c>
     </row>
     <row r="667" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A667">
@@ -17623,9 +17918,15 @@
       <c r="G670">
         <v>37.799999999999997</v>
       </c>
+      <c r="H670">
+        <v>12</v>
+      </c>
       <c r="I670" s="3">
         <v>41836</v>
       </c>
+      <c r="J670" s="3">
+        <v>41848</v>
+      </c>
     </row>
     <row r="671" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A671">
@@ -17704,9 +18005,15 @@
       <c r="G673">
         <v>37.4</v>
       </c>
+      <c r="H673">
+        <v>11</v>
+      </c>
       <c r="I673" s="3">
         <v>41836</v>
       </c>
+      <c r="J673" s="3">
+        <v>41847</v>
+      </c>
     </row>
     <row r="674" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A674">
@@ -17785,9 +18092,15 @@
       <c r="G676">
         <v>38.1</v>
       </c>
+      <c r="H676">
+        <v>12</v>
+      </c>
       <c r="I676" s="3">
         <v>41836</v>
       </c>
+      <c r="J676" s="3">
+        <v>41848</v>
+      </c>
     </row>
     <row r="677" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A677">
@@ -18120,9 +18433,15 @@
       <c r="E695" t="s">
         <v>11</v>
       </c>
+      <c r="H695">
+        <v>12</v>
+      </c>
       <c r="I695" s="3">
         <v>41836</v>
       </c>
+      <c r="J695" s="3">
+        <v>41848</v>
+      </c>
     </row>
     <row r="696" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A696">
@@ -18194,9 +18513,15 @@
       <c r="E699" t="s">
         <v>11</v>
       </c>
+      <c r="H699">
+        <v>11</v>
+      </c>
       <c r="I699" s="3">
         <v>41836</v>
       </c>
+      <c r="J699" s="3">
+        <v>41847</v>
+      </c>
     </row>
     <row r="700" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A700">
@@ -18228,9 +18553,15 @@
       <c r="E701" t="s">
         <v>11</v>
       </c>
+      <c r="H701">
+        <v>11</v>
+      </c>
       <c r="I701" s="3">
         <v>41836</v>
       </c>
+      <c r="J701" s="3">
+        <v>41847</v>
+      </c>
     </row>
     <row r="702" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A702">
@@ -18245,8 +18576,14 @@
       <c r="E702" t="s">
         <v>11</v>
       </c>
+      <c r="H702">
+        <v>11</v>
+      </c>
       <c r="I702" s="3">
         <v>41836</v>
+      </c>
+      <c r="J702" s="3">
+        <v>41847</v>
       </c>
     </row>
     <row r="703" spans="1:10" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -18864,9 +19201,15 @@
       <c r="F727" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="H727">
+        <v>7</v>
+      </c>
       <c r="I727" s="3">
         <v>41841</v>
       </c>
+      <c r="J727" s="3">
+        <v>41848</v>
+      </c>
     </row>
     <row r="728" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A728">
@@ -18887,9 +19230,15 @@
       <c r="F728" s="1" t="s">
         <v>221</v>
       </c>
+      <c r="H728">
+        <v>7</v>
+      </c>
       <c r="I728" s="3">
         <v>41841</v>
       </c>
+      <c r="J728" s="3">
+        <v>41848</v>
+      </c>
     </row>
     <row r="729" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A729">
@@ -19417,9 +19766,15 @@
       <c r="G750">
         <v>36.9</v>
       </c>
+      <c r="H750">
+        <v>7</v>
+      </c>
       <c r="I750" s="3">
         <v>41841</v>
       </c>
+      <c r="J750" s="3">
+        <v>41848</v>
+      </c>
     </row>
     <row r="751" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A751">
@@ -19561,9 +19916,15 @@
       <c r="E756" t="s">
         <v>13</v>
       </c>
+      <c r="H756">
+        <v>6</v>
+      </c>
       <c r="I756" s="3">
         <v>41841</v>
       </c>
+      <c r="J756" s="3">
+        <v>41847</v>
+      </c>
     </row>
     <row r="757" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A757">
@@ -19922,8 +20283,14 @@
       <c r="E776" t="s">
         <v>11</v>
       </c>
+      <c r="H776">
+        <v>7</v>
+      </c>
       <c r="I776" s="3">
         <v>41841</v>
+      </c>
+      <c r="J776" s="3">
+        <v>41848</v>
       </c>
     </row>
     <row r="777" spans="1:10" x14ac:dyDescent="0.25">

--- a/Data/2018-07-01_HS_datasheet.xlsx
+++ b/Data/2018-07-01_HS_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D83C895-042E-4DC7-9F12-BB66DD4B06F8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81131BF1-F61C-47D1-9F72-86B2AED9800B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1201,8 +1201,8 @@
   <dimension ref="A1:J781"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H274" sqref="H274"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3057,8 +3057,14 @@
       <c r="E68" t="s">
         <v>11</v>
       </c>
+      <c r="H68">
+        <v>27</v>
+      </c>
       <c r="I68" s="3">
         <v>41822</v>
+      </c>
+      <c r="J68" s="3">
+        <v>41849</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -3908,8 +3914,14 @@
       <c r="F101" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="H101">
+        <v>25</v>
+      </c>
       <c r="I101" s="3">
         <v>41824</v>
+      </c>
+      <c r="J101" s="3">
+        <v>41849</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -4249,8 +4261,14 @@
       <c r="F114" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="H114">
+        <v>25</v>
+      </c>
       <c r="I114" s="3">
         <v>41824</v>
+      </c>
+      <c r="J114" s="3">
+        <v>41849</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -4272,8 +4290,14 @@
       <c r="F115" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="H115">
+        <v>25</v>
+      </c>
       <c r="I115" s="3">
         <v>41824</v>
+      </c>
+      <c r="J115" s="3">
+        <v>41849</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -4608,8 +4632,14 @@
       <c r="G127">
         <v>38.5</v>
       </c>
+      <c r="H127">
+        <v>25</v>
+      </c>
       <c r="I127" s="3">
         <v>41824</v>
+      </c>
+      <c r="J127" s="3">
+        <v>41849</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -4798,8 +4828,14 @@
       <c r="E135" t="s">
         <v>13</v>
       </c>
+      <c r="H135">
+        <v>25</v>
+      </c>
       <c r="I135" s="3">
         <v>41824</v>
+      </c>
+      <c r="J135" s="3">
+        <v>41849</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -5338,8 +5374,14 @@
       <c r="G160">
         <v>41.7</v>
       </c>
+      <c r="H160">
+        <v>21</v>
+      </c>
       <c r="I160" s="3">
         <v>41828</v>
+      </c>
+      <c r="J160" s="3">
+        <v>41849</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -5622,8 +5664,14 @@
       <c r="G170">
         <v>36.700000000000003</v>
       </c>
+      <c r="H170">
+        <v>21</v>
+      </c>
       <c r="I170" s="3">
         <v>41828</v>
+      </c>
+      <c r="J170" s="3">
+        <v>41849</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -9232,8 +9280,14 @@
       <c r="G315">
         <v>41.7</v>
       </c>
+      <c r="H315">
+        <v>18</v>
+      </c>
       <c r="I315" s="3">
         <v>41831</v>
+      </c>
+      <c r="J315" s="3">
+        <v>41849</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
@@ -10232,8 +10286,14 @@
       <c r="G353">
         <v>39.1</v>
       </c>
+      <c r="H353">
+        <v>18</v>
+      </c>
       <c r="I353" s="3">
         <v>41831</v>
+      </c>
+      <c r="J353" s="3">
+        <v>41849</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
@@ -10481,8 +10541,14 @@
       <c r="G362">
         <v>39.299999999999997</v>
       </c>
+      <c r="H362">
+        <v>18</v>
+      </c>
       <c r="I362" s="3">
         <v>41831</v>
+      </c>
+      <c r="J362" s="3">
+        <v>41849</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
@@ -12298,8 +12364,14 @@
       <c r="G436">
         <v>37.4</v>
       </c>
+      <c r="H436">
+        <v>17</v>
+      </c>
       <c r="I436" s="3">
         <v>41832</v>
+      </c>
+      <c r="J436" s="3">
+        <v>41849</v>
       </c>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.25">
@@ -12523,8 +12595,14 @@
       <c r="E445" t="s">
         <v>13</v>
       </c>
+      <c r="H445">
+        <v>17</v>
+      </c>
       <c r="I445" s="3">
         <v>41832</v>
+      </c>
+      <c r="J445" s="3">
+        <v>41849</v>
       </c>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.25">
@@ -12574,8 +12652,14 @@
       <c r="E448" t="s">
         <v>13</v>
       </c>
+      <c r="H448">
+        <v>17</v>
+      </c>
       <c r="I448" s="3">
         <v>41832</v>
+      </c>
+      <c r="J448" s="3">
+        <v>41849</v>
       </c>
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.25">
@@ -13374,8 +13458,14 @@
       <c r="F483" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="H483">
+        <v>15</v>
+      </c>
       <c r="I483" s="3">
         <v>41834</v>
+      </c>
+      <c r="J483" s="3">
+        <v>41849</v>
       </c>
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.25">
@@ -16768,10 +16858,15 @@
         <v>11</v>
       </c>
       <c r="F625" s="5"/>
+      <c r="H625" s="4">
+        <v>14</v>
+      </c>
       <c r="I625" s="6">
         <v>41835</v>
       </c>
-      <c r="J625" s="6"/>
+      <c r="J625" s="6">
+        <v>41849</v>
+      </c>
     </row>
     <row r="626" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A626">
@@ -20192,8 +20287,14 @@
       <c r="E771" t="s">
         <v>11</v>
       </c>
+      <c r="H771">
+        <v>8</v>
+      </c>
       <c r="I771" s="3">
         <v>41841</v>
+      </c>
+      <c r="J771" s="3">
+        <v>41849</v>
       </c>
     </row>
     <row r="772" spans="1:10" x14ac:dyDescent="0.25">

--- a/Data/2018-07-01_HS_datasheet.xlsx
+++ b/Data/2018-07-01_HS_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81131BF1-F61C-47D1-9F72-86B2AED9800B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E334B232-905B-4EB4-84F9-FC7CB4D4A83B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="254">
   <si>
     <t>cohort</t>
   </si>
@@ -787,9 +787,6 @@
   </si>
   <si>
     <t>1:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1201,8 +1198,8 @@
   <dimension ref="A1:J781"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L69" sqref="L69"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H115" sqref="H115:J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3346,8 +3343,14 @@
       <c r="G81">
         <v>40.799999999999997</v>
       </c>
+      <c r="H81">
+        <v>26</v>
+      </c>
       <c r="I81" s="3">
         <v>41824</v>
+      </c>
+      <c r="J81" s="3">
+        <v>41850</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -3543,8 +3546,14 @@
       <c r="G88">
         <v>41.3</v>
       </c>
+      <c r="H88">
+        <v>26</v>
+      </c>
       <c r="I88" s="3">
         <v>41824</v>
+      </c>
+      <c r="J88" s="3">
+        <v>41850</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -4291,13 +4300,13 @@
         <v>76</v>
       </c>
       <c r="H115">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I115" s="3">
         <v>41824</v>
       </c>
       <c r="J115" s="3">
-        <v>41849</v>
+        <v>41850</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -7023,13 +7032,13 @@
         <v>13</v>
       </c>
       <c r="H222">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I222" s="3">
         <v>41828</v>
       </c>
       <c r="J222" s="3">
-        <v>41844</v>
+        <v>41850</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -9778,8 +9787,14 @@
       <c r="F333" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="H333">
+        <v>19</v>
+      </c>
       <c r="I333" s="3">
         <v>41831</v>
+      </c>
+      <c r="J333" s="3">
+        <v>41850</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
@@ -10708,8 +10723,14 @@
       <c r="E369" t="s">
         <v>13</v>
       </c>
+      <c r="H369">
+        <v>19</v>
+      </c>
       <c r="I369" s="3">
         <v>41831</v>
+      </c>
+      <c r="J369" s="3">
+        <v>41850</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
@@ -10845,8 +10866,14 @@
       <c r="E376" t="s">
         <v>13</v>
       </c>
+      <c r="H376">
+        <v>19</v>
+      </c>
       <c r="I376" s="3">
         <v>41831</v>
+      </c>
+      <c r="J376" s="3">
+        <v>41850</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.25">
@@ -10925,8 +10952,14 @@
       <c r="E380" t="s">
         <v>11</v>
       </c>
+      <c r="H380">
+        <v>19</v>
+      </c>
       <c r="I380" s="3">
         <v>41831</v>
+      </c>
+      <c r="J380" s="3">
+        <v>41850</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.25">
@@ -13140,8 +13173,14 @@
       <c r="G471">
         <v>39.4</v>
       </c>
+      <c r="H471">
+        <v>16</v>
+      </c>
       <c r="I471" s="3">
         <v>41834</v>
+      </c>
+      <c r="J471" s="3">
+        <v>41850</v>
       </c>
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.25">
@@ -13540,13 +13579,13 @@
         <v>174</v>
       </c>
       <c r="H486">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I486" s="3">
         <v>41834</v>
       </c>
       <c r="J486" s="3">
-        <v>41841</v>
+        <v>41850</v>
       </c>
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.25">
@@ -13926,8 +13965,14 @@
       <c r="F501" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="H501">
+        <v>16</v>
+      </c>
       <c r="I501" s="3">
         <v>41834</v>
+      </c>
+      <c r="J501" s="3">
+        <v>41850</v>
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.25">
@@ -15402,8 +15447,14 @@
       <c r="F562" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="H562">
+        <v>15</v>
+      </c>
       <c r="I562" s="3">
         <v>41835</v>
+      </c>
+      <c r="J562" s="3">
+        <v>41850</v>
       </c>
     </row>
     <row r="563" spans="1:10" x14ac:dyDescent="0.25">
@@ -15535,8 +15586,14 @@
       <c r="F567" s="1" t="s">
         <v>197</v>
       </c>
+      <c r="H567">
+        <v>15</v>
+      </c>
       <c r="I567" s="3">
         <v>41835</v>
+      </c>
+      <c r="J567" s="3">
+        <v>41850</v>
       </c>
     </row>
     <row r="568" spans="1:10" x14ac:dyDescent="0.25">
@@ -16003,8 +16060,14 @@
       <c r="F585" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="H585">
+        <v>15</v>
+      </c>
       <c r="I585" s="3">
         <v>41835</v>
+      </c>
+      <c r="J585" s="3">
+        <v>41850</v>
       </c>
     </row>
     <row r="586" spans="1:10" x14ac:dyDescent="0.25">
@@ -16026,8 +16089,14 @@
       <c r="F586" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="H586">
+        <v>15</v>
+      </c>
       <c r="I586" s="3">
         <v>41835</v>
+      </c>
+      <c r="J586" s="3">
+        <v>41850</v>
       </c>
     </row>
     <row r="587" spans="1:10" x14ac:dyDescent="0.25">
@@ -16731,8 +16800,14 @@
       <c r="E619" t="s">
         <v>11</v>
       </c>
+      <c r="H619">
+        <v>15</v>
+      </c>
       <c r="I619" s="3">
         <v>41835</v>
+      </c>
+      <c r="J619" s="3">
+        <v>41850</v>
       </c>
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.25">
@@ -17049,9 +17124,15 @@
       <c r="G632">
         <v>41.4</v>
       </c>
+      <c r="H632">
+        <v>14</v>
+      </c>
       <c r="I632" s="3">
         <v>41836</v>
       </c>
+      <c r="J632" s="3">
+        <v>41850</v>
+      </c>
     </row>
     <row r="633" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A633">
@@ -17095,9 +17176,15 @@
       <c r="G634">
         <v>40.6</v>
       </c>
+      <c r="H634">
+        <v>14</v>
+      </c>
       <c r="I634" s="3">
         <v>41836</v>
       </c>
+      <c r="J634" s="3">
+        <v>41850</v>
+      </c>
     </row>
     <row r="635" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A635">
@@ -17170,9 +17257,15 @@
       <c r="G637">
         <v>41.8</v>
       </c>
+      <c r="H637">
+        <v>14</v>
+      </c>
       <c r="I637" s="3">
         <v>41836</v>
       </c>
+      <c r="J637" s="3">
+        <v>41850</v>
+      </c>
     </row>
     <row r="638" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A638">
@@ -17291,9 +17384,15 @@
       <c r="F642" s="1" t="s">
         <v>214</v>
       </c>
+      <c r="H642">
+        <v>14</v>
+      </c>
       <c r="I642" s="3">
         <v>41836</v>
       </c>
+      <c r="J642" s="3">
+        <v>41850</v>
+      </c>
     </row>
     <row r="643" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A643">
@@ -17337,9 +17436,15 @@
       <c r="F644" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="H644">
+        <v>14</v>
+      </c>
       <c r="I644" s="3">
         <v>41836</v>
       </c>
+      <c r="J644" s="3">
+        <v>41850</v>
+      </c>
     </row>
     <row r="645" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A645">
@@ -17753,9 +17858,15 @@
       <c r="F660" s="1" t="s">
         <v>228</v>
       </c>
+      <c r="H660">
+        <v>14</v>
+      </c>
       <c r="I660" s="3">
         <v>41836</v>
       </c>
+      <c r="J660" s="3">
+        <v>41850</v>
+      </c>
     </row>
     <row r="661" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A661">
@@ -17776,9 +17887,15 @@
       <c r="F661" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="H661">
+        <v>14</v>
+      </c>
       <c r="I661" s="3">
         <v>41836</v>
       </c>
+      <c r="J661" s="3">
+        <v>41850</v>
+      </c>
     </row>
     <row r="662" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A662">
@@ -17990,9 +18107,15 @@
       <c r="G669">
         <v>38.4</v>
       </c>
+      <c r="H669">
+        <v>14</v>
+      </c>
       <c r="I669" s="3">
         <v>41836</v>
       </c>
+      <c r="J669" s="3">
+        <v>41850</v>
+      </c>
     </row>
     <row r="670" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A670">
@@ -18460,9 +18583,15 @@
       <c r="E691" t="s">
         <v>11</v>
       </c>
+      <c r="H691">
+        <v>14</v>
+      </c>
       <c r="I691" s="3">
         <v>41836</v>
       </c>
+      <c r="J691" s="3">
+        <v>41850</v>
+      </c>
     </row>
     <row r="692" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A692">
@@ -18511,9 +18640,15 @@
       <c r="E694" t="s">
         <v>11</v>
       </c>
+      <c r="H694">
+        <v>14</v>
+      </c>
       <c r="I694" s="3">
         <v>41836</v>
       </c>
+      <c r="J694" s="3">
+        <v>41850</v>
+      </c>
     </row>
     <row r="695" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A695">
@@ -18551,8 +18686,14 @@
       <c r="E696" t="s">
         <v>11</v>
       </c>
+      <c r="H696">
+        <v>14</v>
+      </c>
       <c r="I696" s="3">
         <v>41836</v>
+      </c>
+      <c r="J696" s="3">
+        <v>41850</v>
       </c>
     </row>
     <row r="697" spans="1:10" x14ac:dyDescent="0.25">
@@ -19175,9 +19316,15 @@
       <c r="F722" s="1" t="s">
         <v>238</v>
       </c>
+      <c r="H722">
+        <v>9</v>
+      </c>
       <c r="I722" s="3">
         <v>41841</v>
       </c>
+      <c r="J722" s="3">
+        <v>41850</v>
+      </c>
     </row>
     <row r="723" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A723">
@@ -19648,9 +19795,15 @@
       <c r="F741" s="1" t="s">
         <v>252</v>
       </c>
+      <c r="H741">
+        <v>9</v>
+      </c>
       <c r="I741" s="3">
         <v>41841</v>
       </c>
+      <c r="J741" s="3">
+        <v>41850</v>
+      </c>
     </row>
     <row r="742" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A742">
@@ -19890,9 +20043,15 @@
       <c r="G751">
         <v>38.5</v>
       </c>
+      <c r="H751">
+        <v>9</v>
+      </c>
       <c r="I751" s="3">
         <v>41841</v>
       </c>
+      <c r="J751" s="3">
+        <v>41850</v>
+      </c>
     </row>
     <row r="752" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A752">
@@ -20012,13 +20171,13 @@
         <v>13</v>
       </c>
       <c r="H756">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I756" s="3">
         <v>41841</v>
       </c>
       <c r="J756" s="3">
-        <v>41847</v>
+        <v>41850</v>
       </c>
     </row>
     <row r="757" spans="1:10" x14ac:dyDescent="0.25">
@@ -20176,12 +20335,15 @@
       <c r="E765" t="s">
         <v>13</v>
       </c>
-      <c r="H765" t="s">
-        <v>254</v>
+      <c r="H765">
+        <v>9</v>
       </c>
       <c r="I765" s="3">
         <v>41841</v>
       </c>
+      <c r="J765" s="3">
+        <v>41850</v>
+      </c>
     </row>
     <row r="766" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A766">
@@ -20350,9 +20512,15 @@
       <c r="E774" t="s">
         <v>11</v>
       </c>
+      <c r="H774">
+        <v>9</v>
+      </c>
       <c r="I774" s="3">
         <v>41841</v>
       </c>
+      <c r="J774" s="3">
+        <v>41850</v>
+      </c>
     </row>
     <row r="775" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A775">
@@ -20476,8 +20644,14 @@
       <c r="E781" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="H781">
+        <v>9</v>
+      </c>
       <c r="I781" s="3">
         <v>41841</v>
+      </c>
+      <c r="J781" s="3">
+        <v>41850</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2018-07-01_HS_datasheet.xlsx
+++ b/Data/2018-07-01_HS_datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E334B232-905B-4EB4-84F9-FC7CB4D4A83B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8535C287-06B0-43D9-982F-C8ABC404A4DF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1198,8 +1198,8 @@
   <dimension ref="A1:J781"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H115" sqref="H115:J115"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4120,8 +4120,14 @@
       <c r="F108" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="H108">
+        <v>27</v>
+      </c>
       <c r="I108" s="3">
         <v>41824</v>
+      </c>
+      <c r="J108" s="3">
+        <v>41851</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -4218,8 +4224,14 @@
       <c r="F112" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="H112">
+        <v>27</v>
+      </c>
       <c r="I112" s="3">
         <v>41824</v>
+      </c>
+      <c r="J112" s="3">
+        <v>41851</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -6264,8 +6276,14 @@
       <c r="F191" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="H191">
+        <v>23</v>
+      </c>
       <c r="I191" s="3">
         <v>41828</v>
+      </c>
+      <c r="J191" s="3">
+        <v>41851</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -6779,8 +6797,14 @@
       <c r="E210" t="s">
         <v>13</v>
       </c>
+      <c r="H210">
+        <v>23</v>
+      </c>
       <c r="I210" s="3">
         <v>41828</v>
+      </c>
+      <c r="J210" s="3">
+        <v>41851</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -7423,8 +7447,14 @@
       <c r="G239">
         <v>39.9</v>
       </c>
+      <c r="H239">
+        <v>22</v>
+      </c>
       <c r="I239" s="3">
         <v>41829</v>
+      </c>
+      <c r="J239" s="3">
+        <v>41851</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -8580,8 +8610,14 @@
       <c r="G282">
         <v>37.1</v>
       </c>
+      <c r="H282">
+        <v>22</v>
+      </c>
       <c r="I282" s="3">
         <v>41829</v>
+      </c>
+      <c r="J282" s="3">
+        <v>41851</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
@@ -11813,8 +11849,14 @@
       <c r="F414" s="1" t="s">
         <v>170</v>
       </c>
+      <c r="H414">
+        <v>19</v>
+      </c>
       <c r="I414" s="3">
         <v>41832</v>
+      </c>
+      <c r="J414" s="3">
+        <v>41851</v>
       </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.25">
@@ -12154,8 +12196,14 @@
       <c r="F427" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="H427">
+        <v>19</v>
+      </c>
       <c r="I427" s="3">
         <v>41832</v>
+      </c>
+      <c r="J427" s="3">
+        <v>41851</v>
       </c>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.25">
@@ -12235,8 +12283,14 @@
       <c r="F430" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="H430">
+        <v>19</v>
+      </c>
       <c r="I430" s="3">
         <v>41832</v>
+      </c>
+      <c r="J430" s="3">
+        <v>41851</v>
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.25">
@@ -12530,8 +12584,14 @@
       <c r="G441">
         <v>38.6</v>
       </c>
+      <c r="H441">
+        <v>19</v>
+      </c>
       <c r="I441" s="3">
         <v>41832</v>
+      </c>
+      <c r="J441" s="3">
+        <v>41851</v>
       </c>
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.25">
@@ -12816,8 +12876,14 @@
       <c r="E455" t="s">
         <v>13</v>
       </c>
+      <c r="H455">
+        <v>19</v>
+      </c>
       <c r="I455" s="3">
         <v>41832</v>
+      </c>
+      <c r="J455" s="3">
+        <v>41851</v>
       </c>
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.25">
@@ -12833,8 +12899,14 @@
       <c r="E456" t="s">
         <v>13</v>
       </c>
+      <c r="H456">
+        <v>19</v>
+      </c>
       <c r="I456" s="3">
         <v>41832</v>
+      </c>
+      <c r="J456" s="3">
+        <v>41851</v>
       </c>
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.25">
@@ -13474,8 +13546,14 @@
       <c r="G482">
         <v>37.6</v>
       </c>
+      <c r="H482">
+        <v>17</v>
+      </c>
       <c r="I482" s="3">
         <v>41834</v>
+      </c>
+      <c r="J482" s="3">
+        <v>41851</v>
       </c>
     </row>
     <row r="483" spans="1:10" x14ac:dyDescent="0.25">
@@ -15094,8 +15172,14 @@
       <c r="G549">
         <v>41.1</v>
       </c>
+      <c r="H549">
+        <v>16</v>
+      </c>
       <c r="I549" s="3">
         <v>41835</v>
+      </c>
+      <c r="J549" s="3">
+        <v>41851</v>
       </c>
     </row>
     <row r="550" spans="1:10" x14ac:dyDescent="0.25">
@@ -15279,8 +15363,14 @@
       <c r="G556">
         <v>40.299999999999997</v>
       </c>
+      <c r="H556">
+        <v>16</v>
+      </c>
       <c r="I556" s="3">
         <v>41835</v>
+      </c>
+      <c r="J556" s="3">
+        <v>41851</v>
       </c>
     </row>
     <row r="557" spans="1:10" x14ac:dyDescent="0.25">
@@ -15644,8 +15734,14 @@
       <c r="F569" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="H569">
+        <v>16</v>
+      </c>
       <c r="I569" s="3">
         <v>41835</v>
+      </c>
+      <c r="J569" s="3">
+        <v>41851</v>
       </c>
     </row>
     <row r="570" spans="1:10" x14ac:dyDescent="0.25">
@@ -16424,8 +16520,14 @@
       <c r="G599">
         <v>37</v>
       </c>
+      <c r="H599">
+        <v>16</v>
+      </c>
       <c r="I599" s="3">
         <v>41835</v>
+      </c>
+      <c r="J599" s="3">
+        <v>41851</v>
       </c>
     </row>
     <row r="600" spans="1:10" x14ac:dyDescent="0.25">
@@ -16549,8 +16651,14 @@
       <c r="E606" t="s">
         <v>13</v>
       </c>
+      <c r="H606">
+        <v>16</v>
+      </c>
       <c r="I606" s="3">
         <v>41835</v>
+      </c>
+      <c r="J606" s="3">
+        <v>41851</v>
       </c>
     </row>
     <row r="607" spans="1:10" x14ac:dyDescent="0.25">
@@ -17153,9 +17261,15 @@
       <c r="G633">
         <v>40.1</v>
       </c>
+      <c r="H633">
+        <v>15</v>
+      </c>
       <c r="I633" s="3">
         <v>41836</v>
       </c>
+      <c r="J633" s="3">
+        <v>41851</v>
+      </c>
     </row>
     <row r="634" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A634">
@@ -18339,9 +18453,15 @@
       <c r="G677">
         <v>37.200000000000003</v>
       </c>
+      <c r="H677">
+        <v>15</v>
+      </c>
       <c r="I677" s="3">
         <v>41836</v>
       </c>
+      <c r="J677" s="3">
+        <v>41851</v>
+      </c>
     </row>
     <row r="678" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A678">
@@ -18498,9 +18618,15 @@
       <c r="E686" t="s">
         <v>13</v>
       </c>
+      <c r="H686">
+        <v>15</v>
+      </c>
       <c r="I686" s="3">
         <v>41836</v>
       </c>
+      <c r="J686" s="3">
+        <v>41851</v>
+      </c>
     </row>
     <row r="687" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A687">
@@ -18623,9 +18749,15 @@
       <c r="E693" t="s">
         <v>11</v>
       </c>
+      <c r="H693">
+        <v>15</v>
+      </c>
       <c r="I693" s="3">
         <v>41836</v>
       </c>
+      <c r="J693" s="3">
+        <v>41851</v>
+      </c>
     </row>
     <row r="694" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A694">
@@ -18836,10 +18968,15 @@
         <v>11</v>
       </c>
       <c r="F703" s="5"/>
+      <c r="H703" s="4">
+        <v>15</v>
+      </c>
       <c r="I703" s="6">
         <v>41836</v>
       </c>
-      <c r="J703" s="6"/>
+      <c r="J703" s="6">
+        <v>41851</v>
+      </c>
     </row>
     <row r="704" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A704">
@@ -19397,9 +19534,15 @@
       <c r="F725" s="1" t="s">
         <v>231</v>
       </c>
+      <c r="H725">
+        <v>10</v>
+      </c>
       <c r="I725" s="3">
         <v>41841</v>
       </c>
+      <c r="J725" s="3">
+        <v>41851</v>
+      </c>
     </row>
     <row r="726" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A726">
@@ -19697,9 +19840,15 @@
       <c r="F737" s="1" t="s">
         <v>248</v>
       </c>
+      <c r="H737">
+        <v>10</v>
+      </c>
       <c r="I737" s="3">
         <v>41841</v>
       </c>
+      <c r="J737" s="3">
+        <v>41851</v>
+      </c>
     </row>
     <row r="738" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A738">
@@ -20495,9 +20644,15 @@
       <c r="E773" t="s">
         <v>11</v>
       </c>
+      <c r="H773">
+        <v>10</v>
+      </c>
       <c r="I773" s="3">
         <v>41841</v>
       </c>
+      <c r="J773" s="3">
+        <v>41851</v>
+      </c>
     </row>
     <row r="774" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A774">
@@ -20535,8 +20690,14 @@
       <c r="E775" t="s">
         <v>11</v>
       </c>
+      <c r="H775">
+        <v>10</v>
+      </c>
       <c r="I775" s="3">
         <v>41841</v>
+      </c>
+      <c r="J775" s="3">
+        <v>41851</v>
       </c>
     </row>
     <row r="776" spans="1:10" x14ac:dyDescent="0.25">
